--- a/dataset/lg/devakinandana.xlsx
+++ b/dataset/lg/devakinandana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీకైవల్యరమాధినాథ నిను నర్థిం గీర్తనల్‌జేసి కా
 దా కంజాతభవేంద్ర నారద శుకవ్యాసాంబరీషార్జునుల్‌
@@ -477,32 +474,29 @@
 నాకుఁ జేకురె నట్టిభాగ్యములు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('కై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('ర', '|'), ('మా', 'U'), ('ధి', '|'), ('నా', 'U'), ('థ', '|'), ('ని', '|'), ('ను', '|'), ('న', 'U'), ('ర్థిం', 'U'), ('గీ', 'U'), ('ర్త', '|'), ('న', 'U'), ('ల్జే', 'U'), ('సి', '|'), ('కా', 'U'), ('దా', 'U'), ('కం', 'U'), ('జా', 'U'), ('త', '|'), ('భ', '|'), ('వేం', 'U'), ('ద్ర', '|'), ('నా', 'U'), ('ర', '|'), ('ద', '|'), ('శు', '|'), ('క', 'U'), ('వ్యా', 'U'), ('సాం', 'U'), ('బ', '|'), ('రీ', 'U'), ('షా', 'U'), ('ర్జు', '|'), ('నుల్', 'U'), ('నీ', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('గాం', 'U'), ('చు', '|'), ('టల్', 'U'), ('న', '|'), ('ను', '|'), ('మ', '|'), ('తిన్', 'U'), ('నే', 'U'), ('నెం', 'U'), ('త', '|'), ('ధ', 'U'), ('న్యుం', 'U'), ('డ', '|'), ('నో', 'U'), ('నా', 'U'), ('కు', '|'), ('జే', 'U'), ('కు', '|'), ('రె', '|'), ('న', 'U'), ('ట్టి', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>శ్రీవైకుంఠనివాసగోత్రధర లక్ష్మీనాథ గోపాల లీ
 లావిర్భావ పతంగవాహ యదువంశాంభోధిచంద్రోదయా
@@ -510,32 +504,29 @@
 నావిజ్ఞాపన మాలకించు మది కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('గో', 'U'), ('త్ర', '|'), ('ధ', '|'), ('ర', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('నా', 'U'), ('థ', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('లీ', 'U'), ('లా', 'U'), ('వి', 'U'), ('ర్భా', 'U'), ('వ', '|'), ('ప', '|'), ('తం', 'U'), ('గ', '|'), ('వా', 'U'), ('హ', '|'), ('య', '|'), ('దు', '|'), ('వం', 'U'), ('శాం', 'U'), ('భో', 'U'), ('ధి', '|'), ('చం', 'U'), ('ద్రో', 'U'), ('ద', '|'), ('యా', 'U'), ('నీ', 'U'), ('వే', 'U'), ('ది', 'U'), ('క్క', '|'), ('ని', '|'), ('యు', 'U'), ('న్న', '|'), ('వా', 'U'), ('డ', '|'), ('ను', '|'), ('ద', '|'), ('యన్', 'U'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చ', '|'), ('వే', 'U'), ('నా', 'U'), ('వి', 'U'), ('జ్ఞా', 'U'), ('ప', '|'), ('న', '|'), ('మా', 'U'), ('ల', '|'), ('కిం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>శ్రీరామావసుధాకళత్రములపైఁ జెన్నొందు పాదాబ్జముల్‌
 గారామారఁగఁ జూచి శేషఫణి దాఁ గౌతూహలంబొప్పఁగా
@@ -543,32 +534,29 @@
 న్నారాధింతు మదీయచిత్తమునఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('రా', 'U'), ('మా', 'U'), ('వ', '|'), ('సు', '|'), ('ధా', 'U'), ('క', '|'), ('ళ', 'U'), ('త్ర', '|'), ('ము', '|'), ('ల', '|'), ('పై', 'U'), ('జె', 'U'), ('న్నొం', 'U'), ('దు', '|'), ('పా', 'U'), ('దా', 'U'), ('బ్జ', '|'), ('ముల్', 'U'), ('గా', 'U'), ('రా', 'U'), ('మా', 'U'), ('ర', '|'), ('గ', '|'), ('జూ', 'U'), ('చి', '|'), ('శే', 'U'), ('ష', '|'), ('ఫ', '|'), ('ణి', '|'), ('దా', 'U'), ('గౌ', 'U'), ('తూ', 'U'), ('హ', '|'), ('లం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('క్షీ', 'U'), ('రాం', 'U'), ('భో', 'U'), ('ని', '|'), ('ధి', '|'), ('బ', 'U'), ('వ్వ', '|'), ('ళిం', 'U'), ('చి', '|'), ('య', '|'), ('మ', '|'), ('రుల్', 'U'), ('సే', 'U'), ('విం', 'U'), ('ప', '|'), ('గా', 'U'), ('నొ', 'U'), ('ప్పు', '|'), ('ని', 'U'), ('న్నా', 'U'), ('రా', 'U'), ('ధిం', 'U'), ('తు', '|'), ('మ', '|'), ('దీ', 'U'), ('య', '|'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('న', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>నీడల్‌ దేఱెడు చెక్కుటద్దములతో నిద్దంపుఁగెమ్మోవితో
 కూడీకూడని చిన్నికూకటులతో గోపార్భకశ్రేణితో
@@ -576,32 +564,29 @@
 న్నాఁ డా శైశవమూర్తి నేఁ దలఁతుఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('డల్', 'U'), ('దే', 'U'), ('ఱె', '|'), ('డు', '|'), ('చె', 'U'), ('క్కు', '|'), ('ట', 'U'), ('ద్ద', '|'), ('ము', '|'), ('ల', '|'), ('తో', 'U'), ('ని', 'U'), ('ద్దం', 'U'), ('పు', '|'), ('గె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('తో', 'U'), ('కూ', 'U'), ('డీ', 'U'), ('కూ', 'U'), ('డ', '|'), ('ని', '|'), ('చి', 'U'), ('న్ని', '|'), ('కూ', 'U'), ('క', '|'), ('టు', '|'), ('ల', '|'), ('తో', 'U'), ('గో', 'U'), ('పా', 'U'), ('ర్భ', '|'), ('క', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('తో', 'U'), ('వ్రీ', 'U'), ('డా', 'U'), ('శూ', 'U'), ('న్య', '|'), ('క', '|'), ('టీ', 'U'), ('ర', '|'), ('మం', 'U'), ('డ', '|'), ('ల', '|'), ('ము', '|'), ('తో', 'U'), ('వే', 'U'), ('డ్కన్', 'U'), ('వి', '|'), ('నో', 'U'), ('దిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్నా', 'U'), ('డా', 'U'), ('శై', 'U'), ('శ', '|'), ('వ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('నే', 'U'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>అందెల్‌ చిన్నిపసిండిగజ్జియలు మ్రోయ\న్‌ మేఖలాఘంటికల్‌
 క్రందై మ్రోయఁగ రావిరేకనుదుట\న్‌ గంపింప గోపార్భకుల్‌
@@ -609,32 +594,29 @@
 జందం బాదివిజుల్‌ నుతించుటలు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('దెల్', 'U'), ('చి', 'U'), ('న్ని', '|'), ('ప', '|'), ('సిం', 'U'), ('డి', '|'), ('గ', 'U'), ('జ్జి', '|'), ('య', '|'), ('లు', '|'), ('మ్రో', 'U'), ('యన్', 'U'), ('మే', 'U'), ('ఖ', '|'), ('లా', 'U'), ('ఘం', 'U'), ('టి', '|'), ('కల్', 'U'), ('క్రం', 'U'), ('దై', 'U'), ('మ్రో', 'U'), ('య', '|'), ('గ', '|'), ('రా', 'U'), ('వి', '|'), ('రే', 'U'), ('క', '|'), ('ను', '|'), ('దు', '|'), ('టన్', 'U'), ('గం', 'U'), ('పిం', 'U'), ('ప', '|'), ('గో', 'U'), ('పా', 'U'), ('ర్భ', '|'), ('కుల్', 'U'), ('వం', 'U'), ('దా', 'U'), ('రుల్', 'U'), ('గ', '|'), ('న', '|'), ('వె', 'U'), ('న్న', '|'), ('ము', 'U'), ('ద్ద', '|'), ('ల', '|'), ('కు', '|'), ('నై', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('మీ', 'U'), ('బా', 'U'), ('ల్య', '|'), ('పుం', 'U'), ('జం', 'U'), ('దం', 'U'), ('బా', 'U'), ('ది', '|'), ('వి', '|'), ('జుల్', 'U'), ('ను', '|'), ('తిం', 'U'), ('చు', '|'), ('ట', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>వేదోద్ధారకుఁగా సుధాప్రభువుఁగా విశ్వంభరావాహుఁగా
 వాదావిర్భవుఁగా త్రయీవటువుఁగా వర్ధిష్ణుతాయుష్యుఁగా
@@ -642,32 +624,29 @@
 నాదిబ్రహ్మముఁగాఁ దలంతు మదిఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('దో', 'U'), ('ద్ధా', 'U'), ('ర', '|'), ('కు', '|'), ('గా', 'U'), ('సు', '|'), ('ధా', 'U'), ('ప్ర', '|'), ('భు', '|'), ('వు', '|'), ('గా', 'U'), ('వి', 'U'), ('శ్వం', 'U'), ('భ', '|'), ('రా', 'U'), ('వా', 'U'), ('హు', '|'), ('గా', 'U'), ('వా', 'U'), ('దా', 'U'), ('వి', 'U'), ('ర్భ', '|'), ('వు', '|'), ('గా', 'U'), ('త్ర', '|'), ('యీ', 'U'), ('వ', '|'), ('టు', '|'), ('వు', '|'), ('గా', 'U'), ('వ', 'U'), ('ర్ధి', 'U'), ('ష్ణు', '|'), ('తా', 'U'), ('యు', 'U'), ('ష్యు', '|'), ('గా', 'U'), ('కో', 'U'), ('దం', 'U'), ('డా', 'U'), ('శు', '|'), ('గ', '|'), ('పా', 'U'), ('ణి', '|'), ('గా', 'U'), ('బ', '|'), ('లు', '|'), ('ని', '|'), ('గా', 'U'), ('ఘో', 'U'), ('ర', 'U'), ('వ్ర', '|'), ('త', 'U'), ('చ్ఛే', 'U'), ('ది', '|'), ('గా', 'U'), ('నా', 'U'), ('ది', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('ము', '|'), ('గా', 'U'), ('ద', '|'), ('లం', 'U'), ('తు', '|'), ('మ', '|'), ('ది', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>అమరుల్మ్రొక్కులచే మునుల్‌ నుతులచే నార్యుల్మహానిష్ఠచే
 సమరోత్సాహజనుల్‌ పునశ్చరణచే సాధుల్‌ దయాబోధచే
@@ -675,32 +654,29 @@
 సమతం గాంచిరి మీపదాబ్జములు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రు', '|'), ('ల్మ్రొ', 'U'), ('క్కు', '|'), ('ల', '|'), ('చే', 'U'), ('ము', '|'), ('నుల్', 'U'), ('ను', '|'), ('తు', '|'), ('ల', '|'), ('చే', 'U'), ('నా', 'U'), ('ర్యు', 'U'), ('ల్మ', '|'), ('హా', 'U'), ('ని', 'U'), ('ష్ఠ', '|'), ('చే', 'U'), ('స', '|'), ('మ', '|'), ('రో', 'U'), ('త్సా', 'U'), ('హ', '|'), ('జ', '|'), ('నుల్', 'U'), ('పు', '|'), ('న', 'U'), ('శ్చ', '|'), ('ర', '|'), ('ణ', '|'), ('చే', 'U'), ('సా', 'U'), ('ధుల్', 'U'), ('ద', '|'), ('యా', 'U'), ('బో', 'U'), ('ధ', '|'), ('చే', 'U'), ('న', '|'), ('మి', '|'), ('తో', 'U'), ('దా', 'U'), ('ర', '|'), ('క', '|'), ('ళా', 'U'), ('ఢ్యు', '|'), ('ల', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('ల', '|'), ('చే', 'U'), ('న', 'U'), ('ధ్యా', 'U'), ('త్ము', '|'), ('లై', 'U'), ('క్యం', 'U'), ('బు', '|'), ('చే', 'U'), ('స', '|'), ('మ', '|'), ('తం', 'U'), ('గాం', 'U'), ('చి', '|'), ('రి', '|'), ('మీ', 'U'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>జపముల్‌ సేయఁగ నేర నీమమున నిచ్చ ల్పూజ సేయంగలే
 నుపవాస వ్రతభక్తి చొప్పెఱుఁగ వేదోక్తక్రమస్థుండఁగా
@@ -708,32 +684,29 @@
 జపలుం డంచు నుపేక్ష సేయకుము కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('ప', '|'), ('ముల్', 'U'), ('సే', 'U'), ('య', '|'), ('గ', '|'), ('నే', 'U'), ('ర', '|'), ('నీ', 'U'), ('మ', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('చ్చ', 'U'), ('ల్పూ', 'U'), ('జ', '|'), ('సే', 'U'), ('యం', 'U'), ('గ', '|'), ('లే', 'U'), ('ను', '|'), ('ప', '|'), ('వా', 'U'), ('స', 'U'), ('వ్ర', '|'), ('త', '|'), ('భ', 'U'), ('క్తి', '|'), ('చొ', 'U'), ('ప్పె', '|'), ('ఱు', '|'), ('గ', '|'), ('వే', 'U'), ('దో', 'U'), ('క్త', 'U'), ('క్ర', '|'), ('మ', 'U'), ('స్థుం', 'U'), ('డ', '|'), ('గా', 'U'), ('న', '|'), ('ప', '|'), ('రా', 'U'), ('ధం', 'U'), ('బు', '|'), ('లు', '|'), ('నా', 'U'), ('యె', '|'), ('డం', 'U'), ('ద', '|'), ('ఱ', '|'), ('చు', '|'), ('నే', 'U'), ('న', 'U'), ('జ్ఞా', 'U'), ('ని', '|'), ('నె', 'U'), ('బ్భం', 'U'), ('గు', '|'), ('లన్', 'U'), ('జ', '|'), ('ప', '|'), ('లుం', 'U'), ('డం', 'U'), ('చు', '|'), ('ను', '|'), ('పే', 'U'), ('క్ష', '|'), ('సే', 'U'), ('య', '|'), ('కు', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>సుకరంబై సురసేవ్యమై సులభమై సువ్యక్తమై యుక్తమై
 ప్రకటంబై పరమార్థమై ప్రమదమై ప్రద్యోతమై పథ్యమై
@@ -741,32 +714,29 @@
 సకలంబు\న్‌ భరియించు మీమహిమ కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('క', '|'), ('రం', 'U'), ('బై', 'U'), ('సు', '|'), ('ర', '|'), ('సే', 'U'), ('వ్య', '|'), ('మై', 'U'), ('సు', '|'), ('ల', '|'), ('భ', '|'), ('మై', 'U'), ('సు', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('మై', 'U'), ('యు', 'U'), ('క్త', '|'), ('మై', 'U'), ('ప్ర', '|'), ('క', '|'), ('టం', 'U'), ('బై', 'U'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('ప్ర', '|'), ('మ', '|'), ('ద', '|'), ('మై', 'U'), ('ప్ర', 'U'), ('ద్యో', 'U'), ('త', '|'), ('మై', 'U'), ('ప', 'U'), ('థ్య', '|'), ('మై', 'U'), ('య', '|'), ('క', '|'), ('లం', 'U'), ('కా', 'U'), ('మృ', '|'), ('త', '|'), ('మై', 'U'), ('య', '|'), ('మో', 'U'), ('ఘ', '|'), ('త', '|'), ('ర', '|'), ('మై', 'U'), ('యా', 'U'), ('నం', 'U'), ('ద', '|'), ('మై', 'U'), ('యం', 'U'), ('ద', '|'), ('మై', 'U'), ('స', '|'), ('క', '|'), ('లం', 'U'), ('బున్', 'U'), ('భ', '|'), ('రి', '|'), ('యిం', 'U'), ('చు', '|'), ('మీ', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>కొండల్వంటి కవీశ్వరుల్‌ శతకము ల్గూర్పంగఁ గోటానకో
 ట్లుండ\న్‌ నీవును జెప్పఁబూనితి వదేమో యంటివా వింటివా
@@ -774,32 +744,29 @@
 దండి\న్‌ నామన వాలకింపు మదిఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('కొం', 'U'), ('డ', 'U'), ('ల్వం', 'U'), ('టి', '|'), ('క', '|'), ('వీ', 'U'), ('శ్వ', '|'), ('రుల్', 'U'), ('శ', '|'), ('త', '|'), ('క', '|'), ('ము', 'U'), ('ల్గూ', 'U'), ('ర్పం', 'U'), ('గ', '|'), ('గో', 'U'), ('టా', 'U'), ('న', '|'), ('కో', 'U'), ('ట్లుం', 'U'), ('డన్', 'U'), ('నీ', 'U'), ('వు', '|'), ('ను', '|'), ('జె', 'U'), ('ప్ప', '|'), ('బూ', 'U'), ('ని', '|'), ('తి', '|'), ('వ', '|'), ('దే', 'U'), ('మో', 'U'), ('యం', 'U'), ('టి', '|'), ('వా', 'U'), ('విం', 'U'), ('టి', '|'), ('వా', 'U'), ('వం', 'U'), ('డే', 'U'), ('నే', 'U'), ('ర్పు', '|'), ('ల', '|'), ('బె', 'U'), ('క్కు', '|'), ('రీ', 'U'), ('తు', '|'), ('ల', '|'), ('రు', '|'), ('చుల్', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('వే', 'U'), ('శా', 'U'), ('క', '|'), ('ముల్', 'U'), ('దం', 'U'), ('డిన్', 'U'), ('నా', 'U'), ('మ', '|'), ('న', '|'), ('వా', 'U'), ('ల', '|'), ('కిం', 'U'), ('పు', '|'), ('మ', '|'), ('ది', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>చన్నే నిన్నును బాలుఁగాఁ దలఁచి యిచ్చం బూతనాకాంత దాఁ
 జన్నుల్నిండఁగఁ జేఁదుఁ బూసికొని యా చన్బాలు నీకిచ్చినం
@@ -807,32 +774,29 @@
 సన్న\న్‌ ముక్తి యొసంగితీవు భళి కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('చ', 'U'), ('న్నే', 'U'), ('ని', 'U'), ('న్ను', '|'), ('ను', '|'), ('బా', 'U'), ('లు', '|'), ('గా', 'U'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('యి', 'U'), ('చ్చం', 'U'), ('బూ', 'U'), ('త', '|'), ('నా', 'U'), ('కాం', 'U'), ('త', '|'), ('దా', 'U'), ('జ', 'U'), ('న్ను', 'U'), ('ల్నిం', 'U'), ('డ', '|'), ('గ', '|'), ('జే', 'U'), ('దు', '|'), ('బూ', 'U'), ('సి', '|'), ('కొ', '|'), ('ని', '|'), ('యా', 'U'), ('చ', 'U'), ('న్బా', 'U'), ('లు', '|'), ('నీ', 'U'), ('కి', 'U'), ('చ్చి', '|'), ('నం', 'U'), ('జ', 'U'), ('న్నుం', 'U'), ('బా', 'U'), ('ల', '|'), ('కు', '|'), ('లో', 'U'), ('ను', '|'), ('గా', 'U'), ('క', '|'), ('య', '|'), ('సు', '|'), ('రన్', 'U'), ('సా', 'U'), ('ధిం', 'U'), ('చి', '|'), ('యా', 'U'), ('యిం', 'U'), ('తి', '|'), ('కిన్', 'U'), ('స', '|'), ('న్నన్', 'U'), ('ము', 'U'), ('క్తి', '|'), ('యొ', '|'), ('సం', 'U'), ('గి', '|'), ('తీ', 'U'), ('వు', '|'), ('భ', '|'), ('ళి', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>విలసిల్ల\న్‌ పదియాఱువేలసతుల\న్‌ వీక్షించి వారిండ్ల లో
 పల వర్తించుచునుండి వీటఁ గల గోపస్త్రీలనెల్ల\న్‌ గడుం
@@ -840,32 +804,29 @@
 స్థలి నీవేకద కొంటెదేవరవు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('ల', '|'), ('సి', '|'), ('ల్లన్', 'U'), ('ప', '|'), ('ది', '|'), ('యా', 'U'), ('ఱు', '|'), ('వే', 'U'), ('ల', '|'), ('స', '|'), ('తు', '|'), ('లన్', 'U'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('వా', 'U'), ('రిం', 'U'), ('డ్ల', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('చు', '|'), ('నుం', 'U'), ('డి', '|'), ('వీ', 'U'), ('ట', '|'), ('గ', '|'), ('ల', '|'), ('గో', 'U'), ('ప', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('నె', '|'), ('ల్లన్', 'U'), ('గ', '|'), ('డుం', 'U'), ('బ', '|'), ('లి', '|'), ('మిన్', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('ర', '|'), ('మిం', 'U'), ('చి', '|'), ('నా', 'U'), ('డ', '|'), ('వు', '|'), ('భ', '|'), ('ళీ', 'U'), ('ప్రా', 'U'), ('జ్ఞుం', 'U'), ('డ', '|'), ('వీ', 'U'), ('వౌ', 'U'), ('దు', '|'), ('భూ', 'U'), ('స్థ', '|'), ('లి', '|'), ('నీ', 'U'), ('వే', 'U'), ('క', '|'), ('ద', '|'), ('కొం', 'U'), ('టె', '|'), ('దే', 'U'), ('వ', '|'), ('ర', '|'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>పొలుపొంద\న్‌ నడిరేయిఁ గుక్కుట రవంబుల్‌ చూపి గోపాలకా
 వళి విభ్రాంతులఁ జేసి మందలకునై వారేఁగఁ దత్కామినీ
@@ -873,32 +834,29 @@
 చ్చల కెక్కెం గడుగొయ్యదేవరవు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('పొ', '|'), ('లు', '|'), ('పొం', 'U'), ('దన్', 'U'), ('న', '|'), ('డి', '|'), ('రే', 'U'), ('యి', '|'), ('గు', 'U'), ('క్కు', '|'), ('ట', '|'), ('ర', '|'), ('వం', 'U'), ('బుల్', 'U'), ('చూ', 'U'), ('పి', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('కా', 'U'), ('వ', '|'), ('ళి', '|'), ('వి', 'U'), ('భ్రాం', 'U'), ('తు', '|'), ('ల', '|'), ('జే', 'U'), ('సి', '|'), ('మం', 'U'), ('ద', '|'), ('ల', '|'), ('కు', '|'), ('నై', 'U'), ('వా', 'U'), ('రే', 'U'), ('గ', '|'), ('ద', 'U'), ('త్కా', 'U'), ('మి', '|'), ('నీ', 'U'), ('క', '|'), ('ల', '|'), ('నా', 'U'), ('య', 'U'), ('త్న', '|'), ('ము', '|'), ('తా', 'U'), ('మ్ర', '|'), ('చూ', 'U'), ('డ', '|'), ('గ', '|'), ('తు', '|'), ('లన్', 'U'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('నీ', 'U'), ('కీ', 'U'), ('ర్తి', '|'), ('ర', 'U'), ('చ్చ', '|'), ('ల', '|'), ('కె', 'U'), ('క్కెం', 'U'), ('గ', '|'), ('డు', '|'), ('గొ', 'U'), ('య్య', '|'), ('దే', 'U'), ('వ', '|'), ('ర', '|'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>అనిరుద్ధాచ్యుత యీశకేశవ ముకుందాధోక్షజోపేంద్రవా
 మన దామోదర చక్రపాణి హలి రామా శౌరి శార్ఙ్గీ జనా
@@ -906,32 +864,29 @@
 స నృసింహాంబుజనాభ ప్రోవు ననుఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ని', '|'), ('రు', 'U'), ('ద్ధా', 'U'), ('చ్యు', '|'), ('త', '|'), ('యీ', 'U'), ('శ', '|'), ('కే', 'U'), ('శ', '|'), ('వ', '|'), ('ము', '|'), ('కుం', 'U'), ('దా', 'U'), ('ధో', 'U'), ('క్ష', '|'), ('జో', 'U'), ('పేం', 'U'), ('ద్ర', '|'), ('వా', 'U'), ('మ', '|'), ('న', '|'), ('దా', 'U'), ('మో', 'U'), ('ద', '|'), ('ర', '|'), ('చ', 'U'), ('క్ర', '|'), ('పా', 'U'), ('ణి', '|'), ('హ', '|'), ('లి', '|'), ('రా', 'U'), ('మా', 'U'), ('శౌ', 'U'), ('రి', '|'), ('శా', 'U'), ('ర్ఙ్గీ', 'U'), ('జ', '|'), ('నా', 'U'), ('ర్ద', '|'), ('న', '|'), ('పీ', 'U'), ('తాం', 'U'), ('బ', '|'), ('ర', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', 'U'), ('త్స', '|'), ('ల', '|'), ('న', '|'), ('మో', 'U'), ('దై', 'U'), ('త్యా', 'U'), ('రి', '|'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('వా', 'U'), ('స', '|'), ('నృ', '|'), ('సిం', 'U'), ('హాం', 'U'), ('బు', '|'), ('జ', '|'), ('నా', 'U'), ('భ', 'U'), ('ప్రో', 'U'), ('వు', '|'), ('న', '|'), ('ను', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>ఇల గోవర్ధన మెత్తితీ వనుచు బ్రహ్మేంద్రాదు లెంతో నినుం
 బలుమారున్నుతులొప్పఁ జేసెదరు పద్మాక్షా కుచాగ్రంబునం
@@ -939,32 +894,29 @@
 శ్చలపుణ్యంబునఁ గాక చొప్పడునె కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('ల', '|'), ('గో', 'U'), ('వ', 'U'), ('ర్ధ', '|'), ('న', '|'), ('మె', 'U'), ('త్తి', '|'), ('తీ', 'U'), ('వ', '|'), ('ను', '|'), ('చు', 'U'), ('బ్ర', 'U'), ('హ్మేం', 'U'), ('ద్రా', 'U'), ('దు', '|'), ('లెం', 'U'), ('తో', 'U'), ('ని', '|'), ('నుం', 'U'), ('బ', '|'), ('లు', '|'), ('మా', 'U'), ('రు', 'U'), ('న్ను', '|'), ('తు', '|'), ('లొ', 'U'), ('ప్ప', '|'), ('జే', 'U'), ('సె', '|'), ('ద', '|'), ('రు', '|'), ('ప', 'U'), ('ద్మా', 'U'), ('క్షా', 'U'), ('కు', '|'), ('చా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('నం', 'U'), ('జు', '|'), ('ల', '|'), ('క', 'U'), ('న్నె', 'U'), ('త్తి', '|'), ('న', '|'), ('రా', 'U'), ('ధ', '|'), ('నె', 'U'), ('న్న', '|'), ('రి', '|'), ('ది', '|'), ('గో', 'U'), ('సొం', 'U'), ('పొం', 'U'), ('ద', '|'), ('స', 'U'), ('త్కీ', 'U'), ('ర్తి', '|'), ('ని', 'U'), ('శ్చ', '|'), ('ల', '|'), ('పు', 'U'), ('ణ్యం', 'U'), ('బు', '|'), ('న', '|'), ('గా', 'U'), ('క', '|'), ('చొ', 'U'), ('ప్ప', '|'), ('డు', '|'), ('నె', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>మౌళిం బింఛపుదండ యొప్పుగ నటింపంగౌను శృంగారపు\న్‌
 శ్రీ లెంచంగను పిల్లఁగ్రోవి రవము\న్‌ జేకోలము\న్‌ జెక్కుచు\న్‌
@@ -972,32 +924,29 @@
 వాలం గాచువిధంబు నేఁ దలఁతుఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('మౌ', 'U'), ('ళిం', 'U'), ('బిం', 'U'), ('ఛ', '|'), ('పు', '|'), ('దం', 'U'), ('డ', '|'), ('యొ', 'U'), ('ప్పు', '|'), ('గ', '|'), ('న', '|'), ('టిం', 'U'), ('పం', 'U'), ('గౌ', 'U'), ('ను', '|'), ('శృం', 'U'), ('గా', 'U'), ('ర', '|'), ('పున్', 'U'), ('శ్రీ', 'U'), ('లెం', 'U'), ('చం', 'U'), ('గ', '|'), ('ను', '|'), ('పి', 'U'), ('ల్ల', 'U'), ('గ్రో', 'U'), ('వి', '|'), ('ర', '|'), ('వ', '|'), ('మున్', 'U'), ('జే', 'U'), ('కో', 'U'), ('ల', '|'), ('మున్', 'U'), ('జె', 'U'), ('క్కు', '|'), ('చున్', 'U'), ('గే', 'U'), ('లన్', 'U'), ('మె', 'U'), ('చ్చొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('గో', 'U'), ('ప', '|'), ('కు', '|'), ('ల', '|'), ('తో', 'U'), ('గ్రీ', 'U'), ('డా', 'U'), ('ర', '|'), ('స', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('నీ', 'U'), ('వా', 'U'), ('లం', 'U'), ('గా', 'U'), ('చు', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('నే', 'U'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>పెచ్చుల్‌ ప్రేలుచుఁ బిల్లఁగ్రోవి రవము\న్‌ బెంపొందఁగాఁ జొక్కుచు\న్‌
 నిచ్చల్‌ నిన్ను భజింప గోపగణము\న్‌ నిత్యోత్సవక్రీడమై
@@ -1005,32 +954,29 @@
 సచ్చారిత్రము విన్నఁ బుణ్యమగుఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('పె', '|'), ('చ్చుల్', 'U'), ('ప్రే', 'U'), ('లు', '|'), ('చు', '|'), ('బి', 'U'), ('ల్ల', 'U'), ('గ్రో', 'U'), ('వి', '|'), ('ర', '|'), ('వ', '|'), ('మున్', 'U'), ('బెం', 'U'), ('పొం', 'U'), ('ద', '|'), ('గా', 'U'), ('జొ', 'U'), ('క్కు', '|'), ('చున్', 'U'), ('ని', '|'), ('చ్చల్', 'U'), ('ని', 'U'), ('న్ను', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('గో', 'U'), ('ప', '|'), ('గ', '|'), ('ణ', '|'), ('మున్', 'U'), ('ని', 'U'), ('త్యో', 'U'), ('త్స', '|'), ('వ', 'U'), ('క్రీ', 'U'), ('డ', '|'), ('మై', 'U'), ('నె', '|'), ('చ్చల్', 'U'), ('మ', 'U'), ('చ్చి', '|'), ('క', '|'), ('ము', 'U'), ('చ్చ', '|'), ('ట', 'U'), ('చ్చు', '|'), ('ప', '|'), ('డ', '|'), ('గా', 'U'), ('హె', 'U'), ('చ్చిం', 'U'), ('చి', '|'), ('కీ', 'U'), ('ర్తిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('స', 'U'), ('చ్చా', 'U'), ('రి', 'U'), ('త్ర', '|'), ('ము', '|'), ('వి', 'U'), ('న్న', '|'), ('బు', 'U'), ('ణ్య', '|'), ('మ', '|'), ('గు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>లలనాకుంచితవేణియుం దడవ మొల్లల్‌ జాఱ కస్తూరికా
 తిలకంబుం గఱఁగంగ లేఁతనగవు\న్‌ దీపింప నెమ్మోమున\న్‌
@@ -1038,32 +984,29 @@
 ష్కలనాదంబులపెంపుఁ జూపుదువు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('ల', '|'), ('ల', '|'), ('నా', 'U'), ('కుం', 'U'), ('చి', '|'), ('త', '|'), ('వే', 'U'), ('ణి', '|'), ('యుం', 'U'), ('ద', '|'), ('డ', '|'), ('వ', '|'), ('మొ', '|'), ('ల్లల్', 'U'), ('జా', 'U'), ('ఱ', '|'), ('క', 'U'), ('స్తూ', 'U'), ('రి', '|'), ('కా', 'U'), ('తి', '|'), ('ల', '|'), ('కం', 'U'), ('బుం', 'U'), ('గ', '|'), ('ఱ', '|'), ('గం', 'U'), ('గ', '|'), ('లే', 'U'), ('త', '|'), ('న', '|'), ('గ', '|'), ('వున్', 'U'), ('దీ', 'U'), ('పిం', 'U'), ('ప', '|'), ('నె', 'U'), ('మ్మో', 'U'), ('ము', '|'), ('నన్', 'U'), ('ద', '|'), ('ళు', '|'), ('కుల్', 'U'), ('చూ', 'U'), ('పె', '|'), ('డి', '|'), ('చూ', 'U'), ('పు', '|'), ('లు', 'U'), ('ల్ల', '|'), ('సి', '|'), ('ల', '|'), ('నా', 'U'), ('నా', 'U'), ('రీ', 'U'), ('తు', '|'), ('లన్', 'U'), ('వే', 'U'), ('ణు', '|'), ('పు', 'U'), ('ష్క', '|'), ('ల', '|'), ('నా', 'U'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('పెం', 'U'), ('పు', '|'), ('జూ', 'U'), ('పు', '|'), ('దు', '|'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>కలకాంచీమణికింకిణీమధురనిక్వాణంబు మంజీరమం
 జులరావంబును గొంతకొంత వినవచ్చెన్‌ బట్ట లేనైతి నం
@@ -1071,32 +1014,29 @@
 చ్చలు మీశౌర్యము లెంచు గోపతతి కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ల', '|'), ('కాం', 'U'), ('చీ', 'U'), ('మ', '|'), ('ణి', '|'), ('కిం', 'U'), ('కి', '|'), ('ణీ', 'U'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('ని', 'U'), ('క్వా', 'U'), ('ణం', 'U'), ('బు', '|'), ('మం', 'U'), ('జీ', 'U'), ('ర', '|'), ('మం', 'U'), ('జు', '|'), ('ల', '|'), ('రా', 'U'), ('వం', 'U'), ('బు', '|'), ('ను', '|'), ('గొం', 'U'), ('త', '|'), ('కొం', 'U'), ('త', '|'), ('వి', '|'), ('న', '|'), ('వ', '|'), ('చ్చెన్', 'U'), ('బ', 'U'), ('ట్ట', '|'), ('లే', 'U'), ('నై', 'U'), ('తి', '|'), ('నం', 'U'), ('కి', '|'), ('లి', '|'), ('ని', '|'), ('ద్రిం', 'U'), ('చు', '|'), ('ట', '|'), ('మో', 'U'), ('స', '|'), ('పు', 'U'), ('చ్చె', '|'), ('హి', '|'), ('త', '|'), ('వా', 'U'), ('గ్గే', 'U'), ('యుం', 'U'), ('డు', '|'), ('నే', 'U'), ('డం', 'U'), ('చు', '|'), ('ని', 'U'), ('చ్చ', '|'), ('లు', '|'), ('మీ', 'U'), ('శౌ', 'U'), ('ర్య', '|'), ('ము', '|'), ('లెం', 'U'), ('చు', '|'), ('గో', 'U'), ('ప', '|'), ('త', '|'), ('తి', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>కలనైన\న్‌ నగియైనఁ గోప మెసఁగంగా నైన మీనామ ని
 ర్మలవర్ణద్వయ మెవ్వరేఁదలఁచినం బాపౌఘముల్వాయును
@@ -1104,32 +1044,29 @@
 చలనం బంది తొలంగుచందమునఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ల', '|'), ('నై', 'U'), ('నన్', 'U'), ('న', '|'), ('గి', '|'), ('యై', 'U'), ('న', '|'), ('గో', 'U'), ('ప', '|'), ('మె', '|'), ('స', '|'), ('గం', 'U'), ('గా', 'U'), ('నై', 'U'), ('న', '|'), ('మీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ని', '|'), ('ర్మ', '|'), ('ల', '|'), ('వ', 'U'), ('ర్ణ', 'U'), ('ద్వ', '|'), ('య', '|'), ('మె', 'U'), ('వ్వ', '|'), ('రే', 'U'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('నం', 'U'), ('బా', 'U'), ('పౌ', 'U'), ('ఘ', '|'), ('ము', 'U'), ('ల్వా', 'U'), ('యు', '|'), ('ను', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('భా', 'U'), ('న్వ', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మా', 'U'), ('న', '|'), ('చం', 'U'), ('డ', '|'), ('కి', '|'), ('ర', '|'), ('ణ', 'U'), ('వ్రా', 'U'), ('తా', 'U'), ('హ', '|'), ('తిం', 'U'), ('జీ', 'U'), ('క', '|'), ('టుల్', 'U'), ('చ', '|'), ('ల', '|'), ('నం', 'U'), ('బం', 'U'), ('ది', '|'), ('తొ', '|'), ('లం', 'U'), ('గు', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>నినునెవ్వాఁడు దలంచు నీమహిమ వర్ణింపంగ నెవ్వాఁడు నే
 ర్పునఁబూను\న్‌ నినుగొల్చునట్టిఘనుఁ డాపుణ్యాత్ములోకైకమా
@@ -1137,32 +1074,29 @@
 ననిశంబుం గొనియాడఁ గోరుదురు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('నె', 'U'), ('వ్వా', 'U'), ('డు', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('నీ', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('పం', 'U'), ('గ', '|'), ('నె', 'U'), ('వ్వా', 'U'), ('డు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('న', '|'), ('బూ', 'U'), ('నున్', 'U'), ('ని', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('ఘ', '|'), ('ను', '|'), ('డా', 'U'), ('పు', 'U'), ('ణ్యా', 'U'), ('త్ము', '|'), ('లో', 'U'), ('కై', 'U'), ('క', '|'), ('మా', 'U'), ('న్యు', '|'), ('ని', '|'), ('గా', 'U'), ('ధ', 'U'), ('న్యు', '|'), ('ని', '|'), ('గా', 'U'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ని', '|'), ('ధి', '|'), ('గా', 'U'), ('ను', 'U'), ('ద్య', 'U'), ('ద్గు', '|'), ('ణాం', 'U'), ('భో', 'U'), ('ధి', '|'), ('గా', 'U'), ('న', '|'), ('ని', '|'), ('శం', 'U'), ('బుం', 'U'), ('గొ', '|'), ('ని', '|'), ('యా', 'U'), ('డ', '|'), ('గో', 'U'), ('రు', '|'), ('దు', '|'), ('రు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>శీలంబు\న్‌ గులము\న్‌ వివేకనిధి లక్ష్మీకాంతవక్షస్స్థలి\న్‌
 హాళింబాయకయుండు కాముకుఁడవై హంకారవృత్తి\న్‌ సదా
@@ -1170,32 +1104,29 @@
 జాలం బే మని సన్నుతించెదను కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('శీ', 'U'), ('లం', 'U'), ('బున్', 'U'), ('గు', '|'), ('ల', '|'), ('మున్', 'U'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ని', '|'), ('ధి', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('కాం', 'U'), ('త', '|'), ('వ', 'U'), ('క్ష', 'U'), ('స్స్థ', '|'), ('లిన్', 'U'), ('హా', 'U'), ('ళిం', 'U'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('కా', 'U'), ('ము', '|'), ('కు', '|'), ('డ', '|'), ('వై', 'U'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('వృ', '|'), ('త్తిన్', 'U'), ('స', '|'), ('దా', 'U'), ('స్త్రీ', 'U'), ('లో', 'U'), ('లుం', 'U'), ('డ', '|'), ('న', '|'), ('రా', 'U'), ('ధ', '|'), ('తో', 'U'), ('బె', '|'), ('న', '|'), ('గు', '|'), ('ట', 'U'), ('ల్చి', 'U'), ('త్రం', 'U'), ('బు', '|'), ('లు', 'U'), ('న్నౌ', 'U'), ('ర', '|'), ('నీ', 'U'), ('జా', 'U'), ('లం', 'U'), ('బే', 'U'), ('మ', '|'), ('ని', '|'), ('స', 'U'), ('న్ను', '|'), ('తిం', 'U'), ('చె', '|'), ('ద', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>శ్రీలక్ష్మీధవ రుక్మిణిం గలసి కూర్మి\న్‌ మిత్రవందా సుదం
 తాలోలాక్షులఁ గూడి జాంబవతి సత్యాలక్ష్మణాభద్రల\న్‌
@@ -1203,32 +1134,29 @@
 జాలంబు\న్‌ దనియింతు నౌర తుదఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('ధ', '|'), ('వ', '|'), ('రు', 'U'), ('క్మి', '|'), ('ణిం', 'U'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('కూ', 'U'), ('ర్మిన్', 'U'), ('మి', 'U'), ('త్ర', '|'), ('వం', 'U'), ('దా', 'U'), ('సు', '|'), ('దం', 'U'), ('తా', 'U'), ('లో', 'U'), ('లా', 'U'), ('క్షు', '|'), ('ల', '|'), ('గూ', 'U'), ('డి', '|'), ('జాం', 'U'), ('బ', '|'), ('వ', '|'), ('తి', '|'), ('స', 'U'), ('త్యా', 'U'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణా', 'U'), ('భ', '|'), ('ద్ర', '|'), ('లన్', 'U'), ('కా', 'U'), ('ళిం', 'U'), ('దిన్', 'U'), ('మ', '|'), ('రు', '|'), ('కే', 'U'), ('ళి', '|'), ('దే', 'U'), ('ల్చి', '|'), ('తి', '|'), ('వి', '|'), ('శృం', 'U'), ('గా', 'U'), ('రాం', 'U'), ('గ', '|'), ('గో', 'U'), ('పాం', 'U'), ('గ', '|'), ('నా', 'U'), ('జా', 'U'), ('లం', 'U'), ('బున్', 'U'), ('ద', '|'), ('ని', '|'), ('యిం', 'U'), ('తు', '|'), ('నౌ', 'U'), ('ర', '|'), ('తు', '|'), ('ద', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>మద్దు ల్గూల్చినలాగొ వేగ మనిలో మన్నించి గాండీవికి\న్‌
 బుద్దుల్‌ సెప్పినలాగొ మోదరసముప్పొంగ\న్‌ యశోదమ్మకు\న్‌
@@ -1236,32 +1164,29 @@
 చద్దు ల్మెక్కి రహించులాగొ ధరఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('మ', 'U'), ('ద్దు', 'U'), ('ల్గూ', 'U'), ('ల్చి', '|'), ('న', '|'), ('లా', 'U'), ('గొ', '|'), ('వే', 'U'), ('గ', '|'), ('మ', '|'), ('ని', '|'), ('లో', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('గాం', 'U'), ('డీ', 'U'), ('వి', '|'), ('కిన్', 'U'), ('బు', '|'), ('ద్దుల్', 'U'), ('సె', 'U'), ('ప్పి', '|'), ('న', '|'), ('లా', 'U'), ('గొ', '|'), ('మో', 'U'), ('ద', '|'), ('ర', '|'), ('స', '|'), ('ము', 'U'), ('ప్పొం', 'U'), ('గన్', 'U'), ('య', '|'), ('శో', 'U'), ('ద', 'U'), ('మ్మ', '|'), ('కున్', 'U'), ('ము', 'U'), ('ద్దు', 'U'), ('ల్గా', 'U'), ('న', '|'), ('టి', '|'), ('యిం', 'U'), ('చు', '|'), ('లా', 'U'), ('గొ', '|'), ('వ', '|'), ('రు', '|'), ('సన్', 'U'), ('ము', 'U'), ('వ్వే', 'U'), ('ళ', '|'), ('లన్', 'U'), ('వే', 'U'), ('డు', '|'), ('కన్', 'U'), ('చ', 'U'), ('ద్దు', 'U'), ('ల్మె', 'U'), ('క్కి', '|'), ('ర', '|'), ('హిం', 'U'), ('చు', '|'), ('లా', 'U'), ('గొ', '|'), ('ధ', '|'), ('ర', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>చరణాబ్జంబులు వీడ్వడ\న్‌ నిలచి యోజ\న్‌ దట్టిలో పిల్లఁగ్రోల్‌
 కర మొప్పారఁగ నుంచి యింపొందవఁ జంక\న్‌ గోలనందిచ్చి బ
@@ -1269,32 +1194,29 @@
 నరయం జల్ది భుజింపవే యడవిఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('ర', '|'), ('ణా', 'U'), ('బ్జం', 'U'), ('బు', '|'), ('లు', '|'), ('వీ', 'U'), ('డ్వ', '|'), ('డన్', 'U'), ('ని', '|'), ('ల', '|'), ('చి', '|'), ('యో', 'U'), ('జన్', 'U'), ('ద', 'U'), ('ట్టి', '|'), ('లో', 'U'), ('పి', 'U'), ('ల్ల', '|'), ('గ్రోల్', 'U'), ('క', '|'), ('ర', '|'), ('మొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('గ', '|'), ('నుం', 'U'), ('చి', '|'), ('యిం', 'U'), ('పొం', 'U'), ('ద', '|'), ('వ', '|'), ('జం', 'U'), ('కన్', 'U'), ('గో', 'U'), ('ల', '|'), ('నం', 'U'), ('ది', 'U'), ('చ్చి', '|'), ('బ', 'U'), ('ల్వు', '|'), ('రు', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('రు', '|'), ('జు', 'U'), ('ట్టు', '|'), ('నుం', 'U'), ('గొ', '|'), ('లు', '|'), ('వ', '|'), ('వే', 'U'), ('ల్పుల్', 'U'), ('గ్రు', 'U'), ('క్కి', '|'), ('ళు', '|'), ('ల్మ్రిం', 'U'), ('గ', '|'), ('గా', 'U'), ('న', '|'), ('ర', '|'), ('యం', 'U'), ('జ', 'U'), ('ల్ది', '|'), ('భు', '|'), ('జిం', 'U'), ('ప', '|'), ('వే', 'U'), ('య', '|'), ('డ', '|'), ('వి', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>మెఱుఁగుల్దేఱు మహేంద్రనీలనిభమౌ మేన\న్‌ సమీపాటగో
 ఖుర నిర్ధూత ధరాపరాగలవ పంక్తుల్గప్పఁగా నొక్కచేఁ
@@ -1302,32 +1224,29 @@
 తర వర్ధిష్ణుఁడవైన ని\న్‌ గొలుతుఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('మె', '|'), ('ఱు', '|'), ('గు', 'U'), ('ల్దే', 'U'), ('ఱు', '|'), ('మ', '|'), ('హేం', 'U'), ('ద్ర', '|'), ('నీ', 'U'), ('ల', '|'), ('ని', '|'), ('భ', '|'), ('మౌ', 'U'), ('మే', 'U'), ('నన్', 'U'), ('స', '|'), ('మీ', 'U'), ('పా', 'U'), ('ట', '|'), ('గో', 'U'), ('ఖు', '|'), ('ర', '|'), ('ని', 'U'), ('ర్ధూ', 'U'), ('త', '|'), ('ధ', '|'), ('రా', 'U'), ('ప', '|'), ('రా', 'U'), ('గ', '|'), ('ల', '|'), ('వ', '|'), ('పం', 'U'), ('క్తు', 'U'), ('ల్గ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('నొ', 'U'), ('క్క', '|'), ('చే', 'U'), ('బు', '|'), ('రి', '|'), ('గో', 'U'), ('లొ', 'U'), ('క్క', '|'), ('ట', '|'), ('బా', 'U'), ('ల', '|'), ('కుం', 'U'), ('డ', '|'), ('గొ', '|'), ('ను', '|'), ('చుం', 'U'), ('బొ', 'U'), ('ల్పొం', 'U'), ('గ', '|'), ('గో', 'U'), ('ధు', 'U'), ('గ్జ', '|'), ('నాం', 'U'), ('త', '|'), ('ర', '|'), ('వ', 'U'), ('ర్ధి', 'U'), ('ష్ణు', '|'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('నిన్', 'U'), ('గొ', '|'), ('లు', '|'), ('తు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>అధివ్యాధిహరంబు జన్మమరణవ్యాపారదుష్కర్మ దు
 ర్బోధావ్యాప్తినివారణంబు సతతస్ఫూర్జ జ్జగద్రక్షణో
@@ -1335,32 +1254,29 @@
 క్షాధౌరేయము నీమహామహిమ కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ధి', 'U'), ('వ్యా', 'U'), ('ధి', '|'), ('హ', '|'), ('రం', 'U'), ('బు', '|'), ('జ', 'U'), ('న్మ', '|'), ('మ', '|'), ('ర', '|'), ('ణ', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('దు', 'U'), ('ష్క', '|'), ('ర్మ', '|'), ('దు', 'U'), ('ర్బో', 'U'), ('ధా', 'U'), ('వ్యా', 'U'), ('ప్తి', '|'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('స', '|'), ('త', '|'), ('త', 'U'), ('స్ఫూ', 'U'), ('ర్జ', 'U'), ('జ్జ', '|'), ('గ', '|'), ('ద్ర', 'U'), ('క్ష', '|'), ('ణో', 'U'), ('న్మే', 'U'), ('ధా', 'U'), ('యు', 'U'), ('క్త', '|'), ('ము', '|'), ('భ', 'U'), ('క్త', '|'), ('వాం', 'U'), ('ఛి', '|'), ('త', '|'), ('ఫ', '|'), ('లా', 'U'), ('నీ', 'U'), ('క', 'U'), ('ప్ర', '|'), ('ధా', 'U'), ('నై', 'U'), ('క', '|'), ('దీ', 'U'), ('క్షా', 'U'), ('ధౌ', 'U'), ('రే', 'U'), ('య', '|'), ('ము', '|'), ('నీ', 'U'), ('మ', '|'), ('హా', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>హాలాహాలశిరోధిమౌళి నయనోద్యద్భీమ ధూమధ్వజ
 జ్వాలాభీలకరాళరూక్ష విషనిశ్వాసోష్ణకృష్ణానదాం
@@ -1368,32 +1284,29 @@
 హాళి\న్‌ దాండవమాడు ని\న్‌ దలఁతుఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('హా', 'U'), ('లా', 'U'), ('హా', 'U'), ('ల', '|'), ('శి', '|'), ('రో', 'U'), ('ధి', '|'), ('మౌ', 'U'), ('ళి', '|'), ('న', '|'), ('య', '|'), ('నో', 'U'), ('ద్య', 'U'), ('ద్భీ', 'U'), ('మ', '|'), ('ధూ', 'U'), ('మ', 'U'), ('ధ్వ', '|'), ('జ', 'U'), ('జ్వా', 'U'), ('లా', 'U'), ('భీ', 'U'), ('ల', '|'), ('క', '|'), ('రా', 'U'), ('ళ', '|'), ('రూ', 'U'), ('క్ష', '|'), ('వి', '|'), ('ష', '|'), ('ని', 'U'), ('శ్వా', 'U'), ('సో', 'U'), ('ష్ణ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('న', '|'), ('దాం', 'U'), ('భో', 'U'), ('లీ', 'U'), ('లా', 'U'), ('స్ప', '|'), ('ద', '|'), ('కా', 'U'), ('ళి', '|'), ('య', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('న', '|'), ('ట', 'U'), ('ద్భో', 'U'), ('గా', 'U'), ('గ్ర', '|'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('హా', 'U'), ('ళిన్', 'U'), ('దాం', 'U'), ('డ', '|'), ('వ', '|'), ('మా', 'U'), ('డు', '|'), ('నిన్', 'U'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>తినదేచెట్టున నాకు మేఁక గుహ గొందిం బాము నిద్రింపదే
 వనవాసంబునఁ బక్షులు\న్‌ మృగములు\న్‌ వర్తింపవే నీటిలో
@@ -1401,32 +1314,29 @@
 మనసే మూలము నీదుభక్తులకు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('తి', '|'), ('న', '|'), ('దే', 'U'), ('చె', 'U'), ('ట్టు', '|'), ('న', '|'), ('నా', 'U'), ('కు', '|'), ('మే', 'U'), ('క', '|'), ('గు', '|'), ('హ', '|'), ('గొం', 'U'), ('దిం', 'U'), ('బా', 'U'), ('ము', '|'), ('ని', '|'), ('ద్రిం', 'U'), ('ప', '|'), ('దే', 'U'), ('వ', '|'), ('న', '|'), ('వా', 'U'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('బ', 'U'), ('క్షు', '|'), ('లున్', 'U'), ('మృ', '|'), ('గ', '|'), ('ము', '|'), ('లున్', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('వే', 'U'), ('నీ', 'U'), ('టి', '|'), ('లో', 'U'), ('ము', '|'), ('ను', '|'), ('కల్', 'U'), ('వే', 'U'), ('య', '|'), ('వె', '|'), ('మ', 'U'), ('త్స్య', '|'), ('క', 'U'), ('చ్ఛ', '|'), ('ప', '|'), ('ము', '|'), ('లు', 'U'), ('న్మో', 'U'), ('క్షా', 'U'), ('ర్థ', '|'), ('మౌ', 'U'), ('ము', 'U'), ('క్తి', '|'), ('కిన్', 'U'), ('మ', '|'), ('న', '|'), ('సే', 'U'), ('మూ', 'U'), ('ల', '|'), ('ము', '|'), ('నీ', 'U'), ('దు', '|'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('కు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>వింటిం గొంతగ మీమహత్వమును నుర్వి\న్‌ దర్శనప్రాప్తిచే
 ఘంటాకర్ణుని నుగ్రసేనతనయుం గైవల్యతేజంబు ని
@@ -1434,32 +1344,29 @@
 నంటం బొందనివేల్పు ని\న్‌ గొలుతుఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('విం', 'U'), ('టిం', 'U'), ('గొం', 'U'), ('త', '|'), ('గ', '|'), ('మీ', 'U'), ('మ', '|'), ('హ', 'U'), ('త్వ', '|'), ('ము', '|'), ('ను', '|'), ('ను', '|'), ('ర్విన్', 'U'), ('ద', 'U'), ('ర్శ', '|'), ('న', 'U'), ('ప్రా', 'U'), ('ప్తి', '|'), ('చే', 'U'), ('ఘం', 'U'), ('టా', 'U'), ('క', 'U'), ('ర్ణు', '|'), ('ని', '|'), ('ను', 'U'), ('గ్ర', '|'), ('సే', 'U'), ('న', '|'), ('త', '|'), ('న', '|'), ('యుం', 'U'), ('గై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('తే', 'U'), ('జం', 'U'), ('బు', '|'), ('ని', 'U'), ('న్నం', 'U'), ('టం', 'U'), ('జే', 'U'), ('య', '|'), ('వె', '|'), ('మా', 'U'), ('ట', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('ట్లా', 'U'), ('శ్చ', 'U'), ('ర్య', '|'), ('మున్', 'U'), ('బొం', 'U'), ('ద', '|'), ('గా', 'U'), ('నం', 'U'), ('టం', 'U'), ('బొం', 'U'), ('ద', '|'), ('ని', '|'), ('వే', 'U'), ('ల్పు', '|'), ('నిన్', 'U'), ('గొ', '|'), ('లు', '|'), ('తు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>విలసత్కావ్యకళాధురీణతలు తద్విజ్ఞానులైనట్టి వే
 త్తలకుం గాకవి యేల మూర్ఖులకు గాధల్‌ జెందు భాగీరథీ
@@ -1467,32 +1374,29 @@
 ఛలు జోరీఁగల కేల తేంట్లగతి కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('ల', '|'), ('స', 'U'), ('త్కా', 'U'), ('వ్య', '|'), ('క', '|'), ('ళా', 'U'), ('ధు', '|'), ('రీ', 'U'), ('ణ', '|'), ('త', '|'), ('లు', '|'), ('త', 'U'), ('ద్వి', 'U'), ('జ్ఞా', 'U'), ('ను', '|'), ('లై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('వే', 'U'), ('త్త', '|'), ('ల', '|'), ('కుం', 'U'), ('గా', 'U'), ('క', '|'), ('వి', '|'), ('యే', 'U'), ('ల', '|'), ('మూ', 'U'), ('ర్ఖు', '|'), ('ల', '|'), ('కు', '|'), ('గా', 'U'), ('ధల్', 'U'), ('జెం', 'U'), ('దు', '|'), ('భా', 'U'), ('గీ', 'U'), ('ర', '|'), ('థీ', 'U'), ('ద', '|'), ('ళి', '|'), ('తాం', 'U'), ('భో', 'U'), ('రు', '|'), ('హ', '|'), ('షం', 'U'), ('డ', '|'), ('మం', 'U'), ('డి', '|'), ('త', '|'), ('మ', '|'), ('రం', 'U'), ('ద', 'U'), ('గ్రా', 'U'), ('స', '|'), ('మా', 'U'), ('ధు', 'U'), ('ర్య', '|'), ('వాం', 'U'), ('ఛ', '|'), ('లు', '|'), ('జో', 'U'), ('రీ', 'U'), ('గ', '|'), ('ల', '|'), ('కే', 'U'), ('ల', '|'), ('తేం', 'U'), ('ట్ల', '|'), ('గ', '|'), ('తి', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>చతురంభోధిపరీత భూవలయరాజానేకకోటీర రం
 జితమాణిక్యవిరాజమానపద రాజీవుండు ధర్మాత్మజుం
@@ -1500,32 +1404,29 @@
 శ్వత కారుణ్యము గల్గునంతకును కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('తు', '|'), ('రం', 'U'), ('భో', 'U'), ('ధి', '|'), ('ప', '|'), ('రీ', 'U'), ('త', '|'), ('భూ', 'U'), ('వ', '|'), ('ల', '|'), ('య', '|'), ('రా', 'U'), ('జా', 'U'), ('నే', 'U'), ('క', '|'), ('కో', 'U'), ('టీ', 'U'), ('ర', '|'), ('రం', 'U'), ('జి', '|'), ('త', '|'), ('మా', 'U'), ('ణి', 'U'), ('క్య', '|'), ('వి', '|'), ('రా', 'U'), ('జ', '|'), ('మా', 'U'), ('న', '|'), ('ప', '|'), ('ద', '|'), ('రా', 'U'), ('జీ', 'U'), ('వుం', 'U'), ('డు', '|'), ('ధ', '|'), ('ర్మా', 'U'), ('త్మ', '|'), ('జుం', 'U'), ('డ', '|'), ('తి', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('మ', 'U'), ('త్స్య', '|'), ('ప', '|'), ('తి', '|'), ('కొ', 'U'), ('ల్వా', 'U'), ('సిం', 'U'), ('ప', '|'), ('డే', 'U'), ('నీ', 'U'), ('దు', '|'), ('శా', 'U'), ('శ్వ', '|'), ('త', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>శుకమద్గౌతమ కణ్వ కుత్స జమదగ్న్యోదంక శాండిల్య శౌ
 నక పారాశర కశ్యపాత్రి ఘటజాహ్నేంద్ర ప్రభూత త్రియం
@@ -1533,32 +1434,29 @@
 సకృపాసాగర నీకు మ్రొక్కెదను కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('శు', '|'), ('క', '|'), ('మ', 'U'), ('ద్గౌ', 'U'), ('త', '|'), ('మ', '|'), ('క', 'U'), ('ణ్వ', '|'), ('కు', 'U'), ('త్స', '|'), ('జ', '|'), ('మ', '|'), ('ద', 'U'), ('గ్న్యో', 'U'), ('దం', 'U'), ('క', '|'), ('శాం', 'U'), ('డి', 'U'), ('ల్య', '|'), ('శౌ', 'U'), ('న', '|'), ('క', '|'), ('పా', 'U'), ('రా', 'U'), ('శ', '|'), ('ర', '|'), ('క', 'U'), ('శ్య', '|'), ('పా', 'U'), ('త్రి', '|'), ('ఘ', '|'), ('ట', '|'), ('జా', 'U'), ('హ్నేం', 'U'), ('ద్ర', 'U'), ('ప్ర', '|'), ('భూ', 'U'), ('త', 'U'), ('త్రి', '|'), ('యం', 'U'), ('బ', '|'), ('క', '|'), ('కం', 'U'), ('జో', 'U'), ('ద్భ', '|'), ('వ', '|'), ('నా', 'U'), ('ర', '|'), ('దా', 'U'), ('ది', '|'), ('ము', '|'), ('ని', '|'), ('హృ', 'U'), ('త్పం', 'U'), ('కే', 'U'), ('జ', '|'), ('సౌ', 'U'), ('మ్య', 'U'), ('త్పి', '|'), ('పా', 'U'), ('స', '|'), ('కృ', '|'), ('పా', 'U'), ('సా', 'U'), ('గ', '|'), ('ర', '|'), ('నీ', 'U'), ('కు', '|'), ('మ్రొ', 'U'), ('క్కె', '|'), ('ద', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>వివిధోగ్రస్థవన ప్రచండబలవిద్వేషావనీనాయకో
 త్సవభంజీకృతశాలి యర్జునుఁడు దోస్సత్వుండు మత్స్యావనీ
@@ -1566,32 +1464,29 @@
 స్తవ నీసత్కృప గల్గునంతకును కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('వి', '|'), ('ధో', 'U'), ('గ్ర', 'U'), ('స్థ', '|'), ('వ', '|'), ('న', 'U'), ('ప్ర', '|'), ('చం', 'U'), ('డ', '|'), ('బ', '|'), ('ల', '|'), ('వి', 'U'), ('ద్వే', 'U'), ('షా', 'U'), ('వ', '|'), ('నీ', 'U'), ('నా', 'U'), ('య', '|'), ('కో', 'U'), ('త్స', '|'), ('వ', '|'), ('భం', 'U'), ('జీ', 'U'), ('కృ', '|'), ('త', '|'), ('శా', 'U'), ('లి', '|'), ('య', 'U'), ('ర్జు', '|'), ('ను', '|'), ('డు', '|'), ('దో', 'U'), ('స్స', 'U'), ('త్వుం', 'U'), ('డు', '|'), ('మ', 'U'), ('త్స్యా', 'U'), ('వ', '|'), ('నీ', 'U'), ('ధ', '|'), ('వు', '|'), ('గే', 'U'), ('హం', 'U'), ('బు', '|'), ('న', '|'), ('నా', 'U'), ('ట్య', '|'), ('తా', 'U'), ('ళ', '|'), ('ధ', '|'), ('రి', '|'), ('యై', 'U'), ('తా', 'U'), ('ని', 'U'), ('ల్వ', '|'), ('డే', 'U'), ('స', 'U'), ('న్ము', '|'), ('ని', 'U'), ('స్త', '|'), ('వ', '|'), ('నీ', 'U'), ('స', 'U'), ('త్కృ', '|'), ('ప', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>బలభేది న్నలయించి ఖాండవవని\న్‌ భస్మంబు గావించి ము
 న్నెలమి\న్‌ దైత్యులఁద్రుంచి యొక్కటి శివున్నిర్జించి కౌరవ్యుల\న్‌
@@ -1599,32 +1494,29 @@
 యల నీతేజము నీవు గైకొనినఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('ల', '|'), ('భే', 'U'), ('ది', 'U'), ('న్న', '|'), ('ల', '|'), ('యిం', 'U'), ('చి', '|'), ('ఖాం', 'U'), ('డ', '|'), ('వ', '|'), ('వ', '|'), ('నిన్', 'U'), ('భ', 'U'), ('స్మం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('ము', 'U'), ('న్నె', '|'), ('ల', '|'), ('మిన్', 'U'), ('దై', 'U'), ('త్యు', '|'), ('ల', '|'), ('ద్రుం', 'U'), ('చి', '|'), ('యొ', 'U'), ('క్క', '|'), ('టి', '|'), ('శి', '|'), ('వు', 'U'), ('న్ని', 'U'), ('ర్జిం', 'U'), ('చి', '|'), ('కౌ', 'U'), ('ర', 'U'), ('వ్యు', '|'), ('లన్', 'U'), ('బ', '|'), ('లి', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('కి', '|'), ('రీ', 'U'), ('టి', '|'), ('బో', 'U'), ('య', '|'), ('ల', '|'), ('కు', '|'), ('గో', 'U'), ('ప', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('నొ', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('డే', 'U'), ('య', '|'), ('ల', '|'), ('నీ', 'U'), ('తే', 'U'), ('జ', '|'), ('ము', '|'), ('నీ', 'U'), ('వు', '|'), ('గై', 'U'), ('కొ', '|'), ('ని', '|'), ('న', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>ఇలఁ దద్వైరి నృపాల ఫాలఫలక ప్రత్యగ్ర రక్తచ్ఛటా
 కలితోదార గదావిజృంభణ భుజాగర్వుండు భీముండు కు
@@ -1632,32 +1524,29 @@
 జ్జ్వలకారుణ్యము గల్గునంతకును కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('ల', '|'), ('ద', 'U'), ('ద్వై', 'U'), ('రి', '|'), ('నృ', '|'), ('పా', 'U'), ('ల', '|'), ('ఫా', 'U'), ('ల', '|'), ('ఫ', '|'), ('ల', '|'), ('క', 'U'), ('ప్ర', 'U'), ('త్య', 'U'), ('గ్ర', '|'), ('ర', 'U'), ('క్త', 'U'), ('చ్ఛ', '|'), ('టా', 'U'), ('క', '|'), ('లి', '|'), ('తో', 'U'), ('దా', 'U'), ('ర', '|'), ('గ', '|'), ('దా', 'U'), ('వి', '|'), ('జృం', 'U'), ('భ', '|'), ('ణ', '|'), ('భు', '|'), ('జా', 'U'), ('గ', 'U'), ('ర్వుం', 'U'), ('డు', '|'), ('భీ', 'U'), ('ముం', 'U'), ('డు', '|'), ('కు', 'U'), ('క్క', '|'), ('ల', '|'), ('కుం', 'U'), ('జా', 'U'), ('ప', '|'), ('డె', '|'), ('యే', 'U'), ('క', '|'), ('చ', 'U'), ('క్ర', '|'), ('పు', '|'), ('రి', '|'), ('భి', 'U'), ('క్షా', 'U'), ('వే', 'U'), ('ళ', '|'), ('యు', 'U'), ('ష్మ', 'U'), ('త్స', '|'), ('ము', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>అతిసౌందర్యసమగ్రధైర్యఘనశౌర్యస్ఫూర్తియు\న్‌ గీర్తియు
 న్నతులప్రాభవరేఖయు\న్‌ గలిగి చోద్యంబెన్నఁగా ఘోటక
@@ -1665,32 +1554,29 @@
 సతమై రాజ్యము గల్గునంతకును కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('తి', '|'), ('సౌం', 'U'), ('ద', 'U'), ('ర్య', '|'), ('స', '|'), ('మ', 'U'), ('గ్ర', '|'), ('ధై', 'U'), ('ర్య', '|'), ('ఘ', '|'), ('న', '|'), ('శౌ', 'U'), ('ర్య', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('యున్', 'U'), ('గీ', 'U'), ('ర్తి', '|'), ('యు', 'U'), ('న్న', '|'), ('తు', '|'), ('ల', 'U'), ('ప్రా', 'U'), ('భ', '|'), ('వ', '|'), ('రే', 'U'), ('ఖ', '|'), ('యున్', 'U'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('చో', 'U'), ('ద్యం', 'U'), ('బె', 'U'), ('న్న', '|'), ('గా', 'U'), ('ఘో', 'U'), ('ట', '|'), ('క', 'U'), ('ప్ర', '|'), ('త', '|'), ('తిం', 'U'), ('ది', 'U'), ('ద్ద', '|'), ('డె', '|'), ('ని', 'U'), ('త్య', '|'), ('మున్', 'U'), ('న', '|'), ('కు', '|'), ('లు', '|'), ('డే', 'U'), ('పా', 'U'), ('రం', 'U'), ('గ', '|'), ('నీ', 'U'), ('స', 'U'), ('త్కృ', '|'), ('పన్', 'U'), ('స', '|'), ('త', '|'), ('మై', 'U'), ('రా', 'U'), ('జ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>బక దైతేయమహాబలు\న్‌ సమరభూభాగంబున\న్‌ వాయుపు
 త్రకుఁ డీల్గించిన నేకచక్రపురివారల్‌ మెచ్చి యింటింట వం
@@ -1698,32 +1584,29 @@
 తకు వారల్‌ గొఱఁతేమి చాలుటకుఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('క', '|'), ('దై', 'U'), ('తే', 'U'), ('య', '|'), ('మ', '|'), ('హా', 'U'), ('బ', '|'), ('లున్', 'U'), ('స', '|'), ('మ', '|'), ('ర', '|'), ('భూ', 'U'), ('భా', 'U'), ('గం', 'U'), ('బు', '|'), ('నన్', 'U'), ('వా', 'U'), ('యు', '|'), ('పు', 'U'), ('త్ర', '|'), ('కు', '|'), ('డీ', 'U'), ('ల్గిం', 'U'), ('చి', '|'), ('న', '|'), ('నే', 'U'), ('క', '|'), ('చ', 'U'), ('క్ర', '|'), ('పు', '|'), ('రి', '|'), ('వా', 'U'), ('రల్', 'U'), ('మె', 'U'), ('చ్చి', '|'), ('యిం', 'U'), ('టిం', 'U'), ('ట', '|'), ('వం', 'U'), ('ట', '|'), ('క', '|'), ('ము', 'U'), ('ల్బె', 'U'), ('ట్టి', '|'), ('రి', '|'), ('గా', 'U'), ('ని', '|'), ('భి', 'U'), ('క్ష', '|'), ('య', '|'), ('ను', '|'), ('మా', 'U'), ('టన్', 'U'), ('మా', 'U'), ('న్ప', '|'), ('లే', 'U'), ('రై', 'U'), ('రి', '|'), ('యం', 'U'), ('త', '|'), ('కు', '|'), ('వా', 'U'), ('రల్', 'U'), ('గొ', '|'), ('ఱ', '|'), ('తే', 'U'), ('మి', '|'), ('చా', 'U'), ('లు', '|'), ('ట', '|'), ('కు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>గహనావాసములోన నన్నలకుఁ దా గారాబుతమ్ముండునై
 విహరించేతఱి భావికాలగతి నన్వేషించుచు\న్‌ శౌర్యసం
@@ -1731,32 +1614,29 @@
 స్సహదేవుం డతిధైర్యమార్గమునఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('హ', '|'), ('నా', 'U'), ('వా', 'U'), ('స', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('న', 'U'), ('న్న', '|'), ('ల', '|'), ('కు', '|'), ('దా', 'U'), ('గా', 'U'), ('రా', 'U'), ('బు', '|'), ('త', 'U'), ('మ్ముం', 'U'), ('డు', '|'), ('నై', 'U'), ('వి', '|'), ('హ', '|'), ('రిం', 'U'), ('చే', 'U'), ('త', '|'), ('ఱి', '|'), ('భా', 'U'), ('వి', '|'), ('కా', 'U'), ('ల', '|'), ('గ', '|'), ('తి', '|'), ('న', 'U'), ('న్వే', 'U'), ('షిం', 'U'), ('చు', '|'), ('చున్', 'U'), ('శౌ', 'U'), ('ర్య', '|'), ('సం', 'U'), ('గ్ర', '|'), ('హు', '|'), ('డై', 'U'), ('యా', 'U'), ('వు', '|'), ('ల', '|'), ('గా', 'U'), ('చె', '|'), ('మ', 'U'), ('త్స్య', '|'), ('పు', '|'), ('రి', '|'), ('లో', 'U'), ('గ', '|'), ('ర్మా', 'U'), ('ను', '|'), ('గు', 'U'), ('ణ్య', 'U'), ('క్రి', '|'), ('య', 'U'), ('స్స', '|'), ('హ', '|'), ('దే', 'U'), ('వుం', 'U'), ('డ', '|'), ('తి', '|'), ('ధై', 'U'), ('ర్య', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('న', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>వినుతానేకతురంగవారణ రథోర్వీనాథదీవ్యన్నికే
 తన చక్రధ్వజచామరద్రఢిమతోఁ దథ్యాత్ముఁడౌ నాసుయో
@@ -1764,32 +1644,29 @@
 యెను మిమ్మెట్టుఁ దలంచి చూడకయ కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('ను', '|'), ('తా', 'U'), ('నే', 'U'), ('క', '|'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('వా', 'U'), ('ర', '|'), ('ణ', '|'), ('ర', '|'), ('థో', 'U'), ('ర్వీ', 'U'), ('నా', 'U'), ('థ', '|'), ('దీ', 'U'), ('వ్య', 'U'), ('న్ని', '|'), ('కే', 'U'), ('త', '|'), ('న', '|'), ('చ', 'U'), ('క్ర', 'U'), ('ధ్వ', '|'), ('జ', '|'), ('చా', 'U'), ('మ', '|'), ('ర', '|'), ('ద్ర', '|'), ('ఢి', '|'), ('మ', '|'), ('తో', 'U'), ('ద', 'U'), ('థ్యా', 'U'), ('త్ము', '|'), ('డౌ', 'U'), ('నా', 'U'), ('సు', '|'), ('యో', 'U'), ('ధ', '|'), ('ను', '|'), ('డే', 'U'), ('కా', 'U'), ('కి', '|'), ('యు', '|'), ('బా', 'U'), ('ద', '|'), ('చా', 'U'), ('రి', '|'), ('యు', '|'), ('ను', '|'), ('నై', 'U'), ('ద', 'U'), ('ర్పం', 'U'), ('బు', '|'), ('వో', 'U'), ('నా', 'U'), ('డి', '|'), ('పో', 'U'), ('యె', '|'), ('ను', '|'), ('మి', 'U'), ('మ్మె', 'U'), ('ట్టు', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('చూ', 'U'), ('డ', '|'), ('క', '|'), ('య', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>రక్షింపం దగువీరుఁ డెవ్వఁ డననీరాజుల్‌ వృథాతేజులే
 మోక్షశ్రీయొసఁగు\న్‌ విభుండెవఁడు శ్రీమోహాకృతి న్దేవతల్‌
@@ -1797,32 +1674,29 @@
 సాక్షాద్బ్రహ్మము నీవె ధన్యులకుఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('ర', 'U'), ('క్షిం', 'U'), ('పం', 'U'), ('ద', '|'), ('గు', '|'), ('వీ', 'U'), ('రు', '|'), ('డె', 'U'), ('వ్వ', '|'), ('డ', '|'), ('న', '|'), ('నీ', 'U'), ('రా', 'U'), ('జుల్', 'U'), ('వృ', '|'), ('థా', 'U'), ('తే', 'U'), ('జు', '|'), ('లే', 'U'), ('మో', 'U'), ('క్ష', 'U'), ('శ్రీ', 'U'), ('యొ', '|'), ('స', '|'), ('గున్', 'U'), ('వి', '|'), ('భుం', 'U'), ('డె', '|'), ('వ', '|'), ('డు', 'U'), ('శ్రీ', 'U'), ('మో', 'U'), ('హా', 'U'), ('కృ', '|'), ('తి', 'U'), ('న్దే', 'U'), ('వ', '|'), ('తల్', 'U'), ('ర', 'U'), ('క్షో', 'U'), ('జా', 'U'), ('క్ష', '|'), ('శు', '|'), ('భ', 'U'), ('ప్ర', '|'), ('ధా', 'U'), ('న', '|'), ('గ', '|'), ('రి', '|'), ('మన్', 'U'), ('రా', 'U'), ('జి', 'U'), ('ల్లు', '|'), ('రా', 'U'), ('జేం', 'U'), ('ద్రు', '|'), ('లన్', 'U'), ('సా', 'U'), ('క్షా', 'U'), ('ద్బ్ర', 'U'), ('హ్మ', '|'), ('ము', '|'), ('నీ', 'U'), ('వె', '|'), ('ధ', 'U'), ('న్యు', '|'), ('ల', '|'), ('కు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>కొలిచేది\న్‌ వగలేకనే నడిగితే కోపించు టీలేకనే
 చెలువం బెచ్చుటకోటనేవిభవముల్‌ చేకూరుటల్‌ రూకనే
@@ -1830,32 +1704,29 @@
 జలదశ్యామల శంఖచక్రధర కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('లి', '|'), ('చే', 'U'), ('దిన్', 'U'), ('వ', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('నే', 'U'), ('న', '|'), ('డి', '|'), ('గి', '|'), ('తే', 'U'), ('కో', 'U'), ('పిం', 'U'), ('చు', '|'), ('టీ', 'U'), ('లే', 'U'), ('క', '|'), ('నే', 'U'), ('చె', '|'), ('లు', '|'), ('వం', 'U'), ('బె', 'U'), ('చ్చు', '|'), ('ట', '|'), ('కో', 'U'), ('ట', '|'), ('నే', 'U'), ('వి', '|'), ('భ', '|'), ('వ', '|'), ('ముల్', 'U'), ('చే', 'U'), ('కూ', 'U'), ('రు', '|'), ('టల్', 'U'), ('రూ', 'U'), ('క', '|'), ('నే', 'U'), ('బ', '|'), ('ల', '|'), ('వం', 'U'), ('తుం', 'U'), ('డ', '|'), ('గు', '|'), ('మూ', 'U'), ('క', '|'), ('నే', 'U'), ('స', '|'), ('తి', '|'), ('చె', '|'), ('డున్', 'U'), ('ప్రా', 'U'), ('ణే', 'U'), ('శు', '|'), ('పై', 'U'), ('గో', 'U'), ('ప', '|'), ('నే', 'U'), ('జ', '|'), ('ల', '|'), ('ద', 'U'), ('శ్యా', 'U'), ('మ', '|'), ('ల', '|'), ('శం', 'U'), ('ఖ', '|'), ('చ', 'U'), ('క్ర', '|'), ('ధ', '|'), ('ర', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>బలశౌర్యోన్నతి శత్రులం గెలిచి సప్తద్వీపవిశ్వంభరా
 స్థలి నేలించి సమస్తవైభవములన్‌ దీపించి దిక్పాలకా
@@ -1863,32 +1734,29 @@
 టలవాఁడై ఋతుపర్ణుచెంగటను కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('ల', '|'), ('శౌ', 'U'), ('ర్యో', 'U'), ('న్న', '|'), ('తి', '|'), ('శ', 'U'), ('త్రు', '|'), ('లం', 'U'), ('గె', '|'), ('లి', '|'), ('చి', '|'), ('స', 'U'), ('ప్త', 'U'), ('ద్వీ', 'U'), ('ప', '|'), ('వి', 'U'), ('శ్వం', 'U'), ('భ', '|'), ('రా', 'U'), ('స్థ', '|'), ('లి', '|'), ('నే', 'U'), ('లిం', 'U'), ('చి', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('లన్', 'U'), ('దీ', 'U'), ('పిం', 'U'), ('చి', '|'), ('ది', 'U'), ('క్పా', 'U'), ('ల', '|'), ('కా', 'U'), ('వ', '|'), ('ళి', '|'), ('కీ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('మె', '|'), ('లం', 'U'), ('గు', '|'), ('నై', 'U'), ('ష', '|'), ('ధు', '|'), ('డు', '|'), ('దా', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('డే', 'U'), ('తొ', 'U'), ('ల్లి', '|'), ('వం', 'U'), ('ట', '|'), ('ల', '|'), ('వా', 'U'), ('డై', 'U'), ('ఋ', '|'), ('తు', '|'), ('ప', 'U'), ('ర్ణు', '|'), ('చెం', 'U'), ('గ', '|'), ('ట', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>ధరలో గోళకుఁ డైనపాండునికళత్రం బందు వేర్వేఱనే
 వురకు\న్‌ బుట్టినపాండునందనులు దివ్యుల్మెచ్చ వర్తింపఁ ద
@@ -1896,32 +1764,29 @@
 స్మరణప్రౌఢిమఁ గాదె యీఘనత కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('గో', 'U'), ('ళ', '|'), ('కు', '|'), ('డై', 'U'), ('న', '|'), ('పాం', 'U'), ('డు', '|'), ('ని', '|'), ('క', '|'), ('ళ', 'U'), ('త్రం', 'U'), ('బం', 'U'), ('దు', '|'), ('వే', 'U'), ('ర్వే', 'U'), ('ఱ', '|'), ('నే', 'U'), ('వు', '|'), ('ర', '|'), ('కున్', 'U'), ('బు', 'U'), ('ట్టి', '|'), ('న', '|'), ('పాం', 'U'), ('డు', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('లు', '|'), ('ది', 'U'), ('వ్యు', 'U'), ('ల్మె', 'U'), ('చ్చ', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('ద', 'U'), ('చ్చ', '|'), ('రి', '|'), ('తం', 'U'), ('బం', 'U'), ('త', '|'), ('యు', '|'), ('భా', 'U'), ('ర', '|'), ('తం', 'U'), ('బ', '|'), ('ని', 'U'), ('ప్ర', '|'), ('శ', 'U'), ('స్తం', 'U'), ('బ', 'U'), ('య్యె', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('సం', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', 'U'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('మ', '|'), ('గా', 'U'), ('దె', '|'), ('యీ', 'U'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>క్రతువుల్‌ నూఱొనరించి యింద్రపదవిన్గర్వించియింద్రాణికై
 ధృతిఁదూల\న్‌ మరుఁడేచఁగా నహుషుఁడద్దేవేంద్రుభోగానుసం
@@ -1929,32 +1794,29 @@
 సతతంబు\న్‌ పెనుబాముచందమును కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('క్ర', '|'), ('తు', '|'), ('వుల్', 'U'), ('నూ', 'U'), ('ఱొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('యిం', 'U'), ('ద్ర', '|'), ('ప', '|'), ('ద', '|'), ('వి', 'U'), ('న్గ', 'U'), ('ర్విం', 'U'), ('చి', '|'), ('యిం', 'U'), ('ద్రా', 'U'), ('ణి', '|'), ('కై', 'U'), ('ధృ', '|'), ('తి', '|'), ('దూ', 'U'), ('లన్', 'U'), ('మ', '|'), ('రు', '|'), ('డే', 'U'), ('చ', '|'), ('గా', 'U'), ('న', '|'), ('హు', '|'), ('షు', '|'), ('డ', 'U'), ('ద్దే', 'U'), ('వేం', 'U'), ('ద్రు', '|'), ('భో', 'U'), ('గా', 'U'), ('ను', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('గా', 'U'), ('గో', 'U'), ('రి', '|'), ('న', '|'), ('కుం', 'U'), ('భ', '|'), ('సం', 'U'), ('భ', '|'), ('వు', '|'), ('డు', '|'), ('గి', '|'), ('న్కన్', 'U'), ('ది', 'U'), ('ట్టి', '|'), ('నన్', 'U'), ('జెం', 'U'), ('ద', '|'), ('డే', 'U'), ('స', '|'), ('త', '|'), ('తం', 'U'), ('బున్', 'U'), ('పె', '|'), ('ను', '|'), ('బా', 'U'), ('ము', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>ఘనుల\న్‌ నీచుల నీచుల\న్‌ ఘనుల సత్కారాఢ్యుల\న్‌ దుష్క్రియా
 జనితోద్యోగుల నర్థవంతులను భిక్షాయుక్తుల\న్‌ భిక్షుల\న్‌
@@ -1962,32 +1824,29 @@
 బని నందించు వినోదరాయ హరి కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('ను', '|'), ('లన్', 'U'), ('నీ', 'U'), ('చు', '|'), ('ల', '|'), ('నీ', 'U'), ('చు', '|'), ('లన్', 'U'), ('ఘ', '|'), ('ను', '|'), ('ల', '|'), ('స', 'U'), ('త్కా', 'U'), ('రా', 'U'), ('ఢ్యు', '|'), ('లన్', 'U'), ('దు', 'U'), ('ష్క్రి', '|'), ('యా', 'U'), ('జ', '|'), ('ని', '|'), ('తో', 'U'), ('ద్యో', 'U'), ('గు', '|'), ('ల', '|'), ('న', 'U'), ('ర్థ', '|'), ('వం', 'U'), ('తు', '|'), ('ల', '|'), ('ను', '|'), ('భి', 'U'), ('క్షా', 'U'), ('యు', 'U'), ('క్తు', '|'), ('లన్', 'U'), ('భి', 'U'), ('క్షు', '|'), ('లన్', 'U'), ('ధ', '|'), ('ని', '|'), ('క', 'U'), ('వ్రా', 'U'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('నొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('చు', '|'), ('ను', '|'), ('ని', 'U'), ('త్యం', 'U'), ('బున్', 'U'), ('మ', '|'), ('హా', 'U'), ('గా', 'U'), ('ర', '|'), ('డం', 'U'), ('బ', '|'), ('ని', '|'), ('నం', 'U'), ('దిం', 'U'), ('చు', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('రా', 'U'), ('య', '|'), ('హ', '|'), ('రి', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>శ్రీలక్ష్మీధవ వాసుదేవ వరదా రాజీవపద్మాసనా
 వ్యాళాధీశ్వర శర్వ షణ్ముఖ శుకాద్యస్తోత్ర సత్పాత్ర గో
@@ -1995,32 +1854,29 @@
 ర్ధాలంకార మయూర పింఛధర కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('ధ', '|'), ('వ', '|'), ('వా', 'U'), ('సు', '|'), ('దే', 'U'), ('వ', '|'), ('వ', '|'), ('ర', '|'), ('దా', 'U'), ('రా', 'U'), ('జీ', 'U'), ('వ', '|'), ('ప', 'U'), ('ద్మా', 'U'), ('స', '|'), ('నా', 'U'), ('వ్యా', 'U'), ('ళా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('శ', 'U'), ('ర్వ', '|'), ('ష', 'U'), ('ణ్ము', '|'), ('ఖ', '|'), ('శు', '|'), ('కా', 'U'), ('ద్య', 'U'), ('స్తో', 'U'), ('త్ర', '|'), ('స', 'U'), ('త్పా', 'U'), ('త్ర', '|'), ('గో', 'U'), ('పా', 'U'), ('లా', 'U'), ('నీ', 'U'), ('క', '|'), ('ము', '|'), ('ఖా', 'U'), ('బ్జ', '|'), ('భా', 'U'), ('స్క', '|'), ('ర', '|'), ('కృ', '|'), ('పా', 'U'), ('పా', 'U'), ('థో', 'U'), ('ధి', '|'), ('నన్', 'U'), ('గా', 'U'), ('వు', '|'), ('మూ', 'U'), ('ర్ధా', 'U'), ('లం', 'U'), ('కా', 'U'), ('ర', '|'), ('మ', '|'), ('యూ', 'U'), ('ర', '|'), ('పిం', 'U'), ('ఛ', '|'), ('ధ', '|'), ('ర', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>పతులున్నేవురునెన్నఁగాఁగలిగి భూపాలాంగనానీకముల్‌
 సతతంబు\న్‌ గనుసన్నల\న్‌ మెలఁగుచైశ్వర్యంబుతోనుండి తా
@@ -2028,32 +1884,29 @@
 సతి యాశ్చర్యము నీవిలాసములు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('తు', '|'), ('లు', 'U'), ('న్నే', 'U'), ('వు', '|'), ('రు', '|'), ('నె', 'U'), ('న్న', '|'), ('గా', 'U'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('భూ', 'U'), ('పా', 'U'), ('లాం', 'U'), ('గ', '|'), ('నా', 'U'), ('నీ', 'U'), ('క', '|'), ('ముల్', 'U'), ('స', '|'), ('త', '|'), ('తం', 'U'), ('బున్', 'U'), ('గ', '|'), ('ను', '|'), ('స', 'U'), ('న్న', '|'), ('లన్', 'U'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('చై', 'U'), ('శ్వ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('తో', 'U'), ('నుం', 'U'), ('డి', '|'), ('తా', 'U'), ('న', '|'), ('తి', '|'), ('భ', 'U'), ('క్తిం', 'U'), ('జ', '|'), ('ని', '|'), ('యా', 'U'), ('సు', '|'), ('ధే', 'U'), ('ష్ణ', '|'), ('కు', '|'), ('ను', '|'), ('జే', 'U'), ('యం', 'U'), ('బూ', 'U'), ('న', '|'), ('దే', 'U'), ('ద్రౌ', 'U'), ('ప', '|'), ('దీ', 'U'), ('స', '|'), ('తి', '|'), ('యా', 'U'), ('శ్చ', 'U'), ('ర్య', '|'), ('ము', '|'), ('నీ', 'U'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>మీసామర్థ్యము గల్గునంతకును నెమ్మి\న్‌ బాండుసూనుండు నా
 యాసం బొంద మహాద్భుతంబుగ విరాటాధీశుపట్ణంబులో
@@ -2061,32 +1914,29 @@
 న్యాసంబు\న్‌ ధరియింపఁడే యచటఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('మీ', 'U'), ('సా', 'U'), ('మ', 'U'), ('ర్థ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('ను', '|'), ('నె', '|'), ('మ్మిన్', 'U'), ('బాం', 'U'), ('డు', '|'), ('సూ', 'U'), ('నుం', 'U'), ('డు', '|'), ('నా', 'U'), ('యా', 'U'), ('సం', 'U'), ('బొం', 'U'), ('ద', '|'), ('మ', '|'), ('హా', 'U'), ('ద్భు', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('వి', '|'), ('రా', 'U'), ('టా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('ప', 'U'), ('ట్ణం', 'U'), ('బు', '|'), ('లో', 'U'), ('గ్రా', 'U'), ('సో', 'U'), ('పా', 'U'), ('య', '|'), ('ము', '|'), ('లే', 'U'), ('క', '|'), ('భి', 'U'), ('క్ష', '|'), ('మ', '|'), ('డు', '|'), ('గన్', 'U'), ('గా', 'U'), ('షా', 'U'), ('య', '|'), ('ముం', 'U'), ('బూ', 'U'), ('ని', '|'), ('స', 'U'), ('న్యా', 'U'), ('సం', 'U'), ('బున్', 'U'), ('ధ', '|'), ('రి', '|'), ('యిం', 'U'), ('ప', '|'), ('డే', 'U'), ('య', '|'), ('చ', '|'), ('ట', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>విరటుం గొల్చినవాఁడు నొక్కఁడిలఁ బృథ్వీనాథుల\న్‌ గూల్చి సం
 గరభూమి\న్‌ ఘనవైరివీరతతులన్గారించుచు\న్‌ ద్రుంచి యి
@@ -2094,32 +1944,29 @@
 సరిపోదే భువి నింద్రసూనుధృతి కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('ర', '|'), ('టుం', 'U'), ('గొ', 'U'), ('ల్చి', '|'), ('న', '|'), ('వా', 'U'), ('డు', '|'), ('నొ', 'U'), ('క్క', '|'), ('డి', '|'), ('ల', '|'), ('బృ', 'U'), ('థ్వీ', 'U'), ('నా', 'U'), ('థు', '|'), ('లన్', 'U'), ('గూ', 'U'), ('ల్చి', '|'), ('సం', 'U'), ('గ', '|'), ('ర', '|'), ('భూ', 'U'), ('మిన్', 'U'), ('ఘ', '|'), ('న', '|'), ('వై', 'U'), ('రి', '|'), ('వీ', 'U'), ('ర', '|'), ('త', '|'), ('తు', '|'), ('ల', 'U'), ('న్గా', 'U'), ('రిం', 'U'), ('చు', '|'), ('చున్', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('యి', 'U'), ('ద్ధ', '|'), ('ర', '|'), ('కు', 'U'), ('న్న', 'U'), ('గ్ర', '|'), ('జు', '|'), ('రా', 'U'), ('జు', '|'), ('జే', 'U'), ('సి', '|'), ('యు', '|'), ('తు', '|'), ('దిన్', 'U'), ('దా', 'U'), ('నీ', 'U'), ('కృ', '|'), ('పం', 'U'), ('బా', 'U'), ('య', '|'), ('డే', 'U'), ('స', '|'), ('రి', '|'), ('పో', 'U'), ('దే', 'U'), ('భు', '|'), ('వి', '|'), ('నిం', 'U'), ('ద్ర', '|'), ('సూ', 'U'), ('ను', '|'), ('ధృ', '|'), ('తి', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>అమరు ల్పద్మజువ్రాతఁదాఁటి యిపుడొక్కబ్దంబు పెద్దయ్య దు
 ర్దమ దోర్దండపటుప్రతాప నిజసంరంభామరానీక వి
@@ -2127,32 +1974,29 @@
 సమరక్షోణి జయించె నర్జునుఁడు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రు', 'U'), ('ల్ప', 'U'), ('ద్మ', '|'), ('జు', 'U'), ('వ్రా', 'U'), ('త', '|'), ('దా', 'U'), ('టి', '|'), ('యి', '|'), ('పు', '|'), ('డొ', 'U'), ('క్క', 'U'), ('బ్దం', 'U'), ('బు', '|'), ('పె', 'U'), ('ద్ద', 'U'), ('య్య', '|'), ('దు', '|'), ('ర్ద', '|'), ('మ', '|'), ('దో', 'U'), ('ర్దం', 'U'), ('డ', '|'), ('ప', '|'), ('టు', 'U'), ('ప్ర', '|'), ('తా', 'U'), ('ప', '|'), ('ని', '|'), ('జ', '|'), ('సం', 'U'), ('రం', 'U'), ('భా', 'U'), ('మ', '|'), ('రా', 'U'), ('నీ', 'U'), ('క', '|'), ('వి', 'U'), ('క్ర', '|'), ('మ', '|'), ('దు', 'U'), ('ర్వా', 'U'), ('ర', '|'), ('గ', '|'), ('జా', 'U'), ('సు', '|'), ('ర', 'U'), ('ప్ర', '|'), ('ళ', '|'), ('య', '|'), ('మిం', 'U'), ('కం', 'U'), ('జే', 'U'), ('య', '|'), ('ఫా', 'U'), ('లా', 'U'), ('క్షు', '|'), ('నిన్', 'U'), ('స', '|'), ('మ', '|'), ('ర', 'U'), ('క్షో', 'U'), ('ణి', '|'), ('జ', '|'), ('యిం', 'U'), ('చె', '|'), ('న', 'U'), ('ర్జు', '|'), ('ను', '|'), ('డు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>అక్రూరాత్మకు లైన పాండవుల బాహశక్తియు\న్‌ ధాత్రి ని
 ర్వక్రంబయ్యెడునట్లు జేతు ననుచు\న్‌ వాత్సల్య మింపొంద నా
@@ -2160,32 +2004,29 @@
 చక్రీ నీమునికోలకు\న్‌ జయము కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('క్రూ', 'U'), ('రా', 'U'), ('త్మ', '|'), ('కు', '|'), ('లై', 'U'), ('న', '|'), ('పాం', 'U'), ('డ', '|'), ('వు', '|'), ('ల', '|'), ('బా', 'U'), ('హ', '|'), ('శ', 'U'), ('క్తి', '|'), ('యున్', 'U'), ('ధా', 'U'), ('త్రి', '|'), ('ని', 'U'), ('ర్వ', 'U'), ('క్రం', 'U'), ('బ', 'U'), ('య్యె', '|'), ('డు', '|'), ('న', 'U'), ('ట్లు', '|'), ('జే', 'U'), ('తు', '|'), ('న', '|'), ('ను', '|'), ('చున్', 'U'), ('వా', 'U'), ('త్స', 'U'), ('ల్య', '|'), ('మిం', 'U'), ('పొం', 'U'), ('ద', '|'), ('నా', 'U'), ('శ', 'U'), ('క్రా', 'U'), ('త్మో', 'U'), ('ద్భ', '|'), ('వు', '|'), ('తే', 'U'), ('రి', '|'), ('పై', 'U'), ('దు', '|'), ('ర', '|'), ('ము', '|'), ('నన్', 'U'), ('సా', 'U'), ('ర', 'U'), ('థ్య', '|'), ('ముం', 'U'), ('జే', 'U'), ('సి', '|'), ('తౌ', 'U'), ('చ', 'U'), ('క్రీ', 'U'), ('నీ', 'U'), ('ము', '|'), ('ని', '|'), ('కో', 'U'), ('ల', '|'), ('కున్', 'U'), ('జ', '|'), ('య', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>గంభీరంబుగ రాయభారగరిమ\న్‌ గౌంతేయుకార్యార్థమై
 శుంభల్లీలల ధార్తరాష్ట్రుసభఁ దామూహించి తద్వాక్యము
@@ -2193,32 +2034,29 @@
 శంభుండేయెఱుఁగు\న్‌ భవన్మహిమ కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('గం', 'U'), ('భీ', 'U'), ('రం', 'U'), ('బు', '|'), ('గ', '|'), ('రా', 'U'), ('య', '|'), ('భా', 'U'), ('ర', '|'), ('గ', '|'), ('రి', '|'), ('మన్', 'U'), ('గౌం', 'U'), ('తే', 'U'), ('యు', '|'), ('కా', 'U'), ('ర్యా', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('శుం', 'U'), ('భ', 'U'), ('ల్లీ', 'U'), ('ల', '|'), ('ల', '|'), ('ధా', 'U'), ('ర్త', '|'), ('రా', 'U'), ('ష్ట్రు', '|'), ('స', '|'), ('భ', '|'), ('దా', 'U'), ('మూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('త', 'U'), ('ద్వా', 'U'), ('క్య', '|'), ('ము', 'U'), ('ల్సం', 'U'), ('భా', 'U'), ('షిం', 'U'), ('ప', '|'), ('గ', '|'), ('వా', 'U'), ('ర', '|'), ('వ', 'U'), ('జ్ఞ', '|'), ('ద', '|'), ('ల', '|'), ('పన్', 'U'), ('స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('నీ', 'U'), ('వై', 'U'), ('న', '|'), ('చో', 'U'), ('శం', 'U'), ('భుం', 'U'), ('డే', 'U'), ('యె', '|'), ('ఱు', '|'), ('గున్', 'U'), ('భ', '|'), ('వ', 'U'), ('న్మ', '|'), ('హి', '|'), ('మ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>ఏలావిద్యలు సొంపు రూపవిభవం బేలా కులీనత్వము\న్‌
 శీలత్వంబును నేల యేటికి వచశ్శ్రీ యేల బాహాబలం
@@ -2226,32 +2064,29 @@
 జాలిం బొందినఁ గల్గునే సిరులు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('లా', 'U'), ('వి', 'U'), ('ద్య', '|'), ('లు', '|'), ('సొం', 'U'), ('పు', '|'), ('రూ', 'U'), ('ప', '|'), ('వి', '|'), ('భ', '|'), ('వం', 'U'), ('బే', 'U'), ('లా', 'U'), ('కు', '|'), ('లీ', 'U'), ('న', 'U'), ('త్వ', '|'), ('మున్', 'U'), ('శీ', 'U'), ('ల', 'U'), ('త్వం', 'U'), ('బు', '|'), ('ను', '|'), ('నే', 'U'), ('ల', '|'), ('యే', 'U'), ('టి', '|'), ('కి', '|'), ('వ', '|'), ('చ', 'U'), ('శ్శ్రీ', 'U'), ('యే', 'U'), ('ల', '|'), ('బా', 'U'), ('హా', 'U'), ('బ', '|'), ('లం', 'U'), ('బే', 'U'), ('లా', 'U'), ('చా', 'U'), ('తు', '|'), ('రి', '|'), ('మీ', 'U'), ('కృ', '|'), ('పా', 'U'), ('గ', '|'), ('రి', '|'), ('మ', '|'), ('ని', 'U'), ('క్షే', 'U'), ('పం', 'U'), ('బు', '|'), ('లే', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('జా', 'U'), ('లిం', 'U'), ('బొం', 'U'), ('ది', '|'), ('న', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నే', 'U'), ('సి', '|'), ('రు', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>సర్వజ్ఞుండును సర్వలోకగురుఁడు\న్‌ సర్వంసహానాథుఁడు\న్‌
 సర్వేశుండును సర్వసాధకుఁడునౌ సర్వేశ నీమూర్తి దా
@@ -2259,32 +2094,29 @@
 'సర్వం విష్ణుమయం జగ'త్తనఁగ కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('ర్వ', 'U'), ('జ్ఞుం', 'U'), ('డు', '|'), ('ను', '|'), ('స', 'U'), ('ర్వ', '|'), ('లో', 'U'), ('క', '|'), ('గు', '|'), ('రు', '|'), ('డున్', 'U'), ('స', 'U'), ('ర్వం', 'U'), ('స', '|'), ('హా', 'U'), ('నా', 'U'), ('థు', '|'), ('డున్', 'U'), ('స', 'U'), ('ర్వే', 'U'), ('శుం', 'U'), ('డు', '|'), ('ను', '|'), ('స', 'U'), ('ర్వ', '|'), ('సా', 'U'), ('ధ', '|'), ('కు', '|'), ('డు', '|'), ('నౌ', 'U'), ('స', 'U'), ('ర్వే', 'U'), ('శ', '|'), ('నీ', 'U'), ('మూ', 'U'), ('ర్తి', '|'), ('దా', 'U'), ('స', 'U'), ('ర్వం', 'U'), ('బు', 'U'), ('న్గ', '|'), ('లి', '|'), ('గిం', 'U'), ('చు', '|'), ('పెం', 'U'), ('చు', '|'), ('న', '|'), ('ణ', '|'), ('చున్', 'U'), ('సం', 'U'), ('దే', 'U'), ('హ', '|'), ('మే', 'U'), ('లా', 'U'), ('స్మృ', '|'), ('తుల్', 'U'), ('స', 'U'), ('ర్వం', 'U'), ('వి', 'U'), ('ష్ణు', '|'), ('మ', '|'), ('యం', 'U'), ('జ', '|'), ('గ', 'U'), ('త్త', '|'), ('న', '|'), ('గ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>పుడమి\న్‌ బెద్దలబోటివారి నడుగం బోరాదె చోద్యంబు పా
 ల్కడలి\న్‌ గల్గినముద్దరాలు గలుగంగా పూర్వకాలంబున\న్‌
@@ -2292,32 +2124,29 @@
 డడుగు ల్నేలను వేఁడఁగాఁ జనవు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('డ', '|'), ('మిన్', 'U'), ('బె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('బో', 'U'), ('టి', '|'), ('వా', 'U'), ('రి', '|'), ('న', '|'), ('డు', '|'), ('గం', 'U'), ('బో', 'U'), ('రా', 'U'), ('దె', '|'), ('చో', 'U'), ('ద్యం', 'U'), ('బు', '|'), ('పా', 'U'), ('ల్క', '|'), ('డ', '|'), ('లిన్', 'U'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('ము', 'U'), ('ద్ద', '|'), ('రా', 'U'), ('లు', '|'), ('గ', '|'), ('లు', '|'), ('గం', 'U'), ('గా', 'U'), ('పూ', 'U'), ('ర్వ', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('నన్', 'U'), ('పొ', '|'), ('డ', '|'), ('వె', '|'), ('ల్లన్', 'U'), ('గ', '|'), ('డు', '|'), ('త', 'U'), ('గ్గి', '|'), ('దా', 'U'), ('న', '|'), ('వు', '|'), ('ని', '|'), ('తో', 'U'), ('బొం', 'U'), ('కై', 'U'), ('న', '|'), ('మా', 'U'), ('టా', 'U'), ('డి', '|'), ('మూ', 'U'), ('డ', '|'), ('డు', '|'), ('గు', 'U'), ('ల్నే', 'U'), ('ల', '|'), ('ను', '|'), ('వే', 'U'), ('డ', '|'), ('గా', 'U'), ('జ', '|'), ('న', '|'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>రంగప్రౌఢిమ భార్గవుం గెలిచి కౌరవ్యుల్‌ భయం బంది వీ
 రాగంబుం ధరియించి జీవము సతంబై యుండ వర్తించునా
@@ -2325,32 +2154,29 @@
 డంగా మృత్యువుధాటి కోపుదురె కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('రం', 'U'), ('గ', 'U'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('మ', '|'), ('భా', 'U'), ('ర్గ', '|'), ('వుం', 'U'), ('గె', '|'), ('లి', '|'), ('చి', '|'), ('కౌ', 'U'), ('ర', '|'), ('వ్యుల్', 'U'), ('భ', '|'), ('యం', 'U'), ('బం', 'U'), ('ది', '|'), ('వీ', 'U'), ('రా', 'U'), ('గం', 'U'), ('బుం', 'U'), ('ధ', '|'), ('రి', '|'), ('యిం', 'U'), ('చి', '|'), ('జీ', 'U'), ('వ', '|'), ('ము', '|'), ('స', '|'), ('తం', 'U'), ('బై', 'U'), ('యుం', 'U'), ('డ', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('నా', 'U'), ('గాం', 'U'), ('గే', 'U'), ('యుం', 'U'), ('డు', '|'), ('శి', '|'), ('ఖం', 'U'), ('డి', '|'), ('చే', 'U'), ('త', '|'), ('దె', '|'), ('గె', '|'), ('నీ', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ముం', 'U'), ('ద', 'U'), ('ప్పి', '|'), ('యుం', 'U'), ('డం', 'U'), ('గా', 'U'), ('మృ', 'U'), ('త్యు', '|'), ('వు', '|'), ('ధా', 'U'), ('టి', '|'), ('కో', 'U'), ('పు', '|'), ('దు', '|'), ('రె', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>అక్రూరస్థితి నుండఁగా వలయు రాజాస్థానమధ్యంబున\న్‌
 వక్రింపం బనిలేదు ధర్మమునకై వర్తింపఁగాఁ బోయిన\న్‌
@@ -2358,32 +2184,29 @@
 జక్రీ నీకరపంకజాంతరముఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('క్రూ', 'U'), ('ర', 'U'), ('స్థి', '|'), ('తి', '|'), ('నుం', 'U'), ('డ', '|'), ('గా', 'U'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('రా', 'U'), ('జా', 'U'), ('స్థా', 'U'), ('న', '|'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('వ', 'U'), ('క్రిం', 'U'), ('పం', 'U'), ('బ', '|'), ('ని', '|'), ('లే', 'U'), ('దు', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ము', '|'), ('న', '|'), ('కై', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('గా', 'U'), ('బో', 'U'), ('యి', '|'), ('నన్', 'U'), ('శు', 'U'), ('క్రా', 'U'), ('చా', 'U'), ('ర్యు', '|'), ('ని', '|'), ('క', 'U'), ('న్ను', '|'), ('బో', 'U'), ('న', '|'), ('డ', '|'), ('చ', '|'), ('వే', 'U'), ('సూ', 'U'), ('టిన్', 'U'), ('గు', '|'), ('శా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('నన్', 'U'), ('జ', 'U'), ('క్రీ', 'U'), ('నీ', 'U'), ('క', '|'), ('ర', '|'), ('పం', 'U'), ('క', '|'), ('జాం', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>వరసౌందర్యవివేకధైర్యనయనావాత్సల్యధౌరేయుఁ డీ
 ధరణీనాయకరత్న మంచు మహితార్థంబాశ్రితశ్రేణికి\న్‌
@@ -2391,32 +2214,29 @@
 సరణి\న్‌ మీకృప గల్గువాఁ డగుట కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ర', '|'), ('సౌం', 'U'), ('ద', 'U'), ('ర్య', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ధై', 'U'), ('ర్య', '|'), ('న', '|'), ('య', '|'), ('నా', 'U'), ('వా', 'U'), ('త్స', 'U'), ('ల్య', '|'), ('ధౌ', 'U'), ('రే', 'U'), ('యు', '|'), ('డీ', 'U'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('నా', 'U'), ('య', '|'), ('క', '|'), ('ర', 'U'), ('త్న', '|'), ('మం', 'U'), ('చు', '|'), ('మ', '|'), ('హి', '|'), ('తా', 'U'), ('ర్థం', 'U'), ('బా', 'U'), ('శ్రి', '|'), ('త', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('కిన్', 'U'), ('స్థి', '|'), ('ర', '|'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', '|'), ('వి', '|'), ('భు', 'U'), ('త్వ', '|'), ('మా', 'U'), ('ధ్రు', '|'), ('వు', '|'), ('ని', '|'), ('కిన్', 'U'), ('దే', 'U'), ('జం', 'U'), ('బు', '|'), ('గా', 'U'), ('ని', 'U'), ('చ్చి', '|'), ('తా', 'U'), ('స', '|'), ('ర', '|'), ('ణిన్', 'U'), ('మీ', 'U'), ('కృ', '|'), ('ప', '|'), ('గ', 'U'), ('ల్గు', '|'), ('వా', 'U'), ('డ', '|'), ('గు', '|'), ('ట', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>ధారాపూర్వముగాఁగ సంయమికి సప్తద్వీపముల్‌ సూనృత
 ప్రారంభమున నిచ్చి చేతితడియాఱ\న్‌ లేక వర్తింపఁడే
@@ -2424,32 +2244,29 @@
 చారుం డుండు మనండె తొల్లి హరి కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('ధా', 'U'), ('రా', 'U'), ('పూ', 'U'), ('ర్వ', '|'), ('ము', '|'), ('గా', 'U'), ('గ', '|'), ('సం', 'U'), ('య', '|'), ('మి', '|'), ('కి', '|'), ('స', 'U'), ('ప్త', 'U'), ('ద్వీ', 'U'), ('ప', '|'), ('ముల్', 'U'), ('సూ', 'U'), ('నృ', '|'), ('త', 'U'), ('ప్రా', 'U'), ('రం', 'U'), ('భ', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('చ్చి', '|'), ('చే', 'U'), ('తి', '|'), ('త', '|'), ('డి', '|'), ('యా', 'U'), ('ఱన్', 'U'), ('లే', 'U'), ('క', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('డే', 'U'), ('శా', 'U'), ('రీ', 'U'), ('రా', 'U'), ('ర్థ', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('భి', 'U'), ('క్ష', '|'), ('ము', '|'), ('హ', '|'), ('రి', 'U'), ('శ్చం', 'U'), ('ద్రుం', 'U'), ('డు', '|'), ('యా', 'U'), ('గా', 'U'), ('ది', '|'), ('సం', 'U'), ('చా', 'U'), ('రుం', 'U'), ('డుం', 'U'), ('డు', '|'), ('మ', '|'), ('నం', 'U'), ('డె', '|'), ('తొ', 'U'), ('ల్లి', '|'), ('హ', '|'), ('రి', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>పటుబాహాబలసత్త్వవైఖరుల దిక్పాలుల్‌ బ్రశంసించు నం
 తటివాఁడయ్యుఁ ద్రిశంకునన్దనుఁడు కాంతారత్నము\న్‌ విక్రయిం
@@ -2457,32 +2274,29 @@
 తటివారైనను నేమిచేసెదరు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('టు', '|'), ('బా', 'U'), ('హా', 'U'), ('బ', '|'), ('ల', '|'), ('స', 'U'), ('త్త్వ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రు', '|'), ('ల', '|'), ('ది', 'U'), ('క్పా', 'U'), ('లుల్', 'U'), ('బ్ర', '|'), ('శం', 'U'), ('సిం', 'U'), ('చు', '|'), ('నం', 'U'), ('త', '|'), ('టి', '|'), ('వా', 'U'), ('డ', 'U'), ('య్యు', '|'), ('ద్రి', '|'), ('శం', 'U'), ('కు', '|'), ('న', 'U'), ('న్ద', '|'), ('ను', '|'), ('డు', '|'), ('కాం', 'U'), ('తా', 'U'), ('ర', 'U'), ('త్న', '|'), ('మున్', 'U'), ('వి', 'U'), ('క్ర', '|'), ('యిం', 'U'), ('చు', '|'), ('ట', '|'), ('లున్', 'U'), ('నీ', 'U'), ('మ', '|'), ('హి', '|'), ('మం', 'U'), ('బు', '|'), ('చే', 'U'), ('త', '|'), ('గ', '|'), ('ద', '|'), ('యి', 'U'), ('ట్లా', 'U'), ('శ్చ', 'U'), ('ర్య', '|'), ('మే', 'U'), ('మ', 'U'), ('ర్త్యు', '|'), ('లెం', 'U'), ('త', '|'), ('టి', '|'), ('వా', 'U'), ('రై', 'U'), ('న', '|'), ('ను', '|'), ('నే', 'U'), ('మి', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('రు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>తన శౌర్యోన్నతి యుగ్రసాధనముగా తాళాయణీశు\న్‌ శివు\న్‌
 దనర\న్‌ మెచ్చఁగఁజేసి లోకముజయస్తంభంబు గావించియు\న్‌
@@ -2490,32 +2304,29 @@
 జనఁడే దుర్మతి విక్రమార్కుఁ డిల కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('శౌ', 'U'), ('ర్యో', 'U'), ('న్న', '|'), ('తి', '|'), ('యు', 'U'), ('గ్ర', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('తా', 'U'), ('ళా', 'U'), ('య', '|'), ('ణీ', 'U'), ('శున్', 'U'), ('శి', '|'), ('వున్', 'U'), ('ద', '|'), ('న', '|'), ('రన్', 'U'), ('మె', 'U'), ('చ్చ', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('జ', '|'), ('య', 'U'), ('స్తం', 'U'), ('భం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('యున్', 'U'), ('ము', '|'), ('ను', '|'), ('దా', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('క', '|'), ('ర్మ', '|'), ('వా', 'U'), ('ర్ధి', '|'), ('ఘ', '|'), ('న', '|'), ('మై', 'U'), ('ముం', 'U'), ('పం', 'U'), ('గ', '|'), ('డుం', 'U'), ('బా', 'U'), ('లు', '|'), ('చే', 'U'), ('జ', '|'), ('న', '|'), ('డే', 'U'), ('దు', '|'), ('ర్మ', '|'), ('తి', '|'), ('వి', 'U'), ('క్ర', '|'), ('మా', 'U'), ('ర్కు', '|'), ('డి', '|'), ('ల', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>తెగువన్నిర్జరుల\న్‌ జయించుచు మదోద్రేకంబున\న్‌ గానలో
 మృగనేత్రి\న్‌ ధరణీతనూజ నసురు ల్మెచ్చంగఁ దాఁదెచ్చి నె
@@ -2523,32 +2334,29 @@
 జగతిం గూలఁడె యాదశాననుఁడు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('తె', '|'), ('గు', '|'), ('వ', 'U'), ('న్ని', 'U'), ('ర్జ', '|'), ('రు', '|'), ('లన్', 'U'), ('జ', '|'), ('యిం', 'U'), ('చు', '|'), ('చు', '|'), ('మ', '|'), ('దో', 'U'), ('ద్రే', 'U'), ('కం', 'U'), ('బు', '|'), ('నన్', 'U'), ('గా', 'U'), ('న', '|'), ('లో', 'U'), ('మృ', '|'), ('గ', '|'), ('నే', 'U'), ('త్రిన్', 'U'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('త', '|'), ('నూ', 'U'), ('జ', '|'), ('న', '|'), ('సు', '|'), ('రు', 'U'), ('ల్మె', 'U'), ('చ్చం', 'U'), ('గ', '|'), ('దా', 'U'), ('దె', 'U'), ('చ్చి', '|'), ('నె', 'U'), ('వ్వ', '|'), ('గ', '|'), ('లం', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('వి', '|'), ('ధి', 'U'), ('ప్ర', '|'), ('య', 'U'), ('త్న', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('ర్వం', 'U'), ('శం', 'U'), ('బు', '|'), ('గా', 'U'), ('రా', 'U'), ('ము', '|'), ('చే', 'U'), ('జ', '|'), ('గ', '|'), ('తిం', 'U'), ('గూ', 'U'), ('ల', '|'), ('డె', '|'), ('యా', 'U'), ('ద', '|'), ('శా', 'U'), ('న', '|'), ('ను', '|'), ('డు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>పరనారీహరణం బొనర్చినమహాపాపాత్ముఁ డారావణుం
 డరయ న్నాతని తమ్ముఁడైన దనుజుం డత్యంతసద్భక్తితో
@@ -2556,32 +2364,29 @@
 సరణి\న్‌ నీపదభక్తియే ఘనము కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('నా', 'U'), ('రీ', 'U'), ('హ', '|'), ('ర', '|'), ('ణం', 'U'), ('బొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('పా', 'U'), ('పా', 'U'), ('త్ము', '|'), ('డా', 'U'), ('రా', 'U'), ('వ', '|'), ('ణుం', 'U'), ('డ', '|'), ('ర', '|'), ('య', 'U'), ('న్నా', 'U'), ('త', '|'), ('ని', '|'), ('త', 'U'), ('మ్ము', '|'), ('డై', 'U'), ('న', '|'), ('ద', '|'), ('ను', '|'), ('జుం', 'U'), ('డ', 'U'), ('త్యం', 'U'), ('త', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('శ', '|'), ('ర', '|'), ('ణ', 'U'), ('న్నం', 'U'), ('ద', '|'), ('య', '|'), ('జూ', 'U'), ('చి', '|'), ('య', 'U'), ('గ్ర', '|'), ('జు', '|'), ('ని', '|'), ('రా', 'U'), ('జ్యం', 'U'), ('బి', 'U'), ('చ్చి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('ర', '|'), ('ణిన్', 'U'), ('నీ', 'U'), ('ప', '|'), ('ద', '|'), ('భ', 'U'), ('క్తి', '|'), ('యే', 'U'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>వెఱచైన\న్‌ మఱచైనఁ గార్యముతఱి\న్‌ వేసారుచున్నైన యా
 దరమొప్పైనను మాయనైన నృపతుల్‌ దండింపఁగా నైనను\న్‌
@@ -2589,32 +2394,29 @@
 నరకావాసముఁ జేరరా ఘనులు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ఱ', '|'), ('చై', 'U'), ('నన్', 'U'), ('మ', '|'), ('ఱ', '|'), ('చై', 'U'), ('న', '|'), ('గా', 'U'), ('ర్య', '|'), ('ము', '|'), ('త', '|'), ('ఱిన్', 'U'), ('వే', 'U'), ('సా', 'U'), ('రు', '|'), ('చు', 'U'), ('న్నై', 'U'), ('న', '|'), ('యా', 'U'), ('ద', '|'), ('ర', '|'), ('మొ', 'U'), ('ప్పై', 'U'), ('న', '|'), ('ను', '|'), ('మా', 'U'), ('య', '|'), ('నై', 'U'), ('న', '|'), ('నృ', '|'), ('ప', '|'), ('తుల్', 'U'), ('దం', 'U'), ('డిం', 'U'), ('ప', '|'), ('గా', 'U'), ('నై', 'U'), ('న', '|'), ('నున్', 'U'), ('ప', '|'), ('రి', '|'), ('హా', 'U'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('మి', 'U'), ('మ్ము', '|'), ('ను', '|'), ('డు', '|'), ('వన్', 'U'), ('బ్రా', 'U'), ('పిం', 'U'), ('చు', '|'), ('పు', 'U'), ('ణ్యా', 'U'), ('త్మ', '|'), ('కుల్', 'U'), ('న', '|'), ('ర', '|'), ('కా', 'U'), ('వా', 'U'), ('స', '|'), ('ము', '|'), ('జే', 'U'), ('ర', '|'), ('రా', 'U'), ('ఘ', '|'), ('ను', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>నొసట\న్‌ గన్నులఁగట్టి వేల్పుసతి నెంతోభక్తితోఁ జూఁడఁగా
 నిసుమంతైన భయంబులేక తలమీఁ దెక్క న్నదట్లుండనీ
@@ -2622,32 +2424,29 @@
 కస మియ్యం దల కెక్క కుండుదురె కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('నొ', '|'), ('స', '|'), ('టన్', 'U'), ('గ', 'U'), ('న్ను', '|'), ('ల', '|'), ('గ', 'U'), ('ట్టి', '|'), ('వే', 'U'), ('ల్పు', '|'), ('స', '|'), ('తి', '|'), ('నెం', 'U'), ('తో', 'U'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('ని', '|'), ('సు', '|'), ('మం', 'U'), ('తై', 'U'), ('న', '|'), ('భ', '|'), ('యం', 'U'), ('బు', '|'), ('లే', 'U'), ('క', '|'), ('త', '|'), ('ల', '|'), ('మీ', 'U'), ('దె', 'U'), ('క్క', 'U'), ('న్న', '|'), ('ద', 'U'), ('ట్లుం', 'U'), ('డ', '|'), ('నీ', 'U'), ('వ', '|'), ('సు', '|'), ('ధన్', 'U'), ('భ', 'U'), ('ర్త', '|'), ('ను', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('కె', 'U'), ('వ్వ', '|'), ('ర', '|'), ('యి', '|'), ('నన్', 'U'), ('వ', 'U'), ('శ్యా', 'U'), ('త్ము', '|'), ('లై', 'U'), ('మ', 'U'), ('ట్టు', '|'), ('లే', 'U'), ('క', '|'), ('స', '|'), ('మి', 'U'), ('య్యం', 'U'), ('ద', '|'), ('ల', '|'), ('కె', 'U'), ('క్క', '|'), ('కుం', 'U'), ('డు', '|'), ('దు', '|'), ('రె', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>కరితో దోమ మృగేంద్రుతో నరుఁడు బంగారంబుతోఁ గంచు భా
 స్కరుతో మిణ్గురుబుర్వు కల్పకముతోఁ గానుంగు రత్నాకరే
@@ -2655,32 +2454,29 @@
 సరియైన\న్‌ సరి మీకు దైవములు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('రి', '|'), ('తో', 'U'), ('దో', 'U'), ('మ', '|'), ('మృ', '|'), ('గేం', 'U'), ('ద్రు', '|'), ('తో', 'U'), ('న', '|'), ('రు', '|'), ('డు', '|'), ('బం', 'U'), ('గా', 'U'), ('రం', 'U'), ('బు', '|'), ('తో', 'U'), ('గం', 'U'), ('చు', '|'), ('భా', 'U'), ('స్క', '|'), ('రు', '|'), ('తో', 'U'), ('మి', 'U'), ('ణ్గు', '|'), ('రు', '|'), ('బు', 'U'), ('ర్వు', '|'), ('క', 'U'), ('ల్ప', '|'), ('క', '|'), ('ము', '|'), ('తో', 'U'), ('గా', 'U'), ('నుం', 'U'), ('గు', '|'), ('ర', 'U'), ('త్నా', 'U'), ('క', '|'), ('రే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('తో', 'U'), ('నూ', 'U'), ('ష', '|'), ('ర', '|'), ('ప', 'U'), ('ల్వ', '|'), ('లం', 'U'), ('బు', '|'), ('ను', '|'), ('రు', '|'), ('శే', 'U'), ('ష', 'U'), ('స్వా', 'U'), ('మి', '|'), ('తో', 'U'), ('మి', 'U'), ('డ్త', '|'), ('యున్', 'U'), ('స', '|'), ('రి', '|'), ('యై', 'U'), ('నన్', 'U'), ('స', '|'), ('రి', '|'), ('మీ', 'U'), ('కు', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>నుతలోకప్రతిసృష్ట నిర్మలకళానూత్నాబ్జగర్భు\న్‌ మహా
 ప్రతిభు\న్‌ గౌశికుఁ గుక్కమాంసము భుజింపం జేసి మాలాతని\న్‌
@@ -2688,32 +2484,29 @@
 శతఁ బొందించవె దేవదేవమయ కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('ను', '|'), ('త', '|'), ('లో', 'U'), ('క', 'U'), ('ప్ర', '|'), ('తి', '|'), ('సృ', 'U'), ('ష్ట', '|'), ('ని', '|'), ('ర్మ', '|'), ('ల', '|'), ('క', '|'), ('ళా', 'U'), ('నూ', 'U'), ('త్నా', 'U'), ('బ్జ', '|'), ('గ', '|'), ('ర్భున్', 'U'), ('మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('తి', '|'), ('భున్', 'U'), ('గౌ', 'U'), ('శి', '|'), ('కు', '|'), ('గు', 'U'), ('క్క', '|'), ('మాం', 'U'), ('స', '|'), ('ము', '|'), ('భు', '|'), ('జిం', 'U'), ('పం', 'U'), ('జే', 'U'), ('సి', '|'), ('మా', 'U'), ('లా', 'U'), ('త', '|'), ('నిన్', 'U'), ('బ', '|'), ('తి', '|'), ('మా', 'U'), ('లిం', 'U'), ('చ', '|'), ('వె', '|'), ('చం', 'U'), ('డ', '|'), ('చం', 'U'), ('డ', '|'), ('త', '|'), ('ర', '|'), ('శుం', 'U'), ('భ', 'U'), ('త్వం', 'U'), ('బు', '|'), ('పా', 'U'), ('ల్మా', 'U'), ('లు', '|'), ('నా', 'U'), ('శ', '|'), ('త', '|'), ('బొం', 'U'), ('దిం', 'U'), ('చ', '|'), ('వె', '|'), ('దే', 'U'), ('వ', '|'), ('దే', 'U'), ('వ', '|'), ('మ', '|'), ('య', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>వరభోగాధ్వరదానధర్మగుణముల్‌ వర్జించి తృష్ణారతి\న్‌
 నరులత్యంతము మూఢలోభమతులై నారీరతిం గూర్పఁగాఁ
@@ -2721,32 +2514,29 @@
 సరఘవ్రాతము జేర్చుతేనెక్రియఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ర', '|'), ('భో', 'U'), ('గా', 'U'), ('ధ్వ', '|'), ('ర', '|'), ('దా', 'U'), ('న', '|'), ('ధ', '|'), ('ర్మ', '|'), ('గు', '|'), ('ణ', '|'), ('ముల్', 'U'), ('వ', 'U'), ('ర్జిం', 'U'), ('చి', '|'), ('తృ', 'U'), ('ష్ణా', 'U'), ('ర', '|'), ('తిన్', 'U'), ('న', '|'), ('రు', '|'), ('ల', 'U'), ('త్యం', 'U'), ('త', '|'), ('ము', '|'), ('మూ', 'U'), ('ఢ', '|'), ('లో', 'U'), ('భ', '|'), ('మ', '|'), ('తు', '|'), ('లై', 'U'), ('నా', 'U'), ('రీ', 'U'), ('ర', '|'), ('తిం', 'U'), ('గూ', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('ద', '|'), ('ర', '|'), ('ముం', 'U'), ('గా', 'U'), ('ని', '|'), ('ధ', '|'), ('నం', 'U'), ('బు', '|'), ('త', 'U'), ('స్క', '|'), ('ర', '|'), ('వ', '|'), ('రున్', 'U'), ('ధా', 'U'), ('త్రీ', 'U'), ('శు', '|'), ('లుం', 'U'), ('జే', 'U'), ('కొ', '|'), ('నన్', 'U'), ('స', '|'), ('ర', '|'), ('ఘ', 'U'), ('వ్రా', 'U'), ('త', '|'), ('ము', '|'), ('జే', 'U'), ('ర్చు', '|'), ('తే', 'U'), ('నె', 'U'), ('క్రి', '|'), ('య', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>ఖలవాక్యప్రతిపాలకుల్‌ పరధనాకాంక్షుల్‌ పరస్త్రీరతుల్‌
 కులధర్మౌఘనిబద్ధచిత్తులు నయాకూపారపారంగతుల్‌
@@ -2754,32 +2544,29 @@
 శ్చలసౌఖ్యంబులు నిన్భజింపఁగను కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('ఖ', '|'), ('ల', '|'), ('వా', 'U'), ('క్య', 'U'), ('ప్ర', '|'), ('తి', '|'), ('పా', 'U'), ('ల', '|'), ('కుల్', 'U'), ('ప', '|'), ('ర', '|'), ('ధ', '|'), ('నా', 'U'), ('కాం', 'U'), ('క్షుల్', 'U'), ('ప', '|'), ('ర', 'U'), ('స్త్రీ', 'U'), ('ర', '|'), ('తుల్', 'U'), ('కు', '|'), ('ల', '|'), ('ధ', '|'), ('ర్మౌ', 'U'), ('ఘ', '|'), ('ని', '|'), ('బ', 'U'), ('ద్ధ', '|'), ('చి', 'U'), ('త్తు', '|'), ('లు', '|'), ('న', '|'), ('యా', 'U'), ('కూ', 'U'), ('పా', 'U'), ('ర', '|'), ('పా', 'U'), ('రం', 'U'), ('గ', '|'), ('తుల్', 'U'), ('క', '|'), ('లు', '|'), ('షుల్', 'U'), ('రా', 'U'), ('జు', '|'), ('లు', '|'), ('వా', 'U'), ('రి', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('ల', '|'), ('కె', 'U'), ('ల్లం', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('న', 'U'), ('త్యం', 'U'), ('త', '|'), ('ని', 'U'), ('శ్చ', '|'), ('ల', '|'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('లు', '|'), ('ని', 'U'), ('న్భ', '|'), ('జిం', 'U'), ('ప', '|'), ('గ', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>బొంకు ల్లక్షలు నిత్యసంభరితసంభోగారతుల్‌ దుర్మదా
 హంకారంబులు కోట్లసంఖ్యయగు మోహంబాయనంతంబు దు
@@ -2787,32 +2574,29 @@
 శ్శంకం బ్రాజ్ఞులు చేర వోవుదురె కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('బొం', 'U'), ('కు', 'U'), ('ల్ల', 'U'), ('క్ష', '|'), ('లు', '|'), ('ని', 'U'), ('త్య', '|'), ('సం', 'U'), ('భ', '|'), ('రి', '|'), ('త', '|'), ('సం', 'U'), ('భో', 'U'), ('గా', 'U'), ('ర', '|'), ('తుల్', 'U'), ('దు', '|'), ('ర్మ', '|'), ('దా', 'U'), ('హం', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('కో', 'U'), ('ట్ల', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('య', '|'), ('గు', '|'), ('మో', 'U'), ('హం', 'U'), ('బా', 'U'), ('య', '|'), ('నం', 'U'), ('తం', 'U'), ('బు', '|'), ('దు', 'U'), ('ష్పం', 'U'), ('కా', 'U'), ('భా', 'U'), ('ర', '|'), ('మ', '|'), ('పా', 'U'), ('ర', '|'), ('మి', 'U'), ('న్ని', '|'), ('గ', '|'), ('ల', '|'), ('భూ', 'U'), ('ప', 'U'), ('వ్రా', 'U'), ('త', '|'), ('స', 'U'), ('ర్పా', 'U'), ('ళి', '|'), ('ని', 'U'), ('శ్శం', 'U'), ('కం', 'U'), ('బ్రా', 'U'), ('జ్ఞు', '|'), ('లు', '|'), ('చే', 'U'), ('ర', '|'), ('వో', 'U'), ('వు', '|'), ('దు', '|'), ('రె', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>చీమల్‌ పుట్టలు పెట్టుచుండ నవి విస్తీర్ణంబు గావించిన\న్‌
 పాముల్‌ జేరినరీతి లోభిజనసంపన్నార్థరాసుల్‌ వృథా
@@ -2820,32 +2604,29 @@
 సామాన్యంబు ధనాధినాథులకుఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('చీ', 'U'), ('మల్', 'U'), ('పు', 'U'), ('ట్ట', '|'), ('లు', '|'), ('పె', 'U'), ('ట్టు', '|'), ('చుం', 'U'), ('డ', '|'), ('న', '|'), ('వి', '|'), ('వి', 'U'), ('స్తీ', 'U'), ('ర్ణం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('నన్', 'U'), ('పా', 'U'), ('ముల్', 'U'), ('జే', 'U'), ('రి', '|'), ('న', '|'), ('రీ', 'U'), ('తి', '|'), ('లో', 'U'), ('భి', '|'), ('జ', '|'), ('న', '|'), ('సం', 'U'), ('ప', 'U'), ('న్నా', 'U'), ('ర్థ', '|'), ('రా', 'U'), ('సుల్', 'U'), ('వృ', '|'), ('థా', 'U'), ('భూ', 'U'), ('మీ', 'U'), ('పా', 'U'), ('లు', '|'), ('ల', '|'), ('పా', 'U'), ('లు', '|'), ('గా', 'U'), ('క', '|'), ('చ', '|'), ('ను', '|'), ('నా', 'U'), ('పు', 'U'), ('ణ్యం', 'U'), ('బు', '|'), ('లే', 'U'), ('లొ', 'U'), ('ల్ల', '|'), ('రో', 'U'), ('సా', 'U'), ('మా', 'U'), ('న్యం', 'U'), ('బు', '|'), ('ధ', '|'), ('నా', 'U'), ('ధి', '|'), ('నా', 'U'), ('థు', '|'), ('ల', '|'), ('కు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>అదనం బొద్దులనీడచందమున నిచ్చల్‌ సృక్కి దుష్టాత్ముసం
 పద పెంపై ధరనిల్వదించుకయు సౌభాగ్యప్రభాభాసియై
@@ -2853,32 +2634,29 @@
 సదయుం డైనను లేమి జేకురునె కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ద', '|'), ('నం', 'U'), ('బొ', 'U'), ('ద్దు', '|'), ('ల', '|'), ('నీ', 'U'), ('డ', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('ని', '|'), ('చ్చల్', 'U'), ('సృ', 'U'), ('క్కి', '|'), ('దు', 'U'), ('ష్టా', 'U'), ('త్ము', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('పెం', 'U'), ('పై', 'U'), ('ధ', '|'), ('ర', '|'), ('ని', 'U'), ('ల్వ', '|'), ('దిం', 'U'), ('చు', '|'), ('క', '|'), ('యు', '|'), ('సౌ', 'U'), ('భా', 'U'), ('గ్య', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('భా', 'U'), ('సి', '|'), ('యై', 'U'), ('పొ', '|'), ('ద', '|'), ('లున్', 'U'), ('మా', 'U'), ('ప', '|'), ('టి', '|'), ('నీ', 'U'), ('డ', '|'), ('కై', 'U'), ('వ', '|'), ('డి', '|'), ('భ', '|'), ('వ', 'U'), ('త్పూ', 'U'), ('జా', 'U'), ('వి', '|'), ('ధే', 'U'), ('య', 'U'), ('జ్ఞు', '|'), ('డై', 'U'), ('స', '|'), ('ద', '|'), ('యుం', 'U'), ('డై', 'U'), ('న', '|'), ('ను', '|'), ('లే', 'U'), ('మి', '|'), ('జే', 'U'), ('కు', '|'), ('రు', '|'), ('నె', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>కీడు\న్‌ మేలును వచ్చుఁ గర్మవశత\న్‌ క్రీడాగతి\న్‌ జోకలై
 వాడల్‌ వచ్చును బండ్లునొక్కెడధర న్నొక్కప్పుడు\న్‌ బండ్లపై
@@ -2886,32 +2664,29 @@
 జాడ\న్‌ వచ్చును దుఃఖసౌఖ్యములు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('కీ', 'U'), ('డున్', 'U'), ('మే', 'U'), ('లు', '|'), ('ను', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గ', '|'), ('ర్మ', '|'), ('వ', '|'), ('శ', '|'), ('తన్', 'U'), ('క్రీ', 'U'), ('డా', 'U'), ('గ', '|'), ('తిన్', 'U'), ('జో', 'U'), ('క', '|'), ('లై', 'U'), ('వా', 'U'), ('డల్', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('ను', '|'), ('బం', 'U'), ('డ్లు', '|'), ('నొ', 'U'), ('క్కె', '|'), ('డ', '|'), ('ధ', '|'), ('ర', 'U'), ('న్నొ', 'U'), ('క్క', 'U'), ('ప్పు', '|'), ('డున్', 'U'), ('బం', 'U'), ('డ్ల', '|'), ('పై', 'U'), ('వా', 'U'), ('డల్', 'U'), ('నౌ', 'U'), ('గ', '|'), ('ద', '|'), ('దే', 'U'), ('శ', '|'), ('కా', 'U'), ('ల', '|'), ('గ', '|'), ('తి', '|'), ('శీ', 'U'), ('తో', 'U'), ('ష్ణం', 'U'), ('బు', '|'), ('లీ', 'U'), ('రీ', 'U'), ('తి', '|'), ('నే', 'U'), ('జా', 'U'), ('డన్', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('ను', '|'), ('దుః', 'U'), ('ఖ', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>అంతశ్శత్రుల గెల్వలేరు మమతాహంకారము ల్మానలే
 రింతే మూర్ఖము వీడలేరు భవదీయాంఘ్రిద్వయీచింతనా
@@ -2919,32 +2694,29 @@
 దాంతంబుల్‌ చదువంగ నేమి యగుఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('త', 'U'), ('శ్శ', 'U'), ('త్రు', '|'), ('ల', '|'), ('గె', 'U'), ('ల్వ', '|'), ('లే', 'U'), ('రు', '|'), ('మ', '|'), ('మ', '|'), ('తా', 'U'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', 'U'), ('ల్మా', 'U'), ('న', '|'), ('లే', 'U'), ('రిం', 'U'), ('తే', 'U'), ('మూ', 'U'), ('ర్ఖ', '|'), ('ము', '|'), ('వీ', 'U'), ('డ', '|'), ('లే', 'U'), ('రు', '|'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('యాం', 'U'), ('ఘ్రి', 'U'), ('ద్వ', '|'), ('యీ', 'U'), ('చిం', 'U'), ('త', '|'), ('నా', 'U'), ('చిం', 'U'), ('తా', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('గా', 'U'), ('న', '|'), ('లే', 'U'), ('రి', '|'), ('ల', '|'), ('ను', '|'), ('దు', 'U'), ('శ్చి', 'U'), ('త్తు', 'U'), ('ల్వృ', '|'), ('థా', 'U'), ('వే', 'U'), ('ద', '|'), ('వే', 'U'), ('దాం', 'U'), ('తం', 'U'), ('బుల్', 'U'), ('చ', '|'), ('దు', '|'), ('వం', 'U'), ('గ', '|'), ('నే', 'U'), ('మి', '|'), ('య', '|'), ('గు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>నానావేదపురాణశాస్త్రముల నానందింపఁగా నిత్య మిం
 పౌనార్యు ల్వినుతింప ధార్మికరహస్యంబు ల్విన న్వచ్చునౌ
@@ -2952,32 +2724,29 @@
 జ్ఞానాధిక్యము గానిముక్తిఁ గని కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('నా', 'U'), ('వే', 'U'), ('ద', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('నా', 'U'), ('నం', 'U'), ('దిం', 'U'), ('ప', '|'), ('గా', 'U'), ('ని', 'U'), ('త్య', '|'), ('మిం', 'U'), ('పౌ', 'U'), ('నా', 'U'), ('ర్యు', 'U'), ('ల్వి', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('ధా', 'U'), ('ర్మి', '|'), ('క', '|'), ('ర', '|'), ('హ', 'U'), ('స్యం', 'U'), ('బు', 'U'), ('ల్వి', '|'), ('న', 'U'), ('న్వ', 'U'), ('చ్చు', '|'), ('నౌ', 'U'), ('మీ', 'U'), ('నా', 'U'), ('మాం', 'U'), ('క', '|'), ('భ', '|'), ('వ', 'U'), ('ద్వి', '|'), ('వే', 'U'), ('కు', '|'), ('ల', '|'), ('కు', '|'), ('ము', 'U'), ('న్నా', 'U'), ('శ్చ', 'U'), ('ర్య', '|'), ('మే', 'U'), ('స', 'U'), ('త్వ', '|'), ('రా', 'U'), ('జ్ఞా', 'U'), ('నా', 'U'), ('ధి', 'U'), ('క్య', '|'), ('ము', '|'), ('గా', 'U'), ('ని', '|'), ('ము', 'U'), ('క్తి', '|'), ('గ', '|'), ('ని', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>గట్రాల\న్‌ బలుకానల\న్‌ గుహల గంగాసింధుదేశంబుల\న్‌
 వట్రాఠావుల దేహమెల్లఁ జెదర\న్‌ వర్తించిన\న్‌ మేరువు\న్‌
@@ -2985,32 +2754,29 @@
 చట్రా వాని ప్రయాస మంతయును గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('గ', 'U'), ('ట్రా', 'U'), ('లన్', 'U'), ('బ', '|'), ('లు', '|'), ('కా', 'U'), ('న', '|'), ('లన్', 'U'), ('గు', '|'), ('హ', '|'), ('ల', '|'), ('గం', 'U'), ('గా', 'U'), ('సిం', 'U'), ('ధు', '|'), ('దే', 'U'), ('శం', 'U'), ('బు', '|'), ('లన్', 'U'), ('వ', 'U'), ('ట్రా', 'U'), ('ఠా', 'U'), ('వు', '|'), ('ల', '|'), ('దే', 'U'), ('హ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('జె', '|'), ('ద', '|'), ('రన్', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('మే', 'U'), ('రు', '|'), ('వున్', 'U'), ('చు', 'U'), ('ట్రా', 'U'), ('యే', 'U'), ('బ', '|'), ('ది', '|'), ('మా', 'U'), ('ర్లు', '|'), ('మె', 'U'), ('ట్టి', '|'), ('న', '|'), ('మ', '|'), ('న', 'U'), ('శ్శు', 'U'), ('ద్ధుం', 'U'), ('డు', '|'), ('గా', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('చ', 'U'), ('ట్రా', 'U'), ('వా', 'U'), ('ని', 'U'), ('ప్ర', '|'), ('యా', 'U'), ('స', '|'), ('మం', 'U'), ('త', '|'), ('యు', '|'), ('ను', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>గంగాజన్మపదాబ్జమందు నభిషేకంబు ల్సదా గాంచెదన్‌
 నంగారార్చనచేసి యేరణమున\న్‌ నర్పింతు నంభోధరా
@@ -3018,32 +2784,29 @@
 కంగీకారము గాఁగ నాతరమె కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('గం', 'U'), ('గా', 'U'), ('జ', 'U'), ('న్మ', '|'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('మం', 'U'), ('దు', '|'), ('న', '|'), ('భి', '|'), ('షే', 'U'), ('కం', 'U'), ('బు', 'U'), ('ల్స', '|'), ('దా', 'U'), ('గాం', 'U'), ('చె', '|'), ('దన్', 'U'), ('నం', 'U'), ('గా', 'U'), ('రా', 'U'), ('ర్చ', '|'), ('న', '|'), ('చే', 'U'), ('సి', '|'), ('యే', 'U'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('నన్', 'U'), ('న', 'U'), ('ర్పిం', 'U'), ('తు', '|'), ('నం', 'U'), ('భో', 'U'), ('ధ', '|'), ('రా', 'U'), ('శృం', 'U'), ('గా', 'U'), ('రా', 'U'), ('ధి', '|'), ('ప', '|'), ('కౌ', 'U'), ('స్తు', '|'), ('భా', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('యే', 'U'), ('శృం', 'U'), ('గా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('జే', 'U'), ('తు', '|'), ('మీ', 'U'), ('కం', 'U'), ('గీ', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('గ', '|'), ('నా', 'U'), ('త', '|'), ('ర', '|'), ('మె', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>అతిమోహాంధులఁ బాపకర్ముల మహాహంకారుల\న్‌ దోషదూ
 షితుల\న్‌ గర్వితదుర్విచారులఁ బ్రశంసింపం బ్రశంసింపఁగా
@@ -3051,32 +2814,29 @@
 న్నతసేవాభిముఖుండ నైతి నిట కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('తి', '|'), ('మో', 'U'), ('హాం', 'U'), ('ధు', '|'), ('ల', '|'), ('బా', 'U'), ('ప', '|'), ('క', '|'), ('ర్ము', '|'), ('ల', '|'), ('మ', '|'), ('హా', 'U'), ('హం', 'U'), ('కా', 'U'), ('రు', '|'), ('లన్', 'U'), ('దో', 'U'), ('ష', '|'), ('దూ', 'U'), ('షి', '|'), ('తు', '|'), ('లన్', 'U'), ('గ', 'U'), ('ర్వి', '|'), ('త', '|'), ('దు', 'U'), ('ర్వి', '|'), ('చా', 'U'), ('రు', '|'), ('ల', 'U'), ('బ్ర', '|'), ('శం', 'U'), ('సిం', 'U'), ('పం', 'U'), ('బ్ర', '|'), ('శం', 'U'), ('సిం', 'U'), ('ప', '|'), ('గా', 'U'), ('ది', '|'), ('తి', '|'), ('ప', 'U'), ('ర్యా', 'U'), ('ప్తి', '|'), ('ది', '|'), ('నం', 'U'), ('బు', '|'), ('లొం', 'U'), ('ది', 'U'), ('త్రి', '|'), ('జ', '|'), ('గ', 'U'), ('ద్వి', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('యు', 'U'), ('ష్మ', 'U'), ('త్స', '|'), ('ము', 'U'), ('న్న', '|'), ('త', '|'), ('సే', 'U'), ('వా', 'U'), ('భి', '|'), ('ము', '|'), ('ఖుం', 'U'), ('డ', '|'), ('నై', 'U'), ('తి', '|'), ('ని', '|'), ('ట', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>పలుమాఱు\న్‌ ఇహభోగకాంక్షసభల\న్‌ పాండిత్యముల్‌ సేయువా
 రలయజ్ఞానము మాన్పఁగాఁ గలరె యెట్లైన\న్‌ బ్రకాశించు కో
@@ -3084,32 +2844,29 @@
 జ్జ్వలితానందమయ స్వరూపయుత కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('లు', '|'), ('మా', 'U'), ('ఱున్', 'U'), ('ఇ', '|'), ('హ', '|'), ('భో', 'U'), ('గ', '|'), ('కాం', 'U'), ('క్ష', '|'), ('స', '|'), ('భ', '|'), ('లన్', 'U'), ('పాం', 'U'), ('డి', 'U'), ('త్య', '|'), ('ముల్', 'U'), ('సే', 'U'), ('యు', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('య', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('మా', 'U'), ('న్ప', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('రె', '|'), ('యె', 'U'), ('ట్లై', 'U'), ('నన్', 'U'), ('బ్ర', '|'), ('కా', 'U'), ('శిం', 'U'), ('చు', '|'), ('కో', 'U'), ('మ', '|'), ('ల', '|'), ('దీ', 'U'), ('పా', 'U'), ('ళి', '|'), ('దొ', '|'), ('లం', 'U'), ('గ', '|'), ('ద్రో', 'U'), ('యు', '|'), ('నె', '|'), ('భ', '|'), ('వ', 'U'), ('న్మా', 'U'), ('యాం', 'U'), ('ధ', '|'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('ను', 'U'), ('జ్జ్వ', '|'), ('లి', '|'), ('తా', 'U'), ('నం', 'U'), ('ద', '|'), ('మ', '|'), ('య', 'U'), ('స్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('యు', '|'), ('త', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>ఉర్విం బాఱుమహానదీజలము లాయూరూరునందెల్లఁ గూ
 డురుఘోషంబున వంకలై కలియఁగా యోగ్యంబు లైనట్లు మీ
@@ -3117,32 +2874,29 @@
 చ్చరణంబుల్‌ మది నిల్పి కొల్చెదను కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('ఉ', 'U'), ('ర్విం', 'U'), ('బా', 'U'), ('ఱు', '|'), ('మ', '|'), ('హా', 'U'), ('న', '|'), ('దీ', 'U'), ('జ', '|'), ('ల', '|'), ('ము', '|'), ('లా', 'U'), ('యూ', 'U'), ('రూ', 'U'), ('రు', '|'), ('నం', 'U'), ('దె', 'U'), ('ల్ల', '|'), ('గూ', 'U'), ('డు', '|'), ('రు', '|'), ('ఘో', 'U'), ('షం', 'U'), ('బు', '|'), ('న', '|'), ('వం', 'U'), ('క', '|'), ('లై', 'U'), ('క', '|'), ('లి', '|'), ('య', '|'), ('గా', 'U'), ('యో', 'U'), ('గ్యం', 'U'), ('బు', '|'), ('లై', 'U'), ('న', 'U'), ('ట్లు', '|'), ('మీ', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణన్', 'U'), ('నా', 'U'), ('ను', '|'), ('డు', '|'), ('వున్', 'U'), ('స', '|'), ('దా', 'U'), ('శు', '|'), ('భ', '|'), ('ము', '|'), ('లై', 'U'), ('సం', 'U'), ('పూ', 'U'), ('జ్య', '|'), ('మున్', 'U'), ('గా', 'U'), ('భ', '|'), ('వ', 'U'), ('చ్చ', '|'), ('ర', '|'), ('ణం', 'U'), ('బుల్', 'U'), ('మ', '|'), ('ది', '|'), ('ని', 'U'), ('ల్పి', '|'), ('కొ', 'U'), ('ల్చె', '|'), ('ద', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>బాలక్రీడలఁ గొన్నినాళ్లు పిదప\న్‌ భామాకుచాలింగనా
 లోలాభ్యున్నతిఁ గొన్నినాళ్లు మఱియిల్లు\న్‌ ముంగిలింగొన్ని నా
@@ -3150,32 +2904,29 @@
 చాల\న్‌ నీపదభక్తిఁ జేసెదను కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('బా', 'U'), ('ల', 'U'), ('క్రీ', 'U'), ('డ', '|'), ('ల', '|'), ('గొ', 'U'), ('న్ని', '|'), ('నా', 'U'), ('ళ్లు', '|'), ('పి', '|'), ('ద', '|'), ('పన్', 'U'), ('భా', 'U'), ('మా', 'U'), ('కు', '|'), ('చా', 'U'), ('లిం', 'U'), ('గ', '|'), ('నా', 'U'), ('లో', 'U'), ('లా', 'U'), ('భ్యు', 'U'), ('న్న', '|'), ('తి', '|'), ('గొ', 'U'), ('న్ని', '|'), ('నా', 'U'), ('ళ్లు', '|'), ('మ', '|'), ('ఱి', '|'), ('యి', '|'), ('ల్లున్', 'U'), ('ముం', 'U'), ('గి', '|'), ('లిం', 'U'), ('గొ', 'U'), ('న్ని', '|'), ('నా', 'U'), ('ళ్లీ', 'U'), ('లీ', 'U'), ('లన్', 'U'), ('వి', '|'), ('హ', '|'), ('రిం', 'U'), ('చి', '|'), ('తిన్', 'U'), ('సు', '|'), ('ఖ', '|'), ('ఫ', '|'), ('లం', 'U'), ('బెం', 'U'), ('దే', 'U'), ('ని', '|'), ('యున్', 'U'), ('లే', 'U'), ('దు', '|'), ('గా', 'U'), ('చా', 'U'), ('లన్', 'U'), ('నీ', 'U'), ('ప', '|'), ('ద', '|'), ('భ', 'U'), ('క్తి', '|'), ('జే', 'U'), ('సె', '|'), ('ద', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>మతిలో మిమ్ముఁదలంచు పుణ్యుఁడిలఁ దామాయ\న్‌ స్వదారాదుల
 న్వెతలం బొర్లఁడు భాగ్యవంతుఁడగుఠీవి\న్‌ దివ్యమృష్టాన్న సం
@@ -3183,32 +2934,29 @@
 చ్చతురాస్య ప్రముఖామర ప్రణుత కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('తి', '|'), ('లో', 'U'), ('మి', 'U'), ('మ్ము', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('పు', 'U'), ('ణ్యు', '|'), ('డి', '|'), ('ల', '|'), ('దా', 'U'), ('మా', 'U'), ('యన్', 'U'), ('స్వ', '|'), ('దా', 'U'), ('రా', 'U'), ('దు', '|'), ('ల', 'U'), ('న్వె', '|'), ('త', '|'), ('లం', 'U'), ('బొ', 'U'), ('ర్ల', '|'), ('డు', '|'), ('భా', 'U'), ('గ్య', '|'), ('వం', 'U'), ('తు', '|'), ('డ', '|'), ('గు', '|'), ('ఠీ', 'U'), ('విన్', 'U'), ('ది', 'U'), ('వ్య', '|'), ('మృ', 'U'), ('ష్టా', 'U'), ('న్న', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('లో', 'U'), ('నా', 'U'), ('డి', '|'), ('మ', '|'), ('నుం', 'U'), ('డు', '|'), ('భి', 'U'), ('క్ష', '|'), ('ము', '|'), ('నొ', '|'), ('సం', 'U'), ('గన్', 'U'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('శూ', 'U'), ('ల', '|'), ('భృ', 'U'), ('చ్చ', '|'), ('తు', '|'), ('రా', 'U'), ('స్య', 'U'), ('ప్ర', '|'), ('ము', '|'), ('ఖా', 'U'), ('మ', '|'), ('ర', 'U'), ('ప్ర', '|'), ('ణు', '|'), ('త', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>అన్నంబైనను దక్రమైనఁ దగుతోయంబైన నభ్యాగతుల్‌
 దన్నాశించిన నేమియు న్నిడక యేధర్మంబునుం జేయ కే
@@ -3216,32 +2964,29 @@
 చన్న న్నేమగు నేమగు\న్‌ గలుగఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('న్నం', 'U'), ('బై', 'U'), ('న', '|'), ('ను', '|'), ('ద', 'U'), ('క్ర', '|'), ('మై', 'U'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('తో', 'U'), ('యం', 'U'), ('బై', 'U'), ('న', '|'), ('న', 'U'), ('భ్యా', 'U'), ('గ', '|'), ('తుల్', 'U'), ('ద', 'U'), ('న్నా', 'U'), ('శిం', 'U'), ('చి', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('యు', 'U'), ('న్ని', '|'), ('డ', '|'), ('క', '|'), ('యే', 'U'), ('ధ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('నుం', 'U'), ('జే', 'U'), ('య', '|'), ('కే', 'U'), ('మ', 'U'), ('న్న', 'U'), ('న్నూ', 'U'), ('ర', '|'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('జీ', 'U'), ('వ', '|'), ('శ', '|'), ('ర', '|'), ('మ', 'U'), ('ర్త్య', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('జే', 'U'), ('య', '|'), ('కే', 'U'), ('చ', 'U'), ('న్న', 'U'), ('న్నే', 'U'), ('మ', '|'), ('గు', '|'), ('నే', 'U'), ('మ', '|'), ('గున్', 'U'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>ప్రారబ్ధానుభవంబు దీఱ కపవర్గప్రాప్తి లేదండ్రుగా
 దీరశ్రేష్ఠు లనంతకోటులిఁక నైతే వారికర్మంబులు\న్‌
@@ -3249,32 +2994,29 @@
 ప్రారబ్ధంబులఁ దీర్పవే కరుణఁ గృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('ప్రా', 'U'), ('ర', 'U'), ('బ్ధా', 'U'), ('ను', '|'), ('భ', '|'), ('వం', 'U'), ('బు', '|'), ('దీ', 'U'), ('ఱ', '|'), ('క', '|'), ('ప', '|'), ('వ', 'U'), ('ర్గ', 'U'), ('ప్రా', 'U'), ('ప్తి', '|'), ('లే', 'U'), ('దం', 'U'), ('డ్రు', '|'), ('గా', 'U'), ('దీ', 'U'), ('ర', 'U'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('ల', '|'), ('నం', 'U'), ('త', '|'), ('కో', 'U'), ('టు', '|'), ('లి', '|'), ('క', '|'), ('నై', 'U'), ('తే', 'U'), ('వా', 'U'), ('రి', '|'), ('క', '|'), ('ర్మం', 'U'), ('బు', '|'), ('లున్', 'U'), ('ప్రా', 'U'), ('ర', 'U'), ('బ్ధం', 'U'), ('బు', '|'), ('లు', '|'), ('గా', 'U'), ('వె', '|'), ('ముం', 'U'), ('ద', '|'), ('ఱ', '|'), ('కు', '|'), ('నో', 'U'), ('భా', 'U'), ('వ', 'U'), ('జ్ఞ', '|'), ('సై', 'U'), ('రిం', 'U'), ('చి', '|'), ('నా', 'U'), ('ప్రా', 'U'), ('ర', 'U'), ('బ్ధం', 'U'), ('బు', '|'), ('ల', '|'), ('దీ', 'U'), ('ర్ప', '|'), ('వే', 'U'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>శ్రీజన్మప్రభుతావిశేషుఁ డగు రాజేంద్రుండు ధీపాలనా
 జ్ఞాజాగ్రత్వనిదానకీర్తియుత రక్షాలక్షణాధీశుఁడై
@@ -3282,32 +3024,29 @@
 నైజంబై తగునా విశేషములు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('జ', 'U'), ('న్మ', 'U'), ('ప్ర', '|'), ('భు', '|'), ('తా', 'U'), ('వి', '|'), ('శే', 'U'), ('షు', '|'), ('డ', '|'), ('గు', '|'), ('రా', 'U'), ('జేం', 'U'), ('ద్రుం', 'U'), ('డు', '|'), ('ధీ', 'U'), ('పా', 'U'), ('ల', '|'), ('నా', 'U'), ('జ్ఞా', 'U'), ('జా', 'U'), ('గ్ర', 'U'), ('త్వ', '|'), ('ని', '|'), ('దా', 'U'), ('న', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('యు', '|'), ('త', '|'), ('ర', 'U'), ('క్షా', 'U'), ('ల', 'U'), ('క్ష', '|'), ('ణా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('డై', 'U'), ('రా', 'U'), ('జి', 'U'), ('ల్లుం', 'U'), ('బ', '|'), ('హు', '|'), ('క', 'U'), ('ష్టు', '|'), ('డై', 'U'), ('న', '|'), ('ధ', '|'), ('ర', '|'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్యం', 'U'), ('బు', '|'), ('బా', 'U'), ('లిం', 'U'), ('పు', '|'), ('చో', 'U'), ('నై', 'U'), ('జం', 'U'), ('బై', 'U'), ('త', '|'), ('గు', '|'), ('నా', 'U'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('ము', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>సమరద్వేషుల సంగరాంగణమున\న్‌ సాధించి సామ్రాజ్య సౌ
 ఖ్యముఁ దాఁగాంచి సహించి చొప్పడు వివేకప్రాజ్ఞతల్గాంచు భూ
@@ -3315,32 +3054,29 @@
 ష్టమతి భ్రష్టమదాంధ శత్రువుల కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('మ', '|'), ('ర', 'U'), ('ద్వే', 'U'), ('షు', '|'), ('ల', '|'), ('సం', 'U'), ('గ', '|'), ('రాం', 'U'), ('గ', '|'), ('ణ', '|'), ('ము', '|'), ('నన్', 'U'), ('సా', 'U'), ('ధిం', 'U'), ('చి', '|'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('దా', 'U'), ('గాం', 'U'), ('చి', '|'), ('స', '|'), ('హిం', 'U'), ('చి', '|'), ('చొ', 'U'), ('ప్ప', '|'), ('డు', '|'), ('వి', '|'), ('వే', 'U'), ('క', 'U'), ('ప్రా', 'U'), ('జ్ఞ', '|'), ('త', 'U'), ('ల్గాం', 'U'), ('చు', '|'), ('భూ', 'U'), ('ర', '|'), ('మ', '|'), ('ణ', 'U'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('డు', '|'), ('తా', 'U'), ('వ', '|'), ('కా', 'U'), ('ను', '|'), ('చ', '|'), ('రు', '|'), ('డై', 'U'), ('రా', 'U'), ('ణిం', 'U'), ('చు', '|'), ('శి', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('దు', 'U'), ('ష్ట', '|'), ('మ', '|'), ('తి', 'U'), ('భ్ర', 'U'), ('ష్ట', '|'), ('మ', '|'), ('దాం', 'U'), ('ధ', '|'), ('శ', 'U'), ('త్రు', '|'), ('వు', '|'), ('ల', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>విగతక్లేశులు వీతకిల్బిషమయుల్‌ విజ్ఞానవిద్యానిధుల్‌
 నిగమార్థజ్ఞులు నిశ్చలవ్రతయుతుల్‌ నిర్వ్యాజనిష్ఠాయుతుల్‌
@@ -3348,32 +3084,29 @@
 జగతీమండలి నీదుసేవకులు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('గ', '|'), ('త', 'U'), ('క్లే', 'U'), ('శు', '|'), ('లు', '|'), ('వీ', 'U'), ('త', '|'), ('కి', 'U'), ('ల్బి', '|'), ('ష', '|'), ('మ', '|'), ('యుల్', 'U'), ('వి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('ని', '|'), ('ధుల్', 'U'), ('ని', '|'), ('గ', '|'), ('మా', 'U'), ('ర్థ', 'U'), ('జ్ఞు', '|'), ('లు', '|'), ('ని', 'U'), ('శ్చ', '|'), ('ల', 'U'), ('వ్ర', '|'), ('త', '|'), ('యు', '|'), ('తుల్', 'U'), ('ని', 'U'), ('ర్వ్యా', 'U'), ('జ', '|'), ('ని', 'U'), ('ష్ఠా', 'U'), ('యు', '|'), ('తుల్', 'U'), ('సు', '|'), ('గు', '|'), ('ణుల్', 'U'), ('సూ', 'U'), ('నృ', '|'), ('త', '|'), ('వ', 'U'), ('ర్త', '|'), ('నుల్', 'U'), ('శు', '|'), ('భ', '|'), ('క', '|'), ('రుల్', 'U'), ('శు', 'U'), ('ద్ధాం', 'U'), ('త', '|'), ('రం', 'U'), ('గుల్', 'U'), ('శు', '|'), ('భుల్', 'U'), ('జ', '|'), ('గ', '|'), ('తీ', 'U'), ('మం', 'U'), ('డ', '|'), ('లి', '|'), ('నీ', 'U'), ('దు', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>దీనుల్గల్గిన నీదు రక్షణగుణాధిక్యంబు రాణించు నౌ
 దీనుండెవ్వఁడు లేఁడు నీదుకరుణాదృష్టి\న్‌ గృతార్థుల్‌ జుమీ
@@ -3381,32 +3114,29 @@
 జ్ఞాన శ్రీకరమూర్తి నమ్మితిని కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('దీ', 'U'), ('ను', 'U'), ('ల్గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('నీ', 'U'), ('దు', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('గు', '|'), ('ణా', 'U'), ('ధి', 'U'), ('క్యం', 'U'), ('బు', '|'), ('రా', 'U'), ('ణిం', 'U'), ('చు', '|'), ('నౌ', 'U'), ('దీ', 'U'), ('నుం', 'U'), ('డె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('లే', 'U'), ('డు', '|'), ('నీ', 'U'), ('దు', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('దృ', '|'), ('ష్టిన్', 'U'), ('గృ', '|'), ('తా', 'U'), ('ర్థుల్', 'U'), ('జు', '|'), ('మీ', 'U'), ('నే', 'U'), ('నే', 'U'), ('దీ', 'U'), ('ను', '|'), ('డ', '|'), ('న', 'U'), ('న్ను', 'U'), ('బ్రో', 'U'), ('వు', '|'), ('శ', '|'), ('ర', '|'), ('ణం', 'U'), ('టిం', 'U'), ('ద్వ', 'U'), ('న్ము', '|'), ('ఖో', 'U'), ('దీ', 'U'), ('ర్ణ', '|'), ('సు', 'U'), ('జ్ఞా', 'U'), ('న', 'U'), ('శ్రీ', 'U'), ('క', '|'), ('ర', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('న', 'U'), ('మ్మి', '|'), ('తి', '|'), ('ని', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>పాత్రాపాత్రవివేకము ల్సమసె పాపం బెచ్చె ధర్మంబును\న్‌
 మిత్రఘ్నత్వము కల్లలాడుటయు స్వామిద్రోహముం గొండెము\న్‌
@@ -3414,32 +3144,29 @@
 సత్రాజిత్తనయా మనోరమణ కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('త్రా', 'U'), ('పా', 'U'), ('త్ర', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ము', 'U'), ('ల్స', '|'), ('మ', '|'), ('సె', '|'), ('పా', 'U'), ('పం', 'U'), ('బె', 'U'), ('చ్చె', '|'), ('ధ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('నున్', 'U'), ('మి', 'U'), ('త్ర', 'U'), ('ఘ్న', 'U'), ('త్వ', '|'), ('ము', '|'), ('క', 'U'), ('ల్ల', '|'), ('లా', 'U'), ('డు', '|'), ('ట', '|'), ('యు', 'U'), ('స్వా', 'U'), ('మి', '|'), ('ద్రో', 'U'), ('హ', '|'), ('ముం', 'U'), ('గొం', 'U'), ('డె', '|'), ('మున్', 'U'), ('ధా', 'U'), ('త్రిం', 'U'), ('బూ', 'U'), ('జ్య', '|'), ('ము', '|'), ('ల', 'U'), ('య్యె', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('ల', '|'), ('చం', 'U'), ('దం', 'U'), ('బె', 'U'), ('ట్లు', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చె', '|'), ('దో', 'U'), ('స', 'U'), ('త్రా', 'U'), ('జి', 'U'), ('త్త', '|'), ('న', '|'), ('యా', 'U'), ('మ', '|'), ('నో', 'U'), ('ర', '|'), ('మ', '|'), ('ణ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>అరయం జందనగంధిపై విదురుపై నక్రూరుపైఁ గుబ్జపై
 నరుపై ద్రౌపదిపైఁ గుచేలకునిపై నందవ్రజస్త్రీలపైఁ
@@ -3447,32 +3174,29 @@
 చరణాబ్జంబుల నమ్మినాఁడ హరి కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ర', '|'), ('యం', 'U'), ('జం', 'U'), ('ద', '|'), ('న', '|'), ('గం', 'U'), ('ధి', '|'), ('పై', 'U'), ('వి', '|'), ('దు', '|'), ('రు', '|'), ('పై', 'U'), ('న', 'U'), ('క్రూ', 'U'), ('రు', '|'), ('పై', 'U'), ('గు', 'U'), ('బ్జ', '|'), ('పై', 'U'), ('న', '|'), ('రు', '|'), ('పై', 'U'), ('ద్రౌ', 'U'), ('ప', '|'), ('ది', '|'), ('పై', 'U'), ('గు', '|'), ('చే', 'U'), ('ల', '|'), ('కు', '|'), ('ని', '|'), ('పై', 'U'), ('నం', 'U'), ('ద', 'U'), ('వ్ర', '|'), ('జ', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('పై', 'U'), ('బ', '|'), ('ర', '|'), ('గం', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('భ', '|'), ('వ', 'U'), ('త్కృ', '|'), ('పా', 'U'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('నా', 'U'), ('పై', 'U'), ('గొం', 'U'), ('త', '|'), ('రా', 'U'), ('ని', 'U'), ('మ్ము', '|'), ('మీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణా', 'U'), ('బ్జం', 'U'), ('బు', '|'), ('ల', '|'), ('న', 'U'), ('మ్మి', '|'), ('నా', 'U'), ('డ', '|'), ('హ', '|'), ('రి', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>అనుకూలాన్వితయైన భార్యయును ధర్మార్థంబునైనట్టి నం
 దనులు\న్‌ సజ్జనులైన సోదరులు యెన్నంగల్గు సంపత్క్రియా
@@ -3480,32 +3204,29 @@
 జనుఁ డప్పుణ్యుని జూచిన\న్‌ శుభము కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ను', '|'), ('కూ', 'U'), ('లా', 'U'), ('న్వి', '|'), ('త', '|'), ('యై', 'U'), ('న', '|'), ('భా', 'U'), ('ర్య', '|'), ('యు', '|'), ('ను', '|'), ('ధ', '|'), ('ర్మా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('నై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('లున్', 'U'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('లై', 'U'), ('న', '|'), ('సో', 'U'), ('ద', '|'), ('రు', '|'), ('లు', '|'), ('యె', 'U'), ('న్నం', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('సం', 'U'), ('ప', 'U'), ('త్క్రి', '|'), ('యా', 'U'), ('ఘ', '|'), ('ను', '|'), ('డై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('మ', '|'), ('హా', 'U'), ('ను', '|'), ('భా', 'U'), ('వు', '|'), ('డె', '|'), ('భ', '|'), ('వ', 'U'), ('త్కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('దృ', 'U'), ('గ్జా', 'U'), ('ల', '|'), ('భా', 'U'), ('జ', '|'), ('ను', '|'), ('డ', 'U'), ('ప్పు', 'U'), ('ణ్యు', '|'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('నన్', 'U'), ('శు', '|'), ('భ', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>శరణాగత్యనురక్తి భక్తి జనరక్షాసత్కృపాసేవ్యస
 త్కరుణాపూర సుధారసంబుగల శృంగారంబు మీమూర్తియుం
@@ -3513,32 +3234,29 @@
 స్మరణాధీశునిఁ జేయు మ్రొక్కెదను కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('శ', '|'), ('ర', '|'), ('ణా', 'U'), ('గ', 'U'), ('త్య', '|'), ('ను', '|'), ('ర', 'U'), ('క్తి', '|'), ('భ', 'U'), ('క్తి', '|'), ('జ', '|'), ('న', '|'), ('ర', 'U'), ('క్షా', 'U'), ('స', 'U'), ('త్కృ', '|'), ('పా', 'U'), ('సే', 'U'), ('వ్య', '|'), ('స', 'U'), ('త్క', '|'), ('రు', '|'), ('ణా', 'U'), ('పూ', 'U'), ('ర', '|'), ('సు', '|'), ('ధా', 'U'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('శృం', 'U'), ('గా', 'U'), ('రం', 'U'), ('బు', '|'), ('మీ', 'U'), ('మూ', 'U'), ('ర్తి', '|'), ('యుం', 'U'), ('ద', '|'), ('ర', '|'), ('ణో', 'U'), ('పా', 'U'), ('య', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('ని', '|'), ('క', '|'), ('లు', '|'), ('షా', 'U'), ('ధా', 'U'), ('రున్', 'U'), ('న', '|'), ('నుం', 'U'), ('దా', 'U'), ('వ', '|'), ('క', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('ని', '|'), ('జే', 'U'), ('యు', '|'), ('మ్రొ', 'U'), ('క్కె', '|'), ('ద', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>ప్రలయాభీల కరాళదావదహన ప్రజ్జ్వాల మబ్జోదరా
 జ్వలనాకారముదాల్పఁ దానియెదుట\న్‌ సంతప్త సంతాప వాం
@@ -3546,32 +3264,29 @@
 చ్చలు నీపాదములే భజించెదరు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('ల', '|'), ('యా', 'U'), ('భీ', 'U'), ('ల', '|'), ('క', '|'), ('రా', 'U'), ('ళ', '|'), ('దా', 'U'), ('వ', '|'), ('ద', '|'), ('హ', '|'), ('న', 'U'), ('ప్ర', 'U'), ('జ్జ్వా', 'U'), ('ల', '|'), ('మ', 'U'), ('బ్జో', 'U'), ('ద', '|'), ('రా', 'U'), ('జ్వ', '|'), ('ల', '|'), ('నా', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('దా', 'U'), ('ల్ప', '|'), ('దా', 'U'), ('ని', '|'), ('యె', '|'), ('దు', '|'), ('టన్', 'U'), ('సం', 'U'), ('త', 'U'), ('ప్త', '|'), ('సం', 'U'), ('తా', 'U'), ('ప', '|'), ('వాం', 'U'), ('ఛ', '|'), ('లు', '|'), ('ది', 'U'), ('వ్యు', 'U'), ('ల్ము', '|'), ('ను', '|'), ('లుం', 'U'), ('గృ', '|'), ('శా', 'U'), ('స్యు', '|'), ('ల', '|'), ('గు', '|'), ('చుం', 'U'), ('జ', 'U'), ('ల్లా', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('లే', 'U'), ('క', '|'), ('ని', 'U'), ('చ్చ', '|'), ('లు', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('లే', 'U'), ('భ', '|'), ('జిం', 'U'), ('చె', '|'), ('ద', '|'), ('రు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>మొఱయాలింపవొ మానమున్నిలుపవో ముల్లోకమేలింపవో
 మఱదీయంచును వెంటనేతిరుగవో మన్నింపవో యందుమో
@@ -3579,32 +3294,29 @@
 ధర ని\న్‌ గొల్చినవారిలో నొకఁడ కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('మొ', '|'), ('ఱ', '|'), ('యా', 'U'), ('లిం', 'U'), ('ప', '|'), ('వొ', '|'), ('మా', 'U'), ('న', '|'), ('ము', 'U'), ('న్ని', '|'), ('లు', '|'), ('ప', '|'), ('వో', 'U'), ('ము', 'U'), ('ల్లో', 'U'), ('క', '|'), ('మే', 'U'), ('లిం', 'U'), ('ప', '|'), ('వో', 'U'), ('మ', '|'), ('ఱ', '|'), ('దీ', 'U'), ('యం', 'U'), ('చు', '|'), ('ను', '|'), ('వెం', 'U'), ('ట', '|'), ('నే', 'U'), ('తి', '|'), ('రు', '|'), ('గ', '|'), ('వో', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('ప', '|'), ('వో', 'U'), ('యం', 'U'), ('దు', '|'), ('మో', 'U'), ('క', '|'), ('రి', '|'), ('నో', 'U'), ('ద్రౌ', 'U'), ('ప', '|'), ('ది', '|'), ('నో', 'U'), ('సు', '|'), ('రా', 'U'), ('ధి', '|'), ('ప', '|'), ('తి', '|'), ('నో', 'U'), ('గాం', 'U'), ('డీ', 'U'), ('వి', '|'), ('నో', 'U'), ('యె', 'U'), ('వ్వ', '|'), ('డన్', 'U'), ('ధ', '|'), ('ర', '|'), ('నిన్', 'U'), ('గొ', 'U'), ('ల్చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('లో', 'U'), ('నొ', '|'), ('క', '|'), ('డ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>కుటిలారాతినిశాటకోటికదళీకూటాటవీభంజనో
 ద్భటమత్తద్విపకేళిలోలము సముత్ప్రావీణ్య దైత్యాంగనా
@@ -3612,32 +3324,29 @@
 చటులజ్వాలము నీసుదర్శనము కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('టి', '|'), ('లా', 'U'), ('రా', 'U'), ('తి', '|'), ('ని', '|'), ('శా', 'U'), ('ట', '|'), ('కో', 'U'), ('టి', '|'), ('క', '|'), ('ద', '|'), ('ళీ', 'U'), ('కూ', 'U'), ('టా', 'U'), ('ట', '|'), ('వీ', 'U'), ('భం', 'U'), ('జ', '|'), ('నో', 'U'), ('ద్భ', '|'), ('ట', '|'), ('మ', 'U'), ('త్త', 'U'), ('ద్వి', '|'), ('ప', '|'), ('కే', 'U'), ('ళి', '|'), ('లో', 'U'), ('ల', '|'), ('ము', '|'), ('స', '|'), ('ము', 'U'), ('త్ప్రా', 'U'), ('వీ', 'U'), ('ణ్య', '|'), ('దై', 'U'), ('త్యాం', 'U'), ('గ', '|'), ('నా', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('ము', 'U'), ('క్తా', 'U'), ('మ', '|'), ('ణి', '|'), ('ర', 'U'), ('త్న', '|'), ('హా', 'U'), ('ర', '|'), ('తి', '|'), ('ల', '|'), ('కా', 'U'), ('పుం', 'U'), ('జా', 'U'), ('త', '|'), ('లూ', 'U'), ('న', 'U'), ('క్రి', '|'), ('యా', 'U'), ('చ', '|'), ('టు', '|'), ('ల', 'U'), ('జ్వా', 'U'), ('ల', '|'), ('ము', '|'), ('నీ', 'U'), ('సు', '|'), ('ద', 'U'), ('ర్శ', '|'), ('న', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>కులిశానేక సహస్రకోటి నిశితక్రూరోరుధారాముఖా
 కలితార్చి ప్రభవ ప్రభావ త్రిజగత్కల్యాణసంధాయియై
@@ -3645,32 +3354,29 @@
 జ్జ్వలనిర్వాహపరాక్రమక్రమణ కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('లి', '|'), ('శా', 'U'), ('నే', 'U'), ('క', '|'), ('స', '|'), ('హ', 'U'), ('స్ర', '|'), ('కో', 'U'), ('టి', '|'), ('ని', '|'), ('శి', '|'), ('త', 'U'), ('క్రూ', 'U'), ('రో', 'U'), ('రు', '|'), ('ధా', 'U'), ('రా', 'U'), ('ము', '|'), ('ఖా', 'U'), ('క', '|'), ('లి', '|'), ('తా', 'U'), ('ర్చి', 'U'), ('ప్ర', '|'), ('భ', '|'), ('వ', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', 'U'), ('త్రి', '|'), ('జ', '|'), ('గ', 'U'), ('త్క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('సం', 'U'), ('ధా', 'U'), ('యి', '|'), ('యై', 'U'), ('వి', '|'), ('ల', '|'), ('సి', '|'), ('ల్లున్', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('చ', 'U'), ('క్ర', '|'), ('మ', '|'), ('ఖి', '|'), ('లో', 'U'), ('ర్వీ', 'U'), ('భా', 'U'), ('ర', '|'), ('ని', 'U'), ('ర్వా', 'U'), ('ప', '|'), ('ణో', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('ని', 'U'), ('ర్వా', 'U'), ('హ', '|'), ('ప', '|'), ('రా', 'U'), ('క్ర', '|'), ('మ', 'U'), ('క్ర', '|'), ('మ', '|'), ('ణ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
         <is>
           <t>అతికాకోల కరాళ కాయక కఠోరాశీ విషావిర్భవ
 క్షతినోనాటిన నాఁటిపాటు తలఁప\న్‌ శంకించి యుంకించె దౌ
@@ -3678,32 +3384,29 @@
 సతతం గారుడకేతనోద్ధృతియు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('తి', '|'), ('కా', 'U'), ('కో', 'U'), ('ల', '|'), ('క', '|'), ('రా', 'U'), ('ళ', '|'), ('కా', 'U'), ('య', '|'), ('క', '|'), ('క', '|'), ('ఠో', 'U'), ('రా', 'U'), ('శీ', 'U'), ('వి', '|'), ('షా', 'U'), ('వి', 'U'), ('ర్భ', '|'), ('వ', 'U'), ('క్ష', '|'), ('తి', '|'), ('నో', 'U'), ('నా', 'U'), ('టి', '|'), ('న', '|'), ('నా', 'U'), ('టి', '|'), ('పా', 'U'), ('టు', '|'), ('త', '|'), ('ల', '|'), ('పన్', 'U'), ('శం', 'U'), ('కిం', 'U'), ('చి', '|'), ('యుం', 'U'), ('కిం', 'U'), ('చె', '|'), ('దౌ', 'U'), ('స', '|'), ('త', '|'), ('తో', 'U'), ('ద్వ', 'U'), ('ర్తు', '|'), ('ల', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('స', 'U'), ('ర్వ', '|'), ('భ', '|'), ('య', '|'), ('దాం', 'U'), ('చ', 'U'), ('త్పిం', 'U'), ('ఛ', '|'), ('చూ', 'U'), ('డా', 'U'), ('వ', '|'), ('తం', 'U'), ('స', '|'), ('త', '|'), ('తం', 'U'), ('గా', 'U'), ('రు', '|'), ('డ', '|'), ('కే', 'U'), ('త', '|'), ('నో', 'U'), ('ద్ధృ', '|'), ('తి', '|'), ('యు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>నక్రోదగ్రతఁ బ్రాణవాయువులు మేన న్నిల్వఁగా నోప వో
 చక్రీ న\న్‌ దయ గావు మన్నకరుణ\న్‌ జాజ్జ్వల్యచక్రంబుచే
@@ -3711,32 +3414,29 @@
 శక్రాద్యామరవందితాంఘ్రియుగ కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('న', 'U'), ('క్రో', 'U'), ('ద', 'U'), ('గ్ర', '|'), ('త', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('వా', 'U'), ('యు', '|'), ('వు', '|'), ('లు', '|'), ('మే', 'U'), ('న', 'U'), ('న్ని', 'U'), ('ల్వ', '|'), ('గా', 'U'), ('నో', 'U'), ('ప', '|'), ('వో', 'U'), ('చ', 'U'), ('క్రీ', 'U'), ('నన్', 'U'), ('ద', '|'), ('య', '|'), ('గా', 'U'), ('వు', '|'), ('మ', 'U'), ('న్న', '|'), ('క', '|'), ('రు', '|'), ('ణన్', 'U'), ('జా', 'U'), ('జ్జ్వ', 'U'), ('ల్య', '|'), ('చ', 'U'), ('క్రం', 'U'), ('బు', '|'), ('చే', 'U'), ('న', 'U'), ('క్రం', 'U'), ('బుం', 'U'), ('దె', '|'), ('గ', '|'), ('జూ', 'U'), ('చి', '|'), ('కా', 'U'), ('చి', '|'), ('తి', '|'), ('గ', '|'), ('దా', 'U'), ('నా', 'U'), ('గం', 'U'), ('బు', '|'), ('వే', 'U'), ('గం', 'U'), ('బు', '|'), ('నన్', 'U'), ('శ', 'U'), ('క్రా', 'U'), ('ద్యా', 'U'), ('మ', '|'), ('ర', '|'), ('వం', 'U'), ('ది', '|'), ('తాం', 'U'), ('ఘ్రి', '|'), ('యు', '|'), ('గ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>కరి నేలింది హుళక్కి ద్రౌపదికి కోకల్‌ మెచ్చి యిచ్చింది ద
 బ్బర కాకాసురునిం గటాక్షమునఁ జేపట్టిం దబద్ధం బహో
@@ -3744,32 +3444,29 @@
 త్తఱి నన్నేలిన నిక్క మీకథలు కృష్ణా దేవకీనందనా.</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('రి', '|'), ('నే', 'U'), ('లిం', 'U'), ('ది', '|'), ('హు', '|'), ('ళ', 'U'), ('క్కి', '|'), ('ద్రౌ', 'U'), ('ప', '|'), ('ది', '|'), ('కి', '|'), ('కో', 'U'), ('కల్', 'U'), ('మె', 'U'), ('చ్చి', '|'), ('యి', 'U'), ('చ్చిం', 'U'), ('ది', '|'), ('ద', 'U'), ('బ్బ', '|'), ('ర', '|'), ('కా', 'U'), ('కా', 'U'), ('సు', '|'), ('రు', '|'), ('నిం', 'U'), ('గ', '|'), ('టా', 'U'), ('క్ష', '|'), ('ము', '|'), ('న', '|'), ('జే', 'U'), ('ప', 'U'), ('ట్టిం', 'U'), ('ద', '|'), ('బ', 'U'), ('ద్ధం', 'U'), ('బ', '|'), ('హో', 'U'), ('శ', '|'), ('ర', '|'), ('ణ', 'U'), ('న్న', '|'), ('బ', '|'), ('గ', '|'), ('వా', 'U'), ('ని', '|'), ('త', 'U'), ('మ్ము', '|'), ('ని', '|'), ('కి', '|'), ('రా', 'U'), ('జ్యం', 'U'), ('బి', 'U'), ('చ్చు', '|'), ('ట', 'U'), ('ల్క', 'U'), ('ల్ల', '|'), ('యి', 'U'), ('త్త', '|'), ('ఱి', '|'), ('న', 'U'), ('న్నే', 'U'), ('లి', '|'), ('న', '|'), ('ని', 'U'), ('క్క', '|'), ('మీ', 'U'), ('క', '|'), ('థ', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>ఈకృష్ణశతక మెప్పుడు
 పైకొని విన్నట్టివారు వ్రాసినవారల్‌
@@ -3777,17 +3474,17 @@
 శ్రీకృష్ణునికరుణ కలిగి చెలఁగుదు రెలమిన్‌.</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>devakinandana</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
-        <is>
-          <t>devakinandana</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
         <is>
           <t>[('ఈ', 'U'), ('కృ', 'U'), ('ష్ణ', '|'), ('శ', '|'), ('త', '|'), ('క', '|'), ('మె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('పై', 'U'), ('కొ', '|'), ('ని', '|'), ('వి', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('రు', 'U'), ('వ్రా', 'U'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('రల్', 'U'), ('చే', 'U'), ('కొ', '|'), ('ని', '|'), ('ప', '|'), ('ఠిం', 'U'), ('చు', '|'), ('వా', 'U'), ('ర', '|'), ('లు', 'U'), ('శ్రీ', 'U'), ('కృ', 'U'), ('ష్ణు', '|'), ('ని', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('క', '|'), ('లి', '|'), ('గి', '|'), ('చె', '|'), ('ల', '|'), ('గు', '|'), ('దు', '|'), ('రె', '|'), ('ల', '|'), ('మి', '|')]</t>
         </is>

--- a/dataset/lg/devakinandana.xlsx
+++ b/dataset/lg/devakinandana.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('కై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('ర', '|'), ('మా', 'U'), ('ధి', '|'), ('నా', 'U'), ('థ', '|'), ('ని', '|'), ('ను', '|'), ('న', 'U'), ('ర్థిం', 'U'), ('గీ', 'U'), ('ర్త', '|'), ('న', 'U'), ('ల్జే', 'U'), ('సి', '|'), ('కా', 'U'), ('దా', 'U'), ('కం', 'U'), ('జా', 'U'), ('త', '|'), ('భ', '|'), ('వేం', 'U'), ('ద్ర', '|'), ('నా', 'U'), ('ర', '|'), ('ద', '|'), ('శు', '|'), ('క', 'U'), ('వ్యా', 'U'), ('సాం', 'U'), ('బ', '|'), ('రీ', 'U'), ('షా', 'U'), ('ర్జు', '|'), ('నుల్', 'U'), ('నీ', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('గాం', 'U'), ('చు', '|'), ('టల్', 'U'), ('న', '|'), ('ను', '|'), ('మ', '|'), ('తిన్', 'U'), ('నే', 'U'), ('నెం', 'U'), ('త', '|'), ('ధ', 'U'), ('న్యుం', 'U'), ('డ', '|'), ('నో', 'U'), ('నా', 'U'), ('కు', '|'), ('జే', 'U'), ('కు', '|'), ('రె', '|'), ('న', 'U'), ('ట్టి', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('శ్రీ', 'U'), ('కై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('ర', '|'), ('మా', 'U'), ('ధి', '|'), ('నా', 'U'), ('థ', '|'), ('ని', '|'), ('ను', '|'), ('న', 'U'), ('ర్థిం', 'U'), ('గీ', 'U'), ('ర్త', '|'), ('న', 'U'), ('ల్జే', 'U'), ('సి', '|'), ('కా', 'U'), ('దా', 'U'), ('కం', 'U'), ('జా', 'U'), ('త', '|'), ('భ', '|'), ('వేం', 'U'), ('ద్ర', '|'), ('నా', 'U'), ('ర', '|'), ('ద', '|'), ('శు', '|'), ('క', 'U'), ('వ్యా', 'U'), ('సాం', 'U'), ('బ', '|'), ('రీ', 'U'), ('షా', 'U'), ('ర్జు', '|'), ('నుల్', 'U'), ('నీ', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('గాం', 'U'), ('చు', '|'), ('ట', 'U'), ('ల్న', '|'), ('ను', '|'), ('మ', '|'), ('తి', 'U'), ('న్నే', 'U'), ('నెం', 'U'), ('త', '|'), ('ధ', 'U'), ('న్యుం', 'U'), ('డ', '|'), ('నో', 'U'), ('నా', 'U'), ('కు', '|'), ('జే', 'U'), ('కు', '|'), ('రె', '|'), ('న', 'U'), ('ట్టి', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('గో', 'U'), ('త్ర', '|'), ('ధ', '|'), ('ర', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('నా', 'U'), ('థ', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('లీ', 'U'), ('లా', 'U'), ('వి', 'U'), ('ర్భా', 'U'), ('వ', '|'), ('ప', '|'), ('తం', 'U'), ('గ', '|'), ('వా', 'U'), ('హ', '|'), ('య', '|'), ('దు', '|'), ('వం', 'U'), ('శాం', 'U'), ('భో', 'U'), ('ధి', '|'), ('చం', 'U'), ('ద్రో', 'U'), ('ద', '|'), ('యా', 'U'), ('నీ', 'U'), ('వే', 'U'), ('ది', 'U'), ('క్క', '|'), ('ని', '|'), ('యు', 'U'), ('న్న', '|'), ('వా', 'U'), ('డ', '|'), ('ను', '|'), ('ద', '|'), ('యన్', 'U'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చ', '|'), ('వే', 'U'), ('నా', 'U'), ('వి', 'U'), ('జ్ఞా', 'U'), ('ప', '|'), ('న', '|'), ('మా', 'U'), ('ల', '|'), ('కిం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('శ్రీ', 'U'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('గో', 'U'), ('త్ర', '|'), ('ధ', '|'), ('ర', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('నా', 'U'), ('థ', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('లీ', 'U'), ('లా', 'U'), ('వి', 'U'), ('ర్భా', 'U'), ('వ', '|'), ('ప', '|'), ('తం', 'U'), ('గ', '|'), ('వా', 'U'), ('హ', '|'), ('య', '|'), ('దు', '|'), ('వం', 'U'), ('శాం', 'U'), ('భో', 'U'), ('ధి', '|'), ('చం', 'U'), ('ద్రో', 'U'), ('ద', '|'), ('యా', 'U'), ('నీ', 'U'), ('వే', 'U'), ('ది', 'U'), ('క్క', '|'), ('ని', '|'), ('యు', 'U'), ('న్న', '|'), ('వా', 'U'), ('డ', '|'), ('ను', '|'), ('ద', '|'), ('య', 'U'), ('న్వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చ', '|'), ('వే', 'U'), ('నా', 'U'), ('వి', 'U'), ('జ్ఞా', 'U'), ('ప', '|'), ('న', '|'), ('మా', 'U'), ('ల', '|'), ('కిం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('రా', 'U'), ('మా', 'U'), ('వ', '|'), ('సు', '|'), ('ధా', 'U'), ('క', '|'), ('ళ', '|'), ('త్ర', '|'), ('ము', '|'), ('ల', '|'), ('పై', 'U'), ('జె', 'U'), ('న్నొం', 'U'), ('దు', '|'), ('పా', 'U'), ('దా', 'U'), ('బ్జ', '|'), ('ముల్', 'U'), ('గా', 'U'), ('రా', 'U'), ('మా', 'U'), ('ర', '|'), ('గ', '|'), ('జూ', 'U'), ('చి', '|'), ('శే', 'U'), ('ష', '|'), ('ఫ', '|'), ('ణి', '|'), ('దా', 'U'), ('గౌ', 'U'), ('తూ', 'U'), ('హ', '|'), ('లం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('క్షీ', 'U'), ('రాం', 'U'), ('భో', 'U'), ('ని', '|'), ('ధి', '|'), ('బ', 'U'), ('వ్వ', '|'), ('ళిం', 'U'), ('చి', '|'), ('య', '|'), ('మ', '|'), ('రుల్', 'U'), ('సే', 'U'), ('విం', 'U'), ('ప', '|'), ('గా', 'U'), ('నొ', 'U'), ('ప్పు', '|'), ('ని', 'U'), ('న్నా', 'U'), ('రా', 'U'), ('ధిం', 'U'), ('తు', '|'), ('మ', '|'), ('దీ', 'U'), ('య', '|'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('న', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('శ్రీ', 'U'), ('రా', 'U'), ('మా', 'U'), ('వ', '|'), ('సు', '|'), ('ధా', 'U'), ('క', '|'), ('ళ', '|'), ('త్ర', '|'), ('ము', '|'), ('ల', '|'), ('పై', 'U'), ('జె', 'U'), ('న్నొం', 'U'), ('దు', '|'), ('పా', 'U'), ('దా', 'U'), ('బ్జ', '|'), ('ముల్', 'U'), ('గా', 'U'), ('రా', 'U'), ('మా', 'U'), ('ర', '|'), ('గ', '|'), ('జూ', 'U'), ('చి', '|'), ('శే', 'U'), ('ష', '|'), ('ఫ', '|'), ('ణి', '|'), ('దా', 'U'), ('గౌ', 'U'), ('తూ', 'U'), ('హ', '|'), ('లం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('క్షీ', 'U'), ('రాం', 'U'), ('భో', 'U'), ('ని', '|'), ('ధి', '|'), ('బ', 'U'), ('వ్వ', '|'), ('ళిం', 'U'), ('చి', '|'), ('య', '|'), ('మ', '|'), ('రు', 'U'), ('ల్సే', 'U'), ('విం', 'U'), ('ప', '|'), ('గా', 'U'), ('నొ', 'U'), ('ప్పు', '|'), ('ని', 'U'), ('న్నా', 'U'), ('రా', 'U'), ('ధిం', 'U'), ('తు', '|'), ('మ', '|'), ('దీ', 'U'), ('య', '|'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('న', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('డల్', 'U'), ('దే', 'U'), ('ఱె', '|'), ('డు', '|'), ('చె', 'U'), ('క్కు', '|'), ('ట', 'U'), ('ద్ద', '|'), ('ము', '|'), ('ల', '|'), ('తో', 'U'), ('ని', 'U'), ('ద్దం', 'U'), ('పు', '|'), ('గె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('తో', 'U'), ('కూ', 'U'), ('డీ', 'U'), ('కూ', 'U'), ('డ', '|'), ('ని', '|'), ('చి', 'U'), ('న్ని', '|'), ('కూ', 'U'), ('క', '|'), ('టు', '|'), ('ల', '|'), ('తో', 'U'), ('గో', 'U'), ('పా', 'U'), ('ర్భ', '|'), ('క', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('తో', 'U'), ('వ్రీ', 'U'), ('డా', 'U'), ('శూ', 'U'), ('న్య', '|'), ('క', '|'), ('టీ', 'U'), ('ర', '|'), ('మం', 'U'), ('డ', '|'), ('ల', '|'), ('ము', '|'), ('తో', 'U'), ('వే', 'U'), ('డ్కన్', 'U'), ('వి', '|'), ('నో', 'U'), ('దిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్నా', 'U'), ('డా', 'U'), ('శై', 'U'), ('శ', '|'), ('వ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('నే', 'U'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('నీ', 'U'), ('డ', 'U'), ('ల్దే', 'U'), ('ఱె', '|'), ('డు', '|'), ('చె', 'U'), ('క్కు', '|'), ('ట', 'U'), ('ద్ద', '|'), ('ము', '|'), ('ల', '|'), ('తో', 'U'), ('ని', 'U'), ('ద్దం', 'U'), ('పు', '|'), ('గె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('తో', 'U'), ('కూ', 'U'), ('డీ', 'U'), ('కూ', 'U'), ('డ', '|'), ('ని', '|'), ('చి', 'U'), ('న్ని', '|'), ('కూ', 'U'), ('క', '|'), ('టు', '|'), ('ల', '|'), ('తో', 'U'), ('గో', 'U'), ('పా', 'U'), ('ర్భ', '|'), ('క', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('తో', 'U'), ('వ్రీ', 'U'), ('డా', 'U'), ('శూ', 'U'), ('న్య', '|'), ('క', '|'), ('టీ', 'U'), ('ర', '|'), ('మం', 'U'), ('డ', '|'), ('ల', '|'), ('ము', '|'), ('తో', 'U'), ('వే', 'U'), ('డ్క', 'U'), ('న్వి', '|'), ('నో', 'U'), ('దిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్నా', 'U'), ('డా', 'U'), ('శై', 'U'), ('శ', '|'), ('వ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('నే', 'U'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('అం', 'U'), ('దెల్', 'U'), ('చి', 'U'), ('న్ని', '|'), ('ప', '|'), ('సిం', 'U'), ('డి', '|'), ('గ', 'U'), ('జ్జి', '|'), ('య', '|'), ('లు', '|'), ('మ్రో', 'U'), ('యన్', 'U'), ('మే', 'U'), ('ఖ', '|'), ('లా', 'U'), ('ఘం', 'U'), ('టి', '|'), ('కల్', 'U'), ('క్రం', 'U'), ('దై', 'U'), ('మ్రో', 'U'), ('య', '|'), ('గ', '|'), ('రా', 'U'), ('వి', '|'), ('రే', 'U'), ('క', '|'), ('ను', '|'), ('దు', '|'), ('టన్', 'U'), ('గం', 'U'), ('పిం', 'U'), ('ప', '|'), ('గో', 'U'), ('పా', 'U'), ('ర్భ', '|'), ('కుల్', 'U'), ('వం', 'U'), ('దా', 'U'), ('రుల్', 'U'), ('గ', '|'), ('న', '|'), ('వె', 'U'), ('న్న', '|'), ('ము', 'U'), ('ద్ద', '|'), ('ల', '|'), ('కు', '|'), ('నై', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('మీ', 'U'), ('బా', 'U'), ('ల్య', '|'), ('పుం', 'U'), ('జం', 'U'), ('దం', 'U'), ('బా', 'U'), ('ది', '|'), ('వి', '|'), ('జుల్', 'U'), ('ను', '|'), ('తిం', 'U'), ('చు', '|'), ('ట', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('అం', 'U'), ('దె', 'U'), ('ల్చి', 'U'), ('న్ని', '|'), ('ప', '|'), ('సిం', 'U'), ('డి', '|'), ('గ', 'U'), ('జ్జి', '|'), ('య', '|'), ('లు', '|'), ('మ్రో', 'U'), ('య', 'U'), ('న్మే', 'U'), ('ఖ', '|'), ('లా', 'U'), ('ఘం', 'U'), ('టి', '|'), ('కల్', 'U'), ('క్రం', 'U'), ('దై', 'U'), ('మ్రో', 'U'), ('య', '|'), ('గ', '|'), ('రా', 'U'), ('వి', '|'), ('రే', 'U'), ('క', '|'), ('ను', '|'), ('దు', '|'), ('ట', 'U'), ('న్గం', 'U'), ('పిం', 'U'), ('ప', '|'), ('గో', 'U'), ('పా', 'U'), ('ర్భ', '|'), ('కుల్', 'U'), ('వం', 'U'), ('దా', 'U'), ('రు', 'U'), ('ల్గ', '|'), ('న', '|'), ('వె', 'U'), ('న్న', '|'), ('ము', 'U'), ('ద్ద', '|'), ('ల', '|'), ('కు', '|'), ('నై', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('మీ', 'U'), ('బా', 'U'), ('ల్య', '|'), ('పుం', 'U'), ('జం', 'U'), ('దం', 'U'), ('బా', 'U'), ('ది', '|'), ('వి', '|'), ('జు', 'U'), ('ల్ను', '|'), ('తిం', 'U'), ('చు', '|'), ('ట', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('మ', '|'), ('రు', 'U'), ('ల్మ్రొ', 'U'), ('క్కు', '|'), ('ల', '|'), ('చే', 'U'), ('ము', '|'), ('నుల్', 'U'), ('ను', '|'), ('తు', '|'), ('ల', '|'), ('చే', 'U'), ('నా', 'U'), ('ర్యు', 'U'), ('ల్మ', '|'), ('హా', 'U'), ('ని', 'U'), ('ష్ఠ', '|'), ('చే', 'U'), ('స', '|'), ('మ', '|'), ('రో', 'U'), ('త్సా', 'U'), ('హ', '|'), ('జ', '|'), ('నుల్', 'U'), ('పు', '|'), ('న', 'U'), ('శ్చ', '|'), ('ర', '|'), ('ణ', '|'), ('చే', 'U'), ('సా', 'U'), ('ధుల్', 'U'), ('ద', '|'), ('యా', 'U'), ('బో', 'U'), ('ధ', '|'), ('చే', 'U'), ('న', '|'), ('మి', '|'), ('తో', 'U'), ('దా', 'U'), ('ర', '|'), ('క', '|'), ('ళా', 'U'), ('ఢ్యు', '|'), ('ల', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('ల', '|'), ('చే', 'U'), ('న', 'U'), ('ధ్యా', 'U'), ('త్ము', '|'), ('లై', 'U'), ('క్యం', 'U'), ('బు', '|'), ('చే', 'U'), ('స', '|'), ('మ', '|'), ('తం', 'U'), ('గాం', 'U'), ('చి', '|'), ('రి', '|'), ('మీ', 'U'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('అ', '|'), ('మ', '|'), ('రు', 'U'), ('ల్మ్రొ', 'U'), ('క్కు', '|'), ('ల', '|'), ('చే', 'U'), ('ము', '|'), ('ను', 'U'), ('ల్ను', '|'), ('తు', '|'), ('ల', '|'), ('చే', 'U'), ('నా', 'U'), ('ర్యు', 'U'), ('ల్మ', '|'), ('హా', 'U'), ('ని', 'U'), ('ష్ఠ', '|'), ('చే', 'U'), ('స', '|'), ('మ', '|'), ('రో', 'U'), ('త్సా', 'U'), ('హ', '|'), ('జ', '|'), ('ను', 'U'), ('ల్పు', '|'), ('న', 'U'), ('శ్చ', '|'), ('ర', '|'), ('ణ', '|'), ('చే', 'U'), ('సా', 'U'), ('ధు', 'U'), ('ల్ద', '|'), ('యా', 'U'), ('బో', 'U'), ('ధ', '|'), ('చే', 'U'), ('న', '|'), ('మి', '|'), ('తో', 'U'), ('దా', 'U'), ('ర', '|'), ('క', '|'), ('ళా', 'U'), ('ఢ్యు', '|'), ('ల', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('ల', '|'), ('చే', 'U'), ('న', 'U'), ('ధ్యా', 'U'), ('త్ము', '|'), ('లై', 'U'), ('క్యం', 'U'), ('బు', '|'), ('చే', 'U'), ('స', '|'), ('మ', '|'), ('తం', 'U'), ('గాం', 'U'), ('చి', '|'), ('రి', '|'), ('మీ', 'U'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('జ', '|'), ('ప', '|'), ('ముల్', 'U'), ('సే', 'U'), ('య', '|'), ('గ', '|'), ('నే', 'U'), ('ర', '|'), ('నీ', 'U'), ('మ', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('చ్చ', 'U'), ('ల్పూ', 'U'), ('జ', '|'), ('సే', 'U'), ('యం', 'U'), ('గ', '|'), ('లే', 'U'), ('ను', '|'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('వ్ర', '|'), ('త', '|'), ('భ', 'U'), ('క్తి', '|'), ('చొ', 'U'), ('ప్పె', '|'), ('ఱు', '|'), ('గ', '|'), ('వే', 'U'), ('దో', 'U'), ('క్త', '|'), ('క్ర', '|'), ('మ', 'U'), ('స్థుం', 'U'), ('డ', '|'), ('గా', 'U'), ('న', '|'), ('ప', '|'), ('రా', 'U'), ('ధం', 'U'), ('బు', '|'), ('లు', '|'), ('నా', 'U'), ('యె', '|'), ('డం', 'U'), ('ద', '|'), ('ఱ', '|'), ('చు', '|'), ('నే', 'U'), ('న', 'U'), ('జ్ఞా', 'U'), ('ని', '|'), ('నె', 'U'), ('బ్భం', 'U'), ('గు', '|'), ('లన్', 'U'), ('జ', '|'), ('ప', '|'), ('లుం', 'U'), ('డం', 'U'), ('చు', '|'), ('ను', '|'), ('పే', 'U'), ('క్ష', '|'), ('సే', 'U'), ('య', '|'), ('కు', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('జ', '|'), ('ప', '|'), ('ము', 'U'), ('ల్సే', 'U'), ('య', '|'), ('గ', '|'), ('నే', 'U'), ('ర', '|'), ('నీ', 'U'), ('మ', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('చ్చ', 'U'), ('ల్పూ', 'U'), ('జ', '|'), ('సే', 'U'), ('యం', 'U'), ('గ', '|'), ('లే', 'U'), ('ను', '|'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('వ్ర', '|'), ('త', '|'), ('భ', 'U'), ('క్తి', '|'), ('చొ', 'U'), ('ప్పె', '|'), ('ఱు', '|'), ('గ', '|'), ('వే', 'U'), ('దో', 'U'), ('క్త', '|'), ('క్ర', '|'), ('మ', 'U'), ('స్థుం', 'U'), ('డ', '|'), ('గా', 'U'), ('న', '|'), ('ప', '|'), ('రా', 'U'), ('ధం', 'U'), ('బు', '|'), ('లు', '|'), ('నా', 'U'), ('యె', '|'), ('డం', 'U'), ('ద', '|'), ('ఱ', '|'), ('చు', '|'), ('నే', 'U'), ('న', 'U'), ('జ్ఞా', 'U'), ('ని', '|'), ('నె', 'U'), ('బ్భం', 'U'), ('గు', '|'), ('లన్', 'U'), ('జ', '|'), ('ప', '|'), ('లుం', 'U'), ('డం', 'U'), ('చు', '|'), ('ను', '|'), ('పే', 'U'), ('క్ష', '|'), ('సే', 'U'), ('య', '|'), ('కు', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('సు', '|'), ('క', '|'), ('రం', 'U'), ('బై', 'U'), ('సు', '|'), ('ర', '|'), ('సే', 'U'), ('వ్య', '|'), ('మై', 'U'), ('సు', '|'), ('ల', '|'), ('భ', '|'), ('మై', 'U'), ('సు', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('మై', 'U'), ('యు', 'U'), ('క్త', '|'), ('మై', 'U'), ('ప్ర', '|'), ('క', '|'), ('టం', 'U'), ('బై', 'U'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('ప్ర', '|'), ('మ', '|'), ('ద', '|'), ('మై', 'U'), ('ప్ర', 'U'), ('ద్యో', 'U'), ('త', '|'), ('మై', 'U'), ('ప', 'U'), ('థ్య', '|'), ('మై', 'U'), ('య', '|'), ('క', '|'), ('లం', 'U'), ('కా', 'U'), ('మృ', '|'), ('త', '|'), ('మై', 'U'), ('య', '|'), ('మో', 'U'), ('ఘ', '|'), ('త', '|'), ('ర', '|'), ('మై', 'U'), ('యా', 'U'), ('నం', 'U'), ('ద', '|'), ('మై', 'U'), ('యం', 'U'), ('ద', '|'), ('మై', 'U'), ('స', '|'), ('క', '|'), ('లం', 'U'), ('బున్', 'U'), ('భ', '|'), ('రి', '|'), ('యిం', 'U'), ('చు', '|'), ('మీ', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('సు', '|'), ('క', '|'), ('రం', 'U'), ('బై', 'U'), ('సు', '|'), ('ర', '|'), ('సే', 'U'), ('వ్య', '|'), ('మై', 'U'), ('సు', '|'), ('ల', '|'), ('భ', '|'), ('మై', 'U'), ('సు', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('మై', 'U'), ('యు', 'U'), ('క్త', '|'), ('మై', 'U'), ('ప్ర', '|'), ('క', '|'), ('టం', 'U'), ('బై', 'U'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('ప్ర', '|'), ('మ', '|'), ('ద', '|'), ('మై', 'U'), ('ప్ర', 'U'), ('ద్యో', 'U'), ('త', '|'), ('మై', 'U'), ('ప', 'U'), ('థ్య', '|'), ('మై', 'U'), ('య', '|'), ('క', '|'), ('లం', 'U'), ('కా', 'U'), ('మృ', '|'), ('త', '|'), ('మై', 'U'), ('య', '|'), ('మో', 'U'), ('ఘ', '|'), ('త', '|'), ('ర', '|'), ('మై', 'U'), ('యా', 'U'), ('నం', 'U'), ('ద', '|'), ('మై', 'U'), ('యం', 'U'), ('ద', '|'), ('మై', 'U'), ('స', '|'), ('క', '|'), ('లం', 'U'), ('బు', 'U'), ('న్భ', '|'), ('రి', '|'), ('యిం', 'U'), ('చు', '|'), ('మీ', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('కొం', 'U'), ('డ', 'U'), ('ల్వం', 'U'), ('టి', '|'), ('క', '|'), ('వీ', 'U'), ('శ్వ', '|'), ('రుల్', 'U'), ('శ', '|'), ('త', '|'), ('క', '|'), ('ము', 'U'), ('ల్గూ', 'U'), ('ర్పం', 'U'), ('గ', '|'), ('గో', 'U'), ('టా', 'U'), ('న', '|'), ('కో', 'U'), ('ట్లుం', 'U'), ('డన్', 'U'), ('నీ', 'U'), ('వు', '|'), ('ను', '|'), ('జె', 'U'), ('ప్ప', '|'), ('బూ', 'U'), ('ని', '|'), ('తి', '|'), ('వ', '|'), ('దే', 'U'), ('మో', 'U'), ('యం', 'U'), ('టి', '|'), ('వా', 'U'), ('విం', 'U'), ('టి', '|'), ('వా', 'U'), ('వం', 'U'), ('డే', 'U'), ('నే', 'U'), ('ర్పు', '|'), ('ల', '|'), ('బె', 'U'), ('క్కు', '|'), ('రీ', 'U'), ('తు', '|'), ('ల', '|'), ('రు', '|'), ('చుల్', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('వే', 'U'), ('శా', 'U'), ('క', '|'), ('ముల్', 'U'), ('దం', 'U'), ('డిన్', 'U'), ('నా', 'U'), ('మ', '|'), ('న', '|'), ('వా', 'U'), ('ల', '|'), ('కిం', 'U'), ('పు', '|'), ('మ', '|'), ('ది', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('కొం', 'U'), ('డ', 'U'), ('ల్వం', 'U'), ('టి', '|'), ('క', '|'), ('వీ', 'U'), ('శ్వ', '|'), ('రు', 'U'), ('ల్శ', '|'), ('త', '|'), ('క', '|'), ('ము', 'U'), ('ల్గూ', 'U'), ('ర్పం', 'U'), ('గ', '|'), ('గో', 'U'), ('టా', 'U'), ('న', '|'), ('కో', 'U'), ('ట్లుం', 'U'), ('డ', 'U'), ('న్నీ', 'U'), ('వు', '|'), ('ను', '|'), ('జె', 'U'), ('ప్ప', '|'), ('బూ', 'U'), ('ని', '|'), ('తి', '|'), ('వ', '|'), ('దే', 'U'), ('మో', 'U'), ('యం', 'U'), ('టి', '|'), ('వా', 'U'), ('విం', 'U'), ('టి', '|'), ('వా', 'U'), ('వం', 'U'), ('డే', 'U'), ('నే', 'U'), ('ర్పు', '|'), ('ల', '|'), ('బె', 'U'), ('క్కు', '|'), ('రీ', 'U'), ('తు', '|'), ('ల', '|'), ('రు', '|'), ('చు', 'U'), ('ల్వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('వే', 'U'), ('శా', 'U'), ('క', '|'), ('ముల్', 'U'), ('దం', 'U'), ('డి', 'U'), ('న్నా', 'U'), ('మ', '|'), ('న', '|'), ('వా', 'U'), ('ల', '|'), ('కిం', 'U'), ('పు', '|'), ('మ', '|'), ('ది', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('చ', 'U'), ('న్నే', 'U'), ('ని', 'U'), ('న్ను', '|'), ('ను', '|'), ('బా', 'U'), ('లు', '|'), ('గా', 'U'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('యి', 'U'), ('చ్చం', 'U'), ('బూ', 'U'), ('త', '|'), ('నా', 'U'), ('కాం', 'U'), ('త', '|'), ('దా', 'U'), ('జ', 'U'), ('న్ను', 'U'), ('ల్నిం', 'U'), ('డ', '|'), ('గ', '|'), ('జే', 'U'), ('దు', '|'), ('బూ', 'U'), ('సి', '|'), ('కొ', '|'), ('ని', '|'), ('యా', 'U'), ('చ', 'U'), ('న్బా', 'U'), ('లు', '|'), ('నీ', 'U'), ('కి', 'U'), ('చ్చి', '|'), ('నం', 'U'), ('జ', 'U'), ('న్నుం', 'U'), ('బా', 'U'), ('ల', '|'), ('కు', '|'), ('లో', 'U'), ('ను', '|'), ('గా', 'U'), ('క', '|'), ('య', '|'), ('సు', '|'), ('రన్', 'U'), ('సా', 'U'), ('ధిం', 'U'), ('చి', '|'), ('యా', 'U'), ('యిం', 'U'), ('తి', '|'), ('కిన్', 'U'), ('స', 'U'), ('న్నన్', 'U'), ('ము', 'U'), ('క్తి', '|'), ('యొ', '|'), ('సం', 'U'), ('గి', '|'), ('తీ', 'U'), ('వు', '|'), ('భ', '|'), ('ళి', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('చ', 'U'), ('న్నే', 'U'), ('ని', 'U'), ('న్ను', '|'), ('ను', '|'), ('బా', 'U'), ('లు', '|'), ('గా', 'U'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('యి', 'U'), ('చ్చం', 'U'), ('బూ', 'U'), ('త', '|'), ('నా', 'U'), ('కాం', 'U'), ('త', '|'), ('దా', 'U'), ('జ', 'U'), ('న్ను', 'U'), ('ల్నిం', 'U'), ('డ', '|'), ('గ', '|'), ('జే', 'U'), ('దు', '|'), ('బూ', 'U'), ('సి', '|'), ('కొ', '|'), ('ని', '|'), ('యా', 'U'), ('చ', 'U'), ('న్బా', 'U'), ('లు', '|'), ('నీ', 'U'), ('కి', 'U'), ('చ్చి', '|'), ('నం', 'U'), ('జ', 'U'), ('న్నుం', 'U'), ('బా', 'U'), ('ల', '|'), ('కు', '|'), ('లో', 'U'), ('ను', '|'), ('గా', 'U'), ('క', '|'), ('య', '|'), ('సు', '|'), ('ర', 'U'), ('న్సా', 'U'), ('ధిం', 'U'), ('చి', '|'), ('యా', 'U'), ('యిం', 'U'), ('తి', '|'), ('కిన్', 'U'), ('స', 'U'), ('న్న', 'U'), ('న్ము', 'U'), ('క్తి', '|'), ('యొ', '|'), ('సం', 'U'), ('గి', '|'), ('తీ', 'U'), ('వు', '|'), ('భ', '|'), ('ళి', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లన్', 'U'), ('ప', '|'), ('ది', '|'), ('యా', 'U'), ('ఱు', '|'), ('వే', 'U'), ('ల', '|'), ('స', '|'), ('తు', '|'), ('లన్', 'U'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('వా', 'U'), ('రిం', 'U'), ('డ్ల', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('చు', '|'), ('నుం', 'U'), ('డి', '|'), ('వీ', 'U'), ('ట', '|'), ('గ', '|'), ('ల', '|'), ('గో', 'U'), ('ప', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('నె', 'U'), ('ల్లన్', 'U'), ('గ', '|'), ('డుం', 'U'), ('బ', '|'), ('లి', '|'), ('మిన్', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('ర', '|'), ('మిం', 'U'), ('చి', '|'), ('నా', 'U'), ('డ', '|'), ('వు', '|'), ('భ', '|'), ('ళీ', 'U'), ('ప్రా', 'U'), ('జ్ఞుం', 'U'), ('డ', '|'), ('వీ', 'U'), ('వౌ', 'U'), ('దు', '|'), ('భూ', 'U'), ('స్థ', '|'), ('లి', '|'), ('నీ', 'U'), ('వే', 'U'), ('క', '|'), ('ద', '|'), ('కొం', 'U'), ('టె', '|'), ('దే', 'U'), ('వ', '|'), ('ర', '|'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్ల', 'U'), ('న్ప', '|'), ('ది', '|'), ('యా', 'U'), ('ఱు', '|'), ('వే', 'U'), ('ల', '|'), ('స', '|'), ('తు', '|'), ('ల', 'U'), ('న్వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('వా', 'U'), ('రిం', 'U'), ('డ్ల', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('చు', '|'), ('నుం', 'U'), ('డి', '|'), ('వీ', 'U'), ('ట', '|'), ('గ', '|'), ('ల', '|'), ('గో', 'U'), ('ప', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('నె', 'U'), ('ల్ల', 'U'), ('న్గ', '|'), ('డుం', 'U'), ('బ', '|'), ('లి', '|'), ('మి', 'U'), ('న్బ', 'U'), ('ట్టి', '|'), ('ర', '|'), ('మిం', 'U'), ('చి', '|'), ('నా', 'U'), ('డ', '|'), ('వు', '|'), ('భ', '|'), ('ళీ', 'U'), ('ప్రా', 'U'), ('జ్ఞుం', 'U'), ('డ', '|'), ('వీ', 'U'), ('వౌ', 'U'), ('దు', '|'), ('భూ', 'U'), ('స్థ', '|'), ('లి', '|'), ('నీ', 'U'), ('వే', 'U'), ('క', '|'), ('ద', '|'), ('కొం', 'U'), ('టె', '|'), ('దే', 'U'), ('వ', '|'), ('ర', '|'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('పొ', '|'), ('లు', '|'), ('పొం', 'U'), ('దన్', 'U'), ('న', '|'), ('డి', '|'), ('రే', 'U'), ('యి', '|'), ('గు', 'U'), ('క్కు', '|'), ('ట', '|'), ('ర', '|'), ('వం', 'U'), ('బుల్', 'U'), ('చూ', 'U'), ('పి', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('కా', 'U'), ('వ', '|'), ('ళి', '|'), ('వి', '|'), ('భ్రాం', 'U'), ('తు', '|'), ('ల', '|'), ('జే', 'U'), ('సి', '|'), ('మం', 'U'), ('ద', '|'), ('ల', '|'), ('కు', '|'), ('నై', 'U'), ('వా', 'U'), ('రే', 'U'), ('గ', '|'), ('ద', 'U'), ('త్కా', 'U'), ('మి', '|'), ('నీ', 'U'), ('క', '|'), ('ల', '|'), ('నా', 'U'), ('య', 'U'), ('త్న', '|'), ('ము', '|'), ('తా', 'U'), ('మ్ర', '|'), ('చూ', 'U'), ('డ', '|'), ('గ', '|'), ('తు', '|'), ('లన్', 'U'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('నీ', 'U'), ('కీ', 'U'), ('ర్తి', '|'), ('ర', 'U'), ('చ్చ', '|'), ('ల', '|'), ('కె', 'U'), ('క్కెం', 'U'), ('గ', '|'), ('డు', '|'), ('గొ', 'U'), ('య్య', '|'), ('దే', 'U'), ('వ', '|'), ('ర', '|'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('పొ', '|'), ('లు', '|'), ('పొం', 'U'), ('ద', 'U'), ('న్న', '|'), ('డి', '|'), ('రే', 'U'), ('యి', '|'), ('గు', 'U'), ('క్కు', '|'), ('ట', '|'), ('ర', '|'), ('వం', 'U'), ('బు', 'U'), ('ల్చూ', 'U'), ('పి', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('కా', 'U'), ('వ', '|'), ('ళి', '|'), ('వి', '|'), ('భ్రాం', 'U'), ('తు', '|'), ('ల', '|'), ('జే', 'U'), ('సి', '|'), ('మం', 'U'), ('ద', '|'), ('ల', '|'), ('కు', '|'), ('నై', 'U'), ('వా', 'U'), ('రే', 'U'), ('గ', '|'), ('ద', 'U'), ('త్కా', 'U'), ('మి', '|'), ('నీ', 'U'), ('క', '|'), ('ల', '|'), ('నా', 'U'), ('య', 'U'), ('త్న', '|'), ('ము', '|'), ('తా', 'U'), ('మ్ర', '|'), ('చూ', 'U'), ('డ', '|'), ('గ', '|'), ('తు', '|'), ('ల', 'U'), ('న్గా', 'U'), ('విం', 'U'), ('చి', '|'), ('నీ', 'U'), ('కీ', 'U'), ('ర్తి', '|'), ('ర', 'U'), ('చ్చ', '|'), ('ల', '|'), ('కె', 'U'), ('క్కెం', 'U'), ('గ', '|'), ('డు', '|'), ('గొ', 'U'), ('య్య', '|'), ('దే', 'U'), ('వ', '|'), ('ర', '|'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[('మౌ', 'U'), ('ళిం', 'U'), ('బిం', 'U'), ('ఛ', '|'), ('పు', '|'), ('దం', 'U'), ('డ', '|'), ('యొ', 'U'), ('ప్పు', '|'), ('గ', '|'), ('న', '|'), ('టిం', 'U'), ('పం', 'U'), ('గౌ', 'U'), ('ను', '|'), ('శృం', 'U'), ('గా', 'U'), ('ర', '|'), ('పున్', 'U'), ('శ్రీ', 'U'), ('లెం', 'U'), ('చం', 'U'), ('గ', '|'), ('ను', '|'), ('పి', 'U'), ('ల్ల', '|'), ('గ్రో', 'U'), ('వి', '|'), ('ర', '|'), ('వ', '|'), ('మున్', 'U'), ('జే', 'U'), ('కో', 'U'), ('ల', '|'), ('మున్', 'U'), ('జె', 'U'), ('క్కు', '|'), ('చున్', 'U'), ('గే', 'U'), ('లన్', 'U'), ('మె', 'U'), ('చ్చొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('గో', 'U'), ('ప', '|'), ('కు', '|'), ('ల', '|'), ('తో', 'U'), ('గ్రీ', 'U'), ('డా', 'U'), ('ర', '|'), ('స', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('నీ', 'U'), ('వా', 'U'), ('లం', 'U'), ('గా', 'U'), ('చు', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('నే', 'U'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('మౌ', 'U'), ('ళిం', 'U'), ('బిం', 'U'), ('ఛ', '|'), ('పు', '|'), ('దం', 'U'), ('డ', '|'), ('యొ', 'U'), ('ప్పు', '|'), ('గ', '|'), ('న', '|'), ('టిం', 'U'), ('పం', 'U'), ('గౌ', 'U'), ('ను', '|'), ('శృం', 'U'), ('గా', 'U'), ('ర', '|'), ('పున్', 'U'), ('శ్రీ', 'U'), ('లెం', 'U'), ('చం', 'U'), ('గ', '|'), ('ను', '|'), ('పి', 'U'), ('ల్ల', '|'), ('గ్రో', 'U'), ('వి', '|'), ('ర', '|'), ('వ', '|'), ('ము', 'U'), ('న్జే', 'U'), ('కో', 'U'), ('ల', '|'), ('ము', 'U'), ('న్జె', 'U'), ('క్కు', '|'), ('చున్', 'U'), ('గే', 'U'), ('ల', 'U'), ('న్మె', 'U'), ('చ్చొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('గో', 'U'), ('ప', '|'), ('కు', '|'), ('ల', '|'), ('తో', 'U'), ('గ్రీ', 'U'), ('డా', 'U'), ('ర', '|'), ('స', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('నీ', 'U'), ('వా', 'U'), ('లం', 'U'), ('గా', 'U'), ('చు', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('నే', 'U'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[('పె', 'U'), ('చ్చుల్', 'U'), ('ప్రే', 'U'), ('లు', '|'), ('చు', '|'), ('బి', 'U'), ('ల్ల', '|'), ('గ్రో', 'U'), ('వి', '|'), ('ర', '|'), ('వ', '|'), ('మున్', 'U'), ('బెం', 'U'), ('పొం', 'U'), ('ద', '|'), ('గా', 'U'), ('జొ', 'U'), ('క్కు', '|'), ('చున్', 'U'), ('ని', 'U'), ('చ్చల్', 'U'), ('ని', 'U'), ('న్ను', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('గో', 'U'), ('ప', '|'), ('గ', '|'), ('ణ', '|'), ('మున్', 'U'), ('ని', 'U'), ('త్యో', 'U'), ('త్స', '|'), ('వ', '|'), ('క్రీ', 'U'), ('డ', '|'), ('మై', 'U'), ('నె', 'U'), ('చ్చల్', 'U'), ('మ', 'U'), ('చ్చి', '|'), ('క', '|'), ('ము', 'U'), ('చ్చ', '|'), ('ట', 'U'), ('చ్చు', '|'), ('ప', '|'), ('డ', '|'), ('గా', 'U'), ('హె', 'U'), ('చ్చిం', 'U'), ('చి', '|'), ('కీ', 'U'), ('ర్తిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('స', 'U'), ('చ్చా', 'U'), ('రి', '|'), ('త్ర', '|'), ('ము', '|'), ('వి', 'U'), ('న్న', '|'), ('బు', 'U'), ('ణ్య', '|'), ('మ', '|'), ('గు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('పె', 'U'), ('చ్చు', 'U'), ('ల్ప్రే', 'U'), ('లు', '|'), ('చు', '|'), ('బి', 'U'), ('ల్ల', '|'), ('గ్రో', 'U'), ('వి', '|'), ('ర', '|'), ('వ', '|'), ('ము', 'U'), ('న్బెం', 'U'), ('పొం', 'U'), ('ద', '|'), ('గా', 'U'), ('జొ', 'U'), ('క్కు', '|'), ('చున్', 'U'), ('ని', 'U'), ('చ్చ', 'U'), ('ల్ని', 'U'), ('న్ను', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('గో', 'U'), ('ప', '|'), ('గ', '|'), ('ణ', '|'), ('ము', 'U'), ('న్ని', 'U'), ('త్యో', 'U'), ('త్స', '|'), ('వ', '|'), ('క్రీ', 'U'), ('డ', '|'), ('మై', 'U'), ('నె', 'U'), ('చ్చ', 'U'), ('ల్మ', 'U'), ('చ్చి', '|'), ('క', '|'), ('ము', 'U'), ('చ్చ', '|'), ('ట', 'U'), ('చ్చు', '|'), ('ప', '|'), ('డ', '|'), ('గా', 'U'), ('హె', 'U'), ('చ్చిం', 'U'), ('చి', '|'), ('కీ', 'U'), ('ర్తిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('స', 'U'), ('చ్చా', 'U'), ('రి', '|'), ('త్ర', '|'), ('ము', '|'), ('వి', 'U'), ('న్న', '|'), ('బు', 'U'), ('ణ్య', '|'), ('మ', '|'), ('గు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[('ల', '|'), ('ల', '|'), ('నా', 'U'), ('కుం', 'U'), ('చి', '|'), ('త', '|'), ('వే', 'U'), ('ణి', '|'), ('యుం', 'U'), ('ద', '|'), ('డ', '|'), ('వ', '|'), ('మొ', 'U'), ('ల్లల్', 'U'), ('జా', 'U'), ('ఱ', '|'), ('క', 'U'), ('స్తూ', 'U'), ('రి', '|'), ('కా', 'U'), ('తి', '|'), ('ల', '|'), ('కం', 'U'), ('బుం', 'U'), ('గ', '|'), ('ఱ', '|'), ('గం', 'U'), ('గ', '|'), ('లే', 'U'), ('త', '|'), ('న', '|'), ('గ', '|'), ('వున్', 'U'), ('దీ', 'U'), ('పిం', 'U'), ('ప', '|'), ('నె', 'U'), ('మ్మో', 'U'), ('ము', '|'), ('నన్', 'U'), ('ద', '|'), ('ళు', '|'), ('కుల్', 'U'), ('చూ', 'U'), ('పె', '|'), ('డి', '|'), ('చూ', 'U'), ('పు', '|'), ('లు', 'U'), ('ల్ల', '|'), ('సి', '|'), ('ల', '|'), ('నా', 'U'), ('నా', 'U'), ('రీ', 'U'), ('తు', '|'), ('లన్', 'U'), ('వే', 'U'), ('ణు', '|'), ('పు', 'U'), ('ష్క', '|'), ('ల', '|'), ('నా', 'U'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('పెం', 'U'), ('పు', '|'), ('జూ', 'U'), ('పు', '|'), ('దు', '|'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('ల', '|'), ('ల', '|'), ('నా', 'U'), ('కుం', 'U'), ('చి', '|'), ('త', '|'), ('వే', 'U'), ('ణి', '|'), ('యుం', 'U'), ('ద', '|'), ('డ', '|'), ('వ', '|'), ('మొ', 'U'), ('ల్ల', 'U'), ('ల్జా', 'U'), ('ఱ', '|'), ('క', 'U'), ('స్తూ', 'U'), ('రి', '|'), ('కా', 'U'), ('తి', '|'), ('ల', '|'), ('కం', 'U'), ('బుం', 'U'), ('గ', '|'), ('ఱ', '|'), ('గం', 'U'), ('గ', '|'), ('లే', 'U'), ('త', '|'), ('న', '|'), ('గ', '|'), ('వు', 'U'), ('న్దీ', 'U'), ('పిం', 'U'), ('ప', '|'), ('నె', 'U'), ('మ్మో', 'U'), ('ము', '|'), ('నన్', 'U'), ('ద', '|'), ('ళు', '|'), ('కు', 'U'), ('ల్చూ', 'U'), ('పె', '|'), ('డి', '|'), ('చూ', 'U'), ('పు', '|'), ('లు', 'U'), ('ల్ల', '|'), ('సి', '|'), ('ల', '|'), ('నా', 'U'), ('నా', 'U'), ('రీ', 'U'), ('తు', '|'), ('ల', 'U'), ('న్వే', 'U'), ('ణు', '|'), ('పు', 'U'), ('ష్క', '|'), ('ల', '|'), ('నా', 'U'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('పెం', 'U'), ('పు', '|'), ('జూ', 'U'), ('పు', '|'), ('దు', '|'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('ల', '|'), ('కాం', 'U'), ('చీ', 'U'), ('మ', '|'), ('ణి', '|'), ('కిం', 'U'), ('కి', '|'), ('ణీ', 'U'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('ని', 'U'), ('క్వా', 'U'), ('ణం', 'U'), ('బు', '|'), ('మం', 'U'), ('జీ', 'U'), ('ర', '|'), ('మం', 'U'), ('జు', '|'), ('ల', '|'), ('రా', 'U'), ('వం', 'U'), ('బు', '|'), ('ను', '|'), ('గొం', 'U'), ('త', '|'), ('కొం', 'U'), ('త', '|'), ('వి', '|'), ('న', '|'), ('వ', 'U'), ('చ్చెన్', 'U'), ('బ', 'U'), ('ట్ట', '|'), ('లే', 'U'), ('నై', 'U'), ('తి', '|'), ('నం', 'U'), ('కి', '|'), ('లి', '|'), ('ని', '|'), ('ద్రిం', 'U'), ('చు', '|'), ('ట', '|'), ('మో', 'U'), ('స', '|'), ('పు', 'U'), ('చ్చె', '|'), ('హి', '|'), ('త', '|'), ('వా', 'U'), ('గ్గే', 'U'), ('యుం', 'U'), ('డు', '|'), ('నే', 'U'), ('డం', 'U'), ('చు', '|'), ('ని', 'U'), ('చ్చ', '|'), ('లు', '|'), ('మీ', 'U'), ('శౌ', 'U'), ('ర్య', '|'), ('ము', '|'), ('లెం', 'U'), ('చు', '|'), ('గో', 'U'), ('ప', '|'), ('త', '|'), ('తి', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('క', '|'), ('ల', '|'), ('కాం', 'U'), ('చీ', 'U'), ('మ', '|'), ('ణి', '|'), ('కిం', 'U'), ('కి', '|'), ('ణీ', 'U'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('ని', 'U'), ('క్వా', 'U'), ('ణం', 'U'), ('బు', '|'), ('మం', 'U'), ('జీ', 'U'), ('ర', '|'), ('మం', 'U'), ('జు', '|'), ('ల', '|'), ('రా', 'U'), ('వం', 'U'), ('బు', '|'), ('ను', '|'), ('గొం', 'U'), ('త', '|'), ('కొం', 'U'), ('త', '|'), ('వి', '|'), ('న', '|'), ('వ', 'U'), ('చ్చె', 'U'), ('న్బ', 'U'), ('ట్ట', '|'), ('లే', 'U'), ('నై', 'U'), ('తి', '|'), ('నం', 'U'), ('కి', '|'), ('లి', '|'), ('ని', '|'), ('ద్రిం', 'U'), ('చు', '|'), ('ట', '|'), ('మో', 'U'), ('స', '|'), ('పు', 'U'), ('చ్చె', '|'), ('హి', '|'), ('త', '|'), ('వా', 'U'), ('గ్గే', 'U'), ('యుం', 'U'), ('డు', '|'), ('నే', 'U'), ('డం', 'U'), ('చు', '|'), ('ని', 'U'), ('చ్చ', '|'), ('లు', '|'), ('మీ', 'U'), ('శౌ', 'U'), ('ర్య', '|'), ('ము', '|'), ('లెం', 'U'), ('చు', '|'), ('గో', 'U'), ('ప', '|'), ('త', '|'), ('తి', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('ల', '|'), ('నై', 'U'), ('నన్', 'U'), ('న', '|'), ('గి', '|'), ('యై', 'U'), ('న', '|'), ('గో', 'U'), ('ప', '|'), ('మె', '|'), ('స', '|'), ('గం', 'U'), ('గా', 'U'), ('నై', 'U'), ('న', '|'), ('మీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('వ', 'U'), ('ర్ణ', 'U'), ('ద్వ', '|'), ('య', '|'), ('మె', 'U'), ('వ్వ', '|'), ('రే', 'U'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('నం', 'U'), ('బా', 'U'), ('పౌ', 'U'), ('ఘ', '|'), ('ము', 'U'), ('ల్వా', 'U'), ('యు', '|'), ('ను', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('భా', 'U'), ('న్వ', '|'), ('ప్ర', '|'), ('తి', '|'), ('మా', 'U'), ('న', '|'), ('చం', 'U'), ('డ', '|'), ('కి', '|'), ('ర', '|'), ('ణ', '|'), ('వ్రా', 'U'), ('తా', 'U'), ('హ', '|'), ('తిం', 'U'), ('జీ', 'U'), ('క', '|'), ('టుల్', 'U'), ('చ', '|'), ('ల', '|'), ('నం', 'U'), ('బం', 'U'), ('ది', '|'), ('తొ', '|'), ('లం', 'U'), ('గు', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('క', '|'), ('ల', '|'), ('నై', 'U'), ('న', 'U'), ('న్న', '|'), ('గి', '|'), ('యై', 'U'), ('న', '|'), ('గో', 'U'), ('ప', '|'), ('మె', '|'), ('స', '|'), ('గం', 'U'), ('గా', 'U'), ('నై', 'U'), ('న', '|'), ('మీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('వ', 'U'), ('ర్ణ', 'U'), ('ద్వ', '|'), ('య', '|'), ('మె', 'U'), ('వ్వ', '|'), ('రే', 'U'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('నం', 'U'), ('బా', 'U'), ('పౌ', 'U'), ('ఘ', '|'), ('ము', 'U'), ('ల్వా', 'U'), ('యు', '|'), ('ను', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('భా', 'U'), ('న్వ', '|'), ('ప్ర', '|'), ('తి', '|'), ('మా', 'U'), ('న', '|'), ('చం', 'U'), ('డ', '|'), ('కి', '|'), ('ర', '|'), ('ణ', '|'), ('వ్రా', 'U'), ('తా', 'U'), ('హ', '|'), ('తిం', 'U'), ('జీ', 'U'), ('క', '|'), ('టుల్', 'U'), ('చ', '|'), ('ల', '|'), ('నం', 'U'), ('బం', 'U'), ('ది', '|'), ('తొ', '|'), ('లం', 'U'), ('గు', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[('ని', '|'), ('ను', '|'), ('నె', 'U'), ('వ్వా', 'U'), ('డు', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('నీ', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('పం', 'U'), ('గ', '|'), ('నె', 'U'), ('వ్వా', 'U'), ('డు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('న', '|'), ('బూ', 'U'), ('నున్', 'U'), ('ని', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('ఘ', '|'), ('ను', '|'), ('డా', 'U'), ('పు', 'U'), ('ణ్యా', 'U'), ('త్ము', '|'), ('లో', 'U'), ('కై', 'U'), ('క', '|'), ('మా', 'U'), ('న్యు', '|'), ('ని', '|'), ('గా', 'U'), ('ధ', 'U'), ('న్యు', '|'), ('ని', '|'), ('గా', 'U'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ని', '|'), ('ధి', '|'), ('గా', 'U'), ('ను', 'U'), ('ద్య', 'U'), ('ద్గు', '|'), ('ణాం', 'U'), ('భో', 'U'), ('ధి', '|'), ('గా', 'U'), ('న', '|'), ('ని', '|'), ('శం', 'U'), ('బుం', 'U'), ('గొ', '|'), ('ని', '|'), ('యా', 'U'), ('డ', '|'), ('గో', 'U'), ('రు', '|'), ('దు', '|'), ('రు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('ని', '|'), ('ను', '|'), ('నె', 'U'), ('వ్వా', 'U'), ('డు', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('నీ', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('పం', 'U'), ('గ', '|'), ('నె', 'U'), ('వ్వా', 'U'), ('డు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('న', '|'), ('బూ', 'U'), ('ను', 'U'), ('న్ని', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('ఘ', '|'), ('ను', '|'), ('డా', 'U'), ('పు', 'U'), ('ణ్యా', 'U'), ('త్ము', '|'), ('లో', 'U'), ('కై', 'U'), ('క', '|'), ('మా', 'U'), ('న్యు', '|'), ('ని', '|'), ('గా', 'U'), ('ధ', 'U'), ('న్యు', '|'), ('ని', '|'), ('గా', 'U'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ని', '|'), ('ధి', '|'), ('గా', 'U'), ('ను', 'U'), ('ద్య', 'U'), ('ద్గు', '|'), ('ణాం', 'U'), ('భో', 'U'), ('ధి', '|'), ('గా', 'U'), ('న', '|'), ('ని', '|'), ('శం', 'U'), ('బుం', 'U'), ('గొ', '|'), ('ని', '|'), ('యా', 'U'), ('డ', '|'), ('గో', 'U'), ('రు', '|'), ('దు', '|'), ('రు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[('శీ', 'U'), ('లం', 'U'), ('బున్', 'U'), ('గు', '|'), ('ల', '|'), ('మున్', 'U'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ని', '|'), ('ధి', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('కాం', 'U'), ('త', '|'), ('వ', 'U'), ('క్ష', 'U'), ('స్స్థ', '|'), ('లిన్', 'U'), ('హా', 'U'), ('ళిం', 'U'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('కా', 'U'), ('ము', '|'), ('కు', '|'), ('డ', '|'), ('వై', 'U'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('వృ', 'U'), ('త్తిన్', 'U'), ('స', '|'), ('దా', 'U'), ('స్త్రీ', 'U'), ('లో', 'U'), ('లుం', 'U'), ('డ', '|'), ('న', '|'), ('రా', 'U'), ('ధ', '|'), ('తో', 'U'), ('బె', '|'), ('న', '|'), ('గు', '|'), ('ట', 'U'), ('ల్చి', '|'), ('త్రం', 'U'), ('బు', '|'), ('లు', 'U'), ('న్నౌ', 'U'), ('ర', '|'), ('నీ', 'U'), ('జా', 'U'), ('లం', 'U'), ('బే', 'U'), ('మ', '|'), ('ని', '|'), ('స', 'U'), ('న్ను', '|'), ('తిం', 'U'), ('చె', '|'), ('ద', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('శీ', 'U'), ('లం', 'U'), ('బు', 'U'), ('న్గు', '|'), ('ల', '|'), ('ము', 'U'), ('న్వి', '|'), ('వే', 'U'), ('క', '|'), ('ని', '|'), ('ధి', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('కాం', 'U'), ('త', '|'), ('వ', 'U'), ('క్ష', 'U'), ('స్స్థ', '|'), ('లిన్', 'U'), ('హా', 'U'), ('ళిం', 'U'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('కా', 'U'), ('ము', '|'), ('కు', '|'), ('డ', '|'), ('వై', 'U'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('వృ', 'U'), ('త్తి', 'U'), ('న్స', '|'), ('దా', 'U'), ('స్త్రీ', 'U'), ('లో', 'U'), ('లుం', 'U'), ('డ', '|'), ('న', '|'), ('రా', 'U'), ('ధ', '|'), ('తో', 'U'), ('బె', '|'), ('న', '|'), ('గు', '|'), ('ట', 'U'), ('ల్చి', '|'), ('త్రం', 'U'), ('బు', '|'), ('లు', 'U'), ('న్నౌ', 'U'), ('ర', '|'), ('నీ', 'U'), ('జా', 'U'), ('లం', 'U'), ('బే', 'U'), ('మ', '|'), ('ని', '|'), ('స', 'U'), ('న్ను', '|'), ('తిం', 'U'), ('చె', '|'), ('ద', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('ధ', '|'), ('వ', '|'), ('రు', 'U'), ('క్మి', '|'), ('ణిం', 'U'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('కూ', 'U'), ('ర్మిన్', 'U'), ('మి', '|'), ('త్ర', '|'), ('వం', 'U'), ('దా', 'U'), ('సు', '|'), ('దం', 'U'), ('తా', 'U'), ('లో', 'U'), ('లా', 'U'), ('క్షు', '|'), ('ల', '|'), ('గూ', 'U'), ('డి', '|'), ('జాం', 'U'), ('బ', '|'), ('వ', '|'), ('తి', '|'), ('స', 'U'), ('త్యా', 'U'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణా', 'U'), ('భ', '|'), ('ద్ర', '|'), ('లన్', 'U'), ('కా', 'U'), ('ళిం', 'U'), ('దిన్', 'U'), ('మ', '|'), ('రు', '|'), ('కే', 'U'), ('ళి', '|'), ('దే', 'U'), ('ల్చి', '|'), ('తి', '|'), ('వి', '|'), ('శృం', 'U'), ('గా', 'U'), ('రాం', 'U'), ('గ', '|'), ('గో', 'U'), ('పాం', 'U'), ('గ', '|'), ('నా', 'U'), ('జా', 'U'), ('లం', 'U'), ('బున్', 'U'), ('ద', '|'), ('ని', '|'), ('యిం', 'U'), ('తు', '|'), ('నౌ', 'U'), ('ర', '|'), ('తు', '|'), ('ద', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('శ్రీ', 'U'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('ధ', '|'), ('వ', '|'), ('రు', 'U'), ('క్మి', '|'), ('ణిం', 'U'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('కూ', 'U'), ('ర్మి', 'U'), ('న్మి', '|'), ('త్ర', '|'), ('వం', 'U'), ('దా', 'U'), ('సు', '|'), ('దం', 'U'), ('తా', 'U'), ('లో', 'U'), ('లా', 'U'), ('క్షు', '|'), ('ల', '|'), ('గూ', 'U'), ('డి', '|'), ('జాం', 'U'), ('బ', '|'), ('వ', '|'), ('తి', '|'), ('స', 'U'), ('త్యా', 'U'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణా', 'U'), ('భ', '|'), ('ద్ర', '|'), ('లన్', 'U'), ('కా', 'U'), ('ళిం', 'U'), ('ది', 'U'), ('న్మ', '|'), ('రు', '|'), ('కే', 'U'), ('ళి', '|'), ('దే', 'U'), ('ల్చి', '|'), ('తి', '|'), ('వి', '|'), ('శృం', 'U'), ('గా', 'U'), ('రాం', 'U'), ('గ', '|'), ('గో', 'U'), ('పాం', 'U'), ('గ', '|'), ('నా', 'U'), ('జా', 'U'), ('లం', 'U'), ('బు', 'U'), ('న్ద', '|'), ('ని', '|'), ('యిం', 'U'), ('తు', '|'), ('నౌ', 'U'), ('ర', '|'), ('తు', '|'), ('ద', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[('మ', 'U'), ('ద్దు', 'U'), ('ల్గూ', 'U'), ('ల్చి', '|'), ('న', '|'), ('లా', 'U'), ('గొ', '|'), ('వే', 'U'), ('గ', '|'), ('మ', '|'), ('ని', '|'), ('లో', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('గాం', 'U'), ('డీ', 'U'), ('వి', '|'), ('కిన్', 'U'), ('బు', 'U'), ('ద్దుల్', 'U'), ('సె', 'U'), ('ప్పి', '|'), ('న', '|'), ('లా', 'U'), ('గొ', '|'), ('మో', 'U'), ('ద', '|'), ('ర', '|'), ('స', '|'), ('ము', 'U'), ('ప్పొం', 'U'), ('గన్', 'U'), ('య', '|'), ('శో', 'U'), ('ద', 'U'), ('మ్మ', '|'), ('కున్', 'U'), ('ము', 'U'), ('ద్దు', 'U'), ('ల్గా', 'U'), ('న', '|'), ('టి', '|'), ('యిం', 'U'), ('చు', '|'), ('లా', 'U'), ('గొ', '|'), ('వ', '|'), ('రు', '|'), ('సన్', 'U'), ('ము', 'U'), ('వ్వే', 'U'), ('ళ', '|'), ('లన్', 'U'), ('వే', 'U'), ('డు', '|'), ('కన్', 'U'), ('చ', 'U'), ('ద్దు', 'U'), ('ల్మె', 'U'), ('క్కి', '|'), ('ర', '|'), ('హిం', 'U'), ('చు', '|'), ('లా', 'U'), ('గొ', '|'), ('ధ', '|'), ('ర', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('మ', 'U'), ('ద్దు', 'U'), ('ల్గూ', 'U'), ('ల్చి', '|'), ('న', '|'), ('లా', 'U'), ('గొ', '|'), ('వే', 'U'), ('గ', '|'), ('మ', '|'), ('ని', '|'), ('లో', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('గాం', 'U'), ('డీ', 'U'), ('వి', '|'), ('కిన్', 'U'), ('బు', 'U'), ('ద్దు', 'U'), ('ల్సె', 'U'), ('ప్పి', '|'), ('న', '|'), ('లా', 'U'), ('గొ', '|'), ('మో', 'U'), ('ద', '|'), ('ర', '|'), ('స', '|'), ('ము', 'U'), ('ప్పొం', 'U'), ('గ', 'U'), ('న్య', '|'), ('శో', 'U'), ('ద', 'U'), ('మ్మ', '|'), ('కున్', 'U'), ('ము', 'U'), ('ద్దు', 'U'), ('ల్గా', 'U'), ('న', '|'), ('టి', '|'), ('యిం', 'U'), ('చు', '|'), ('లా', 'U'), ('గొ', '|'), ('వ', '|'), ('రు', '|'), ('స', 'U'), ('న్ము', 'U'), ('వ్వే', 'U'), ('ళ', '|'), ('ల', 'U'), ('న్వే', 'U'), ('డు', '|'), ('కన్', 'U'), ('చ', 'U'), ('ద్దు', 'U'), ('ల్మె', 'U'), ('క్కి', '|'), ('ర', '|'), ('హిం', 'U'), ('చు', '|'), ('లా', 'U'), ('గొ', '|'), ('ధ', '|'), ('ర', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('చ', '|'), ('ర', '|'), ('ణా', 'U'), ('బ్జం', 'U'), ('బు', '|'), ('లు', '|'), ('వీ', 'U'), ('డ్వ', '|'), ('డన్', 'U'), ('ని', '|'), ('ల', '|'), ('చి', '|'), ('యో', 'U'), ('జన్', 'U'), ('ద', 'U'), ('ట్టి', '|'), ('లో', 'U'), ('పి', 'U'), ('ల్ల', '|'), ('గ్రోల్', 'U'), ('క', '|'), ('ర', '|'), ('మొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('గ', '|'), ('నుం', 'U'), ('చి', '|'), ('యిం', 'U'), ('పొం', 'U'), ('ద', '|'), ('వ', '|'), ('జం', 'U'), ('కన్', 'U'), ('గో', 'U'), ('ల', '|'), ('నం', 'U'), ('ది', 'U'), ('చ్చి', '|'), ('బ', 'U'), ('ల్వు', '|'), ('రు', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('రు', '|'), ('జు', 'U'), ('ట్టు', '|'), ('నుం', 'U'), ('గొ', '|'), ('లు', '|'), ('వ', '|'), ('వే', 'U'), ('ల్పుల్', 'U'), ('గ్రు', 'U'), ('క్కి', '|'), ('ళు', 'U'), ('ల్మ్రిం', 'U'), ('గ', '|'), ('గా', 'U'), ('న', '|'), ('ర', '|'), ('యం', 'U'), ('జ', 'U'), ('ల్ది', '|'), ('భు', '|'), ('జిం', 'U'), ('ప', '|'), ('వే', 'U'), ('య', '|'), ('డ', '|'), ('వి', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('చ', '|'), ('ర', '|'), ('ణా', 'U'), ('బ్జం', 'U'), ('బు', '|'), ('లు', '|'), ('వీ', 'U'), ('డ్వ', '|'), ('డ', 'U'), ('న్ని', '|'), ('ల', '|'), ('చి', '|'), ('యో', 'U'), ('జ', 'U'), ('న్ద', 'U'), ('ట్టి', '|'), ('లో', 'U'), ('పి', 'U'), ('ల్ల', '|'), ('గ్రోల్', 'U'), ('క', '|'), ('ర', '|'), ('మొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('గ', '|'), ('నుం', 'U'), ('చి', '|'), ('యిం', 'U'), ('పొం', 'U'), ('ద', '|'), ('వ', '|'), ('జం', 'U'), ('క', 'U'), ('న్గో', 'U'), ('ల', '|'), ('నం', 'U'), ('ది', 'U'), ('చ్చి', '|'), ('బ', 'U'), ('ల్వు', '|'), ('రు', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('రు', '|'), ('జు', 'U'), ('ట్టు', '|'), ('నుం', 'U'), ('గొ', '|'), ('లు', '|'), ('వ', '|'), ('వే', 'U'), ('ల్పు', 'U'), ('ల్గ్రు', 'U'), ('క్కి', '|'), ('ళు', 'U'), ('ల్మ్రిం', 'U'), ('గ', '|'), ('గా', 'U'), ('న', '|'), ('ర', '|'), ('యం', 'U'), ('జ', 'U'), ('ల్ది', '|'), ('భు', '|'), ('జిం', 'U'), ('ప', '|'), ('వే', 'U'), ('య', '|'), ('డ', '|'), ('వి', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[('మె', '|'), ('ఱు', '|'), ('గు', 'U'), ('ల్దే', 'U'), ('ఱు', '|'), ('మ', '|'), ('హేం', 'U'), ('ద్ర', '|'), ('నీ', 'U'), ('ల', '|'), ('ని', '|'), ('భ', '|'), ('మౌ', 'U'), ('మే', 'U'), ('నన్', 'U'), ('స', '|'), ('మీ', 'U'), ('పా', 'U'), ('ట', '|'), ('గో', 'U'), ('ఖు', '|'), ('ర', '|'), ('ని', 'U'), ('ర్ధూ', 'U'), ('త', '|'), ('ధ', '|'), ('రా', 'U'), ('ప', '|'), ('రా', 'U'), ('గ', '|'), ('ల', '|'), ('వ', '|'), ('పం', 'U'), ('క్తు', 'U'), ('ల్గ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('నొ', 'U'), ('క్క', '|'), ('చే', 'U'), ('బు', '|'), ('రి', '|'), ('గో', 'U'), ('లొ', 'U'), ('క్క', '|'), ('ట', '|'), ('బా', 'U'), ('ల', '|'), ('కుం', 'U'), ('డ', '|'), ('గొ', '|'), ('ను', '|'), ('చుం', 'U'), ('బొ', 'U'), ('ల్పొం', 'U'), ('గ', '|'), ('గో', 'U'), ('ధు', 'U'), ('గ్జ', '|'), ('నాం', 'U'), ('త', '|'), ('ర', '|'), ('వ', 'U'), ('ర్ధి', 'U'), ('ష్ణు', '|'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('నిన్', 'U'), ('గొ', '|'), ('లు', '|'), ('తు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('మె', '|'), ('ఱు', '|'), ('గు', 'U'), ('ల్దే', 'U'), ('ఱు', '|'), ('మ', '|'), ('హేం', 'U'), ('ద్ర', '|'), ('నీ', 'U'), ('ల', '|'), ('ని', '|'), ('భ', '|'), ('మౌ', 'U'), ('మే', 'U'), ('న', 'U'), ('న్స', '|'), ('మీ', 'U'), ('పా', 'U'), ('ట', '|'), ('గో', 'U'), ('ఖు', '|'), ('ర', '|'), ('ని', 'U'), ('ర్ధూ', 'U'), ('త', '|'), ('ధ', '|'), ('రా', 'U'), ('ప', '|'), ('రా', 'U'), ('గ', '|'), ('ల', '|'), ('వ', '|'), ('పం', 'U'), ('క్తు', 'U'), ('ల్గ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('నొ', 'U'), ('క్క', '|'), ('చే', 'U'), ('బు', '|'), ('రి', '|'), ('గో', 'U'), ('లొ', 'U'), ('క్క', '|'), ('ట', '|'), ('బా', 'U'), ('ల', '|'), ('కుం', 'U'), ('డ', '|'), ('గొ', '|'), ('ను', '|'), ('చుం', 'U'), ('బొ', 'U'), ('ల్పొం', 'U'), ('గ', '|'), ('గో', 'U'), ('ధు', 'U'), ('గ్జ', '|'), ('నాం', 'U'), ('త', '|'), ('ర', '|'), ('వ', 'U'), ('ర్ధి', 'U'), ('ష్ణు', '|'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('ని', 'U'), ('న్గొ', '|'), ('లు', '|'), ('తు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[('హా', 'U'), ('లా', 'U'), ('హా', 'U'), ('ల', '|'), ('శి', '|'), ('రో', 'U'), ('ధి', '|'), ('మౌ', 'U'), ('ళి', '|'), ('న', '|'), ('య', '|'), ('నో', 'U'), ('ద్య', 'U'), ('ద్భీ', 'U'), ('మ', '|'), ('ధూ', 'U'), ('మ', 'U'), ('ధ్వ', '|'), ('జ', 'U'), ('జ్వా', 'U'), ('లా', 'U'), ('భీ', 'U'), ('ల', '|'), ('క', '|'), ('రా', 'U'), ('ళ', '|'), ('రూ', 'U'), ('క్ష', '|'), ('వి', '|'), ('ష', '|'), ('ని', 'U'), ('శ్వా', 'U'), ('సో', 'U'), ('ష్ణ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('న', '|'), ('దాం', 'U'), ('భో', 'U'), ('లీ', 'U'), ('లా', 'U'), ('స్ప', '|'), ('ద', '|'), ('కా', 'U'), ('ళి', '|'), ('య', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('న', '|'), ('ట', 'U'), ('ద్భో', 'U'), ('గా', 'U'), ('గ్ర', '|'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('హా', 'U'), ('ళిన్', 'U'), ('దాం', 'U'), ('డ', '|'), ('వ', '|'), ('మా', 'U'), ('డు', '|'), ('నిన్', 'U'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('హా', 'U'), ('లా', 'U'), ('హా', 'U'), ('ల', '|'), ('శి', '|'), ('రో', 'U'), ('ధి', '|'), ('మౌ', 'U'), ('ళి', '|'), ('న', '|'), ('య', '|'), ('నో', 'U'), ('ద్య', 'U'), ('ద్భీ', 'U'), ('మ', '|'), ('ధూ', 'U'), ('మ', 'U'), ('ధ్వ', '|'), ('జ', 'U'), ('జ్వా', 'U'), ('లా', 'U'), ('భీ', 'U'), ('ల', '|'), ('క', '|'), ('రా', 'U'), ('ళ', '|'), ('రూ', 'U'), ('క్ష', '|'), ('వి', '|'), ('ష', '|'), ('ని', 'U'), ('శ్వా', 'U'), ('సో', 'U'), ('ష్ణ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('న', '|'), ('దాం', 'U'), ('భో', 'U'), ('లీ', 'U'), ('లా', 'U'), ('స్ప', '|'), ('ద', '|'), ('కా', 'U'), ('ళి', '|'), ('య', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('న', '|'), ('ట', 'U'), ('ద్భో', 'U'), ('గా', 'U'), ('గ్ర', '|'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('హా', 'U'), ('ళి', 'U'), ('న్దాం', 'U'), ('డ', '|'), ('వ', '|'), ('మా', 'U'), ('డు', '|'), ('ని', 'U'), ('న్ద', '|'), ('ల', '|'), ('తు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('తి', '|'), ('న', '|'), ('దే', 'U'), ('చె', 'U'), ('ట్టు', '|'), ('న', '|'), ('నా', 'U'), ('కు', '|'), ('మే', 'U'), ('క', '|'), ('గు', '|'), ('హ', '|'), ('గొం', 'U'), ('దిం', 'U'), ('బా', 'U'), ('ము', '|'), ('ని', '|'), ('ద్రిం', 'U'), ('ప', '|'), ('దే', 'U'), ('వ', '|'), ('న', '|'), ('వా', 'U'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('బ', 'U'), ('క్షు', '|'), ('లున్', 'U'), ('మృ', '|'), ('గ', '|'), ('ము', '|'), ('లున్', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('వే', 'U'), ('నీ', 'U'), ('టి', '|'), ('లో', 'U'), ('ము', '|'), ('ను', '|'), ('కల్', 'U'), ('వే', 'U'), ('య', '|'), ('వె', '|'), ('మ', 'U'), ('త్స్య', '|'), ('క', 'U'), ('చ్ఛ', '|'), ('ప', '|'), ('ము', '|'), ('లు', 'U'), ('న్మో', 'U'), ('క్షా', 'U'), ('ర్థ', '|'), ('మౌ', 'U'), ('ము', 'U'), ('క్తి', '|'), ('కిన్', 'U'), ('మ', '|'), ('న', '|'), ('సే', 'U'), ('మూ', 'U'), ('ల', '|'), ('ము', '|'), ('నీ', 'U'), ('దు', '|'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('కు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('తి', '|'), ('న', '|'), ('దే', 'U'), ('చె', 'U'), ('ట్టు', '|'), ('న', '|'), ('నా', 'U'), ('కు', '|'), ('మే', 'U'), ('క', '|'), ('గు', '|'), ('హ', '|'), ('గొం', 'U'), ('దిం', 'U'), ('బా', 'U'), ('ము', '|'), ('ని', '|'), ('ద్రిం', 'U'), ('ప', '|'), ('దే', 'U'), ('వ', '|'), ('న', '|'), ('వా', 'U'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('బ', 'U'), ('క్షు', '|'), ('లు', 'U'), ('న్మృ', '|'), ('గ', '|'), ('ము', '|'), ('లు', 'U'), ('న్వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('వే', 'U'), ('నీ', 'U'), ('టి', '|'), ('లో', 'U'), ('ము', '|'), ('ను', '|'), ('క', 'U'), ('ల్వే', 'U'), ('య', '|'), ('వె', '|'), ('మ', 'U'), ('త్స్య', '|'), ('క', 'U'), ('చ్ఛ', '|'), ('ప', '|'), ('ము', '|'), ('లు', 'U'), ('న్మో', 'U'), ('క్షా', 'U'), ('ర్థ', '|'), ('మౌ', 'U'), ('ము', 'U'), ('క్తి', '|'), ('కిన్', 'U'), ('మ', '|'), ('న', '|'), ('సే', 'U'), ('మూ', 'U'), ('ల', '|'), ('ము', '|'), ('నీ', 'U'), ('దు', '|'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('కు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[('విం', 'U'), ('టిం', 'U'), ('గొం', 'U'), ('త', '|'), ('గ', '|'), ('మీ', 'U'), ('మ', '|'), ('హ', 'U'), ('త్వ', '|'), ('ము', '|'), ('ను', '|'), ('ను', 'U'), ('ర్విన్', 'U'), ('ద', 'U'), ('ర్శ', '|'), ('న', '|'), ('ప్రా', 'U'), ('ప్తి', '|'), ('చే', 'U'), ('ఘం', 'U'), ('టా', 'U'), ('క', 'U'), ('ర్ణు', '|'), ('ని', '|'), ('ను', '|'), ('గ్ర', '|'), ('సే', 'U'), ('న', '|'), ('త', '|'), ('న', '|'), ('యుం', 'U'), ('గై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('తే', 'U'), ('జం', 'U'), ('బు', '|'), ('ని', 'U'), ('న్నం', 'U'), ('టం', 'U'), ('జే', 'U'), ('య', '|'), ('వె', '|'), ('మా', 'U'), ('ట', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('ట్లా', 'U'), ('శ్చ', 'U'), ('ర్య', '|'), ('మున్', 'U'), ('బొం', 'U'), ('ద', '|'), ('గా', 'U'), ('నం', 'U'), ('టం', 'U'), ('బొం', 'U'), ('ద', '|'), ('ని', '|'), ('వే', 'U'), ('ల్పు', '|'), ('నిన్', 'U'), ('గొ', '|'), ('లు', '|'), ('తు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('విం', 'U'), ('టిం', 'U'), ('గొం', 'U'), ('త', '|'), ('గ', '|'), ('మీ', 'U'), ('మ', '|'), ('హ', 'U'), ('త్వ', '|'), ('ము', '|'), ('ను', '|'), ('ను', 'U'), ('ర్వి', 'U'), ('న్ద', 'U'), ('ర్శ', '|'), ('న', '|'), ('ప్రా', 'U'), ('ప్తి', '|'), ('చే', 'U'), ('ఘం', 'U'), ('టా', 'U'), ('క', 'U'), ('ర్ణు', '|'), ('ని', '|'), ('ను', '|'), ('గ్ర', '|'), ('సే', 'U'), ('న', '|'), ('త', '|'), ('న', '|'), ('యుం', 'U'), ('గై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('తే', 'U'), ('జం', 'U'), ('బు', '|'), ('ని', 'U'), ('న్నం', 'U'), ('టం', 'U'), ('జే', 'U'), ('య', '|'), ('వె', '|'), ('మా', 'U'), ('ట', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('ట్లా', 'U'), ('శ్చ', 'U'), ('ర్య', '|'), ('ము', 'U'), ('న్బొం', 'U'), ('ద', '|'), ('గా', 'U'), ('నం', 'U'), ('టం', 'U'), ('బొం', 'U'), ('ద', '|'), ('ని', '|'), ('వే', 'U'), ('ల్పు', '|'), ('ని', 'U'), ('న్గొ', '|'), ('లు', '|'), ('తు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('వి', '|'), ('ల', '|'), ('స', 'U'), ('త్కా', 'U'), ('వ్య', '|'), ('క', '|'), ('ళా', 'U'), ('ధు', '|'), ('రీ', 'U'), ('ణ', '|'), ('త', '|'), ('లు', '|'), ('త', 'U'), ('ద్వి', 'U'), ('జ్ఞా', 'U'), ('ను', '|'), ('లై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('వే', 'U'), ('త్త', '|'), ('ల', '|'), ('కుం', 'U'), ('గా', 'U'), ('క', '|'), ('వి', '|'), ('యే', 'U'), ('ల', '|'), ('మూ', 'U'), ('ర్ఖు', '|'), ('ల', '|'), ('కు', '|'), ('గా', 'U'), ('ధల్', 'U'), ('జెం', 'U'), ('దు', '|'), ('భా', 'U'), ('గీ', 'U'), ('ర', '|'), ('థీ', 'U'), ('ద', '|'), ('ళి', '|'), ('తాం', 'U'), ('భో', 'U'), ('రు', '|'), ('హ', '|'), ('షం', 'U'), ('డ', '|'), ('మం', 'U'), ('డి', '|'), ('త', '|'), ('మ', '|'), ('రం', 'U'), ('ద', '|'), ('గ్రా', 'U'), ('స', '|'), ('మా', 'U'), ('ధు', 'U'), ('ర్య', '|'), ('వాం', 'U'), ('ఛ', '|'), ('లు', '|'), ('జో', 'U'), ('రీ', 'U'), ('గ', '|'), ('ల', '|'), ('కే', 'U'), ('ల', '|'), ('తేం', 'U'), ('ట్ల', '|'), ('గ', '|'), ('తి', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('వి', '|'), ('ల', '|'), ('స', 'U'), ('త్కా', 'U'), ('వ్య', '|'), ('క', '|'), ('ళా', 'U'), ('ధు', '|'), ('రీ', 'U'), ('ణ', '|'), ('త', '|'), ('లు', '|'), ('త', 'U'), ('ద్వి', 'U'), ('జ్ఞా', 'U'), ('ను', '|'), ('లై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('వే', 'U'), ('త్త', '|'), ('ల', '|'), ('కుం', 'U'), ('గా', 'U'), ('క', '|'), ('వి', '|'), ('యే', 'U'), ('ల', '|'), ('మూ', 'U'), ('ర్ఖు', '|'), ('ల', '|'), ('కు', '|'), ('గా', 'U'), ('ధ', 'U'), ('ల్జెం', 'U'), ('దు', '|'), ('భా', 'U'), ('గీ', 'U'), ('ర', '|'), ('థీ', 'U'), ('ద', '|'), ('ళి', '|'), ('తాం', 'U'), ('భో', 'U'), ('రు', '|'), ('హ', '|'), ('షం', 'U'), ('డ', '|'), ('మం', 'U'), ('డి', '|'), ('త', '|'), ('మ', '|'), ('రం', 'U'), ('ద', '|'), ('గ్రా', 'U'), ('స', '|'), ('మా', 'U'), ('ధు', 'U'), ('ర్య', '|'), ('వాం', 'U'), ('ఛ', '|'), ('లు', '|'), ('జో', 'U'), ('రీ', 'U'), ('గ', '|'), ('ల', '|'), ('కే', 'U'), ('ల', '|'), ('తేం', 'U'), ('ట్ల', '|'), ('గ', '|'), ('తి', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('బ', '|'), ('ల', '|'), ('భే', 'U'), ('ది', 'U'), ('న్న', '|'), ('ల', '|'), ('యిం', 'U'), ('చి', '|'), ('ఖాం', 'U'), ('డ', '|'), ('వ', '|'), ('వ', '|'), ('నిన్', 'U'), ('భ', 'U'), ('స్మం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('ము', 'U'), ('న్నె', '|'), ('ల', '|'), ('మిన్', 'U'), ('దై', 'U'), ('త్యు', '|'), ('ల', '|'), ('ద్రుం', 'U'), ('చి', '|'), ('యొ', 'U'), ('క్క', '|'), ('టి', '|'), ('శి', '|'), ('వు', 'U'), ('న్ని', 'U'), ('ర్జిం', 'U'), ('చి', '|'), ('కౌ', 'U'), ('ర', 'U'), ('వ్యు', '|'), ('లన్', 'U'), ('బ', '|'), ('లి', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('కి', '|'), ('రీ', 'U'), ('టి', '|'), ('బో', 'U'), ('య', '|'), ('ల', '|'), ('కు', '|'), ('గో', 'U'), ('ప', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('నొ', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('డే', 'U'), ('య', '|'), ('ల', '|'), ('నీ', 'U'), ('తే', 'U'), ('జ', '|'), ('ము', '|'), ('నీ', 'U'), ('వు', '|'), ('గై', 'U'), ('కొ', '|'), ('ని', '|'), ('న', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('బ', '|'), ('ల', '|'), ('భే', 'U'), ('ది', 'U'), ('న్న', '|'), ('ల', '|'), ('యిం', 'U'), ('చి', '|'), ('ఖాం', 'U'), ('డ', '|'), ('వ', '|'), ('వ', '|'), ('ని', 'U'), ('న్భ', 'U'), ('స్మం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('ము', 'U'), ('న్నె', '|'), ('ల', '|'), ('మి', 'U'), ('న్దై', 'U'), ('త్యు', '|'), ('ల', '|'), ('ద్రుం', 'U'), ('చి', '|'), ('యొ', 'U'), ('క్క', '|'), ('టి', '|'), ('శి', '|'), ('వు', 'U'), ('న్ని', 'U'), ('ర్జిం', 'U'), ('చి', '|'), ('కౌ', 'U'), ('ర', 'U'), ('వ్యు', '|'), ('లన్', 'U'), ('బ', '|'), ('లి', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('కి', '|'), ('రీ', 'U'), ('టి', '|'), ('బో', 'U'), ('య', '|'), ('ల', '|'), ('కు', '|'), ('గో', 'U'), ('ప', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('నొ', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('డే', 'U'), ('య', '|'), ('ల', '|'), ('నీ', 'U'), ('తే', 'U'), ('జ', '|'), ('ము', '|'), ('నీ', 'U'), ('వు', '|'), ('గై', 'U'), ('కొ', '|'), ('ని', '|'), ('న', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('తి', '|'), ('సౌం', 'U'), ('ద', 'U'), ('ర్య', '|'), ('స', '|'), ('మ', '|'), ('గ్ర', '|'), ('ధై', 'U'), ('ర్య', '|'), ('ఘ', '|'), ('న', '|'), ('శౌ', 'U'), ('ర్య', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('యున్', 'U'), ('గీ', 'U'), ('ర్తి', '|'), ('యు', 'U'), ('న్న', '|'), ('తు', '|'), ('ల', '|'), ('ప్రా', 'U'), ('భ', '|'), ('వ', '|'), ('రే', 'U'), ('ఖ', '|'), ('యున్', 'U'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('చో', 'U'), ('ద్యం', 'U'), ('బె', 'U'), ('న్న', '|'), ('గా', 'U'), ('ఘో', 'U'), ('ట', '|'), ('క', '|'), ('ప్ర', '|'), ('త', '|'), ('తిం', 'U'), ('ది', 'U'), ('ద్ద', '|'), ('డె', '|'), ('ని', 'U'), ('త్య', '|'), ('మున్', 'U'), ('న', '|'), ('కు', '|'), ('లు', '|'), ('డే', 'U'), ('పా', 'U'), ('రం', 'U'), ('గ', '|'), ('నీ', 'U'), ('స', 'U'), ('త్కృ', '|'), ('పన్', 'U'), ('స', '|'), ('త', '|'), ('మై', 'U'), ('రా', 'U'), ('జ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('అ', '|'), ('తి', '|'), ('సౌం', 'U'), ('ద', 'U'), ('ర్య', '|'), ('స', '|'), ('మ', '|'), ('గ్ర', '|'), ('ధై', 'U'), ('ర్య', '|'), ('ఘ', '|'), ('న', '|'), ('శౌ', 'U'), ('ర్య', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('యు', 'U'), ('న్గీ', 'U'), ('ర్తి', '|'), ('యు', 'U'), ('న్న', '|'), ('తు', '|'), ('ల', '|'), ('ప్రా', 'U'), ('భ', '|'), ('వ', '|'), ('రే', 'U'), ('ఖ', '|'), ('యు', 'U'), ('న్గ', '|'), ('లి', '|'), ('గి', '|'), ('చో', 'U'), ('ద్యం', 'U'), ('బె', 'U'), ('న్న', '|'), ('గా', 'U'), ('ఘో', 'U'), ('ట', '|'), ('క', '|'), ('ప్ర', '|'), ('త', '|'), ('తిం', 'U'), ('ది', 'U'), ('ద్ద', '|'), ('డె', '|'), ('ని', 'U'), ('త్య', '|'), ('ము', 'U'), ('న్న', '|'), ('కు', '|'), ('లు', '|'), ('డే', 'U'), ('పా', 'U'), ('రం', 'U'), ('గ', '|'), ('నీ', 'U'), ('స', 'U'), ('త్కృ', '|'), ('పన్', 'U'), ('స', '|'), ('త', '|'), ('మై', 'U'), ('రా', 'U'), ('జ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[('బ', '|'), ('క', '|'), ('దై', 'U'), ('తే', 'U'), ('య', '|'), ('మ', '|'), ('హా', 'U'), ('బ', '|'), ('లున్', 'U'), ('స', '|'), ('మ', '|'), ('ర', '|'), ('భూ', 'U'), ('భా', 'U'), ('గం', 'U'), ('బు', '|'), ('నన్', 'U'), ('వా', 'U'), ('యు', '|'), ('పు', '|'), ('త్ర', '|'), ('కు', '|'), ('డీ', 'U'), ('ల్గిం', 'U'), ('చి', '|'), ('న', '|'), ('నే', 'U'), ('క', '|'), ('చ', '|'), ('క్ర', '|'), ('పు', '|'), ('రి', '|'), ('వా', 'U'), ('రల్', 'U'), ('మె', 'U'), ('చ్చి', '|'), ('యిం', 'U'), ('టిం', 'U'), ('ట', '|'), ('వం', 'U'), ('ట', '|'), ('క', '|'), ('ము', 'U'), ('ల్బె', 'U'), ('ట్టి', '|'), ('రి', '|'), ('గా', 'U'), ('ని', '|'), ('భి', 'U'), ('క్ష', '|'), ('య', '|'), ('ను', '|'), ('మా', 'U'), ('టన్', 'U'), ('మా', 'U'), ('న్ప', '|'), ('లే', 'U'), ('రై', 'U'), ('రి', '|'), ('యం', 'U'), ('త', '|'), ('కు', '|'), ('వా', 'U'), ('రల్', 'U'), ('గొ', '|'), ('ఱ', '|'), ('తే', 'U'), ('మి', '|'), ('చా', 'U'), ('లు', '|'), ('ట', '|'), ('కు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('బ', '|'), ('క', '|'), ('దై', 'U'), ('తే', 'U'), ('య', '|'), ('మ', '|'), ('హా', 'U'), ('బ', '|'), ('లు', 'U'), ('న్స', '|'), ('మ', '|'), ('ర', '|'), ('భూ', 'U'), ('భా', 'U'), ('గం', 'U'), ('బు', '|'), ('న', 'U'), ('న్వా', 'U'), ('యు', '|'), ('పు', '|'), ('త్ర', '|'), ('కు', '|'), ('డీ', 'U'), ('ల్గిం', 'U'), ('చి', '|'), ('న', '|'), ('నే', 'U'), ('క', '|'), ('చ', '|'), ('క్ర', '|'), ('పు', '|'), ('రి', '|'), ('వా', 'U'), ('ర', 'U'), ('ల్మె', 'U'), ('చ్చి', '|'), ('యిం', 'U'), ('టిం', 'U'), ('ట', '|'), ('వం', 'U'), ('ట', '|'), ('క', '|'), ('ము', 'U'), ('ల్బె', 'U'), ('ట్టి', '|'), ('రి', '|'), ('గా', 'U'), ('ని', '|'), ('భి', 'U'), ('క్ష', '|'), ('య', '|'), ('ను', '|'), ('మా', 'U'), ('ట', 'U'), ('న్మా', 'U'), ('న్ప', '|'), ('లే', 'U'), ('రై', 'U'), ('రి', '|'), ('యం', 'U'), ('త', '|'), ('కు', '|'), ('వా', 'U'), ('ర', 'U'), ('ల్గొ', '|'), ('ఱ', '|'), ('తే', 'U'), ('మి', '|'), ('చా', 'U'), ('లు', '|'), ('ట', '|'), ('కు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[('గ', '|'), ('హ', '|'), ('నా', 'U'), ('వా', 'U'), ('స', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('న', 'U'), ('న్న', '|'), ('ల', '|'), ('కు', '|'), ('దా', 'U'), ('గా', 'U'), ('రా', 'U'), ('బు', '|'), ('త', 'U'), ('మ్ముం', 'U'), ('డు', '|'), ('నై', 'U'), ('వి', '|'), ('హ', '|'), ('రిం', 'U'), ('చే', 'U'), ('త', '|'), ('ఱి', '|'), ('భా', 'U'), ('వి', '|'), ('కా', 'U'), ('ల', '|'), ('గ', '|'), ('తి', '|'), ('న', 'U'), ('న్వే', 'U'), ('షిం', 'U'), ('చు', '|'), ('చున్', 'U'), ('శౌ', 'U'), ('ర్య', '|'), ('సం', 'U'), ('గ్ర', '|'), ('హు', '|'), ('డై', 'U'), ('యా', 'U'), ('వు', '|'), ('ల', '|'), ('గా', 'U'), ('చె', '|'), ('మ', 'U'), ('త్స్య', '|'), ('పు', '|'), ('రి', '|'), ('లో', 'U'), ('గ', 'U'), ('ర్మా', 'U'), ('ను', '|'), ('గు', 'U'), ('ణ్య', '|'), ('క్రి', '|'), ('య', 'U'), ('స్స', '|'), ('హ', '|'), ('దే', 'U'), ('వుం', 'U'), ('డ', '|'), ('తి', '|'), ('ధై', 'U'), ('ర్య', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('న', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('గ', '|'), ('హ', '|'), ('నా', 'U'), ('వా', 'U'), ('స', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('న', 'U'), ('న్న', '|'), ('ల', '|'), ('కు', '|'), ('దా', 'U'), ('గా', 'U'), ('రా', 'U'), ('బు', '|'), ('త', 'U'), ('మ్ముం', 'U'), ('డు', '|'), ('నై', 'U'), ('వి', '|'), ('హ', '|'), ('రిం', 'U'), ('చే', 'U'), ('త', '|'), ('ఱి', '|'), ('భా', 'U'), ('వి', '|'), ('కా', 'U'), ('ల', '|'), ('గ', '|'), ('తి', '|'), ('న', 'U'), ('న్వే', 'U'), ('షిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్శౌ', 'U'), ('ర్య', '|'), ('సం', 'U'), ('గ్ర', '|'), ('హు', '|'), ('డై', 'U'), ('యా', 'U'), ('వు', '|'), ('ల', '|'), ('గా', 'U'), ('చె', '|'), ('మ', 'U'), ('త్స్య', '|'), ('పు', '|'), ('రి', '|'), ('లో', 'U'), ('గ', 'U'), ('ర్మా', 'U'), ('ను', '|'), ('గు', 'U'), ('ణ్య', '|'), ('క్రి', '|'), ('య', 'U'), ('స్స', '|'), ('హ', '|'), ('దే', 'U'), ('వుం', 'U'), ('డ', '|'), ('తి', '|'), ('ధై', 'U'), ('ర్య', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('న', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[('ర', 'U'), ('క్షిం', 'U'), ('పం', 'U'), ('ద', '|'), ('గు', '|'), ('వీ', 'U'), ('రు', '|'), ('డె', 'U'), ('వ్వ', '|'), ('డ', '|'), ('న', '|'), ('నీ', 'U'), ('రా', 'U'), ('జుల్', 'U'), ('వృ', '|'), ('థా', 'U'), ('తే', 'U'), ('జు', '|'), ('లే', 'U'), ('మో', 'U'), ('క్ష', '|'), ('శ్రీ', 'U'), ('యొ', '|'), ('స', '|'), ('గున్', 'U'), ('వి', '|'), ('భుం', 'U'), ('డె', '|'), ('వ', '|'), ('డు', '|'), ('శ్రీ', 'U'), ('మో', 'U'), ('హా', 'U'), ('కృ', '|'), ('తి', 'U'), ('న్దే', 'U'), ('వ', '|'), ('తల్', 'U'), ('ర', 'U'), ('క్షో', 'U'), ('జా', 'U'), ('క్ష', '|'), ('శు', '|'), ('భ', '|'), ('ప్ర', '|'), ('ధా', 'U'), ('న', '|'), ('గ', '|'), ('రి', '|'), ('మన్', 'U'), ('రా', 'U'), ('జి', 'U'), ('ల్లు', '|'), ('రా', 'U'), ('జేం', 'U'), ('ద్రు', '|'), ('లన్', 'U'), ('సా', 'U'), ('క్షా', 'U'), ('ద్బ్ర', 'U'), ('హ్మ', '|'), ('ము', '|'), ('నీ', 'U'), ('వె', '|'), ('ధ', 'U'), ('న్యు', '|'), ('ల', '|'), ('కు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('ర', 'U'), ('క్షిం', 'U'), ('పం', 'U'), ('ద', '|'), ('గు', '|'), ('వీ', 'U'), ('రు', '|'), ('డె', 'U'), ('వ్వ', '|'), ('డ', '|'), ('న', '|'), ('నీ', 'U'), ('రా', 'U'), ('జు', 'U'), ('ల్వృ', '|'), ('థా', 'U'), ('తే', 'U'), ('జు', '|'), ('లే', 'U'), ('మో', 'U'), ('క్ష', '|'), ('శ్రీ', 'U'), ('యొ', '|'), ('స', '|'), ('గు', 'U'), ('న్వి', '|'), ('భుం', 'U'), ('డె', '|'), ('వ', '|'), ('డు', '|'), ('శ్రీ', 'U'), ('మో', 'U'), ('హా', 'U'), ('కృ', '|'), ('తి', 'U'), ('న్దే', 'U'), ('వ', '|'), ('తల్', 'U'), ('ర', 'U'), ('క్షో', 'U'), ('జా', 'U'), ('క్ష', '|'), ('శు', '|'), ('భ', '|'), ('ప్ర', '|'), ('ధా', 'U'), ('న', '|'), ('గ', '|'), ('రి', '|'), ('మ', '|'), ('న్రా', 'U'), ('జి', 'U'), ('ల్లు', '|'), ('రా', 'U'), ('జేం', 'U'), ('ద్రు', '|'), ('లన్', 'U'), ('సా', 'U'), ('క్షా', 'U'), ('ద్బ్ర', 'U'), ('హ్మ', '|'), ('ము', '|'), ('నీ', 'U'), ('వె', '|'), ('ధ', 'U'), ('న్యు', '|'), ('ల', '|'), ('కు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[('కొ', '|'), ('లి', '|'), ('చే', 'U'), ('దిన్', 'U'), ('వ', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('నే', 'U'), ('న', '|'), ('డి', '|'), ('గి', '|'), ('తే', 'U'), ('కో', 'U'), ('పిం', 'U'), ('చు', '|'), ('టీ', 'U'), ('లే', 'U'), ('క', '|'), ('నే', 'U'), ('చె', '|'), ('లు', '|'), ('వం', 'U'), ('బె', 'U'), ('చ్చు', '|'), ('ట', '|'), ('కో', 'U'), ('ట', '|'), ('నే', 'U'), ('వి', '|'), ('భ', '|'), ('వ', '|'), ('ముల్', 'U'), ('చే', 'U'), ('కూ', 'U'), ('రు', '|'), ('టల్', 'U'), ('రూ', 'U'), ('క', '|'), ('నే', 'U'), ('బ', '|'), ('ల', '|'), ('వం', 'U'), ('తుం', 'U'), ('డ', '|'), ('గు', '|'), ('మూ', 'U'), ('క', '|'), ('నే', 'U'), ('స', '|'), ('తి', '|'), ('చె', '|'), ('డున్', 'U'), ('ప్రా', 'U'), ('ణే', 'U'), ('శు', '|'), ('పై', 'U'), ('గో', 'U'), ('ప', '|'), ('నే', 'U'), ('జ', '|'), ('ల', '|'), ('ద', 'U'), ('శ్యా', 'U'), ('మ', '|'), ('ల', '|'), ('శం', 'U'), ('ఖ', '|'), ('చ', '|'), ('క్ర', '|'), ('ధ', '|'), ('ర', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('కొ', '|'), ('లి', '|'), ('చే', 'U'), ('ది', 'U'), ('న్వ', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('నే', 'U'), ('న', '|'), ('డి', '|'), ('గి', '|'), ('తే', 'U'), ('కో', 'U'), ('పిం', 'U'), ('చు', '|'), ('టీ', 'U'), ('లే', 'U'), ('క', '|'), ('నే', 'U'), ('చె', '|'), ('లు', '|'), ('వం', 'U'), ('బె', 'U'), ('చ్చు', '|'), ('ట', '|'), ('కో', 'U'), ('ట', '|'), ('నే', 'U'), ('వి', '|'), ('భ', '|'), ('వ', '|'), ('ము', 'U'), ('ల్చే', 'U'), ('కూ', 'U'), ('రు', '|'), ('ట', '|'), ('ల్రూ', 'U'), ('క', '|'), ('నే', 'U'), ('బ', '|'), ('ల', '|'), ('వం', 'U'), ('తుం', 'U'), ('డ', '|'), ('గు', '|'), ('మూ', 'U'), ('క', '|'), ('నే', 'U'), ('స', '|'), ('తి', '|'), ('చె', '|'), ('డు', 'U'), ('న్ప్రా', 'U'), ('ణే', 'U'), ('శు', '|'), ('పై', 'U'), ('గో', 'U'), ('ప', '|'), ('నే', 'U'), ('జ', '|'), ('ల', '|'), ('ద', 'U'), ('శ్యా', 'U'), ('మ', '|'), ('ల', '|'), ('శం', 'U'), ('ఖ', '|'), ('చ', '|'), ('క్ర', '|'), ('ధ', '|'), ('ర', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[('బ', '|'), ('ల', '|'), ('శౌ', 'U'), ('ర్యో', 'U'), ('న్న', '|'), ('తి', '|'), ('శ', '|'), ('త్రు', '|'), ('లం', 'U'), ('గె', '|'), ('లి', '|'), ('చి', '|'), ('స', 'U'), ('ప్త', 'U'), ('ద్వీ', 'U'), ('ప', '|'), ('వి', 'U'), ('శ్వం', 'U'), ('భ', '|'), ('రా', 'U'), ('స్థ', '|'), ('లి', '|'), ('నే', 'U'), ('లిం', 'U'), ('చి', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('లన్', 'U'), ('దీ', 'U'), ('పిం', 'U'), ('చి', '|'), ('ది', 'U'), ('క్పా', 'U'), ('ల', '|'), ('కా', 'U'), ('వ', '|'), ('ళి', '|'), ('కీ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('మె', '|'), ('లం', 'U'), ('గు', '|'), ('నై', 'U'), ('ష', '|'), ('ధు', '|'), ('డు', '|'), ('దా', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('డే', 'U'), ('తొ', 'U'), ('ల్లి', '|'), ('వం', 'U'), ('ట', '|'), ('ల', '|'), ('వా', 'U'), ('డై', 'U'), ('ఋ', '|'), ('తు', '|'), ('ప', 'U'), ('ర్ణు', '|'), ('చెం', 'U'), ('గ', '|'), ('ట', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('బ', '|'), ('ల', '|'), ('శౌ', 'U'), ('ర్యో', 'U'), ('న్న', '|'), ('తి', '|'), ('శ', '|'), ('త్రు', '|'), ('లం', 'U'), ('గె', '|'), ('లి', '|'), ('చి', '|'), ('స', 'U'), ('ప్త', 'U'), ('ద్వీ', 'U'), ('ప', '|'), ('వి', 'U'), ('శ్వం', 'U'), ('భ', '|'), ('రా', 'U'), ('స్థ', '|'), ('లి', '|'), ('నే', 'U'), ('లిం', 'U'), ('చి', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('ల', 'U'), ('న్దీ', 'U'), ('పిం', 'U'), ('చి', '|'), ('ది', 'U'), ('క్పా', 'U'), ('ల', '|'), ('కా', 'U'), ('వ', '|'), ('ళి', '|'), ('కీ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('మె', '|'), ('లం', 'U'), ('గు', '|'), ('నై', 'U'), ('ష', '|'), ('ధు', '|'), ('డు', '|'), ('దా', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('డే', 'U'), ('తొ', 'U'), ('ల్లి', '|'), ('వం', 'U'), ('ట', '|'), ('ల', '|'), ('వా', 'U'), ('డై', 'U'), ('ఋ', '|'), ('తు', '|'), ('ప', 'U'), ('ర్ణు', '|'), ('చెం', 'U'), ('గ', '|'), ('ట', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('గో', 'U'), ('ళ', '|'), ('కు', '|'), ('డై', 'U'), ('న', '|'), ('పాం', 'U'), ('డు', '|'), ('ని', '|'), ('క', '|'), ('ళ', '|'), ('త్రం', 'U'), ('బం', 'U'), ('దు', '|'), ('వే', 'U'), ('ర్వే', 'U'), ('ఱ', '|'), ('నే', 'U'), ('వు', '|'), ('ర', '|'), ('కున్', 'U'), ('బు', 'U'), ('ట్టి', '|'), ('న', '|'), ('పాం', 'U'), ('డు', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('లు', '|'), ('ది', 'U'), ('వ్యు', 'U'), ('ల్మె', 'U'), ('చ్చ', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('ద', 'U'), ('చ్చ', '|'), ('రి', '|'), ('తం', 'U'), ('బం', 'U'), ('త', '|'), ('యు', '|'), ('భా', 'U'), ('ర', '|'), ('తం', 'U'), ('బ', '|'), ('ని', '|'), ('ప్ర', '|'), ('శ', 'U'), ('స్తం', 'U'), ('బ', 'U'), ('య్యె', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('సం', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('మ', '|'), ('గా', 'U'), ('దె', '|'), ('యీ', 'U'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('గో', 'U'), ('ళ', '|'), ('కు', '|'), ('డై', 'U'), ('న', '|'), ('పాం', 'U'), ('డు', '|'), ('ని', '|'), ('క', '|'), ('ళ', '|'), ('త్రం', 'U'), ('బం', 'U'), ('దు', '|'), ('వే', 'U'), ('ర్వే', 'U'), ('ఱ', '|'), ('నే', 'U'), ('వు', '|'), ('ర', '|'), ('కు', 'U'), ('న్బు', 'U'), ('ట్టి', '|'), ('న', '|'), ('పాం', 'U'), ('డు', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('లు', '|'), ('ది', 'U'), ('వ్యు', 'U'), ('ల్మె', 'U'), ('చ్చ', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('ద', 'U'), ('చ్చ', '|'), ('రి', '|'), ('తం', 'U'), ('బం', 'U'), ('త', '|'), ('యు', '|'), ('భా', 'U'), ('ర', '|'), ('తం', 'U'), ('బ', '|'), ('ని', '|'), ('ప్ర', '|'), ('శ', 'U'), ('స్తం', 'U'), ('బ', 'U'), ('య్యె', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('సం', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('మ', '|'), ('గా', 'U'), ('దె', '|'), ('యీ', 'U'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('క్ర', '|'), ('తు', '|'), ('వుల్', 'U'), ('నూ', 'U'), ('ఱొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('యిం', 'U'), ('ద్ర', '|'), ('ప', '|'), ('ద', '|'), ('వి', 'U'), ('న్గ', 'U'), ('ర్విం', 'U'), ('చి', '|'), ('యిం', 'U'), ('ద్రా', 'U'), ('ణి', '|'), ('కై', 'U'), ('ధృ', '|'), ('తి', '|'), ('దూ', 'U'), ('లన్', 'U'), ('మ', '|'), ('రు', '|'), ('డే', 'U'), ('చ', '|'), ('గా', 'U'), ('న', '|'), ('హు', '|'), ('షు', '|'), ('డ', 'U'), ('ద్దే', 'U'), ('వేం', 'U'), ('ద్రు', '|'), ('భో', 'U'), ('గా', 'U'), ('ను', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('గా', 'U'), ('గో', 'U'), ('రి', '|'), ('న', '|'), ('కుం', 'U'), ('భ', '|'), ('సం', 'U'), ('భ', '|'), ('వు', '|'), ('డు', '|'), ('గి', 'U'), ('న్కన్', 'U'), ('ది', 'U'), ('ట్టి', '|'), ('నన్', 'U'), ('జెం', 'U'), ('ద', '|'), ('డే', 'U'), ('స', '|'), ('త', '|'), ('తం', 'U'), ('బున్', 'U'), ('పె', '|'), ('ను', '|'), ('బా', 'U'), ('ము', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('క్ర', '|'), ('తు', '|'), ('వు', 'U'), ('ల్నూ', 'U'), ('ఱొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('యిం', 'U'), ('ద్ర', '|'), ('ప', '|'), ('ద', '|'), ('వి', 'U'), ('న్గ', 'U'), ('ర్విం', 'U'), ('చి', '|'), ('యిం', 'U'), ('ద్రా', 'U'), ('ణి', '|'), ('కై', 'U'), ('ధృ', '|'), ('తి', '|'), ('దూ', 'U'), ('ల', 'U'), ('న్మ', '|'), ('రు', '|'), ('డే', 'U'), ('చ', '|'), ('గా', 'U'), ('న', '|'), ('హు', '|'), ('షు', '|'), ('డ', 'U'), ('ద్దే', 'U'), ('వేం', 'U'), ('ద్రు', '|'), ('భో', 'U'), ('గా', 'U'), ('ను', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('గా', 'U'), ('గో', 'U'), ('రి', '|'), ('న', '|'), ('కుం', 'U'), ('భ', '|'), ('సం', 'U'), ('భ', '|'), ('వు', '|'), ('డు', '|'), ('గి', 'U'), ('న్క', 'U'), ('న్ది', 'U'), ('ట్టి', '|'), ('న', 'U'), ('న్జెం', 'U'), ('ద', '|'), ('డే', 'U'), ('స', '|'), ('త', '|'), ('తం', 'U'), ('బు', 'U'), ('న్పె', '|'), ('ను', '|'), ('బా', 'U'), ('ము', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[('ఘ', '|'), ('ను', '|'), ('లన్', 'U'), ('నీ', 'U'), ('చు', '|'), ('ల', '|'), ('నీ', 'U'), ('చు', '|'), ('లన్', 'U'), ('ఘ', '|'), ('ను', '|'), ('ల', '|'), ('స', 'U'), ('త్కా', 'U'), ('రా', 'U'), ('ఢ్యు', '|'), ('లన్', 'U'), ('దు', 'U'), ('ష్క్రి', '|'), ('యా', 'U'), ('జ', '|'), ('ని', '|'), ('తో', 'U'), ('ద్యో', 'U'), ('గు', '|'), ('ల', '|'), ('న', 'U'), ('ర్థ', '|'), ('వం', 'U'), ('తు', '|'), ('ల', '|'), ('ను', '|'), ('భి', 'U'), ('క్షా', 'U'), ('యు', 'U'), ('క్తు', '|'), ('లన్', 'U'), ('భి', 'U'), ('క్షు', '|'), ('లన్', 'U'), ('ధ', '|'), ('ని', '|'), ('క', '|'), ('వ్రా', 'U'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('నొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('చు', '|'), ('ను', '|'), ('ని', 'U'), ('త్యం', 'U'), ('బున్', 'U'), ('మ', '|'), ('హా', 'U'), ('గా', 'U'), ('ర', '|'), ('డం', 'U'), ('బ', '|'), ('ని', '|'), ('నం', 'U'), ('దిం', 'U'), ('చు', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('రా', 'U'), ('య', '|'), ('హ', '|'), ('రి', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('ఘ', '|'), ('ను', '|'), ('ల', 'U'), ('న్నీ', 'U'), ('చు', '|'), ('ల', '|'), ('నీ', 'U'), ('చు', '|'), ('ల', 'U'), ('న్ఘ', '|'), ('ను', '|'), ('ల', '|'), ('స', 'U'), ('త్కా', 'U'), ('రా', 'U'), ('ఢ్యు', '|'), ('ల', 'U'), ('న్దు', 'U'), ('ష్క్రి', '|'), ('యా', 'U'), ('జ', '|'), ('ని', '|'), ('తో', 'U'), ('ద్యో', 'U'), ('గు', '|'), ('ల', '|'), ('న', 'U'), ('ర్థ', '|'), ('వం', 'U'), ('తు', '|'), ('ల', '|'), ('ను', '|'), ('భి', 'U'), ('క్షా', 'U'), ('యు', 'U'), ('క్తు', '|'), ('ల', 'U'), ('న్భి', 'U'), ('క్షు', '|'), ('లన్', 'U'), ('ధ', '|'), ('ని', '|'), ('క', '|'), ('వ్రా', 'U'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('నొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('చు', '|'), ('ను', '|'), ('ని', 'U'), ('త్యం', 'U'), ('బు', 'U'), ('న్మ', '|'), ('హా', 'U'), ('గా', 'U'), ('ర', '|'), ('డం', 'U'), ('బ', '|'), ('ని', '|'), ('నం', 'U'), ('దిం', 'U'), ('చు', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('రా', 'U'), ('య', '|'), ('హ', '|'), ('రి', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('ధ', '|'), ('వ', '|'), ('వా', 'U'), ('సు', '|'), ('దే', 'U'), ('వ', '|'), ('వ', '|'), ('ర', '|'), ('దా', 'U'), ('రా', 'U'), ('జీ', 'U'), ('వ', '|'), ('ప', 'U'), ('ద్మా', 'U'), ('స', '|'), ('నా', 'U'), ('వ్యా', 'U'), ('ళా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('శ', 'U'), ('ర్వ', '|'), ('ష', 'U'), ('ణ్ము', '|'), ('ఖ', '|'), ('శు', '|'), ('కా', 'U'), ('ద్య', 'U'), ('స్తో', 'U'), ('త్ర', '|'), ('స', 'U'), ('త్పా', 'U'), ('త్ర', '|'), ('గో', 'U'), ('పా', 'U'), ('లా', 'U'), ('నీ', 'U'), ('క', '|'), ('ము', '|'), ('ఖా', 'U'), ('బ్జ', '|'), ('భా', 'U'), ('స్క', '|'), ('ర', '|'), ('కృ', '|'), ('పా', 'U'), ('పా', 'U'), ('థో', 'U'), ('ధి', '|'), ('నన్', 'U'), ('గా', 'U'), ('వు', '|'), ('మూ', 'U'), ('ర్ధా', 'U'), ('లం', 'U'), ('కా', 'U'), ('ర', '|'), ('మ', '|'), ('యూ', 'U'), ('ర', '|'), ('పిం', 'U'), ('ఛ', '|'), ('ధ', '|'), ('ర', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('శ్రీ', 'U'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('ధ', '|'), ('వ', '|'), ('వా', 'U'), ('సు', '|'), ('దే', 'U'), ('వ', '|'), ('వ', '|'), ('ర', '|'), ('దా', 'U'), ('రా', 'U'), ('జీ', 'U'), ('వ', '|'), ('ప', 'U'), ('ద్మా', 'U'), ('స', '|'), ('నా', 'U'), ('వ్యా', 'U'), ('ళా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('శ', 'U'), ('ర్వ', '|'), ('ష', 'U'), ('ణ్ము', '|'), ('ఖ', '|'), ('శు', '|'), ('కా', 'U'), ('ద్య', 'U'), ('స్తో', 'U'), ('త్ర', '|'), ('స', 'U'), ('త్పా', 'U'), ('త్ర', '|'), ('గో', 'U'), ('పా', 'U'), ('లా', 'U'), ('నీ', 'U'), ('క', '|'), ('ము', '|'), ('ఖా', 'U'), ('బ్జ', '|'), ('భా', 'U'), ('స్క', '|'), ('ర', '|'), ('కృ', '|'), ('పా', 'U'), ('పా', 'U'), ('థో', 'U'), ('ధి', '|'), ('న', 'U'), ('న్గా', 'U'), ('వు', '|'), ('మూ', 'U'), ('ర్ధా', 'U'), ('లం', 'U'), ('కా', 'U'), ('ర', '|'), ('మ', '|'), ('యూ', 'U'), ('ర', '|'), ('పిం', 'U'), ('ఛ', '|'), ('ధ', '|'), ('ర', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('తు', '|'), ('లు', 'U'), ('న్నే', 'U'), ('వు', '|'), ('రు', '|'), ('నె', 'U'), ('న్న', '|'), ('గా', 'U'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('భూ', 'U'), ('పా', 'U'), ('లాం', 'U'), ('గ', '|'), ('నా', 'U'), ('నీ', 'U'), ('క', '|'), ('ముల్', 'U'), ('స', '|'), ('త', '|'), ('తం', 'U'), ('బున్', 'U'), ('గ', '|'), ('ను', '|'), ('స', 'U'), ('న్న', '|'), ('లన్', 'U'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('చై', 'U'), ('శ్వ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('తో', 'U'), ('నుం', 'U'), ('డి', '|'), ('తా', 'U'), ('న', '|'), ('తి', '|'), ('భ', 'U'), ('క్తిం', 'U'), ('జ', '|'), ('ని', '|'), ('యా', 'U'), ('సు', '|'), ('ధే', 'U'), ('ష్ణ', '|'), ('కు', '|'), ('ను', '|'), ('జే', 'U'), ('యం', 'U'), ('బూ', 'U'), ('న', '|'), ('దే', 'U'), ('ద్రౌ', 'U'), ('ప', '|'), ('దీ', 'U'), ('స', '|'), ('తి', '|'), ('యా', 'U'), ('శ్చ', 'U'), ('ర్య', '|'), ('ము', '|'), ('నీ', 'U'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('ప', '|'), ('తు', '|'), ('లు', 'U'), ('న్నే', 'U'), ('వు', '|'), ('రు', '|'), ('నె', 'U'), ('న్న', '|'), ('గా', 'U'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('భూ', 'U'), ('పా', 'U'), ('లాం', 'U'), ('గ', '|'), ('నా', 'U'), ('నీ', 'U'), ('క', '|'), ('ముల్', 'U'), ('స', '|'), ('త', '|'), ('తం', 'U'), ('బు', 'U'), ('న్గ', '|'), ('ను', '|'), ('స', 'U'), ('న్న', '|'), ('ల', 'U'), ('న్మె', '|'), ('ల', '|'), ('గు', '|'), ('చై', 'U'), ('శ్వ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('తో', 'U'), ('నుం', 'U'), ('డి', '|'), ('తా', 'U'), ('న', '|'), ('తి', '|'), ('భ', 'U'), ('క్తిం', 'U'), ('జ', '|'), ('ని', '|'), ('యా', 'U'), ('సు', '|'), ('ధే', 'U'), ('ష్ణ', '|'), ('కు', '|'), ('ను', '|'), ('జే', 'U'), ('యం', 'U'), ('బూ', 'U'), ('న', '|'), ('దే', 'U'), ('ద్రౌ', 'U'), ('ప', '|'), ('దీ', 'U'), ('స', '|'), ('తి', '|'), ('యా', 'U'), ('శ్చ', 'U'), ('ర్య', '|'), ('ము', '|'), ('నీ', 'U'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('మీ', 'U'), ('సా', 'U'), ('మ', 'U'), ('ర్థ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('ను', '|'), ('నె', 'U'), ('మ్మిన్', 'U'), ('బాం', 'U'), ('డు', '|'), ('సూ', 'U'), ('నుం', 'U'), ('డు', '|'), ('నా', 'U'), ('యా', 'U'), ('సం', 'U'), ('బొం', 'U'), ('ద', '|'), ('మ', '|'), ('హా', 'U'), ('ద్భు', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('వి', '|'), ('రా', 'U'), ('టా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('ప', 'U'), ('ట్ణం', 'U'), ('బు', '|'), ('లో', 'U'), ('గ్రా', 'U'), ('సో', 'U'), ('పా', 'U'), ('య', '|'), ('ము', '|'), ('లే', 'U'), ('క', '|'), ('భి', 'U'), ('క్ష', '|'), ('మ', '|'), ('డు', '|'), ('గన్', 'U'), ('గా', 'U'), ('షా', 'U'), ('య', '|'), ('ముం', 'U'), ('బూ', 'U'), ('ని', '|'), ('స', 'U'), ('న్యా', 'U'), ('సం', 'U'), ('బున్', 'U'), ('ధ', '|'), ('రి', '|'), ('యిం', 'U'), ('ప', '|'), ('డే', 'U'), ('య', '|'), ('చ', '|'), ('ట', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('మీ', 'U'), ('సా', 'U'), ('మ', 'U'), ('ర్థ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('ను', '|'), ('నె', 'U'), ('మ్మి', 'U'), ('న్బాం', 'U'), ('డు', '|'), ('సూ', 'U'), ('నుం', 'U'), ('డు', '|'), ('నా', 'U'), ('యా', 'U'), ('సం', 'U'), ('బొం', 'U'), ('ద', '|'), ('మ', '|'), ('హా', 'U'), ('ద్భు', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('వి', '|'), ('రా', 'U'), ('టా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('ప', 'U'), ('ట్ణం', 'U'), ('బు', '|'), ('లో', 'U'), ('గ్రా', 'U'), ('సో', 'U'), ('పా', 'U'), ('య', '|'), ('ము', '|'), ('లే', 'U'), ('క', '|'), ('భి', 'U'), ('క్ష', '|'), ('మ', '|'), ('డు', '|'), ('గ', 'U'), ('న్గా', 'U'), ('షా', 'U'), ('య', '|'), ('ముం', 'U'), ('బూ', 'U'), ('ని', '|'), ('స', 'U'), ('న్యా', 'U'), ('సం', 'U'), ('బు', 'U'), ('న్ధ', '|'), ('రి', '|'), ('యిం', 'U'), ('ప', '|'), ('డే', 'U'), ('య', '|'), ('చ', '|'), ('ట', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[('వి', '|'), ('ర', '|'), ('టుం', 'U'), ('గొ', 'U'), ('ల్చి', '|'), ('న', '|'), ('వా', 'U'), ('డు', '|'), ('నొ', 'U'), ('క్క', '|'), ('డి', '|'), ('ల', '|'), ('బృ', 'U'), ('థ్వీ', 'U'), ('నా', 'U'), ('థు', '|'), ('లన్', 'U'), ('గూ', 'U'), ('ల్చి', '|'), ('సం', 'U'), ('గ', '|'), ('ర', '|'), ('భూ', 'U'), ('మిన్', 'U'), ('ఘ', '|'), ('న', '|'), ('వై', 'U'), ('రి', '|'), ('వీ', 'U'), ('ర', '|'), ('త', '|'), ('తు', '|'), ('ల', 'U'), ('న్గా', 'U'), ('రిం', 'U'), ('చు', '|'), ('చున్', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('యి', 'U'), ('ద్ధ', '|'), ('ర', '|'), ('కు', 'U'), ('న్న', '|'), ('గ్ర', '|'), ('జు', '|'), ('రా', 'U'), ('జు', '|'), ('జే', 'U'), ('సి', '|'), ('యు', '|'), ('తు', '|'), ('దిన్', 'U'), ('దా', 'U'), ('నీ', 'U'), ('కృ', '|'), ('పం', 'U'), ('బా', 'U'), ('య', '|'), ('డే', 'U'), ('స', '|'), ('రి', '|'), ('పో', 'U'), ('దే', 'U'), ('భు', '|'), ('వి', '|'), ('నిం', 'U'), ('ద్ర', '|'), ('సూ', 'U'), ('ను', '|'), ('ధృ', '|'), ('తి', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('వి', '|'), ('ర', '|'), ('టుం', 'U'), ('గొ', 'U'), ('ల్చి', '|'), ('న', '|'), ('వా', 'U'), ('డు', '|'), ('నొ', 'U'), ('క్క', '|'), ('డి', '|'), ('ల', '|'), ('బృ', 'U'), ('థ్వీ', 'U'), ('నా', 'U'), ('థు', '|'), ('ల', 'U'), ('న్గూ', 'U'), ('ల్చి', '|'), ('సం', 'U'), ('గ', '|'), ('ర', '|'), ('భూ', 'U'), ('మి', 'U'), ('న్ఘ', '|'), ('న', '|'), ('వై', 'U'), ('రి', '|'), ('వీ', 'U'), ('ర', '|'), ('త', '|'), ('తు', '|'), ('ల', 'U'), ('న్గా', 'U'), ('రిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్ద్రుం', 'U'), ('చి', '|'), ('యి', 'U'), ('ద్ధ', '|'), ('ర', '|'), ('కు', 'U'), ('న్న', '|'), ('గ్ర', '|'), ('జు', '|'), ('రా', 'U'), ('జు', '|'), ('జే', 'U'), ('సి', '|'), ('యు', '|'), ('తు', '|'), ('ది', 'U'), ('న్దా', 'U'), ('నీ', 'U'), ('కృ', '|'), ('పం', 'U'), ('బా', 'U'), ('య', '|'), ('డే', 'U'), ('స', '|'), ('రి', '|'), ('పో', 'U'), ('దే', 'U'), ('భు', '|'), ('వి', '|'), ('నిం', 'U'), ('ద్ర', '|'), ('సూ', 'U'), ('ను', '|'), ('ధృ', '|'), ('తి', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('క్రూ', 'U'), ('రా', 'U'), ('త్మ', '|'), ('కు', '|'), ('లై', 'U'), ('న', '|'), ('పాం', 'U'), ('డ', '|'), ('వు', '|'), ('ల', '|'), ('బా', 'U'), ('హ', '|'), ('శ', 'U'), ('క్తి', '|'), ('యున్', 'U'), ('ధా', 'U'), ('త్రి', '|'), ('ని', 'U'), ('ర్వ', '|'), ('క్రం', 'U'), ('బ', 'U'), ('య్యె', '|'), ('డు', '|'), ('న', 'U'), ('ట్లు', '|'), ('జే', 'U'), ('తు', '|'), ('న', '|'), ('ను', '|'), ('చున్', 'U'), ('వా', 'U'), ('త్స', 'U'), ('ల్య', '|'), ('మిం', 'U'), ('పొం', 'U'), ('ద', '|'), ('నా', 'U'), ('శ', '|'), ('క్రా', 'U'), ('త్మో', 'U'), ('ద్భ', '|'), ('వు', '|'), ('తే', 'U'), ('రి', '|'), ('పై', 'U'), ('దు', '|'), ('ర', '|'), ('ము', '|'), ('నన్', 'U'), ('సా', 'U'), ('ర', 'U'), ('థ్య', '|'), ('ముం', 'U'), ('జే', 'U'), ('సి', '|'), ('తౌ', 'U'), ('చ', '|'), ('క్రీ', 'U'), ('నీ', 'U'), ('ము', '|'), ('ని', '|'), ('కో', 'U'), ('ల', '|'), ('కున్', 'U'), ('జ', '|'), ('య', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('అ', '|'), ('క్రూ', 'U'), ('రా', 'U'), ('త్మ', '|'), ('కు', '|'), ('లై', 'U'), ('న', '|'), ('పాం', 'U'), ('డ', '|'), ('వు', '|'), ('ల', '|'), ('బా', 'U'), ('హ', '|'), ('శ', 'U'), ('క్తి', '|'), ('యు', 'U'), ('న్ధా', 'U'), ('త్రి', '|'), ('ని', 'U'), ('ర్వ', '|'), ('క్రం', 'U'), ('బ', 'U'), ('య్యె', '|'), ('డు', '|'), ('న', 'U'), ('ట్లు', '|'), ('జే', 'U'), ('తు', '|'), ('న', '|'), ('ను', '|'), ('చు', 'U'), ('న్వా', 'U'), ('త్స', 'U'), ('ల్య', '|'), ('మిం', 'U'), ('పొం', 'U'), ('ద', '|'), ('నా', 'U'), ('శ', '|'), ('క్రా', 'U'), ('త్మో', 'U'), ('ద్భ', '|'), ('వు', '|'), ('తే', 'U'), ('రి', '|'), ('పై', 'U'), ('దు', '|'), ('ర', '|'), ('ము', '|'), ('న', 'U'), ('న్సా', 'U'), ('ర', 'U'), ('థ్య', '|'), ('ముం', 'U'), ('జే', 'U'), ('సి', '|'), ('తౌ', 'U'), ('చ', '|'), ('క్రీ', 'U'), ('నీ', 'U'), ('ము', '|'), ('ని', '|'), ('కో', 'U'), ('ల', '|'), ('కు', 'U'), ('న్జ', '|'), ('య', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[('గం', 'U'), ('భీ', 'U'), ('రం', 'U'), ('బు', '|'), ('గ', '|'), ('రా', 'U'), ('య', '|'), ('భా', 'U'), ('ర', '|'), ('గ', '|'), ('రి', '|'), ('మన్', 'U'), ('గౌం', 'U'), ('తే', 'U'), ('యు', '|'), ('కా', 'U'), ('ర్యా', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('శుం', 'U'), ('భ', 'U'), ('ల్లీ', 'U'), ('ల', '|'), ('ల', '|'), ('ధా', 'U'), ('ర్త', '|'), ('రా', 'U'), ('ష్ట్రు', '|'), ('స', '|'), ('భ', '|'), ('దా', 'U'), ('మూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('త', 'U'), ('ద్వా', 'U'), ('క్య', '|'), ('ము', 'U'), ('ల్సం', 'U'), ('భా', 'U'), ('షిం', 'U'), ('ప', '|'), ('గ', '|'), ('వా', 'U'), ('ర', '|'), ('వ', 'U'), ('జ్ఞ', '|'), ('ద', '|'), ('ల', '|'), ('పన్', 'U'), ('స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('నీ', 'U'), ('వై', 'U'), ('న', '|'), ('చో', 'U'), ('శం', 'U'), ('భుం', 'U'), ('డే', 'U'), ('యె', '|'), ('ఱు', '|'), ('గున్', 'U'), ('భ', '|'), ('వ', 'U'), ('న్మ', '|'), ('హి', '|'), ('మ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('గం', 'U'), ('భీ', 'U'), ('రం', 'U'), ('బు', '|'), ('గ', '|'), ('రా', 'U'), ('య', '|'), ('భా', 'U'), ('ర', '|'), ('గ', '|'), ('రి', '|'), ('మ', 'U'), ('న్గౌం', 'U'), ('తే', 'U'), ('యు', '|'), ('కా', 'U'), ('ర్యా', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('శుం', 'U'), ('భ', 'U'), ('ల్లీ', 'U'), ('ల', '|'), ('ల', '|'), ('ధా', 'U'), ('ర్త', '|'), ('రా', 'U'), ('ష్ట్రు', '|'), ('స', '|'), ('భ', '|'), ('దా', 'U'), ('మూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('త', 'U'), ('ద్వా', 'U'), ('క్య', '|'), ('ము', 'U'), ('ల్సం', 'U'), ('భా', 'U'), ('షిం', 'U'), ('ప', '|'), ('గ', '|'), ('వా', 'U'), ('ర', '|'), ('వ', 'U'), ('జ్ఞ', '|'), ('ద', '|'), ('ల', '|'), ('ప', 'U'), ('న్స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('నీ', 'U'), ('వై', 'U'), ('న', '|'), ('చో', 'U'), ('శం', 'U'), ('భుం', 'U'), ('డే', 'U'), ('యె', '|'), ('ఱు', '|'), ('గు', 'U'), ('న్భ', '|'), ('వ', 'U'), ('న్మ', '|'), ('హి', '|'), ('మ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[('స', 'U'), ('ర్వ', 'U'), ('జ్ఞుం', 'U'), ('డు', '|'), ('ను', '|'), ('స', 'U'), ('ర్వ', '|'), ('లో', 'U'), ('క', '|'), ('గు', '|'), ('రు', '|'), ('డున్', 'U'), ('స', 'U'), ('ర్వం', 'U'), ('స', '|'), ('హా', 'U'), ('నా', 'U'), ('థు', '|'), ('డున్', 'U'), ('స', 'U'), ('ర్వే', 'U'), ('శుం', 'U'), ('డు', '|'), ('ను', '|'), ('స', 'U'), ('ర్వ', '|'), ('సా', 'U'), ('ధ', '|'), ('కు', '|'), ('డు', '|'), ('నౌ', 'U'), ('స', 'U'), ('ర్వే', 'U'), ('శ', '|'), ('నీ', 'U'), ('మూ', 'U'), ('ర్తి', '|'), ('దా', 'U'), ('స', 'U'), ('ర్వం', 'U'), ('బు', 'U'), ('న్గ', '|'), ('లి', '|'), ('గిం', 'U'), ('చు', '|'), ('పెం', 'U'), ('చు', '|'), ('న', '|'), ('ణ', '|'), ('చున్', 'U'), ('సం', 'U'), ('దే', 'U'), ('హ', '|'), ('మే', 'U'), ('లా', 'U'), ('స్మృ', '|'), ('తుల్', 'U'), ('స', 'U'), ('ర్వం', 'U'), ('వి', 'U'), ('ష్ణు', '|'), ('మ', '|'), ('యం', 'U'), ('జ', '|'), ('గ', 'U'), ('త్త', '|'), ('న', '|'), ('గ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('స', 'U'), ('ర్వ', 'U'), ('జ్ఞుం', 'U'), ('డు', '|'), ('ను', '|'), ('స', 'U'), ('ర్వ', '|'), ('లో', 'U'), ('క', '|'), ('గు', '|'), ('రు', '|'), ('డు', 'U'), ('న్స', 'U'), ('ర్వం', 'U'), ('స', '|'), ('హా', 'U'), ('నా', 'U'), ('థు', '|'), ('డున్', 'U'), ('స', 'U'), ('ర్వే', 'U'), ('శుం', 'U'), ('డు', '|'), ('ను', '|'), ('స', 'U'), ('ర్వ', '|'), ('సా', 'U'), ('ధ', '|'), ('కు', '|'), ('డు', '|'), ('నౌ', 'U'), ('స', 'U'), ('ర్వే', 'U'), ('శ', '|'), ('నీ', 'U'), ('మూ', 'U'), ('ర్తి', '|'), ('దా', 'U'), ('స', 'U'), ('ర్వం', 'U'), ('బు', 'U'), ('న్గ', '|'), ('లి', '|'), ('గిం', 'U'), ('చు', '|'), ('పెం', 'U'), ('చు', '|'), ('న', '|'), ('ణ', '|'), ('చు', 'U'), ('న్సం', 'U'), ('దే', 'U'), ('హ', '|'), ('మే', 'U'), ('లా', 'U'), ('స్మృ', '|'), ('తుల్', 'U'), ('స', 'U'), ('ర్వం', 'U'), ('వి', 'U'), ('ష్ణు', '|'), ('మ', '|'), ('యం', 'U'), ('జ', '|'), ('గ', 'U'), ('త్త', '|'), ('న', '|'), ('గ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[('పు', '|'), ('డ', '|'), ('మిన్', 'U'), ('బె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('బో', 'U'), ('టి', '|'), ('వా', 'U'), ('రి', '|'), ('న', '|'), ('డు', '|'), ('గం', 'U'), ('బో', 'U'), ('రా', 'U'), ('దె', '|'), ('చో', 'U'), ('ద్యం', 'U'), ('బు', '|'), ('పా', 'U'), ('ల్క', '|'), ('డ', '|'), ('లిన్', 'U'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('ము', 'U'), ('ద్ద', '|'), ('రా', 'U'), ('లు', '|'), ('గ', '|'), ('లు', '|'), ('గం', 'U'), ('గా', 'U'), ('పూ', 'U'), ('ర్వ', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('నన్', 'U'), ('పొ', '|'), ('డ', '|'), ('వె', 'U'), ('ల్లన్', 'U'), ('గ', '|'), ('డు', '|'), ('త', 'U'), ('గ్గి', '|'), ('దా', 'U'), ('న', '|'), ('వు', '|'), ('ని', '|'), ('తో', 'U'), ('బొం', 'U'), ('కై', 'U'), ('న', '|'), ('మా', 'U'), ('టా', 'U'), ('డి', '|'), ('మూ', 'U'), ('డ', '|'), ('డు', '|'), ('గు', 'U'), ('ల్నే', 'U'), ('ల', '|'), ('ను', '|'), ('వే', 'U'), ('డ', '|'), ('గా', 'U'), ('జ', '|'), ('న', '|'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('పు', '|'), ('డ', '|'), ('మి', 'U'), ('న్బె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('బో', 'U'), ('టి', '|'), ('వా', 'U'), ('రి', '|'), ('న', '|'), ('డు', '|'), ('గం', 'U'), ('బో', 'U'), ('రా', 'U'), ('దె', '|'), ('చో', 'U'), ('ద్యం', 'U'), ('బు', '|'), ('పా', 'U'), ('ల్క', '|'), ('డ', '|'), ('లి', 'U'), ('న్గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('ము', 'U'), ('ద్ద', '|'), ('రా', 'U'), ('లు', '|'), ('గ', '|'), ('లు', '|'), ('గం', 'U'), ('గా', 'U'), ('పూ', 'U'), ('ర్వ', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('నన్', 'U'), ('పొ', '|'), ('డ', '|'), ('వె', 'U'), ('ల్ల', 'U'), ('న్గ', '|'), ('డు', '|'), ('త', 'U'), ('గ్గి', '|'), ('దా', 'U'), ('న', '|'), ('వు', '|'), ('ని', '|'), ('తో', 'U'), ('బొం', 'U'), ('కై', 'U'), ('న', '|'), ('మా', 'U'), ('టా', 'U'), ('డి', '|'), ('మూ', 'U'), ('డ', '|'), ('డు', '|'), ('గు', 'U'), ('ల్నే', 'U'), ('ల', '|'), ('ను', '|'), ('వే', 'U'), ('డ', '|'), ('గా', 'U'), ('జ', '|'), ('న', '|'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[('రం', 'U'), ('గ', '|'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('మ', '|'), ('భా', 'U'), ('ర్గ', '|'), ('వుం', 'U'), ('గె', '|'), ('లి', '|'), ('చి', '|'), ('కౌ', 'U'), ('ర', 'U'), ('వ్యుల్', 'U'), ('భ', '|'), ('యం', 'U'), ('బం', 'U'), ('ది', '|'), ('వీ', 'U'), ('రా', 'U'), ('గం', 'U'), ('బుం', 'U'), ('ధ', '|'), ('రి', '|'), ('యిం', 'U'), ('చి', '|'), ('జీ', 'U'), ('వ', '|'), ('ము', '|'), ('స', '|'), ('తం', 'U'), ('బై', 'U'), ('యుం', 'U'), ('డ', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('నా', 'U'), ('గాం', 'U'), ('గే', 'U'), ('యుం', 'U'), ('డు', '|'), ('శి', '|'), ('ఖం', 'U'), ('డి', '|'), ('చే', 'U'), ('త', '|'), ('దె', '|'), ('గె', '|'), ('నీ', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ముం', 'U'), ('ద', 'U'), ('ప్పి', '|'), ('యుం', 'U'), ('డం', 'U'), ('గా', 'U'), ('మృ', 'U'), ('త్యు', '|'), ('వు', '|'), ('ధా', 'U'), ('టి', '|'), ('కో', 'U'), ('పు', '|'), ('దు', '|'), ('రె', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('రం', 'U'), ('గ', '|'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('మ', '|'), ('భా', 'U'), ('ర్గ', '|'), ('వుం', 'U'), ('గె', '|'), ('లి', '|'), ('చి', '|'), ('కౌ', 'U'), ('ర', 'U'), ('వ్యు', 'U'), ('ల్భ', '|'), ('యం', 'U'), ('బం', 'U'), ('ది', '|'), ('వీ', 'U'), ('రా', 'U'), ('గం', 'U'), ('బుం', 'U'), ('ధ', '|'), ('రి', '|'), ('యిం', 'U'), ('చి', '|'), ('జీ', 'U'), ('వ', '|'), ('ము', '|'), ('స', '|'), ('తం', 'U'), ('బై', 'U'), ('యుం', 'U'), ('డ', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('నా', 'U'), ('గాం', 'U'), ('గే', 'U'), ('యుం', 'U'), ('డు', '|'), ('శి', '|'), ('ఖం', 'U'), ('డి', '|'), ('చే', 'U'), ('త', '|'), ('దె', '|'), ('గె', '|'), ('నీ', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ముం', 'U'), ('ద', 'U'), ('ప్పి', '|'), ('యుం', 'U'), ('డం', 'U'), ('గా', 'U'), ('మృ', 'U'), ('త్యు', '|'), ('వు', '|'), ('ధా', 'U'), ('టి', '|'), ('కో', 'U'), ('పు', '|'), ('దు', '|'), ('రె', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('క్రూ', 'U'), ('ర', 'U'), ('స్థి', '|'), ('తి', '|'), ('నుం', 'U'), ('డ', '|'), ('గా', 'U'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('రా', 'U'), ('జా', 'U'), ('స్థా', 'U'), ('న', '|'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('వ', '|'), ('క్రిం', 'U'), ('పం', 'U'), ('బ', '|'), ('ని', '|'), ('లే', 'U'), ('దు', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('న', '|'), ('కై', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('గా', 'U'), ('బో', 'U'), ('యి', '|'), ('నన్', 'U'), ('శు', '|'), ('క్రా', 'U'), ('చా', 'U'), ('ర్యు', '|'), ('ని', '|'), ('క', 'U'), ('న్ను', '|'), ('బో', 'U'), ('న', '|'), ('డ', '|'), ('చ', '|'), ('వే', 'U'), ('సూ', 'U'), ('టిన్', 'U'), ('గు', '|'), ('శా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('నన్', 'U'), ('జ', '|'), ('క్రీ', 'U'), ('నీ', 'U'), ('క', '|'), ('ర', '|'), ('పం', 'U'), ('క', '|'), ('జాం', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('అ', '|'), ('క్రూ', 'U'), ('ర', 'U'), ('స్థి', '|'), ('తి', '|'), ('నుం', 'U'), ('డ', '|'), ('గా', 'U'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('రా', 'U'), ('జా', 'U'), ('స్థా', 'U'), ('న', '|'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('వ', '|'), ('క్రిం', 'U'), ('పం', 'U'), ('బ', '|'), ('ని', '|'), ('లే', 'U'), ('దు', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('న', '|'), ('కై', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('గా', 'U'), ('బో', 'U'), ('యి', '|'), ('నన్', 'U'), ('శు', '|'), ('క్రా', 'U'), ('చా', 'U'), ('ర్యు', '|'), ('ని', '|'), ('క', 'U'), ('న్ను', '|'), ('బో', 'U'), ('న', '|'), ('డ', '|'), ('చ', '|'), ('వే', 'U'), ('సూ', 'U'), ('టి', 'U'), ('న్గు', '|'), ('శా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('నన్', 'U'), ('జ', '|'), ('క్రీ', 'U'), ('నీ', 'U'), ('క', '|'), ('ర', '|'), ('పం', 'U'), ('క', '|'), ('జాం', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('ర', '|'), ('సౌం', 'U'), ('ద', 'U'), ('ర్య', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ధై', 'U'), ('ర్య', '|'), ('న', '|'), ('య', '|'), ('నా', 'U'), ('వా', 'U'), ('త్స', 'U'), ('ల్య', '|'), ('ధౌ', 'U'), ('రే', 'U'), ('యు', '|'), ('డీ', 'U'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('నా', 'U'), ('య', '|'), ('క', '|'), ('ర', 'U'), ('త్న', '|'), ('మం', 'U'), ('చు', '|'), ('మ', '|'), ('హి', '|'), ('తా', 'U'), ('ర్థం', 'U'), ('బా', 'U'), ('శ్రి', '|'), ('త', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('కిన్', 'U'), ('స్థి', '|'), ('ర', '|'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', '|'), ('వి', '|'), ('భు', 'U'), ('త్వ', '|'), ('మా', 'U'), ('ధ్రు', '|'), ('వు', '|'), ('ని', '|'), ('కిన్', 'U'), ('దే', 'U'), ('జం', 'U'), ('బు', '|'), ('గా', 'U'), ('ని', 'U'), ('చ్చి', '|'), ('తా', 'U'), ('స', '|'), ('ర', '|'), ('ణిన్', 'U'), ('మీ', 'U'), ('కృ', '|'), ('ప', '|'), ('గ', 'U'), ('ల్గు', '|'), ('వా', 'U'), ('డ', '|'), ('గు', '|'), ('ట', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('వ', '|'), ('ర', '|'), ('సౌం', 'U'), ('ద', 'U'), ('ర్య', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ధై', 'U'), ('ర్య', '|'), ('న', '|'), ('య', '|'), ('నా', 'U'), ('వా', 'U'), ('త్స', 'U'), ('ల్య', '|'), ('ధౌ', 'U'), ('రే', 'U'), ('యు', '|'), ('డీ', 'U'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('నా', 'U'), ('య', '|'), ('క', '|'), ('ర', 'U'), ('త్న', '|'), ('మం', 'U'), ('చు', '|'), ('మ', '|'), ('హి', '|'), ('తా', 'U'), ('ర్థం', 'U'), ('బా', 'U'), ('శ్రి', '|'), ('త', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('కిన్', 'U'), ('స్థి', '|'), ('ర', '|'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', '|'), ('వి', '|'), ('భు', 'U'), ('త్వ', '|'), ('మా', 'U'), ('ధ్రు', '|'), ('వు', '|'), ('ని', '|'), ('కి', 'U'), ('న్దే', 'U'), ('జం', 'U'), ('బు', '|'), ('గా', 'U'), ('ని', 'U'), ('చ్చి', '|'), ('తా', 'U'), ('స', '|'), ('ర', '|'), ('ణి', 'U'), ('న్మీ', 'U'), ('కృ', '|'), ('ప', '|'), ('గ', 'U'), ('ల్గు', '|'), ('వా', 'U'), ('డ', '|'), ('గు', '|'), ('ట', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[('ధా', 'U'), ('రా', 'U'), ('పూ', 'U'), ('ర్వ', '|'), ('ము', '|'), ('గా', 'U'), ('గ', '|'), ('సం', 'U'), ('య', '|'), ('మి', '|'), ('కి', '|'), ('స', 'U'), ('ప్త', 'U'), ('ద్వీ', 'U'), ('ప', '|'), ('ముల్', 'U'), ('సూ', 'U'), ('నృ', '|'), ('త', '|'), ('ప్రా', 'U'), ('రం', 'U'), ('భ', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('చ్చి', '|'), ('చే', 'U'), ('తి', '|'), ('త', '|'), ('డి', '|'), ('యా', 'U'), ('ఱన్', 'U'), ('లే', 'U'), ('క', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('డే', 'U'), ('శా', 'U'), ('రీ', 'U'), ('రా', 'U'), ('ర్థ', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('భి', 'U'), ('క్ష', '|'), ('ము', '|'), ('హ', '|'), ('రి', 'U'), ('శ్చం', 'U'), ('ద్రుం', 'U'), ('డు', '|'), ('యా', 'U'), ('గా', 'U'), ('ది', '|'), ('సం', 'U'), ('చా', 'U'), ('రుం', 'U'), ('డుం', 'U'), ('డు', '|'), ('మ', '|'), ('నం', 'U'), ('డె', '|'), ('తొ', 'U'), ('ల్లి', '|'), ('హ', '|'), ('రి', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('ధా', 'U'), ('రా', 'U'), ('పూ', 'U'), ('ర్వ', '|'), ('ము', '|'), ('గా', 'U'), ('గ', '|'), ('సం', 'U'), ('య', '|'), ('మి', '|'), ('కి', '|'), ('స', 'U'), ('ప్త', 'U'), ('ద్వీ', 'U'), ('ప', '|'), ('ము', 'U'), ('ల్సూ', 'U'), ('నృ', '|'), ('త', '|'), ('ప్రా', 'U'), ('రం', 'U'), ('భ', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('చ్చి', '|'), ('చే', 'U'), ('తి', '|'), ('త', '|'), ('డి', '|'), ('యా', 'U'), ('ఱ', 'U'), ('న్లే', 'U'), ('క', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('డే', 'U'), ('శా', 'U'), ('రీ', 'U'), ('రా', 'U'), ('ర్థ', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('భి', 'U'), ('క్ష', '|'), ('ము', '|'), ('హ', '|'), ('రి', 'U'), ('శ్చం', 'U'), ('ద్రుం', 'U'), ('డు', '|'), ('యా', 'U'), ('గా', 'U'), ('ది', '|'), ('సం', 'U'), ('చా', 'U'), ('రుం', 'U'), ('డుం', 'U'), ('డు', '|'), ('మ', '|'), ('నం', 'U'), ('డె', '|'), ('తొ', 'U'), ('ల్లి', '|'), ('హ', '|'), ('రి', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('టు', '|'), ('బా', 'U'), ('హా', 'U'), ('బ', '|'), ('ల', '|'), ('స', 'U'), ('త్త్వ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రు', '|'), ('ల', '|'), ('ది', 'U'), ('క్పా', 'U'), ('లుల్', 'U'), ('బ్ర', '|'), ('శం', 'U'), ('సిం', 'U'), ('చు', '|'), ('నం', 'U'), ('త', '|'), ('టి', '|'), ('వా', 'U'), ('డ', 'U'), ('య్యు', '|'), ('ద్రి', '|'), ('శం', 'U'), ('కు', '|'), ('న', 'U'), ('న్ద', '|'), ('ను', '|'), ('డు', '|'), ('కాం', 'U'), ('తా', 'U'), ('ర', 'U'), ('త్న', '|'), ('మున్', 'U'), ('వి', '|'), ('క్ర', '|'), ('యిం', 'U'), ('చు', '|'), ('ట', '|'), ('లున్', 'U'), ('నీ', 'U'), ('మ', '|'), ('హి', '|'), ('మం', 'U'), ('బు', '|'), ('చే', 'U'), ('త', '|'), ('గ', '|'), ('ద', '|'), ('యి', 'U'), ('ట్లా', 'U'), ('శ్చ', 'U'), ('ర్య', '|'), ('మే', 'U'), ('మ', 'U'), ('ర్త్యు', '|'), ('లెం', 'U'), ('త', '|'), ('టి', '|'), ('వా', 'U'), ('రై', 'U'), ('న', '|'), ('ను', '|'), ('నే', 'U'), ('మి', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('రు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('ప', '|'), ('టు', '|'), ('బా', 'U'), ('హా', 'U'), ('బ', '|'), ('ల', '|'), ('స', 'U'), ('త్త్వ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రు', '|'), ('ల', '|'), ('ది', 'U'), ('క్పా', 'U'), ('లు', 'U'), ('ల్బ్ర', '|'), ('శం', 'U'), ('సిం', 'U'), ('చు', '|'), ('నం', 'U'), ('త', '|'), ('టి', '|'), ('వా', 'U'), ('డ', 'U'), ('య్యు', '|'), ('ద్రి', '|'), ('శం', 'U'), ('కు', '|'), ('న', 'U'), ('న్ద', '|'), ('ను', '|'), ('డు', '|'), ('కాం', 'U'), ('తా', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', 'U'), ('న్వి', '|'), ('క్ర', '|'), ('యిం', 'U'), ('చు', '|'), ('ట', '|'), ('లు', 'U'), ('న్నీ', 'U'), ('మ', '|'), ('హి', '|'), ('మం', 'U'), ('బు', '|'), ('చే', 'U'), ('త', '|'), ('గ', '|'), ('ద', '|'), ('యి', 'U'), ('ట్లా', 'U'), ('శ్చ', 'U'), ('ర్య', '|'), ('మే', 'U'), ('మ', 'U'), ('ర్త్యు', '|'), ('లెం', 'U'), ('త', '|'), ('టి', '|'), ('వా', 'U'), ('రై', 'U'), ('న', '|'), ('ను', '|'), ('నే', 'U'), ('మి', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('రు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('శౌ', 'U'), ('ర్యో', 'U'), ('న్న', '|'), ('తి', '|'), ('యు', '|'), ('గ్ర', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('తా', 'U'), ('ళా', 'U'), ('య', '|'), ('ణీ', 'U'), ('శున్', 'U'), ('శి', '|'), ('వున్', 'U'), ('ద', '|'), ('న', '|'), ('రన్', 'U'), ('మె', 'U'), ('చ్చ', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('జ', '|'), ('య', 'U'), ('స్తం', 'U'), ('భం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('యున్', 'U'), ('ము', '|'), ('ను', '|'), ('దా', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('క', 'U'), ('ర్మ', '|'), ('వా', 'U'), ('ర్ధి', '|'), ('ఘ', '|'), ('న', '|'), ('మై', 'U'), ('ముం', 'U'), ('పం', 'U'), ('గ', '|'), ('డుం', 'U'), ('బా', 'U'), ('లు', '|'), ('చే', 'U'), ('జ', '|'), ('న', '|'), ('డే', 'U'), ('దు', 'U'), ('ర్మ', '|'), ('తి', '|'), ('వి', '|'), ('క్ర', '|'), ('మా', 'U'), ('ర్కు', '|'), ('డి', '|'), ('ల', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('త', '|'), ('న', '|'), ('శౌ', 'U'), ('ర్యో', 'U'), ('న్న', '|'), ('తి', '|'), ('యు', '|'), ('గ్ర', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('తా', 'U'), ('ళా', 'U'), ('య', '|'), ('ణీ', 'U'), ('శు', 'U'), ('న్శి', '|'), ('వున్', 'U'), ('ద', '|'), ('న', '|'), ('ర', 'U'), ('న్మె', 'U'), ('చ్చ', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('జ', '|'), ('య', 'U'), ('స్తం', 'U'), ('భం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('యున్', 'U'), ('ము', '|'), ('ను', '|'), ('దా', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('క', 'U'), ('ర్మ', '|'), ('వా', 'U'), ('ర్ధి', '|'), ('ఘ', '|'), ('న', '|'), ('మై', 'U'), ('ముం', 'U'), ('పం', 'U'), ('గ', '|'), ('డుం', 'U'), ('బా', 'U'), ('లు', '|'), ('చే', 'U'), ('జ', '|'), ('న', '|'), ('డే', 'U'), ('దు', 'U'), ('ర్మ', '|'), ('తి', '|'), ('వి', '|'), ('క్ర', '|'), ('మా', 'U'), ('ర్కు', '|'), ('డి', '|'), ('ల', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[('తె', '|'), ('గు', '|'), ('వ', 'U'), ('న్ని', 'U'), ('ర్జ', '|'), ('రు', '|'), ('లన్', 'U'), ('జ', '|'), ('యిం', 'U'), ('చు', '|'), ('చు', '|'), ('మ', '|'), ('దో', 'U'), ('ద్రే', 'U'), ('కం', 'U'), ('బు', '|'), ('నన్', 'U'), ('గా', 'U'), ('న', '|'), ('లో', 'U'), ('మృ', '|'), ('గ', '|'), ('నే', 'U'), ('త్రిన్', 'U'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('త', '|'), ('నూ', 'U'), ('జ', '|'), ('న', '|'), ('సు', '|'), ('రు', 'U'), ('ల్మె', 'U'), ('చ్చం', 'U'), ('గ', '|'), ('దా', 'U'), ('దె', 'U'), ('చ్చి', '|'), ('నె', 'U'), ('వ్వ', '|'), ('గ', '|'), ('లం', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('వి', '|'), ('ధి', '|'), ('ప్ర', '|'), ('య', 'U'), ('త్న', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('ర్వం', 'U'), ('శం', 'U'), ('బు', '|'), ('గా', 'U'), ('రా', 'U'), ('ము', '|'), ('చే', 'U'), ('జ', '|'), ('గ', '|'), ('తిం', 'U'), ('గూ', 'U'), ('ల', '|'), ('డె', '|'), ('యా', 'U'), ('ద', '|'), ('శా', 'U'), ('న', '|'), ('ను', '|'), ('డు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('తె', '|'), ('గు', '|'), ('వ', 'U'), ('న్ని', 'U'), ('ర్జ', '|'), ('రు', '|'), ('ల', 'U'), ('న్జ', '|'), ('యిం', 'U'), ('చు', '|'), ('చు', '|'), ('మ', '|'), ('దో', 'U'), ('ద్రే', 'U'), ('కం', 'U'), ('బు', '|'), ('న', 'U'), ('న్గా', 'U'), ('న', '|'), ('లో', 'U'), ('మృ', '|'), ('గ', '|'), ('నే', 'U'), ('త్రి', 'U'), ('న్ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('త', '|'), ('నూ', 'U'), ('జ', '|'), ('న', '|'), ('సు', '|'), ('రు', 'U'), ('ల్మె', 'U'), ('చ్చం', 'U'), ('గ', '|'), ('దా', 'U'), ('దె', 'U'), ('చ్చి', '|'), ('నె', 'U'), ('వ్వ', '|'), ('గ', '|'), ('లం', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('వి', '|'), ('ధి', '|'), ('ప్ర', '|'), ('య', 'U'), ('త్న', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('ర్వం', 'U'), ('శం', 'U'), ('బు', '|'), ('గా', 'U'), ('రా', 'U'), ('ము', '|'), ('చే', 'U'), ('జ', '|'), ('గ', '|'), ('తిం', 'U'), ('గూ', 'U'), ('ల', '|'), ('డె', '|'), ('యా', 'U'), ('ద', '|'), ('శా', 'U'), ('న', '|'), ('ను', '|'), ('డు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('ర', '|'), ('నా', 'U'), ('రీ', 'U'), ('హ', '|'), ('ర', '|'), ('ణం', 'U'), ('బొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('పా', 'U'), ('పా', 'U'), ('త్ము', '|'), ('డా', 'U'), ('రా', 'U'), ('వ', '|'), ('ణుం', 'U'), ('డ', '|'), ('ర', '|'), ('య', 'U'), ('న్నా', 'U'), ('త', '|'), ('ని', '|'), ('త', 'U'), ('మ్ము', '|'), ('డై', 'U'), ('న', '|'), ('ద', '|'), ('ను', '|'), ('జుం', 'U'), ('డ', 'U'), ('త్యం', 'U'), ('త', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('శ', '|'), ('ర', '|'), ('ణ', 'U'), ('న్నం', 'U'), ('ద', '|'), ('య', '|'), ('జూ', 'U'), ('చి', '|'), ('య', '|'), ('గ్ర', '|'), ('జు', '|'), ('ని', '|'), ('రా', 'U'), ('జ్యం', 'U'), ('బి', 'U'), ('చ్చి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('ర', '|'), ('ణిన్', 'U'), ('నీ', 'U'), ('ప', '|'), ('ద', '|'), ('భ', 'U'), ('క్తి', '|'), ('యే', 'U'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('ప', '|'), ('ర', '|'), ('నా', 'U'), ('రీ', 'U'), ('హ', '|'), ('ర', '|'), ('ణం', 'U'), ('బొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('పా', 'U'), ('పా', 'U'), ('త్ము', '|'), ('డా', 'U'), ('రా', 'U'), ('వ', '|'), ('ణుం', 'U'), ('డ', '|'), ('ర', '|'), ('య', 'U'), ('న్నా', 'U'), ('త', '|'), ('ని', '|'), ('త', 'U'), ('మ్ము', '|'), ('డై', 'U'), ('న', '|'), ('ద', '|'), ('ను', '|'), ('జుం', 'U'), ('డ', 'U'), ('త్యం', 'U'), ('త', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('శ', '|'), ('ర', '|'), ('ణ', 'U'), ('న్నం', 'U'), ('ద', '|'), ('య', '|'), ('జూ', 'U'), ('చి', '|'), ('య', '|'), ('గ్ర', '|'), ('జు', '|'), ('ని', '|'), ('రా', 'U'), ('జ్యం', 'U'), ('బి', 'U'), ('చ్చి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('ర', '|'), ('ణి', 'U'), ('న్నీ', 'U'), ('ప', '|'), ('ద', '|'), ('భ', 'U'), ('క్తి', '|'), ('యే', 'U'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[('వె', '|'), ('ఱ', '|'), ('చై', 'U'), ('నన్', 'U'), ('మ', '|'), ('ఱ', '|'), ('చై', 'U'), ('న', '|'), ('గా', 'U'), ('ర్య', '|'), ('ము', '|'), ('త', '|'), ('ఱిన్', 'U'), ('వే', 'U'), ('సా', 'U'), ('రు', '|'), ('చు', 'U'), ('న్నై', 'U'), ('న', '|'), ('యా', 'U'), ('ద', '|'), ('ర', '|'), ('మొ', 'U'), ('ప్పై', 'U'), ('న', '|'), ('ను', '|'), ('మా', 'U'), ('య', '|'), ('నై', 'U'), ('న', '|'), ('నృ', '|'), ('ప', '|'), ('తుల్', 'U'), ('దం', 'U'), ('డిం', 'U'), ('ప', '|'), ('గా', 'U'), ('నై', 'U'), ('న', '|'), ('నున్', 'U'), ('ప', '|'), ('రి', '|'), ('హా', 'U'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('మి', 'U'), ('మ్ము', '|'), ('ను', '|'), ('డు', '|'), ('వన్', 'U'), ('బ్రా', 'U'), ('పిం', 'U'), ('చు', '|'), ('పు', 'U'), ('ణ్యా', 'U'), ('త్మ', '|'), ('కుల్', 'U'), ('న', '|'), ('ర', '|'), ('కా', 'U'), ('వా', 'U'), ('స', '|'), ('ము', '|'), ('జే', 'U'), ('ర', '|'), ('రా', 'U'), ('ఘ', '|'), ('ను', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('వె', '|'), ('ఱ', '|'), ('చై', 'U'), ('న', 'U'), ('న్మ', '|'), ('ఱ', '|'), ('చై', 'U'), ('న', '|'), ('గా', 'U'), ('ర్య', '|'), ('ము', '|'), ('త', '|'), ('ఱి', 'U'), ('న్వే', 'U'), ('సా', 'U'), ('రు', '|'), ('చు', 'U'), ('న్నై', 'U'), ('న', '|'), ('యా', 'U'), ('ద', '|'), ('ర', '|'), ('మొ', 'U'), ('ప్పై', 'U'), ('న', '|'), ('ను', '|'), ('మా', 'U'), ('య', '|'), ('నై', 'U'), ('న', '|'), ('నృ', '|'), ('ప', '|'), ('తు', 'U'), ('ల్దం', 'U'), ('డిం', 'U'), ('ప', '|'), ('గా', 'U'), ('నై', 'U'), ('న', '|'), ('నున్', 'U'), ('ప', '|'), ('రి', '|'), ('హా', 'U'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('మి', 'U'), ('మ్ము', '|'), ('ను', '|'), ('డు', '|'), ('వ', 'U'), ('న్బ్రా', 'U'), ('పిం', 'U'), ('చు', '|'), ('పు', 'U'), ('ణ్యా', 'U'), ('త్మ', '|'), ('కుల్', 'U'), ('న', '|'), ('ర', '|'), ('కా', 'U'), ('వా', 'U'), ('స', '|'), ('ము', '|'), ('జే', 'U'), ('ర', '|'), ('రా', 'U'), ('ఘ', '|'), ('ను', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[('నొ', '|'), ('స', '|'), ('టన్', 'U'), ('గ', 'U'), ('న్ను', '|'), ('ల', '|'), ('గ', 'U'), ('ట్టి', '|'), ('వే', 'U'), ('ల్పు', '|'), ('స', '|'), ('తి', '|'), ('నెం', 'U'), ('తో', 'U'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('ని', '|'), ('సు', '|'), ('మం', 'U'), ('తై', 'U'), ('న', '|'), ('భ', '|'), ('యం', 'U'), ('బు', '|'), ('లే', 'U'), ('క', '|'), ('త', '|'), ('ల', '|'), ('మీ', 'U'), ('దె', 'U'), ('క్క', 'U'), ('న్న', '|'), ('ద', 'U'), ('ట్లుం', 'U'), ('డ', '|'), ('నీ', 'U'), ('వ', '|'), ('సు', '|'), ('ధన్', 'U'), ('భ', 'U'), ('ర్త', '|'), ('ను', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('కె', 'U'), ('వ్వ', '|'), ('ర', '|'), ('యి', '|'), ('నన్', 'U'), ('వ', 'U'), ('శ్యా', 'U'), ('త్ము', '|'), ('లై', 'U'), ('మ', 'U'), ('ట్టు', '|'), ('లే', 'U'), ('క', '|'), ('స', '|'), ('మి', 'U'), ('య్యం', 'U'), ('ద', '|'), ('ల', '|'), ('కె', 'U'), ('క్క', '|'), ('కుం', 'U'), ('డు', '|'), ('దు', '|'), ('రె', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('నొ', '|'), ('స', '|'), ('ట', 'U'), ('న్గ', 'U'), ('న్ను', '|'), ('ల', '|'), ('గ', 'U'), ('ట్టి', '|'), ('వే', 'U'), ('ల్పు', '|'), ('స', '|'), ('తి', '|'), ('నెం', 'U'), ('తో', 'U'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('ని', '|'), ('సు', '|'), ('మం', 'U'), ('తై', 'U'), ('న', '|'), ('భ', '|'), ('యం', 'U'), ('బు', '|'), ('లే', 'U'), ('క', '|'), ('త', '|'), ('ల', '|'), ('మీ', 'U'), ('దె', 'U'), ('క్క', 'U'), ('న్న', '|'), ('ద', 'U'), ('ట్లుం', 'U'), ('డ', '|'), ('నీ', 'U'), ('వ', '|'), ('సు', '|'), ('ధ', 'U'), ('న్భ', 'U'), ('ర్త', '|'), ('ను', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('కె', 'U'), ('వ్వ', '|'), ('ర', '|'), ('యి', '|'), ('న', 'U'), ('న్వ', 'U'), ('శ్యా', 'U'), ('త్ము', '|'), ('లై', 'U'), ('మ', 'U'), ('ట్టు', '|'), ('లే', 'U'), ('క', '|'), ('స', '|'), ('మి', 'U'), ('య్యం', 'U'), ('ద', '|'), ('ల', '|'), ('కె', 'U'), ('క్క', '|'), ('కుం', 'U'), ('డు', '|'), ('దు', '|'), ('రె', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('రి', '|'), ('తో', 'U'), ('దో', 'U'), ('మ', '|'), ('మృ', '|'), ('గేం', 'U'), ('ద్రు', '|'), ('తో', 'U'), ('న', '|'), ('రు', '|'), ('డు', '|'), ('బం', 'U'), ('గా', 'U'), ('రం', 'U'), ('బు', '|'), ('తో', 'U'), ('గం', 'U'), ('చు', '|'), ('భా', 'U'), ('స్క', '|'), ('రు', '|'), ('తో', 'U'), ('మి', 'U'), ('ణ్గు', '|'), ('రు', '|'), ('బు', 'U'), ('ర్వు', '|'), ('క', 'U'), ('ల్ప', '|'), ('క', '|'), ('ము', '|'), ('తో', 'U'), ('గా', 'U'), ('నుం', 'U'), ('గు', '|'), ('ర', 'U'), ('త్నా', 'U'), ('క', '|'), ('రే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('తో', 'U'), ('నూ', 'U'), ('ష', '|'), ('ర', '|'), ('ప', 'U'), ('ల్వ', '|'), ('లం', 'U'), ('బు', '|'), ('ను', '|'), ('రు', '|'), ('శే', 'U'), ('ష', 'U'), ('స్వా', 'U'), ('మి', '|'), ('తో', 'U'), ('మి', 'U'), ('డ్త', '|'), ('యున్', 'U'), ('స', '|'), ('రి', '|'), ('యై', 'U'), ('నన్', 'U'), ('స', '|'), ('రి', '|'), ('మీ', 'U'), ('కు', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('క', '|'), ('రి', '|'), ('తో', 'U'), ('దో', 'U'), ('మ', '|'), ('మృ', '|'), ('గేం', 'U'), ('ద్రు', '|'), ('తో', 'U'), ('న', '|'), ('రు', '|'), ('డు', '|'), ('బం', 'U'), ('గా', 'U'), ('రం', 'U'), ('బు', '|'), ('తో', 'U'), ('గం', 'U'), ('చు', '|'), ('భా', 'U'), ('స్క', '|'), ('రు', '|'), ('తో', 'U'), ('మి', 'U'), ('ణ్గు', '|'), ('రు', '|'), ('బు', 'U'), ('ర్వు', '|'), ('క', 'U'), ('ల్ప', '|'), ('క', '|'), ('ము', '|'), ('తో', 'U'), ('గా', 'U'), ('నుం', 'U'), ('గు', '|'), ('ర', 'U'), ('త్నా', 'U'), ('క', '|'), ('రే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('తో', 'U'), ('నూ', 'U'), ('ష', '|'), ('ర', '|'), ('ప', 'U'), ('ల్వ', '|'), ('లం', 'U'), ('బు', '|'), ('ను', '|'), ('రు', '|'), ('శే', 'U'), ('ష', 'U'), ('స్వా', 'U'), ('మి', '|'), ('తో', 'U'), ('మి', 'U'), ('డ్త', '|'), ('యున్', 'U'), ('స', '|'), ('రి', '|'), ('యై', 'U'), ('న', 'U'), ('న్స', '|'), ('రి', '|'), ('మీ', 'U'), ('కు', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[('ను', '|'), ('త', '|'), ('లో', 'U'), ('క', '|'), ('ప్ర', '|'), ('తి', '|'), ('సృ', 'U'), ('ష్ట', '|'), ('ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('క', '|'), ('ళా', 'U'), ('నూ', 'U'), ('త్నా', 'U'), ('బ్జ', '|'), ('గ', 'U'), ('ర్భున్', 'U'), ('మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('తి', '|'), ('భున్', 'U'), ('గౌ', 'U'), ('శి', '|'), ('కు', '|'), ('గు', 'U'), ('క్క', '|'), ('మాం', 'U'), ('స', '|'), ('ము', '|'), ('భు', '|'), ('జిం', 'U'), ('పం', 'U'), ('జే', 'U'), ('సి', '|'), ('మా', 'U'), ('లా', 'U'), ('త', '|'), ('నిన్', 'U'), ('బ', '|'), ('తి', '|'), ('మా', 'U'), ('లిం', 'U'), ('చ', '|'), ('వె', '|'), ('చం', 'U'), ('డ', '|'), ('చం', 'U'), ('డ', '|'), ('త', '|'), ('ర', '|'), ('శుం', 'U'), ('భ', 'U'), ('త్వం', 'U'), ('బు', '|'), ('పా', 'U'), ('ల్మా', 'U'), ('లు', '|'), ('నా', 'U'), ('శ', '|'), ('త', '|'), ('బొం', 'U'), ('దిం', 'U'), ('చ', '|'), ('వె', '|'), ('దే', 'U'), ('వ', '|'), ('దే', 'U'), ('వ', '|'), ('మ', '|'), ('య', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('ను', '|'), ('త', '|'), ('లో', 'U'), ('క', '|'), ('ప్ర', '|'), ('తి', '|'), ('సృ', 'U'), ('ష్ట', '|'), ('ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('క', '|'), ('ళా', 'U'), ('నూ', 'U'), ('త్నా', 'U'), ('బ్జ', '|'), ('గ', 'U'), ('ర్భు', 'U'), ('న్మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('తి', '|'), ('భు', 'U'), ('న్గౌ', 'U'), ('శి', '|'), ('కు', '|'), ('గు', 'U'), ('క్క', '|'), ('మాం', 'U'), ('స', '|'), ('ము', '|'), ('భు', '|'), ('జిం', 'U'), ('పం', 'U'), ('జే', 'U'), ('సి', '|'), ('మా', 'U'), ('లా', 'U'), ('త', '|'), ('నిన్', 'U'), ('బ', '|'), ('తి', '|'), ('మా', 'U'), ('లిం', 'U'), ('చ', '|'), ('వె', '|'), ('చం', 'U'), ('డ', '|'), ('చం', 'U'), ('డ', '|'), ('త', '|'), ('ర', '|'), ('శుం', 'U'), ('భ', 'U'), ('త్వం', 'U'), ('బు', '|'), ('పా', 'U'), ('ల్మా', 'U'), ('లు', '|'), ('నా', 'U'), ('శ', '|'), ('త', '|'), ('బొం', 'U'), ('దిం', 'U'), ('చ', '|'), ('వె', '|'), ('దే', 'U'), ('వ', '|'), ('దే', 'U'), ('వ', '|'), ('మ', '|'), ('య', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('ర', '|'), ('భో', 'U'), ('గా', 'U'), ('ధ్వ', '|'), ('ర', '|'), ('దా', 'U'), ('న', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('గు', '|'), ('ణ', '|'), ('ముల్', 'U'), ('వ', 'U'), ('ర్జిం', 'U'), ('చి', '|'), ('తృ', 'U'), ('ష్ణా', 'U'), ('ర', '|'), ('తిన్', 'U'), ('న', '|'), ('రు', '|'), ('ల', 'U'), ('త్యం', 'U'), ('త', '|'), ('ము', '|'), ('మూ', 'U'), ('ఢ', '|'), ('లో', 'U'), ('భ', '|'), ('మ', '|'), ('తు', '|'), ('లై', 'U'), ('నా', 'U'), ('రీ', 'U'), ('ర', '|'), ('తిం', 'U'), ('గూ', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('ద', '|'), ('ర', '|'), ('ముం', 'U'), ('గా', 'U'), ('ని', '|'), ('ధ', '|'), ('నం', 'U'), ('బు', '|'), ('త', 'U'), ('స్క', '|'), ('ర', '|'), ('వ', '|'), ('రున్', 'U'), ('ధా', 'U'), ('త్రీ', 'U'), ('శు', '|'), ('లుం', 'U'), ('జే', 'U'), ('కొ', '|'), ('నన్', 'U'), ('స', '|'), ('ర', '|'), ('ఘ', '|'), ('వ్రా', 'U'), ('త', '|'), ('ము', '|'), ('జే', 'U'), ('ర్చు', '|'), ('తే', 'U'), ('నె', '|'), ('క్రి', '|'), ('య', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('వ', '|'), ('ర', '|'), ('భో', 'U'), ('గా', 'U'), ('ధ్వ', '|'), ('ర', '|'), ('దా', 'U'), ('న', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('గు', '|'), ('ణ', '|'), ('ము', 'U'), ('ల్వ', 'U'), ('ర్జిం', 'U'), ('చి', '|'), ('తృ', 'U'), ('ష్ణా', 'U'), ('ర', '|'), ('తిన్', 'U'), ('న', '|'), ('రు', '|'), ('ల', 'U'), ('త్యం', 'U'), ('త', '|'), ('ము', '|'), ('మూ', 'U'), ('ఢ', '|'), ('లో', 'U'), ('భ', '|'), ('మ', '|'), ('తు', '|'), ('లై', 'U'), ('నా', 'U'), ('రీ', 'U'), ('ర', '|'), ('తిం', 'U'), ('గూ', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('ద', '|'), ('ర', '|'), ('ముం', 'U'), ('గా', 'U'), ('ని', '|'), ('ధ', '|'), ('నం', 'U'), ('బు', '|'), ('త', 'U'), ('స్క', '|'), ('ర', '|'), ('వ', '|'), ('రు', 'U'), ('న్ధా', 'U'), ('త్రీ', 'U'), ('శు', '|'), ('లుం', 'U'), ('జే', 'U'), ('కొ', '|'), ('నన్', 'U'), ('స', '|'), ('ర', '|'), ('ఘ', '|'), ('వ్రా', 'U'), ('త', '|'), ('ము', '|'), ('జే', 'U'), ('ర్చు', '|'), ('తే', 'U'), ('నె', '|'), ('క్రి', '|'), ('య', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[('ఖ', '|'), ('ల', '|'), ('వా', 'U'), ('క్య', '|'), ('ప్ర', '|'), ('తి', '|'), ('పా', 'U'), ('ల', '|'), ('కుల్', 'U'), ('ప', '|'), ('ర', '|'), ('ధ', '|'), ('నా', 'U'), ('కాం', 'U'), ('క్షుల్', 'U'), ('ప', '|'), ('ర', 'U'), ('స్త్రీ', 'U'), ('ర', '|'), ('తుల్', 'U'), ('కు', '|'), ('ల', '|'), ('ధ', 'U'), ('ర్మౌ', 'U'), ('ఘ', '|'), ('ని', '|'), ('బ', 'U'), ('ద్ధ', '|'), ('చి', 'U'), ('త్తు', '|'), ('లు', '|'), ('న', '|'), ('యా', 'U'), ('కూ', 'U'), ('పా', 'U'), ('ర', '|'), ('పా', 'U'), ('రం', 'U'), ('గ', '|'), ('తుల్', 'U'), ('క', '|'), ('లు', '|'), ('షుల్', 'U'), ('రా', 'U'), ('జు', '|'), ('లు', '|'), ('వా', 'U'), ('రి', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('ల', '|'), ('కె', 'U'), ('ల్లం', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('న', 'U'), ('త్యం', 'U'), ('త', '|'), ('ని', 'U'), ('శ్చ', '|'), ('ల', '|'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('లు', '|'), ('ని', 'U'), ('న్భ', '|'), ('జిం', 'U'), ('ప', '|'), ('గ', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('ఖ', '|'), ('ల', '|'), ('వా', 'U'), ('క్య', '|'), ('ప్ర', '|'), ('తి', '|'), ('పా', 'U'), ('ల', '|'), ('కు', 'U'), ('ల్ప', '|'), ('ర', '|'), ('ధ', '|'), ('నా', 'U'), ('కాం', 'U'), ('క్షు', 'U'), ('ల్ప', '|'), ('ర', 'U'), ('స్త్రీ', 'U'), ('ర', '|'), ('తుల్', 'U'), ('కు', '|'), ('ల', '|'), ('ధ', 'U'), ('ర్మౌ', 'U'), ('ఘ', '|'), ('ని', '|'), ('బ', 'U'), ('ద్ధ', '|'), ('చి', 'U'), ('త్తు', '|'), ('లు', '|'), ('న', '|'), ('యా', 'U'), ('కూ', 'U'), ('పా', 'U'), ('ర', '|'), ('పా', 'U'), ('రం', 'U'), ('గ', '|'), ('తుల్', 'U'), ('క', '|'), ('లు', '|'), ('షు', '|'), ('ల్రా', 'U'), ('జు', '|'), ('లు', '|'), ('వా', 'U'), ('రి', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('ల', '|'), ('కె', 'U'), ('ల్లం', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('న', 'U'), ('త్యం', 'U'), ('త', '|'), ('ని', 'U'), ('శ్చ', '|'), ('ల', '|'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('లు', '|'), ('ని', 'U'), ('న్భ', '|'), ('జిం', 'U'), ('ప', '|'), ('గ', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[('బొం', 'U'), ('కు', 'U'), ('ల్ల', 'U'), ('క్ష', '|'), ('లు', '|'), ('ని', 'U'), ('త్య', '|'), ('సం', 'U'), ('భ', '|'), ('రి', '|'), ('త', '|'), ('సం', 'U'), ('భో', 'U'), ('గా', 'U'), ('ర', '|'), ('తుల్', 'U'), ('దు', 'U'), ('ర్మ', '|'), ('దా', 'U'), ('హం', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('కో', 'U'), ('ట్ల', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('య', '|'), ('గు', '|'), ('మో', 'U'), ('హం', 'U'), ('బా', 'U'), ('య', '|'), ('నం', 'U'), ('తం', 'U'), ('బు', '|'), ('దు', 'U'), ('ష్పం', 'U'), ('కా', 'U'), ('భా', 'U'), ('ర', '|'), ('మ', '|'), ('పా', 'U'), ('ర', '|'), ('మి', 'U'), ('న్ని', '|'), ('గ', '|'), ('ల', '|'), ('భూ', 'U'), ('ప', '|'), ('వ్రా', 'U'), ('త', '|'), ('స', 'U'), ('ర్పా', 'U'), ('ళి', '|'), ('ని', 'U'), ('శ్శం', 'U'), ('కం', 'U'), ('బ్రా', 'U'), ('జ్ఞు', '|'), ('లు', '|'), ('చే', 'U'), ('ర', '|'), ('వో', 'U'), ('వు', '|'), ('దు', '|'), ('రె', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('బొం', 'U'), ('కు', 'U'), ('ల్ల', 'U'), ('క్ష', '|'), ('లు', '|'), ('ని', 'U'), ('త్య', '|'), ('సం', 'U'), ('భ', '|'), ('రి', '|'), ('త', '|'), ('సం', 'U'), ('భో', 'U'), ('గా', 'U'), ('ర', '|'), ('తు', 'U'), ('ల్దు', 'U'), ('ర్మ', '|'), ('దా', 'U'), ('హం', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('కో', 'U'), ('ట్ల', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('య', '|'), ('గు', '|'), ('మో', 'U'), ('హం', 'U'), ('బా', 'U'), ('య', '|'), ('నం', 'U'), ('తం', 'U'), ('బు', '|'), ('దు', 'U'), ('ష్పం', 'U'), ('కా', 'U'), ('భా', 'U'), ('ర', '|'), ('మ', '|'), ('పా', 'U'), ('ర', '|'), ('మి', 'U'), ('న్ని', '|'), ('గ', '|'), ('ల', '|'), ('భూ', 'U'), ('ప', '|'), ('వ్రా', 'U'), ('త', '|'), ('స', 'U'), ('ర్పా', 'U'), ('ళి', '|'), ('ని', 'U'), ('శ్శం', 'U'), ('కం', 'U'), ('బ్రా', 'U'), ('జ్ఞు', '|'), ('లు', '|'), ('చే', 'U'), ('ర', '|'), ('వో', 'U'), ('వు', '|'), ('దు', '|'), ('రె', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[('చీ', 'U'), ('మల్', 'U'), ('పు', 'U'), ('ట్ట', '|'), ('లు', '|'), ('పె', 'U'), ('ట్టు', '|'), ('చుం', 'U'), ('డ', '|'), ('న', '|'), ('వి', '|'), ('వి', 'U'), ('స్తీ', 'U'), ('ర్ణం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('నన్', 'U'), ('పా', 'U'), ('ముల్', 'U'), ('జే', 'U'), ('రి', '|'), ('న', '|'), ('రీ', 'U'), ('తి', '|'), ('లో', 'U'), ('భి', '|'), ('జ', '|'), ('న', '|'), ('సం', 'U'), ('ప', 'U'), ('న్నా', 'U'), ('ర్థ', '|'), ('రా', 'U'), ('సుల్', 'U'), ('వృ', '|'), ('థా', 'U'), ('భూ', 'U'), ('మీ', 'U'), ('పా', 'U'), ('లు', '|'), ('ల', '|'), ('పా', 'U'), ('లు', '|'), ('గా', 'U'), ('క', '|'), ('చ', '|'), ('ను', '|'), ('నా', 'U'), ('పు', 'U'), ('ణ్యం', 'U'), ('బు', '|'), ('లే', 'U'), ('లొ', 'U'), ('ల్ల', '|'), ('రో', 'U'), ('సా', 'U'), ('మా', 'U'), ('న్యం', 'U'), ('బు', '|'), ('ధ', '|'), ('నా', 'U'), ('ధి', '|'), ('నా', 'U'), ('థు', '|'), ('ల', '|'), ('కు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('చీ', 'U'), ('మ', 'U'), ('ల్పు', 'U'), ('ట్ట', '|'), ('లు', '|'), ('పె', 'U'), ('ట్టు', '|'), ('చుం', 'U'), ('డ', '|'), ('న', '|'), ('వి', '|'), ('వి', 'U'), ('స్తీ', 'U'), ('ర్ణం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('నన్', 'U'), ('పా', 'U'), ('ము', 'U'), ('ల్జే', 'U'), ('రి', '|'), ('న', '|'), ('రీ', 'U'), ('తి', '|'), ('లో', 'U'), ('భి', '|'), ('జ', '|'), ('న', '|'), ('సం', 'U'), ('ప', 'U'), ('న్నా', 'U'), ('ర్థ', '|'), ('రా', 'U'), ('సు', 'U'), ('ల్వృ', '|'), ('థా', 'U'), ('భూ', 'U'), ('మీ', 'U'), ('పా', 'U'), ('లు', '|'), ('ల', '|'), ('పా', 'U'), ('లు', '|'), ('గా', 'U'), ('క', '|'), ('చ', '|'), ('ను', '|'), ('నా', 'U'), ('పు', 'U'), ('ణ్యం', 'U'), ('బు', '|'), ('లే', 'U'), ('లొ', 'U'), ('ల్ల', '|'), ('రో', 'U'), ('సా', 'U'), ('మా', 'U'), ('న్యం', 'U'), ('బు', '|'), ('ధ', '|'), ('నా', 'U'), ('ధి', '|'), ('నా', 'U'), ('థు', '|'), ('ల', '|'), ('కు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ద', '|'), ('నం', 'U'), ('బొ', 'U'), ('ద్దు', '|'), ('ల', '|'), ('నీ', 'U'), ('డ', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('చ్చల్', 'U'), ('సృ', 'U'), ('క్కి', '|'), ('దు', 'U'), ('ష్టా', 'U'), ('త్ము', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('పెం', 'U'), ('పై', 'U'), ('ధ', '|'), ('ర', '|'), ('ని', 'U'), ('ల్వ', '|'), ('దిం', 'U'), ('చు', '|'), ('క', '|'), ('యు', '|'), ('సౌ', 'U'), ('భా', 'U'), ('గ్య', '|'), ('ప్ర', '|'), ('భా', 'U'), ('భా', 'U'), ('సి', '|'), ('యై', 'U'), ('పొ', '|'), ('ద', '|'), ('లున్', 'U'), ('మా', 'U'), ('ప', '|'), ('టి', '|'), ('నీ', 'U'), ('డ', '|'), ('కై', 'U'), ('వ', '|'), ('డి', '|'), ('భ', '|'), ('వ', 'U'), ('త్పూ', 'U'), ('జా', 'U'), ('వి', '|'), ('ధే', 'U'), ('య', 'U'), ('జ్ఞు', '|'), ('డై', 'U'), ('స', '|'), ('ద', '|'), ('యుం', 'U'), ('డై', 'U'), ('న', '|'), ('ను', '|'), ('లే', 'U'), ('మి', '|'), ('జే', 'U'), ('కు', '|'), ('రు', '|'), ('నె', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('అ', '|'), ('ద', '|'), ('నం', 'U'), ('బొ', 'U'), ('ద్దు', '|'), ('ల', '|'), ('నీ', 'U'), ('డ', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('చ్చ', 'U'), ('ల్సృ', 'U'), ('క్కి', '|'), ('దు', 'U'), ('ష్టా', 'U'), ('త్ము', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('పెం', 'U'), ('పై', 'U'), ('ధ', '|'), ('ర', '|'), ('ని', 'U'), ('ల్వ', '|'), ('దిం', 'U'), ('చు', '|'), ('క', '|'), ('యు', '|'), ('సౌ', 'U'), ('భా', 'U'), ('గ్య', '|'), ('ప్ర', '|'), ('భా', 'U'), ('భా', 'U'), ('సి', '|'), ('యై', 'U'), ('పొ', '|'), ('ద', '|'), ('లు', 'U'), ('న్మా', 'U'), ('ప', '|'), ('టి', '|'), ('నీ', 'U'), ('డ', '|'), ('కై', 'U'), ('వ', '|'), ('డి', '|'), ('భ', '|'), ('వ', 'U'), ('త్పూ', 'U'), ('జా', 'U'), ('వి', '|'), ('ధే', 'U'), ('య', 'U'), ('జ్ఞు', '|'), ('డై', 'U'), ('స', '|'), ('ద', '|'), ('యుం', 'U'), ('డై', 'U'), ('న', '|'), ('ను', '|'), ('లే', 'U'), ('మి', '|'), ('జే', 'U'), ('కు', '|'), ('రు', '|'), ('నె', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[('కీ', 'U'), ('డున్', 'U'), ('మే', 'U'), ('లు', '|'), ('ను', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గ', 'U'), ('ర్మ', '|'), ('వ', '|'), ('శ', '|'), ('తన్', 'U'), ('క్రీ', 'U'), ('డా', 'U'), ('గ', '|'), ('తిన్', 'U'), ('జో', 'U'), ('క', '|'), ('లై', 'U'), ('వా', 'U'), ('డల్', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('ను', '|'), ('బం', 'U'), ('డ్లు', '|'), ('నొ', 'U'), ('క్కె', '|'), ('డ', '|'), ('ధ', '|'), ('ర', 'U'), ('న్నొ', 'U'), ('క్క', 'U'), ('ప్పు', '|'), ('డున్', 'U'), ('బం', 'U'), ('డ్ల', '|'), ('పై', 'U'), ('వా', 'U'), ('డల్', 'U'), ('నౌ', 'U'), ('గ', '|'), ('ద', '|'), ('దే', 'U'), ('శ', '|'), ('కా', 'U'), ('ల', '|'), ('గ', '|'), ('తి', '|'), ('శీ', 'U'), ('తో', 'U'), ('ష్ణం', 'U'), ('బు', '|'), ('లీ', 'U'), ('రీ', 'U'), ('తి', '|'), ('నే', 'U'), ('జా', 'U'), ('డన్', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('ను', '|'), ('దుః', 'U'), ('ఖ', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('కీ', 'U'), ('డు', 'U'), ('న్మే', 'U'), ('లు', '|'), ('ను', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గ', 'U'), ('ర్మ', '|'), ('వ', '|'), ('శ', '|'), ('త', 'U'), ('న్క్రీ', 'U'), ('డా', 'U'), ('గ', '|'), ('తి', 'U'), ('న్జో', 'U'), ('క', '|'), ('లై', 'U'), ('వా', 'U'), ('డ', 'U'), ('ల్వ', 'U'), ('చ్చు', '|'), ('ను', '|'), ('బం', 'U'), ('డ్లు', '|'), ('నొ', 'U'), ('క్కె', '|'), ('డ', '|'), ('ధ', '|'), ('ర', 'U'), ('న్నొ', 'U'), ('క్క', 'U'), ('ప్పు', '|'), ('డు', 'U'), ('న్బం', 'U'), ('డ్ల', '|'), ('పై', 'U'), ('వా', 'U'), ('డ', 'U'), ('ల్నౌ', 'U'), ('గ', '|'), ('ద', '|'), ('దే', 'U'), ('శ', '|'), ('కా', 'U'), ('ల', '|'), ('గ', '|'), ('తి', '|'), ('శీ', 'U'), ('తో', 'U'), ('ష్ణం', 'U'), ('బు', '|'), ('లీ', 'U'), ('రీ', 'U'), ('తి', '|'), ('నే', 'U'), ('జా', 'U'), ('డ', 'U'), ('న్వ', 'U'), ('చ్చు', '|'), ('ను', '|'), ('దుః', 'U'), ('ఖ', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[('అం', 'U'), ('త', 'U'), ('శ్శ', '|'), ('త్రు', '|'), ('ల', '|'), ('గె', 'U'), ('ల్వ', '|'), ('లే', 'U'), ('రు', '|'), ('మ', '|'), ('మ', '|'), ('తా', 'U'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', 'U'), ('ల్మా', 'U'), ('న', '|'), ('లే', 'U'), ('రిం', 'U'), ('తే', 'U'), ('మూ', 'U'), ('ర్ఖ', '|'), ('ము', '|'), ('వీ', 'U'), ('డ', '|'), ('లే', 'U'), ('రు', '|'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('యాం', 'U'), ('ఘ్రి', 'U'), ('ద్వ', '|'), ('యీ', 'U'), ('చిం', 'U'), ('త', '|'), ('నా', 'U'), ('చిం', 'U'), ('తా', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('గా', 'U'), ('న', '|'), ('లే', 'U'), ('రి', '|'), ('ల', '|'), ('ను', '|'), ('దు', 'U'), ('శ్చి', 'U'), ('త్తు', 'U'), ('ల్వృ', '|'), ('థా', 'U'), ('వే', 'U'), ('ద', '|'), ('వే', 'U'), ('దాం', 'U'), ('తం', 'U'), ('బుల్', 'U'), ('చ', '|'), ('దు', '|'), ('వం', 'U'), ('గ', '|'), ('నే', 'U'), ('మి', '|'), ('య', '|'), ('గు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('అం', 'U'), ('త', 'U'), ('శ్శ', '|'), ('త్రు', '|'), ('ల', '|'), ('గె', 'U'), ('ల్వ', '|'), ('లే', 'U'), ('రు', '|'), ('మ', '|'), ('మ', '|'), ('తా', 'U'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', 'U'), ('ల్మా', 'U'), ('న', '|'), ('లే', 'U'), ('రిం', 'U'), ('తే', 'U'), ('మూ', 'U'), ('ర్ఖ', '|'), ('ము', '|'), ('వీ', 'U'), ('డ', '|'), ('లే', 'U'), ('రు', '|'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('యాం', 'U'), ('ఘ్రి', 'U'), ('ద్వ', '|'), ('యీ', 'U'), ('చిం', 'U'), ('త', '|'), ('నా', 'U'), ('చిం', 'U'), ('తా', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('గా', 'U'), ('న', '|'), ('లే', 'U'), ('రి', '|'), ('ల', '|'), ('ను', '|'), ('దు', 'U'), ('శ్చి', 'U'), ('త్తు', 'U'), ('ల్వృ', '|'), ('థా', 'U'), ('వే', 'U'), ('ద', '|'), ('వే', 'U'), ('దాం', 'U'), ('తం', 'U'), ('బు', 'U'), ('ల్చ', '|'), ('దు', '|'), ('వం', 'U'), ('గ', '|'), ('నే', 'U'), ('మి', '|'), ('య', '|'), ('గు', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[('గ', '|'), ('ట్రా', 'U'), ('లన్', 'U'), ('బ', '|'), ('లు', '|'), ('కా', 'U'), ('న', '|'), ('లన్', 'U'), ('గు', '|'), ('హ', '|'), ('ల', '|'), ('గం', 'U'), ('గా', 'U'), ('సిం', 'U'), ('ధు', '|'), ('దే', 'U'), ('శం', 'U'), ('బు', '|'), ('లన్', 'U'), ('వ', '|'), ('ట్రా', 'U'), ('ఠా', 'U'), ('వు', '|'), ('ల', '|'), ('దే', 'U'), ('హ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('జె', '|'), ('ద', '|'), ('రన్', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('మే', 'U'), ('రు', '|'), ('వున్', 'U'), ('చు', '|'), ('ట్రా', 'U'), ('యే', 'U'), ('బ', '|'), ('ది', '|'), ('మా', 'U'), ('ర్లు', '|'), ('మె', 'U'), ('ట్టి', '|'), ('న', '|'), ('మ', '|'), ('న', 'U'), ('శ్శు', 'U'), ('ద్ధుం', 'U'), ('డు', '|'), ('గా', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('చ', '|'), ('ట్రా', 'U'), ('వా', 'U'), ('ని', '|'), ('ప్ర', '|'), ('యా', 'U'), ('స', '|'), ('మం', 'U'), ('త', '|'), ('యు', '|'), ('ను', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('గ', '|'), ('ట్రా', 'U'), ('ల', 'U'), ('న్బ', '|'), ('లు', '|'), ('కా', 'U'), ('న', '|'), ('ల', 'U'), ('న్గు', '|'), ('హ', '|'), ('ల', '|'), ('గం', 'U'), ('గా', 'U'), ('సిం', 'U'), ('ధు', '|'), ('దే', 'U'), ('శం', 'U'), ('బు', '|'), ('లన్', 'U'), ('వ', '|'), ('ట్రా', 'U'), ('ఠా', 'U'), ('వు', '|'), ('ల', '|'), ('దే', 'U'), ('హ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('జె', '|'), ('ద', '|'), ('ర', 'U'), ('న్వ', 'U'), ('ర్తిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్మే', 'U'), ('రు', '|'), ('వున్', 'U'), ('చు', '|'), ('ట్రా', 'U'), ('యే', 'U'), ('బ', '|'), ('ది', '|'), ('మా', 'U'), ('ర్లు', '|'), ('మె', 'U'), ('ట్టి', '|'), ('న', '|'), ('మ', '|'), ('న', 'U'), ('శ్శు', 'U'), ('ద్ధుం', 'U'), ('డు', '|'), ('గా', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('చ', '|'), ('ట్రా', 'U'), ('వా', 'U'), ('ని', '|'), ('ప్ర', '|'), ('యా', 'U'), ('స', '|'), ('మం', 'U'), ('త', '|'), ('యు', '|'), ('ను', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[('గం', 'U'), ('గా', 'U'), ('జ', 'U'), ('న్మ', '|'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('మం', 'U'), ('దు', '|'), ('న', '|'), ('భి', '|'), ('షే', 'U'), ('కం', 'U'), ('బు', 'U'), ('ల్స', '|'), ('దా', 'U'), ('గాం', 'U'), ('చె', '|'), ('దన్', 'U'), ('నం', 'U'), ('గా', 'U'), ('రా', 'U'), ('ర్చ', '|'), ('న', '|'), ('చే', 'U'), ('సి', '|'), ('యే', 'U'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('నన్', 'U'), ('న', 'U'), ('ర్పిం', 'U'), ('తు', '|'), ('నం', 'U'), ('భో', 'U'), ('ధ', '|'), ('రా', 'U'), ('శృం', 'U'), ('గా', 'U'), ('రా', 'U'), ('ధి', '|'), ('ప', '|'), ('కౌ', 'U'), ('స్తు', '|'), ('భా', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('యే', 'U'), ('శృం', 'U'), ('గా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('జే', 'U'), ('తు', '|'), ('మీ', 'U'), ('కం', 'U'), ('గీ', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('గ', '|'), ('నా', 'U'), ('త', '|'), ('ర', '|'), ('మె', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('గం', 'U'), ('గా', 'U'), ('జ', 'U'), ('న్మ', '|'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('మం', 'U'), ('దు', '|'), ('న', '|'), ('భి', '|'), ('షే', 'U'), ('కం', 'U'), ('బు', 'U'), ('ల్స', '|'), ('దా', 'U'), ('గాం', 'U'), ('చె', '|'), ('దన్', 'U'), ('నం', 'U'), ('గా', 'U'), ('రా', 'U'), ('ర్చ', '|'), ('న', '|'), ('చే', 'U'), ('సి', '|'), ('యే', 'U'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('న', 'U'), ('న్న', 'U'), ('ర్పిం', 'U'), ('తు', '|'), ('నం', 'U'), ('భో', 'U'), ('ధ', '|'), ('రా', 'U'), ('శృం', 'U'), ('గా', 'U'), ('రా', 'U'), ('ధి', '|'), ('ప', '|'), ('కౌ', 'U'), ('స్తు', '|'), ('భా', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('యే', 'U'), ('శృం', 'U'), ('గా', 'U'), ('ర', '|'), ('ము', 'U'), ('ల్జే', 'U'), ('తు', '|'), ('మీ', 'U'), ('కం', 'U'), ('గీ', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('గ', '|'), ('నా', 'U'), ('త', '|'), ('ర', '|'), ('మె', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('తి', '|'), ('మో', 'U'), ('హాం', 'U'), ('ధు', '|'), ('ల', '|'), ('బా', 'U'), ('ప', '|'), ('క', 'U'), ('ర్ము', '|'), ('ల', '|'), ('మ', '|'), ('హా', 'U'), ('హం', 'U'), ('కా', 'U'), ('రు', '|'), ('లన్', 'U'), ('దో', 'U'), ('ష', '|'), ('దూ', 'U'), ('షి', '|'), ('తు', '|'), ('లన్', 'U'), ('గ', 'U'), ('ర్వి', '|'), ('త', '|'), ('దు', 'U'), ('ర్వి', '|'), ('చా', 'U'), ('రు', '|'), ('ల', '|'), ('బ్ర', '|'), ('శం', 'U'), ('సిం', 'U'), ('పం', 'U'), ('బ్ర', '|'), ('శం', 'U'), ('సిం', 'U'), ('ప', '|'), ('గా', 'U'), ('ది', '|'), ('తి', '|'), ('ప', 'U'), ('ర్యా', 'U'), ('ప్తి', '|'), ('ది', '|'), ('నం', 'U'), ('బు', '|'), ('లొం', 'U'), ('ది', '|'), ('త్రి', '|'), ('జ', '|'), ('గ', 'U'), ('ద్వి', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('యు', 'U'), ('ష్మ', 'U'), ('త్స', '|'), ('ము', 'U'), ('న్న', '|'), ('త', '|'), ('సే', 'U'), ('వా', 'U'), ('భి', '|'), ('ము', '|'), ('ఖుం', 'U'), ('డ', '|'), ('నై', 'U'), ('తి', '|'), ('ని', '|'), ('ట', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('అ', '|'), ('తి', '|'), ('మో', 'U'), ('హాం', 'U'), ('ధు', '|'), ('ల', '|'), ('బా', 'U'), ('ప', '|'), ('క', 'U'), ('ర్ము', '|'), ('ల', '|'), ('మ', '|'), ('హా', 'U'), ('హం', 'U'), ('కా', 'U'), ('రు', '|'), ('ల', 'U'), ('న్దో', 'U'), ('ష', '|'), ('దూ', 'U'), ('షి', '|'), ('తు', '|'), ('ల', 'U'), ('న్గ', 'U'), ('ర్వి', '|'), ('త', '|'), ('దు', 'U'), ('ర్వి', '|'), ('చా', 'U'), ('రు', '|'), ('ల', '|'), ('బ్ర', '|'), ('శం', 'U'), ('సిం', 'U'), ('పం', 'U'), ('బ్ర', '|'), ('శం', 'U'), ('సిం', 'U'), ('ప', '|'), ('గా', 'U'), ('ది', '|'), ('తి', '|'), ('ప', 'U'), ('ర్యా', 'U'), ('ప్తి', '|'), ('ది', '|'), ('నం', 'U'), ('బు', '|'), ('లొం', 'U'), ('ది', '|'), ('త్రి', '|'), ('జ', '|'), ('గ', 'U'), ('ద్వి', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('యు', 'U'), ('ష్మ', 'U'), ('త్స', '|'), ('ము', 'U'), ('న్న', '|'), ('త', '|'), ('సే', 'U'), ('వా', 'U'), ('భి', '|'), ('ము', '|'), ('ఖుం', 'U'), ('డ', '|'), ('నై', 'U'), ('తి', '|'), ('ని', '|'), ('ట', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('లు', '|'), ('మా', 'U'), ('ఱున్', 'U'), ('ఇ', '|'), ('హ', '|'), ('భో', 'U'), ('గ', '|'), ('కాం', 'U'), ('క్ష', '|'), ('స', '|'), ('భ', '|'), ('లన్', 'U'), ('పాం', 'U'), ('డి', 'U'), ('త్య', '|'), ('ముల్', 'U'), ('సే', 'U'), ('యు', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('య', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('మా', 'U'), ('న్ప', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('రె', '|'), ('యె', 'U'), ('ట్లై', 'U'), ('నన్', 'U'), ('బ్ర', '|'), ('కా', 'U'), ('శిం', 'U'), ('చు', '|'), ('కో', 'U'), ('మ', '|'), ('ల', '|'), ('దీ', 'U'), ('పా', 'U'), ('ళి', '|'), ('దొ', '|'), ('లం', 'U'), ('గ', '|'), ('ద్రో', 'U'), ('యు', '|'), ('నె', '|'), ('భ', '|'), ('వ', 'U'), ('న్మా', 'U'), ('యాం', 'U'), ('ధ', '|'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('ను', 'U'), ('జ్జ్వ', '|'), ('లి', '|'), ('తా', 'U'), ('నం', 'U'), ('ద', '|'), ('మ', '|'), ('య', 'U'), ('స్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('యు', '|'), ('త', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('ప', '|'), ('లు', '|'), ('మా', 'U'), ('ఱు', 'U'), ('న్ఇ', '|'), ('హ', '|'), ('భో', 'U'), ('గ', '|'), ('కాం', 'U'), ('క్ష', '|'), ('స', '|'), ('భ', '|'), ('ల', 'U'), ('న్పాం', 'U'), ('డి', 'U'), ('త్య', '|'), ('ము', 'U'), ('ల్సే', 'U'), ('యు', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('య', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('మా', 'U'), ('న్ప', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('రె', '|'), ('యె', 'U'), ('ట్లై', 'U'), ('న', 'U'), ('న్బ్ర', '|'), ('కా', 'U'), ('శిం', 'U'), ('చు', '|'), ('కో', 'U'), ('మ', '|'), ('ల', '|'), ('దీ', 'U'), ('పా', 'U'), ('ళి', '|'), ('దొ', '|'), ('లం', 'U'), ('గ', '|'), ('ద్రో', 'U'), ('యు', '|'), ('నె', '|'), ('భ', '|'), ('వ', 'U'), ('న్మా', 'U'), ('యాం', 'U'), ('ధ', '|'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('ను', 'U'), ('జ్జ్వ', '|'), ('లి', '|'), ('తా', 'U'), ('నం', 'U'), ('ద', '|'), ('మ', '|'), ('య', 'U'), ('స్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('యు', '|'), ('త', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[('ఉ', 'U'), ('ర్విం', 'U'), ('బా', 'U'), ('ఱు', '|'), ('మ', '|'), ('హా', 'U'), ('న', '|'), ('దీ', 'U'), ('జ', '|'), ('ల', '|'), ('ము', '|'), ('లా', 'U'), ('యూ', 'U'), ('రూ', 'U'), ('రు', '|'), ('నం', 'U'), ('దె', 'U'), ('ల్ల', '|'), ('గూ', 'U'), ('డు', '|'), ('రు', '|'), ('ఘో', 'U'), ('షం', 'U'), ('బు', '|'), ('న', '|'), ('వం', 'U'), ('క', '|'), ('లై', 'U'), ('క', '|'), ('లి', '|'), ('య', '|'), ('గా', 'U'), ('యో', 'U'), ('గ్యం', 'U'), ('బు', '|'), ('లై', 'U'), ('న', 'U'), ('ట్లు', '|'), ('మీ', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణన్', 'U'), ('నా', 'U'), ('ను', '|'), ('డు', '|'), ('వున్', 'U'), ('స', '|'), ('దా', 'U'), ('శు', '|'), ('భ', '|'), ('ము', '|'), ('లై', 'U'), ('సం', 'U'), ('పూ', 'U'), ('జ్య', '|'), ('మున్', 'U'), ('గా', 'U'), ('భ', '|'), ('వ', 'U'), ('చ్చ', '|'), ('ర', '|'), ('ణం', 'U'), ('బుల్', 'U'), ('మ', '|'), ('ది', '|'), ('ని', 'U'), ('ల్పి', '|'), ('కొ', 'U'), ('ల్చె', '|'), ('ద', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('ఉ', 'U'), ('ర్విం', 'U'), ('బా', 'U'), ('ఱు', '|'), ('మ', '|'), ('హా', 'U'), ('న', '|'), ('దీ', 'U'), ('జ', '|'), ('ల', '|'), ('ము', '|'), ('లా', 'U'), ('యూ', 'U'), ('రూ', 'U'), ('రు', '|'), ('నం', 'U'), ('దె', 'U'), ('ల్ల', '|'), ('గూ', 'U'), ('డు', '|'), ('రు', '|'), ('ఘో', 'U'), ('షం', 'U'), ('బు', '|'), ('న', '|'), ('వం', 'U'), ('క', '|'), ('లై', 'U'), ('క', '|'), ('లి', '|'), ('య', '|'), ('గా', 'U'), ('యో', 'U'), ('గ్యం', 'U'), ('బు', '|'), ('లై', 'U'), ('న', 'U'), ('ట్లు', '|'), ('మీ', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', 'U'), ('న్నా', 'U'), ('ను', '|'), ('డు', '|'), ('వు', 'U'), ('న్స', '|'), ('దా', 'U'), ('శు', '|'), ('భ', '|'), ('ము', '|'), ('లై', 'U'), ('సం', 'U'), ('పూ', 'U'), ('జ్య', '|'), ('ము', 'U'), ('న్గా', 'U'), ('భ', '|'), ('వ', 'U'), ('చ్చ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', 'U'), ('ల్మ', '|'), ('ది', '|'), ('ని', 'U'), ('ల్పి', '|'), ('కొ', 'U'), ('ల్చె', '|'), ('ద', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[('బా', 'U'), ('ల', '|'), ('క్రీ', 'U'), ('డ', '|'), ('ల', '|'), ('గొ', 'U'), ('న్ని', '|'), ('నా', 'U'), ('ళ్లు', '|'), ('పి', '|'), ('ద', '|'), ('పన్', 'U'), ('భా', 'U'), ('మా', 'U'), ('కు', '|'), ('చా', 'U'), ('లిం', 'U'), ('గ', '|'), ('నా', 'U'), ('లో', 'U'), ('లా', 'U'), ('భ్యు', 'U'), ('న్న', '|'), ('తి', '|'), ('గొ', 'U'), ('న్ని', '|'), ('నా', 'U'), ('ళ్లు', '|'), ('మ', '|'), ('ఱి', '|'), ('యి', 'U'), ('ల్లున్', 'U'), ('ముం', 'U'), ('గి', '|'), ('లిం', 'U'), ('గొ', 'U'), ('న్ని', '|'), ('నా', 'U'), ('ళ్లీ', 'U'), ('లీ', 'U'), ('లన్', 'U'), ('వి', '|'), ('హ', '|'), ('రిం', 'U'), ('చి', '|'), ('తిన్', 'U'), ('సు', '|'), ('ఖ', '|'), ('ఫ', '|'), ('లం', 'U'), ('బెం', 'U'), ('దే', 'U'), ('ని', '|'), ('యున్', 'U'), ('లే', 'U'), ('దు', '|'), ('గా', 'U'), ('చా', 'U'), ('లన్', 'U'), ('నీ', 'U'), ('ప', '|'), ('ద', '|'), ('భ', 'U'), ('క్తి', '|'), ('జే', 'U'), ('సె', '|'), ('ద', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('బా', 'U'), ('ల', '|'), ('క్రీ', 'U'), ('డ', '|'), ('ల', '|'), ('గొ', 'U'), ('న్ని', '|'), ('నా', 'U'), ('ళ్లు', '|'), ('పి', '|'), ('ద', '|'), ('ప', 'U'), ('న్భా', 'U'), ('మా', 'U'), ('కు', '|'), ('చా', 'U'), ('లిం', 'U'), ('గ', '|'), ('నా', 'U'), ('లో', 'U'), ('లా', 'U'), ('భ్యు', 'U'), ('న్న', '|'), ('తి', '|'), ('గొ', 'U'), ('న్ని', '|'), ('నా', 'U'), ('ళ్లు', '|'), ('మ', '|'), ('ఱి', '|'), ('యి', 'U'), ('ల్లు', 'U'), ('న్ముం', 'U'), ('గి', '|'), ('లిం', 'U'), ('గొ', 'U'), ('న్ని', '|'), ('నా', 'U'), ('ళ్లీ', 'U'), ('లీ', 'U'), ('ల', 'U'), ('న్వి', '|'), ('హ', '|'), ('రిం', 'U'), ('చి', '|'), ('తి', 'U'), ('న్సు', '|'), ('ఖ', '|'), ('ఫ', '|'), ('లం', 'U'), ('బెం', 'U'), ('దే', 'U'), ('ని', '|'), ('యు', 'U'), ('న్లే', 'U'), ('దు', '|'), ('గా', 'U'), ('చా', 'U'), ('ల', 'U'), ('న్నీ', 'U'), ('ప', '|'), ('ద', '|'), ('భ', 'U'), ('క్తి', '|'), ('జే', 'U'), ('సె', '|'), ('ద', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('తి', '|'), ('లో', 'U'), ('మి', 'U'), ('మ్ము', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('పు', 'U'), ('ణ్యు', '|'), ('డి', '|'), ('ల', '|'), ('దా', 'U'), ('మా', 'U'), ('యన్', 'U'), ('స్వ', '|'), ('దా', 'U'), ('రా', 'U'), ('దు', '|'), ('ల', 'U'), ('న్వె', '|'), ('త', '|'), ('లం', 'U'), ('బొ', 'U'), ('ర్ల', '|'), ('డు', '|'), ('భా', 'U'), ('గ్య', '|'), ('వం', 'U'), ('తు', '|'), ('డ', '|'), ('గు', '|'), ('ఠీ', 'U'), ('విన్', 'U'), ('ది', 'U'), ('వ్య', '|'), ('మృ', 'U'), ('ష్టా', 'U'), ('న్న', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('లో', 'U'), ('నా', 'U'), ('డి', '|'), ('మ', '|'), ('నుం', 'U'), ('డు', '|'), ('భి', 'U'), ('క్ష', '|'), ('ము', '|'), ('నొ', '|'), ('సం', 'U'), ('గన్', 'U'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('శూ', 'U'), ('ల', '|'), ('భృ', 'U'), ('చ్చ', '|'), ('తు', '|'), ('రా', 'U'), ('స్య', '|'), ('ప్ర', '|'), ('ము', '|'), ('ఖా', 'U'), ('మ', '|'), ('ర', '|'), ('ప్ర', '|'), ('ణు', '|'), ('త', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('మ', '|'), ('తి', '|'), ('లో', 'U'), ('మి', 'U'), ('మ్ము', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('పు', 'U'), ('ణ్యు', '|'), ('డి', '|'), ('ల', '|'), ('దా', 'U'), ('మా', 'U'), ('య', 'U'), ('న్స్వ', '|'), ('దా', 'U'), ('రా', 'U'), ('దు', '|'), ('ల', 'U'), ('న్వె', '|'), ('త', '|'), ('లం', 'U'), ('బొ', 'U'), ('ర్ల', '|'), ('డు', '|'), ('భా', 'U'), ('గ్య', '|'), ('వం', 'U'), ('తు', '|'), ('డ', '|'), ('గు', '|'), ('ఠీ', 'U'), ('వి', 'U'), ('న్ది', 'U'), ('వ్య', '|'), ('మృ', 'U'), ('ష్టా', 'U'), ('న్న', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('లో', 'U'), ('నా', 'U'), ('డి', '|'), ('మ', '|'), ('నుం', 'U'), ('డు', '|'), ('భి', 'U'), ('క్ష', '|'), ('ము', '|'), ('నొ', '|'), ('సం', 'U'), ('గ', 'U'), ('న్నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('శూ', 'U'), ('ల', '|'), ('భృ', 'U'), ('చ్చ', '|'), ('తు', '|'), ('రా', 'U'), ('స్య', '|'), ('ప్ర', '|'), ('ము', '|'), ('ఖా', 'U'), ('మ', '|'), ('ర', '|'), ('ప్ర', '|'), ('ణు', '|'), ('త', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[('అ', 'U'), ('న్నం', 'U'), ('బై', 'U'), ('న', '|'), ('ను', '|'), ('ద', '|'), ('క్ర', '|'), ('మై', 'U'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('తో', 'U'), ('యం', 'U'), ('బై', 'U'), ('న', '|'), ('న', 'U'), ('భ్యా', 'U'), ('గ', '|'), ('తుల్', 'U'), ('ద', 'U'), ('న్నా', 'U'), ('శిం', 'U'), ('చి', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('యు', 'U'), ('న్ని', '|'), ('డ', '|'), ('క', '|'), ('యే', 'U'), ('ధ', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('నుం', 'U'), ('జే', 'U'), ('య', '|'), ('కే', 'U'), ('మ', 'U'), ('న్న', 'U'), ('న్నూ', 'U'), ('ర', '|'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('జీ', 'U'), ('వ', '|'), ('శ', '|'), ('ర', '|'), ('మ', 'U'), ('ర్త్య', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('జే', 'U'), ('య', '|'), ('కే', 'U'), ('చ', 'U'), ('న్న', 'U'), ('న్నే', 'U'), ('మ', '|'), ('గు', '|'), ('నే', 'U'), ('మ', '|'), ('గున్', 'U'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('అ', 'U'), ('న్నం', 'U'), ('బై', 'U'), ('న', '|'), ('ను', '|'), ('ద', '|'), ('క్ర', '|'), ('మై', 'U'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('తో', 'U'), ('యం', 'U'), ('బై', 'U'), ('న', '|'), ('న', 'U'), ('భ్యా', 'U'), ('గ', '|'), ('తుల్', 'U'), ('ద', 'U'), ('న్నా', 'U'), ('శిం', 'U'), ('చి', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('యు', 'U'), ('న్ని', '|'), ('డ', '|'), ('క', '|'), ('యే', 'U'), ('ధ', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('నుం', 'U'), ('జే', 'U'), ('య', '|'), ('కే', 'U'), ('మ', 'U'), ('న్న', 'U'), ('న్నూ', 'U'), ('ర', '|'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('జీ', 'U'), ('వ', '|'), ('శ', '|'), ('ర', '|'), ('మ', 'U'), ('ర్త్య', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('జే', 'U'), ('య', '|'), ('కే', 'U'), ('చ', 'U'), ('న్న', 'U'), ('న్నే', 'U'), ('మ', '|'), ('గు', '|'), ('నే', 'U'), ('మ', '|'), ('గు', 'U'), ('న్గ', '|'), ('లు', '|'), ('గ', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[('స', '|'), ('మ', '|'), ('ర', 'U'), ('ద్వే', 'U'), ('షు', '|'), ('ల', '|'), ('సం', 'U'), ('గ', '|'), ('రాం', 'U'), ('గ', '|'), ('ణ', '|'), ('ము', '|'), ('నన్', 'U'), ('సా', 'U'), ('ధిం', 'U'), ('చి', '|'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('దా', 'U'), ('గాం', 'U'), ('చి', '|'), ('స', '|'), ('హిం', 'U'), ('చి', '|'), ('చొ', 'U'), ('ప్ప', '|'), ('డు', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ప్రా', 'U'), ('జ్ఞ', '|'), ('త', 'U'), ('ల్గాం', 'U'), ('చు', '|'), ('భూ', 'U'), ('ర', '|'), ('మ', '|'), ('ణ', '|'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('డు', '|'), ('తా', 'U'), ('వ', '|'), ('కా', 'U'), ('ను', '|'), ('చ', '|'), ('రు', '|'), ('డై', 'U'), ('రా', 'U'), ('ణిం', 'U'), ('చు', '|'), ('శి', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('దు', 'U'), ('ష్ట', '|'), ('మ', '|'), ('తి', '|'), ('భ్ర', 'U'), ('ష్ట', '|'), ('మ', '|'), ('దాం', 'U'), ('ధ', '|'), ('శ', '|'), ('త్రు', '|'), ('వు', '|'), ('ల', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('స', '|'), ('మ', '|'), ('ర', 'U'), ('ద్వే', 'U'), ('షు', '|'), ('ల', '|'), ('సం', 'U'), ('గ', '|'), ('రాం', 'U'), ('గ', '|'), ('ణ', '|'), ('ము', '|'), ('న', 'U'), ('న్సా', 'U'), ('ధిం', 'U'), ('చి', '|'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('దా', 'U'), ('గాం', 'U'), ('చి', '|'), ('స', '|'), ('హిం', 'U'), ('చి', '|'), ('చొ', 'U'), ('ప్ప', '|'), ('డు', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ప్రా', 'U'), ('జ్ఞ', '|'), ('త', 'U'), ('ల్గాం', 'U'), ('చు', '|'), ('భూ', 'U'), ('ర', '|'), ('మ', '|'), ('ణ', '|'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('డు', '|'), ('తా', 'U'), ('వ', '|'), ('కా', 'U'), ('ను', '|'), ('చ', '|'), ('రు', '|'), ('డై', 'U'), ('రా', 'U'), ('ణిం', 'U'), ('చు', '|'), ('శి', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('దు', 'U'), ('ష్ట', '|'), ('మ', '|'), ('తి', '|'), ('భ్ర', 'U'), ('ష్ట', '|'), ('మ', '|'), ('దాం', 'U'), ('ధ', '|'), ('శ', '|'), ('త్రు', '|'), ('వు', '|'), ('ల', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[('వి', '|'), ('గ', '|'), ('త', 'U'), ('క్లే', 'U'), ('శు', '|'), ('లు', '|'), ('వీ', 'U'), ('త', '|'), ('కి', 'U'), ('ల్బి', '|'), ('ష', '|'), ('మ', '|'), ('యుల్', 'U'), ('వి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('ని', '|'), ('ధుల్', 'U'), ('ని', '|'), ('గ', '|'), ('మా', 'U'), ('ర్థ', 'U'), ('జ్ఞు', '|'), ('లు', '|'), ('ని', 'U'), ('శ్చ', '|'), ('ల', '|'), ('వ్ర', '|'), ('త', '|'), ('యు', '|'), ('తుల్', 'U'), ('ని', 'U'), ('ర్వ్యా', 'U'), ('జ', '|'), ('ని', 'U'), ('ష్ఠా', 'U'), ('యు', '|'), ('తుల్', 'U'), ('సు', '|'), ('గు', '|'), ('ణుల్', 'U'), ('సూ', 'U'), ('నృ', '|'), ('త', '|'), ('వ', 'U'), ('ర్త', '|'), ('నుల్', 'U'), ('శు', '|'), ('భ', '|'), ('క', '|'), ('రుల్', 'U'), ('శు', 'U'), ('ద్ధాం', 'U'), ('త', '|'), ('రం', 'U'), ('గుల్', 'U'), ('శు', '|'), ('భుల్', 'U'), ('జ', '|'), ('గ', '|'), ('తీ', 'U'), ('మం', 'U'), ('డ', '|'), ('లి', '|'), ('నీ', 'U'), ('దు', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('వి', '|'), ('గ', '|'), ('త', 'U'), ('క్లే', 'U'), ('శు', '|'), ('లు', '|'), ('వీ', 'U'), ('త', '|'), ('కి', 'U'), ('ల్బి', '|'), ('ష', '|'), ('మ', '|'), ('యు', 'U'), ('ల్వి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('ని', '|'), ('ధుల్', 'U'), ('ని', '|'), ('గ', '|'), ('మా', 'U'), ('ర్థ', 'U'), ('జ్ఞు', '|'), ('లు', '|'), ('ని', 'U'), ('శ్చ', '|'), ('ల', '|'), ('వ్ర', '|'), ('త', '|'), ('యు', '|'), ('తు', 'U'), ('ల్ని', 'U'), ('ర్వ్యా', 'U'), ('జ', '|'), ('ని', 'U'), ('ష్ఠా', 'U'), ('యు', '|'), ('తుల్', 'U'), ('సు', '|'), ('గు', '|'), ('ణు', 'U'), ('ల్సూ', 'U'), ('నృ', '|'), ('త', '|'), ('వ', 'U'), ('ర్త', '|'), ('ను', 'U'), ('ల్శు', '|'), ('భ', '|'), ('క', '|'), ('రు', 'U'), ('ల్శు', 'U'), ('ద్ధాం', 'U'), ('త', '|'), ('రం', 'U'), ('గు', 'U'), ('ల్శు', '|'), ('భుల్', 'U'), ('జ', '|'), ('గ', '|'), ('తీ', 'U'), ('మం', 'U'), ('డ', '|'), ('లి', '|'), ('నీ', 'U'), ('దు', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[('దీ', 'U'), ('ను', 'U'), ('ల్గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('నీ', 'U'), ('దు', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('గు', '|'), ('ణా', 'U'), ('ధి', 'U'), ('క్యం', 'U'), ('బు', '|'), ('రా', 'U'), ('ణిం', 'U'), ('చు', '|'), ('నౌ', 'U'), ('దీ', 'U'), ('నుం', 'U'), ('డె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('లే', 'U'), ('డు', '|'), ('నీ', 'U'), ('దు', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('దృ', 'U'), ('ష్టిన్', 'U'), ('గృ', '|'), ('తా', 'U'), ('ర్థుల్', 'U'), ('జు', '|'), ('మీ', 'U'), ('నే', 'U'), ('నే', 'U'), ('దీ', 'U'), ('ను', '|'), ('డ', '|'), ('న', 'U'), ('న్ను', '|'), ('బ్రో', 'U'), ('వు', '|'), ('శ', '|'), ('ర', '|'), ('ణం', 'U'), ('టిం', 'U'), ('ద్వ', 'U'), ('న్ము', '|'), ('ఖో', 'U'), ('దీ', 'U'), ('ర్ణ', '|'), ('సు', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('శ్రీ', 'U'), ('క', '|'), ('ర', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('న', 'U'), ('మ్మి', '|'), ('తి', '|'), ('ని', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('దీ', 'U'), ('ను', 'U'), ('ల్గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('నీ', 'U'), ('దు', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('గు', '|'), ('ణా', 'U'), ('ధి', 'U'), ('క్యం', 'U'), ('బు', '|'), ('రా', 'U'), ('ణిం', 'U'), ('చు', '|'), ('నౌ', 'U'), ('దీ', 'U'), ('నుం', 'U'), ('డె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('లే', 'U'), ('డు', '|'), ('నీ', 'U'), ('దు', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('దృ', 'U'), ('ష్టి', 'U'), ('న్గృ', '|'), ('తా', 'U'), ('ర్థు', 'U'), ('ల్జు', '|'), ('మీ', 'U'), ('నే', 'U'), ('నే', 'U'), ('దీ', 'U'), ('ను', '|'), ('డ', '|'), ('న', 'U'), ('న్ను', '|'), ('బ్రో', 'U'), ('వు', '|'), ('శ', '|'), ('ర', '|'), ('ణం', 'U'), ('టిం', 'U'), ('ద్వ', 'U'), ('న్ము', '|'), ('ఖో', 'U'), ('దీ', 'U'), ('ర్ణ', '|'), ('సు', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('శ్రీ', 'U'), ('క', '|'), ('ర', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('న', 'U'), ('మ్మి', '|'), ('తి', '|'), ('ని', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ను', '|'), ('కూ', 'U'), ('లా', 'U'), ('న్వి', '|'), ('త', '|'), ('యై', 'U'), ('న', '|'), ('భా', 'U'), ('ర్య', '|'), ('యు', '|'), ('ను', '|'), ('ధ', 'U'), ('ర్మా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('నై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('లున్', 'U'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('లై', 'U'), ('న', '|'), ('సో', 'U'), ('ద', '|'), ('రు', '|'), ('లు', '|'), ('యె', 'U'), ('న్నం', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('సం', 'U'), ('ప', 'U'), ('త్క్రి', '|'), ('యా', 'U'), ('ఘ', '|'), ('ను', '|'), ('డై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('మ', '|'), ('హా', 'U'), ('ను', '|'), ('భా', 'U'), ('వు', '|'), ('డె', '|'), ('భ', '|'), ('వ', 'U'), ('త్కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('దృ', 'U'), ('గ్జా', 'U'), ('ల', '|'), ('భా', 'U'), ('జ', '|'), ('ను', '|'), ('డ', 'U'), ('ప్పు', 'U'), ('ణ్యు', '|'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('నన్', 'U'), ('శు', '|'), ('భ', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('అ', '|'), ('ను', '|'), ('కూ', 'U'), ('లా', 'U'), ('న్వి', '|'), ('త', '|'), ('యై', 'U'), ('న', '|'), ('భా', 'U'), ('ర్య', '|'), ('యు', '|'), ('ను', '|'), ('ధ', 'U'), ('ర్మా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('నై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('లు', 'U'), ('న్స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('లై', 'U'), ('న', '|'), ('సో', 'U'), ('ద', '|'), ('రు', '|'), ('లు', '|'), ('యె', 'U'), ('న్నం', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('సం', 'U'), ('ప', 'U'), ('త్క్రి', '|'), ('యా', 'U'), ('ఘ', '|'), ('ను', '|'), ('డై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('మ', '|'), ('హా', 'U'), ('ను', '|'), ('భా', 'U'), ('వు', '|'), ('డె', '|'), ('భ', '|'), ('వ', 'U'), ('త్కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('దృ', 'U'), ('గ్జా', 'U'), ('ల', '|'), ('భా', 'U'), ('జ', '|'), ('ను', '|'), ('డ', 'U'), ('ప్పు', 'U'), ('ణ్యు', '|'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('న', 'U'), ('న్శు', '|'), ('భ', '|'), ('ము', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[('శ', '|'), ('ర', '|'), ('ణా', 'U'), ('గ', 'U'), ('త్య', '|'), ('ను', '|'), ('ర', 'U'), ('క్తి', '|'), ('భ', 'U'), ('క్తి', '|'), ('జ', '|'), ('న', '|'), ('ర', 'U'), ('క్షా', 'U'), ('స', 'U'), ('త్కృ', '|'), ('పా', 'U'), ('సే', 'U'), ('వ్య', '|'), ('స', 'U'), ('త్క', '|'), ('రు', '|'), ('ణా', 'U'), ('పూ', 'U'), ('ర', '|'), ('సు', '|'), ('ధా', 'U'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('శృం', 'U'), ('గా', 'U'), ('రం', 'U'), ('బు', '|'), ('మీ', 'U'), ('మూ', 'U'), ('ర్తి', '|'), ('యుం', 'U'), ('ద', '|'), ('ర', '|'), ('ణో', 'U'), ('పా', 'U'), ('య', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('ని', '|'), ('క', '|'), ('లు', '|'), ('షా', 'U'), ('ధా', 'U'), ('రున్', 'U'), ('న', '|'), ('నుం', 'U'), ('దా', 'U'), ('వ', '|'), ('క', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('ని', '|'), ('జే', 'U'), ('యు', '|'), ('మ్రొ', 'U'), ('క్కె', '|'), ('ద', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('శ', '|'), ('ర', '|'), ('ణా', 'U'), ('గ', 'U'), ('త్య', '|'), ('ను', '|'), ('ర', 'U'), ('క్తి', '|'), ('భ', 'U'), ('క్తి', '|'), ('జ', '|'), ('న', '|'), ('ర', 'U'), ('క్షా', 'U'), ('స', 'U'), ('త్కృ', '|'), ('పా', 'U'), ('సే', 'U'), ('వ్య', '|'), ('స', 'U'), ('త్క', '|'), ('రు', '|'), ('ణా', 'U'), ('పూ', 'U'), ('ర', '|'), ('సు', '|'), ('ధా', 'U'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('శృం', 'U'), ('గా', 'U'), ('రం', 'U'), ('బు', '|'), ('మీ', 'U'), ('మూ', 'U'), ('ర్తి', '|'), ('యుం', 'U'), ('ద', '|'), ('ర', '|'), ('ణో', 'U'), ('పా', 'U'), ('య', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('ని', '|'), ('క', '|'), ('లు', '|'), ('షా', 'U'), ('ధా', 'U'), ('రు', 'U'), ('న్న', '|'), ('నుం', 'U'), ('దా', 'U'), ('వ', '|'), ('క', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('ని', '|'), ('జే', 'U'), ('యు', '|'), ('మ్రొ', 'U'), ('క్కె', '|'), ('ద', '|'), ('ను', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[('ప్ర', '|'), ('ల', '|'), ('యా', 'U'), ('భీ', 'U'), ('ల', '|'), ('క', '|'), ('రా', 'U'), ('ళ', '|'), ('దా', 'U'), ('వ', '|'), ('ద', '|'), ('హ', '|'), ('న', '|'), ('ప్ర', 'U'), ('జ్జ్వా', 'U'), ('ల', '|'), ('మ', 'U'), ('బ్జో', 'U'), ('ద', '|'), ('రా', 'U'), ('జ్వ', '|'), ('ల', '|'), ('నా', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('దా', 'U'), ('ల్ప', '|'), ('దా', 'U'), ('ని', '|'), ('యె', '|'), ('దు', '|'), ('టన్', 'U'), ('సం', 'U'), ('త', 'U'), ('ప్త', '|'), ('సం', 'U'), ('తా', 'U'), ('ప', '|'), ('వాం', 'U'), ('ఛ', '|'), ('లు', '|'), ('ది', 'U'), ('వ్యు', 'U'), ('ల్ము', '|'), ('ను', '|'), ('లుం', 'U'), ('గృ', '|'), ('శా', 'U'), ('స్యు', '|'), ('ల', '|'), ('గు', '|'), ('చుం', 'U'), ('జ', 'U'), ('ల్లా', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('లే', 'U'), ('క', '|'), ('ని', 'U'), ('చ్చ', '|'), ('లు', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('లే', 'U'), ('భ', '|'), ('జిం', 'U'), ('చె', '|'), ('ద', '|'), ('రు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('ప్ర', '|'), ('ల', '|'), ('యా', 'U'), ('భీ', 'U'), ('ల', '|'), ('క', '|'), ('రా', 'U'), ('ళ', '|'), ('దా', 'U'), ('వ', '|'), ('ద', '|'), ('హ', '|'), ('న', '|'), ('ప్ర', 'U'), ('జ్జ్వా', 'U'), ('ల', '|'), ('మ', 'U'), ('బ్జో', 'U'), ('ద', '|'), ('రా', 'U'), ('జ్వ', '|'), ('ల', '|'), ('నా', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('దా', 'U'), ('ల్ప', '|'), ('దా', 'U'), ('ని', '|'), ('యె', '|'), ('దు', '|'), ('ట', 'U'), ('న్సం', 'U'), ('త', 'U'), ('ప్త', '|'), ('సం', 'U'), ('తా', 'U'), ('ప', '|'), ('వాం', 'U'), ('ఛ', '|'), ('లు', '|'), ('ది', 'U'), ('వ్యు', 'U'), ('ల్ము', '|'), ('ను', '|'), ('లుం', 'U'), ('గృ', '|'), ('శా', 'U'), ('స్యు', '|'), ('ల', '|'), ('గు', '|'), ('చుం', 'U'), ('జ', 'U'), ('ల్లా', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('లే', 'U'), ('క', '|'), ('ని', 'U'), ('చ్చ', '|'), ('లు', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('లే', 'U'), ('భ', '|'), ('జిం', 'U'), ('చె', '|'), ('ద', '|'), ('రు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[('మొ', '|'), ('ఱ', '|'), ('యా', 'U'), ('లిం', 'U'), ('ప', '|'), ('వొ', '|'), ('మా', 'U'), ('న', '|'), ('ము', 'U'), ('న్ని', '|'), ('లు', '|'), ('ప', '|'), ('వో', 'U'), ('ము', 'U'), ('ల్లో', 'U'), ('క', '|'), ('మే', 'U'), ('లిం', 'U'), ('ప', '|'), ('వో', 'U'), ('మ', '|'), ('ఱ', '|'), ('దీ', 'U'), ('యం', 'U'), ('చు', '|'), ('ను', '|'), ('వెం', 'U'), ('ట', '|'), ('నే', 'U'), ('తి', '|'), ('రు', '|'), ('గ', '|'), ('వో', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('ప', '|'), ('వో', 'U'), ('యం', 'U'), ('దు', '|'), ('మో', 'U'), ('క', '|'), ('రి', '|'), ('నో', 'U'), ('ద్రౌ', 'U'), ('ప', '|'), ('ది', '|'), ('నో', 'U'), ('సు', '|'), ('రా', 'U'), ('ధి', '|'), ('ప', '|'), ('తి', '|'), ('నో', 'U'), ('గాం', 'U'), ('డీ', 'U'), ('వి', '|'), ('నో', 'U'), ('యె', 'U'), ('వ్వ', '|'), ('డన్', 'U'), ('ధ', '|'), ('ర', '|'), ('నిన్', 'U'), ('గొ', 'U'), ('ల్చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('లో', 'U'), ('నొ', '|'), ('క', '|'), ('డ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('మొ', '|'), ('ఱ', '|'), ('యా', 'U'), ('లిం', 'U'), ('ప', '|'), ('వొ', '|'), ('మా', 'U'), ('న', '|'), ('ము', 'U'), ('న్ని', '|'), ('లు', '|'), ('ప', '|'), ('వో', 'U'), ('ము', 'U'), ('ల్లో', 'U'), ('క', '|'), ('మే', 'U'), ('లిం', 'U'), ('ప', '|'), ('వో', 'U'), ('మ', '|'), ('ఱ', '|'), ('దీ', 'U'), ('యం', 'U'), ('చు', '|'), ('ను', '|'), ('వెం', 'U'), ('ట', '|'), ('నే', 'U'), ('తి', '|'), ('రు', '|'), ('గ', '|'), ('వో', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('ప', '|'), ('వో', 'U'), ('యం', 'U'), ('దు', '|'), ('మో', 'U'), ('క', '|'), ('రి', '|'), ('నో', 'U'), ('ద్రౌ', 'U'), ('ప', '|'), ('ది', '|'), ('నో', 'U'), ('సు', '|'), ('రా', 'U'), ('ధి', '|'), ('ప', '|'), ('తి', '|'), ('నో', 'U'), ('గాం', 'U'), ('డీ', 'U'), ('వి', '|'), ('నో', 'U'), ('యె', 'U'), ('వ్వ', '|'), ('డన్', 'U'), ('ధ', '|'), ('ర', '|'), ('ని', 'U'), ('న్గొ', 'U'), ('ల్చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('లో', 'U'), ('నొ', '|'), ('క', '|'), ('డ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[('కు', '|'), ('లి', '|'), ('శా', 'U'), ('నే', 'U'), ('క', '|'), ('స', '|'), ('హ', '|'), ('స్ర', '|'), ('కో', 'U'), ('టి', '|'), ('ని', '|'), ('శి', '|'), ('త', '|'), ('క్రూ', 'U'), ('రో', 'U'), ('రు', '|'), ('ధా', 'U'), ('రా', 'U'), ('ము', '|'), ('ఖా', 'U'), ('క', '|'), ('లి', '|'), ('తా', 'U'), ('ర్చి', '|'), ('ప్ర', '|'), ('భ', '|'), ('వ', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('త్రి', '|'), ('జ', '|'), ('గ', 'U'), ('త్క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('సం', 'U'), ('ధా', 'U'), ('యి', '|'), ('యై', 'U'), ('వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లున్', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('చ', '|'), ('క్ర', '|'), ('మ', '|'), ('ఖి', '|'), ('లో', 'U'), ('ర్వీ', 'U'), ('భా', 'U'), ('ర', '|'), ('ని', 'U'), ('ర్వా', 'U'), ('ప', '|'), ('ణో', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('ని', 'U'), ('ర్వా', 'U'), ('హ', '|'), ('ప', '|'), ('రా', 'U'), ('క్ర', '|'), ('మ', '|'), ('క్ర', '|'), ('మ', '|'), ('ణ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('కు', '|'), ('లి', '|'), ('శా', 'U'), ('నే', 'U'), ('క', '|'), ('స', '|'), ('హ', '|'), ('స్ర', '|'), ('కో', 'U'), ('టి', '|'), ('ని', '|'), ('శి', '|'), ('త', '|'), ('క్రూ', 'U'), ('రో', 'U'), ('రు', '|'), ('ధా', 'U'), ('రా', 'U'), ('ము', '|'), ('ఖా', 'U'), ('క', '|'), ('లి', '|'), ('తా', 'U'), ('ర్చి', '|'), ('ప్ర', '|'), ('భ', '|'), ('వ', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('త్రి', '|'), ('జ', '|'), ('గ', 'U'), ('త్క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('సం', 'U'), ('ధా', 'U'), ('యి', '|'), ('యై', 'U'), ('వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లు', 'U'), ('న్భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('చ', '|'), ('క్ర', '|'), ('మ', '|'), ('ఖి', '|'), ('లో', 'U'), ('ర్వీ', 'U'), ('భా', 'U'), ('ర', '|'), ('ని', 'U'), ('ర్వా', 'U'), ('ప', '|'), ('ణో', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('ని', 'U'), ('ర్వా', 'U'), ('హ', '|'), ('ప', '|'), ('రా', 'U'), ('క్ర', '|'), ('మ', '|'), ('క్ర', '|'), ('మ', '|'), ('ణ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('తి', '|'), ('కా', 'U'), ('కో', 'U'), ('ల', '|'), ('క', '|'), ('రా', 'U'), ('ళ', '|'), ('కా', 'U'), ('య', '|'), ('క', '|'), ('క', '|'), ('ఠో', 'U'), ('రా', 'U'), ('శీ', 'U'), ('వి', '|'), ('షా', 'U'), ('వి', 'U'), ('ర్భ', '|'), ('వ', 'U'), ('క్ష', '|'), ('తి', '|'), ('నో', 'U'), ('నా', 'U'), ('టి', '|'), ('న', '|'), ('నా', 'U'), ('టి', '|'), ('పా', 'U'), ('టు', '|'), ('త', '|'), ('ల', '|'), ('పన్', 'U'), ('శం', 'U'), ('కిం', 'U'), ('చి', '|'), ('యుం', 'U'), ('కిం', 'U'), ('చె', '|'), ('దౌ', 'U'), ('స', '|'), ('త', '|'), ('తో', 'U'), ('ద్వ', 'U'), ('ర్తు', '|'), ('ల', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('స', 'U'), ('ర్వ', '|'), ('భ', '|'), ('య', '|'), ('దాం', 'U'), ('చ', 'U'), ('త్పిం', 'U'), ('ఛ', '|'), ('చూ', 'U'), ('డా', 'U'), ('వ', '|'), ('తం', 'U'), ('స', '|'), ('త', '|'), ('తం', 'U'), ('గా', 'U'), ('రు', '|'), ('డ', '|'), ('కే', 'U'), ('త', '|'), ('నో', 'U'), ('ద్ధృ', '|'), ('తి', '|'), ('యు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('అ', '|'), ('తి', '|'), ('కా', 'U'), ('కో', 'U'), ('ల', '|'), ('క', '|'), ('రా', 'U'), ('ళ', '|'), ('కా', 'U'), ('య', '|'), ('క', '|'), ('క', '|'), ('ఠో', 'U'), ('రా', 'U'), ('శీ', 'U'), ('వి', '|'), ('షా', 'U'), ('వి', 'U'), ('ర్భ', '|'), ('వ', 'U'), ('క్ష', '|'), ('తి', '|'), ('నో', 'U'), ('నా', 'U'), ('టి', '|'), ('న', '|'), ('నా', 'U'), ('టి', '|'), ('పా', 'U'), ('టు', '|'), ('త', '|'), ('ల', '|'), ('ప', 'U'), ('న్శం', 'U'), ('కిం', 'U'), ('చి', '|'), ('యుం', 'U'), ('కిం', 'U'), ('చె', '|'), ('దౌ', 'U'), ('స', '|'), ('త', '|'), ('తో', 'U'), ('ద్వ', 'U'), ('ర్తు', '|'), ('ల', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('స', 'U'), ('ర్వ', '|'), ('భ', '|'), ('య', '|'), ('దాం', 'U'), ('చ', 'U'), ('త్పిం', 'U'), ('ఛ', '|'), ('చూ', 'U'), ('డా', 'U'), ('వ', '|'), ('తం', 'U'), ('స', '|'), ('త', '|'), ('తం', 'U'), ('గా', 'U'), ('రు', '|'), ('డ', '|'), ('కే', 'U'), ('త', '|'), ('నో', 'U'), ('ద్ధృ', '|'), ('తి', '|'), ('యు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[('న', '|'), ('క్రో', 'U'), ('ద', '|'), ('గ్ర', '|'), ('త', '|'), ('బ్రా', 'U'), ('ణ', '|'), ('వా', 'U'), ('యు', '|'), ('వు', '|'), ('లు', '|'), ('మే', 'U'), ('న', 'U'), ('న్ని', 'U'), ('ల్వ', '|'), ('గా', 'U'), ('నో', 'U'), ('ప', '|'), ('వో', 'U'), ('చ', '|'), ('క్రీ', 'U'), ('నన్', 'U'), ('ద', '|'), ('య', '|'), ('గా', 'U'), ('వు', '|'), ('మ', 'U'), ('న్న', '|'), ('క', '|'), ('రు', '|'), ('ణన్', 'U'), ('జా', 'U'), ('జ్జ్వ', 'U'), ('ల్య', '|'), ('చ', '|'), ('క్రం', 'U'), ('బు', '|'), ('చే', 'U'), ('న', '|'), ('క్రం', 'U'), ('బుం', 'U'), ('దె', '|'), ('గ', '|'), ('జూ', 'U'), ('చి', '|'), ('కా', 'U'), ('చి', '|'), ('తి', '|'), ('గ', '|'), ('దా', 'U'), ('నా', 'U'), ('గం', 'U'), ('బు', '|'), ('వే', 'U'), ('గం', 'U'), ('బు', '|'), ('నన్', 'U'), ('శ', '|'), ('క్రా', 'U'), ('ద్యా', 'U'), ('మ', '|'), ('ర', '|'), ('వం', 'U'), ('ది', '|'), ('తాం', 'U'), ('ఘ్రి', '|'), ('యు', '|'), ('గ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('న', '|'), ('క్రో', 'U'), ('ద', '|'), ('గ్ర', '|'), ('త', '|'), ('బ్రా', 'U'), ('ణ', '|'), ('వా', 'U'), ('యు', '|'), ('వు', '|'), ('లు', '|'), ('మే', 'U'), ('న', 'U'), ('న్ని', 'U'), ('ల్వ', '|'), ('గా', 'U'), ('నో', 'U'), ('ప', '|'), ('వో', 'U'), ('చ', '|'), ('క్రీ', 'U'), ('న', 'U'), ('న్ద', '|'), ('య', '|'), ('గా', 'U'), ('వు', '|'), ('మ', 'U'), ('న్న', '|'), ('క', '|'), ('రు', '|'), ('ణ', 'U'), ('న్జా', 'U'), ('జ్జ్వ', 'U'), ('ల్య', '|'), ('చ', '|'), ('క్రం', 'U'), ('బు', '|'), ('చే', 'U'), ('న', '|'), ('క్రం', 'U'), ('బుం', 'U'), ('దె', '|'), ('గ', '|'), ('జూ', 'U'), ('చి', '|'), ('కా', 'U'), ('చి', '|'), ('తి', '|'), ('గ', '|'), ('దా', 'U'), ('నా', 'U'), ('గం', 'U'), ('బు', '|'), ('వే', 'U'), ('గం', 'U'), ('బు', '|'), ('నన్', 'U'), ('శ', '|'), ('క్రా', 'U'), ('ద్యా', 'U'), ('మ', '|'), ('ర', '|'), ('వం', 'U'), ('ది', '|'), ('తాం', 'U'), ('ఘ్రి', '|'), ('యు', '|'), ('గ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('రి', '|'), ('నే', 'U'), ('లిం', 'U'), ('ది', '|'), ('హు', '|'), ('ళ', 'U'), ('క్కి', '|'), ('ద్రౌ', 'U'), ('ప', '|'), ('ది', '|'), ('కి', '|'), ('కో', 'U'), ('కల్', 'U'), ('మె', 'U'), ('చ్చి', '|'), ('యి', 'U'), ('చ్చిం', 'U'), ('ది', '|'), ('ద', 'U'), ('బ్బ', '|'), ('ర', '|'), ('కా', 'U'), ('కా', 'U'), ('సు', '|'), ('రు', '|'), ('నిం', 'U'), ('గ', '|'), ('టా', 'U'), ('క్ష', '|'), ('ము', '|'), ('న', '|'), ('జే', 'U'), ('ప', 'U'), ('ట్టిం', 'U'), ('ద', '|'), ('బ', 'U'), ('ద్ధం', 'U'), ('బ', '|'), ('హో', 'U'), ('శ', '|'), ('ర', '|'), ('ణ', 'U'), ('న్న', '|'), ('బ', '|'), ('గ', '|'), ('వా', 'U'), ('ని', '|'), ('త', 'U'), ('మ్ము', '|'), ('ని', '|'), ('కి', '|'), ('రా', 'U'), ('జ్యం', 'U'), ('బి', 'U'), ('చ్చు', '|'), ('ట', 'U'), ('ల్క', 'U'), ('ల్ల', '|'), ('యి', 'U'), ('త్త', '|'), ('ఱి', '|'), ('న', 'U'), ('న్నే', 'U'), ('లి', '|'), ('న', '|'), ('ని', 'U'), ('క్క', '|'), ('మీ', 'U'), ('క', '|'), ('థ', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
+          <t>[('క', '|'), ('రి', '|'), ('నే', 'U'), ('లిం', 'U'), ('ది', '|'), ('హు', '|'), ('ళ', 'U'), ('క్కి', '|'), ('ద్రౌ', 'U'), ('ప', '|'), ('ది', '|'), ('కి', '|'), ('కో', 'U'), ('క', 'U'), ('ల్మె', 'U'), ('చ్చి', '|'), ('యి', 'U'), ('చ్చిం', 'U'), ('ది', '|'), ('ద', 'U'), ('బ్బ', '|'), ('ర', '|'), ('కా', 'U'), ('కా', 'U'), ('సు', '|'), ('రు', '|'), ('నిం', 'U'), ('గ', '|'), ('టా', 'U'), ('క్ష', '|'), ('ము', '|'), ('న', '|'), ('జే', 'U'), ('ప', 'U'), ('ట్టిం', 'U'), ('ద', '|'), ('బ', 'U'), ('ద్ధం', 'U'), ('బ', '|'), ('హో', 'U'), ('శ', '|'), ('ర', '|'), ('ణ', 'U'), ('న్న', '|'), ('బ', '|'), ('గ', '|'), ('వా', 'U'), ('ని', '|'), ('త', 'U'), ('మ్ము', '|'), ('ని', '|'), ('కి', '|'), ('రా', 'U'), ('జ్యం', 'U'), ('బి', 'U'), ('చ్చు', '|'), ('ట', 'U'), ('ల్క', 'U'), ('ల్ల', '|'), ('యి', 'U'), ('త్త', '|'), ('ఱి', '|'), ('న', 'U'), ('న్నే', 'U'), ('లి', '|'), ('న', '|'), ('ని', 'U'), ('క్క', '|'), ('మీ', 'U'), ('క', '|'), ('థ', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('నం', 'U'), ('ద', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[('ఈ', 'U'), ('కృ', 'U'), ('ష్ణ', '|'), ('శ', '|'), ('త', '|'), ('క', '|'), ('మె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('పై', 'U'), ('కొ', '|'), ('ని', '|'), ('వి', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('రు', '|'), ('వ్రా', 'U'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('రల్', 'U'), ('చే', 'U'), ('కొ', '|'), ('ని', '|'), ('ప', '|'), ('ఠిం', 'U'), ('చు', '|'), ('వా', 'U'), ('ర', '|'), ('లు', '|'), ('శ్రీ', 'U'), ('కృ', 'U'), ('ష్ణు', '|'), ('ని', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('క', '|'), ('లి', '|'), ('గి', '|'), ('చె', '|'), ('ల', '|'), ('గు', '|'), ('దు', '|'), ('రె', '|'), ('ల', '|'), ('మి', '|')]</t>
+          <t>[('ఈ', 'U'), ('కృ', 'U'), ('ష్ణ', '|'), ('శ', '|'), ('త', '|'), ('క', '|'), ('మె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('పై', 'U'), ('కొ', '|'), ('ని', '|'), ('వి', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('రు', '|'), ('వ్రా', 'U'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('రల్', 'U'), ('చే', 'U'), ('కొ', '|'), ('ని', '|'), ('ప', '|'), ('ఠిం', 'U'), ('చు', '|'), ('వా', 'U'), ('ర', '|'), ('లు', '|'), ('శ్రీ', 'U'), ('కృ', 'U'), ('ష్ణు', '|'), ('ని', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('క', '|'), ('లి', '|'), ('గి', '|'), ('చె', '|'), ('ల', '|'), ('గు', '|'), ('దు', '|'), ('రె', '|'), ('ల', '|'), ('మిన్', 'U')]</t>
         </is>
       </c>
     </row>
